--- a/resources/excels/GA.xlsx
+++ b/resources/excels/GA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\resources\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73BD5C3-2408-B940-A133-9BD9AEED1CAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="9080" firstSheet="5" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="35835" windowHeight="9075" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2855" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2872" uniqueCount="707">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2133,13 +2132,49 @@
   </si>
   <si>
     <t>cs-am-service/v1/profile.result.wallet[0].balance</t>
+  </si>
+  <si>
+    <t>UC-UT Offer</t>
+  </si>
+  <si>
+    <t>Offer ID</t>
+  </si>
+  <si>
+    <t>Offer Name</t>
+  </si>
+  <si>
+    <t>Product ID</t>
+  </si>
+  <si>
+    <t>PAM Service ID</t>
+  </si>
+  <si>
+    <t>Offer Type</t>
+  </si>
+  <si>
+    <t>Offer State</t>
+  </si>
+  <si>
+    <t>No. Of DAs</t>
+  </si>
+  <si>
+    <t>Friends and Family</t>
+  </si>
+  <si>
+    <t>FnF Number</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>FnF Indicator</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2376,9 +2411,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 4" xfId="3"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2434,7 +2469,7 @@
         <xdr:cNvPr id="9217" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001240000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000001240000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2482,7 +2517,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2525,7 +2560,7 @@
         <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2854,23 +2889,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="14.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2924,7 +2959,7 @@
       </c>
       <c r="R1" s="7"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2396518</v>
       </c>
@@ -2978,7 +3013,7 @@
       </c>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2394650</v>
       </c>
@@ -3029,7 +3064,7 @@
       </c>
       <c r="R3" s="7"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2390932</v>
       </c>
@@ -3050,7 +3085,7 @@
       </c>
       <c r="R4" s="7"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2396518</v>
       </c>
@@ -3078,7 +3113,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -3088,14 +3123,14 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>65</v>
       </c>
@@ -3106,7 +3141,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -3114,7 +3149,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -3122,7 +3157,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -3130,7 +3165,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -3138,7 +3173,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -3156,20 +3191,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J13" activeCellId="1" sqref="I1 J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.83203125" style="10" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="30.875" style="10" customWidth="1" collapsed="1"/>
     <col min="2" max="16384" width="9" style="10" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>177</v>
       </c>
@@ -3177,7 +3212,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>175</v>
       </c>
@@ -3185,7 +3220,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>173</v>
       </c>
@@ -3193,7 +3228,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>171</v>
       </c>
@@ -3201,17 +3236,17 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>167</v>
       </c>
@@ -3222,22 +3257,22 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.1640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.1640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>136</v>
       </c>
@@ -3260,30 +3295,30 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="8" customWidth="1"/>
     <col min="5" max="5" width="11.5" style="8" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="8" customWidth="1"/>
     <col min="7" max="7" width="10" style="8" customWidth="1"/>
     <col min="8" max="8" width="11" style="8" customWidth="1"/>
-    <col min="9" max="10" width="10.1640625" style="8" customWidth="1"/>
+    <col min="9" max="10" width="10.125" style="8" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="8" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" style="8" customWidth="1"/>
-    <col min="13" max="13" width="11.83203125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="11.625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="11.875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>141</v>
       </c>
@@ -3326,7 +3361,7 @@
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
     </row>
-    <row r="2" spans="1:15" ht="42">
+    <row r="2" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>642</v>
       </c>
@@ -3361,21 +3396,21 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>157</v>
       </c>
@@ -3408,7 +3443,7 @@
       </c>
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>158</v>
       </c>
@@ -3429,7 +3464,7 @@
       </c>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" ht="17">
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>611</v>
       </c>
@@ -3449,7 +3484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>644</v>
       </c>
@@ -3466,7 +3501,7 @@
       </c>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>645</v>
       </c>
@@ -3483,7 +3518,7 @@
       </c>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>646</v>
       </c>
@@ -3500,7 +3535,7 @@
       </c>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>647</v>
       </c>
@@ -3517,7 +3552,7 @@
       </c>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>648</v>
       </c>
@@ -3534,7 +3569,7 @@
       </c>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>649</v>
       </c>
@@ -3551,7 +3586,7 @@
       </c>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>650</v>
       </c>
@@ -3568,7 +3603,7 @@
       </c>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>651</v>
       </c>
@@ -3585,7 +3620,7 @@
       </c>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>652</v>
       </c>
@@ -3602,7 +3637,7 @@
       </c>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>653</v>
       </c>
@@ -3626,23 +3661,23 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="19.125" style="13" customWidth="1"/>
     <col min="2" max="2" width="9" style="13"/>
-    <col min="3" max="3" width="13.83203125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="13" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="13" customWidth="1"/>
     <col min="5" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>178</v>
       </c>
@@ -3677,7 +3712,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>222</v>
       </c>
@@ -3698,7 +3733,7 @@
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
     </row>
-    <row r="3" spans="1:11" ht="16">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>217</v>
       </c>
@@ -3719,7 +3754,7 @@
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
     </row>
-    <row r="4" spans="1:11" ht="16">
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>223</v>
       </c>
@@ -3740,7 +3775,7 @@
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
     </row>
-    <row r="5" spans="1:11" ht="16">
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>216</v>
       </c>
@@ -3761,7 +3796,7 @@
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
     </row>
-    <row r="6" spans="1:11" ht="16">
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>224</v>
       </c>
@@ -3782,7 +3817,7 @@
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
     </row>
-    <row r="7" spans="1:11" ht="16">
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>124</v>
       </c>
@@ -3803,7 +3838,7 @@
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
     </row>
-    <row r="8" spans="1:11" ht="16">
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>227</v>
       </c>
@@ -3824,7 +3859,7 @@
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="1:11" ht="16">
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>229</v>
       </c>
@@ -3845,7 +3880,7 @@
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
     </row>
-    <row r="10" spans="1:11" ht="16">
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>230</v>
       </c>
@@ -3866,7 +3901,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:11" ht="16">
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>225</v>
       </c>
@@ -3887,7 +3922,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="1:11" ht="16">
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>42</v>
       </c>
@@ -3908,7 +3943,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="1:11" ht="16">
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>228</v>
       </c>
@@ -3936,16 +3971,16 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E729A867-3A66-0F44-88DE-E627BFFD58A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>139</v>
       </c>
@@ -3956,7 +3991,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>222</v>
       </c>
@@ -3967,7 +4002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>217</v>
       </c>
@@ -3978,7 +4013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>223</v>
       </c>
@@ -3995,22 +4030,22 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9DF126-A788-2147-9D02-9EC0A4BE7815}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="36.375" style="8" customWidth="1"/>
     <col min="2" max="2" width="47.5" style="8" customWidth="1"/>
-    <col min="3" max="3" width="58.1640625" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="8"/>
+    <col min="3" max="3" width="58.125" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="10.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>655</v>
       </c>
@@ -4021,7 +4056,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>658</v>
       </c>
@@ -4032,7 +4067,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="34">
+    <row r="3" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>238</v>
       </c>
@@ -4043,7 +4078,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>663</v>
       </c>
@@ -4054,7 +4089,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>666</v>
       </c>
@@ -4065,7 +4100,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>669</v>
       </c>
@@ -4074,7 +4109,7 @@
       </c>
       <c r="C6" s="38"/>
     </row>
-    <row r="7" spans="1:3" ht="17">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>237</v>
       </c>
@@ -4085,7 +4120,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>673</v>
       </c>
@@ -4096,7 +4131,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>676</v>
       </c>
@@ -4107,7 +4142,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>679</v>
       </c>
@@ -4118,7 +4153,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>682</v>
       </c>
@@ -4129,7 +4164,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>685</v>
       </c>
@@ -4140,7 +4175,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
         <v>688</v>
       </c>
@@ -4149,7 +4184,7 @@
       </c>
       <c r="C13" s="38"/>
     </row>
-    <row r="14" spans="1:3" ht="17">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>690</v>
       </c>
@@ -4158,7 +4193,7 @@
       </c>
       <c r="C14" s="38"/>
     </row>
-    <row r="15" spans="1:3" ht="17">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>692</v>
       </c>
@@ -4175,49 +4210,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="16.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>116</v>
       </c>
@@ -4228,27 +4263,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="21.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>74</v>
       </c>
@@ -4289,7 +4324,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="34">
+    <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -4316,7 +4351,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>86</v>
       </c>
@@ -4343,7 +4378,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="17">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>91</v>
       </c>
@@ -4370,7 +4405,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>108</v>
       </c>
@@ -4403,7 +4438,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>109</v>
       </c>
@@ -4428,7 +4463,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>110</v>
       </c>
@@ -4453,7 +4488,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>111</v>
       </c>
@@ -4480,7 +4515,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>107</v>
       </c>
@@ -4507,7 +4542,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>565</v>
       </c>
@@ -4534,7 +4569,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>570</v>
       </c>
@@ -4561,7 +4596,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>576</v>
       </c>
@@ -4592,7 +4627,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>584</v>
       </c>
@@ -4617,7 +4652,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" ht="34">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>588</v>
       </c>
@@ -4654,7 +4689,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
         <v>593</v>
       </c>
@@ -4685,7 +4720,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>597</v>
       </c>
@@ -4710,7 +4745,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" s="7" customFormat="1">
+    <row r="17" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>604</v>
       </c>
@@ -4735,7 +4770,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>619</v>
       </c>
@@ -4762,7 +4797,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" ht="51">
+    <row r="19" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>624</v>
       </c>
@@ -4803,7 +4838,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>629</v>
       </c>
@@ -4831,6 +4866,70 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4841,42 +4940,42 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="26" width="23.83203125" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="9.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="26" width="23.875" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="19" customHeight="1">
+    <row r="1" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -5055,7 +5154,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:59" ht="19" customHeight="1">
+    <row r="2" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>129</v>
       </c>
@@ -5159,22 +5258,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="4" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -5194,7 +5293,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>129</v>
       </c>
@@ -5220,21 +5319,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG793"/>
   <sheetViews>
     <sheetView topLeftCell="AP1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AV1" sqref="AV1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="21" max="26" width="9" style="7" collapsed="1"/>
-    <col min="48" max="48" width="18.6640625" customWidth="1"/>
-    <col min="50" max="50" width="18.6640625" customWidth="1"/>
+    <col min="48" max="48" width="18.625" customWidth="1"/>
+    <col min="50" max="50" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -5413,7 +5512,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:59">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>129</v>
       </c>
@@ -5487,7 +5586,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>129</v>
       </c>
@@ -5575,7 +5674,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>129</v>
       </c>
@@ -5663,7 +5762,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>129</v>
       </c>
@@ -5739,7 +5838,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>129</v>
       </c>
@@ -5809,7 +5908,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:59">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>125</v>
       </c>
@@ -5885,7 +5984,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:59">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>125</v>
       </c>
@@ -5969,7 +6068,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:59">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>125</v>
       </c>
@@ -6053,7 +6152,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:59">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>125</v>
       </c>
@@ -6133,7 +6232,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:59">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>125</v>
       </c>
@@ -6207,7 +6306,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:59">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>125</v>
       </c>
@@ -6291,7 +6390,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:59">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>125</v>
       </c>
@@ -6361,7 +6460,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:59">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>125</v>
       </c>
@@ -6441,7 +6540,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:59">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>125</v>
       </c>
@@ -6531,7 +6630,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:59">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>125</v>
       </c>
@@ -6611,7 +6710,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:58">
+    <row r="17" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>129</v>
       </c>
@@ -6687,7 +6786,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:58">
+    <row r="18" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>125</v>
       </c>
@@ -6763,7 +6862,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:58">
+    <row r="19" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>129</v>
       </c>
@@ -6843,7 +6942,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:58">
+    <row r="20" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>129</v>
       </c>
@@ -6913,7 +7012,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:58">
+    <row r="21" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>125</v>
       </c>
@@ -6999,7 +7098,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:58">
+    <row r="22" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>125</v>
       </c>
@@ -7079,7 +7178,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:58">
+    <row r="23" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>125</v>
       </c>
@@ -7159,7 +7258,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:58">
+    <row r="24" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>125</v>
       </c>
@@ -7249,7 +7348,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:58">
+    <row r="25" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>125</v>
       </c>
@@ -7327,7 +7426,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:58">
+    <row r="26" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>129</v>
       </c>
@@ -7415,7 +7514,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:58">
+    <row r="27" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>125</v>
       </c>
@@ -7505,7 +7604,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:58">
+    <row r="28" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
         <v>125</v>
       </c>
@@ -7583,7 +7682,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:58">
+    <row r="29" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
         <v>125</v>
       </c>
@@ -7665,7 +7764,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:58">
+    <row r="30" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
         <v>125</v>
       </c>
@@ -7739,7 +7838,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:58">
+    <row r="31" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
         <v>125</v>
       </c>
@@ -7813,7 +7912,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:58">
+    <row r="32" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
         <v>125</v>
       </c>
@@ -7893,7 +7992,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:58">
+    <row r="33" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
         <v>125</v>
       </c>
@@ -7963,7 +8062,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:58">
+    <row r="34" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
         <v>125</v>
       </c>
@@ -8033,7 +8132,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:58">
+    <row r="35" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
         <v>125</v>
       </c>
@@ -8103,7 +8202,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:58">
+    <row r="36" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
         <v>125</v>
       </c>
@@ -8183,7 +8282,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:58">
+    <row r="37" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>125</v>
       </c>
@@ -8257,7 +8356,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:58">
+    <row r="38" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
         <v>125</v>
       </c>
@@ -8331,7 +8430,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:58">
+    <row r="39" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
         <v>129</v>
       </c>
@@ -8401,7 +8500,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:58">
+    <row r="40" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
         <v>125</v>
       </c>
@@ -8487,7 +8586,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:58">
+    <row r="41" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="s">
         <v>125</v>
       </c>
@@ -8573,7 +8672,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:58">
+    <row r="42" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
         <v>125</v>
       </c>
@@ -8653,7 +8752,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:58">
+    <row r="43" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="s">
         <v>125</v>
       </c>
@@ -8739,7 +8838,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:58">
+    <row r="44" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
         <v>125</v>
       </c>
@@ -8819,7 +8918,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:58">
+    <row r="45" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A45" s="23" t="s">
         <v>125</v>
       </c>
@@ -8905,7 +9004,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:58">
+    <row r="46" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A46" s="23" t="s">
         <v>125</v>
       </c>
@@ -8987,7 +9086,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:58">
+    <row r="47" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A47" s="23" t="s">
         <v>125</v>
       </c>
@@ -9073,7 +9172,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:58">
+    <row r="48" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="s">
         <v>125</v>
       </c>
@@ -9163,7 +9262,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:58">
+    <row r="49" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="s">
         <v>125</v>
       </c>
@@ -9241,7 +9340,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:58">
+    <row r="50" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
         <v>125</v>
       </c>
@@ -9313,7 +9412,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="51" spans="1:58">
+    <row r="51" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="s">
         <v>125</v>
       </c>
@@ -9385,7 +9484,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="1:58">
+    <row r="52" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
         <v>125</v>
       </c>
@@ -9469,7 +9568,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:58">
+    <row r="53" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A53" s="23" t="s">
         <v>125</v>
       </c>
@@ -9553,7 +9652,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:58">
+    <row r="54" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A54" s="23" t="s">
         <v>125</v>
       </c>
@@ -9637,7 +9736,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:58">
+    <row r="55" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A55" s="23" t="s">
         <v>125</v>
       </c>
@@ -9705,7 +9804,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:58">
+    <row r="56" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A56" s="23" t="s">
         <v>125</v>
       </c>
@@ -9789,7 +9888,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:58">
+    <row r="57" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="s">
         <v>125</v>
       </c>
@@ -9873,7 +9972,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:58">
+    <row r="58" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A58" s="23" t="s">
         <v>125</v>
       </c>
@@ -9953,7 +10052,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:58">
+    <row r="59" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A59" s="23" t="s">
         <v>125</v>
       </c>
@@ -10033,7 +10132,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:58">
+    <row r="60" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A60" s="23" t="s">
         <v>125</v>
       </c>
@@ -10113,7 +10212,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:58">
+    <row r="61" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A61" s="23" t="s">
         <v>125</v>
       </c>
@@ -10203,7 +10302,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:58">
+    <row r="62" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A62" s="23" t="s">
         <v>125</v>
       </c>
@@ -10293,7 +10392,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:58">
+    <row r="63" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A63" s="23" t="s">
         <v>125</v>
       </c>
@@ -10375,7 +10474,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:58">
+    <row r="64" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A64" s="23" t="s">
         <v>125</v>
       </c>
@@ -10465,7 +10564,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:58">
+    <row r="65" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A65" s="23" t="s">
         <v>125</v>
       </c>
@@ -10545,7 +10644,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:58">
+    <row r="66" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A66" s="23" t="s">
         <v>125</v>
       </c>
@@ -10629,7 +10728,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="67" spans="1:58">
+    <row r="67" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A67" s="23" t="s">
         <v>125</v>
       </c>
@@ -10715,7 +10814,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:58">
+    <row r="68" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="s">
         <v>125</v>
       </c>
@@ -10789,7 +10888,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="1:58">
+    <row r="69" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A69" s="23" t="s">
         <v>125</v>
       </c>
@@ -10865,7 +10964,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:58">
+    <row r="70" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A70" s="23" t="s">
         <v>125</v>
       </c>
@@ -10941,7 +11040,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="71" spans="1:58">
+    <row r="71" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A71" s="23" t="s">
         <v>125</v>
       </c>
@@ -11017,7 +11116,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:58">
+    <row r="72" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A72" s="23" t="s">
         <v>125</v>
       </c>
@@ -11093,7 +11192,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:58">
+    <row r="73" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A73" s="23" t="s">
         <v>125</v>
       </c>
@@ -11177,7 +11276,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="1:58">
+    <row r="74" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A74" s="23" t="s">
         <v>125</v>
       </c>
@@ -11257,7 +11356,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:58">
+    <row r="75" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A75" s="23" t="s">
         <v>125</v>
       </c>
@@ -11337,7 +11436,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="1:58">
+    <row r="76" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A76" s="23" t="s">
         <v>125</v>
       </c>
@@ -11423,7 +11522,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:58">
+    <row r="77" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A77" s="23" t="s">
         <v>125</v>
       </c>
@@ -11503,7 +11602,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="1:58">
+    <row r="78" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A78" s="23" t="s">
         <v>125</v>
       </c>
@@ -11587,7 +11686,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="79" spans="1:58">
+    <row r="79" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A79" s="23" t="s">
         <v>125</v>
       </c>
@@ -11671,7 +11770,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:58">
+    <row r="80" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A80" s="23" t="s">
         <v>129</v>
       </c>
@@ -11747,7 +11846,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="81" spans="1:58">
+    <row r="81" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A81" s="23" t="s">
         <v>129</v>
       </c>
@@ -11829,7 +11928,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="82" spans="1:58">
+    <row r="82" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A82" s="23" t="s">
         <v>129</v>
       </c>
@@ -11911,7 +12010,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="83" spans="1:58">
+    <row r="83" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A83" s="23" t="s">
         <v>129</v>
       </c>
@@ -11993,7 +12092,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="84" spans="1:58">
+    <row r="84" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A84" s="23" t="s">
         <v>129</v>
       </c>
@@ -12075,7 +12174,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="85" spans="1:58">
+    <row r="85" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A85" s="23" t="s">
         <v>129</v>
       </c>
@@ -12157,7 +12256,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="86" spans="1:58">
+    <row r="86" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A86" s="23" t="s">
         <v>129</v>
       </c>
@@ -12239,7 +12338,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="87" spans="1:58">
+    <row r="87" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A87" s="23" t="s">
         <v>129</v>
       </c>
@@ -12327,7 +12426,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="88" spans="1:58">
+    <row r="88" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A88" s="23" t="s">
         <v>129</v>
       </c>
@@ -12415,7 +12514,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="89" spans="1:58">
+    <row r="89" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A89" s="23" t="s">
         <v>129</v>
       </c>
@@ -12503,7 +12602,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="90" spans="1:58">
+    <row r="90" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A90" s="23" t="s">
         <v>129</v>
       </c>
@@ -12591,7 +12690,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="91" spans="1:58">
+    <row r="91" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A91" s="23" t="s">
         <v>129</v>
       </c>
@@ -12679,7 +12778,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="92" spans="1:58">
+    <row r="92" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A92" s="23" t="s">
         <v>129</v>
       </c>
@@ -12747,7 +12846,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="93" spans="1:58">
+    <row r="93" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A93" s="23" t="s">
         <v>129</v>
       </c>
@@ -12815,7 +12914,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="94" spans="1:58">
+    <row r="94" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A94" s="23" t="s">
         <v>129</v>
       </c>
@@ -12891,7 +12990,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="95" spans="1:58">
+    <row r="95" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A95" s="23" t="s">
         <v>129</v>
       </c>
@@ -12967,7 +13066,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="96" spans="1:58">
+    <row r="96" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A96" s="23" t="s">
         <v>129</v>
       </c>
@@ -13043,7 +13142,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="97" spans="1:58">
+    <row r="97" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A97" s="23" t="s">
         <v>129</v>
       </c>
@@ -13119,7 +13218,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="98" spans="1:58">
+    <row r="98" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A98" s="23" t="s">
         <v>129</v>
       </c>
@@ -13195,7 +13294,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="99" spans="1:58">
+    <row r="99" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A99" s="23" t="s">
         <v>129</v>
       </c>
@@ -13271,7 +13370,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="100" spans="1:58">
+    <row r="100" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A100" s="23" t="s">
         <v>129</v>
       </c>
@@ -13349,7 +13448,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="101" spans="1:58">
+    <row r="101" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A101" s="23" t="s">
         <v>125</v>
       </c>
@@ -13435,7 +13534,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="102" spans="1:58">
+    <row r="102" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A102" s="23" t="s">
         <v>125</v>
       </c>
@@ -13515,7 +13614,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="103" spans="1:58">
+    <row r="103" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A103" s="23" t="s">
         <v>125</v>
       </c>
@@ -13601,7 +13700,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="104" spans="1:58">
+    <row r="104" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A104" s="23" t="s">
         <v>125</v>
       </c>
@@ -13677,7 +13776,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="105" spans="1:58">
+    <row r="105" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A105" s="23" t="s">
         <v>125</v>
       </c>
@@ -13763,7 +13862,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="106" spans="1:58">
+    <row r="106" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A106" s="23" t="s">
         <v>125</v>
       </c>
@@ -13855,7 +13954,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="107" spans="1:58">
+    <row r="107" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A107" s="23" t="s">
         <v>125</v>
       </c>
@@ -13935,7 +14034,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="108" spans="1:58">
+    <row r="108" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A108" s="23" t="s">
         <v>129</v>
       </c>
@@ -14009,7 +14108,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="109" spans="1:58">
+    <row r="109" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A109" s="23" t="s">
         <v>129</v>
       </c>
@@ -14083,7 +14182,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="110" spans="1:58">
+    <row r="110" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A110" s="23" t="s">
         <v>125</v>
       </c>
@@ -14163,7 +14262,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="111" spans="1:58">
+    <row r="111" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A111" s="23" t="s">
         <v>125</v>
       </c>
@@ -14243,7 +14342,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="112" spans="1:58">
+    <row r="112" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A112" s="23" t="s">
         <v>129</v>
       </c>
@@ -14323,7 +14422,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="113" spans="1:58">
+    <row r="113" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A113" s="23" t="s">
         <v>129</v>
       </c>
@@ -14403,7 +14502,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:58">
+    <row r="114" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A114" s="23" t="s">
         <v>129</v>
       </c>
@@ -14477,7 +14576,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:58">
+    <row r="115" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A115" s="23" t="s">
         <v>129</v>
       </c>
@@ -14551,7 +14650,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="116" spans="1:58">
+    <row r="116" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A116" s="23" t="s">
         <v>125</v>
       </c>
@@ -14635,7 +14734,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="117" spans="1:58">
+    <row r="117" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A117" s="23" t="s">
         <v>125</v>
       </c>
@@ -14711,7 +14810,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="118" spans="1:58">
+    <row r="118" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A118" s="23" t="s">
         <v>125</v>
       </c>
@@ -14791,7 +14890,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="119" spans="1:58">
+    <row r="119" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A119" s="23" t="s">
         <v>125</v>
       </c>
@@ -14871,7 +14970,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="120" spans="1:58">
+    <row r="120" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A120" s="23" t="s">
         <v>125</v>
       </c>
@@ -14955,7 +15054,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="121" spans="1:58">
+    <row r="121" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A121" s="23" t="s">
         <v>125</v>
       </c>
@@ -15023,7 +15122,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="122" spans="1:58">
+    <row r="122" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A122" s="23" t="s">
         <v>125</v>
       </c>
@@ -15103,7 +15202,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="123" spans="1:58">
+    <row r="123" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A123" s="23" t="s">
         <v>125</v>
       </c>
@@ -15183,7 +15282,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="124" spans="1:58">
+    <row r="124" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A124" s="23" t="s">
         <v>125</v>
       </c>
@@ -15245,7 +15344,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="125" spans="1:58">
+    <row r="125" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A125" s="23" t="s">
         <v>125</v>
       </c>
@@ -15307,7 +15406,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="126" spans="1:58">
+    <row r="126" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A126" s="23" t="s">
         <v>125</v>
       </c>
@@ -15397,7 +15496,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="1:58">
+    <row r="127" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -15425,7 +15524,7 @@
       <c r="Y127"/>
       <c r="Z127"/>
     </row>
-    <row r="128" spans="1:58">
+    <row r="128" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -15453,7 +15552,7 @@
       <c r="Y128"/>
       <c r="Z128"/>
     </row>
-    <row r="129" spans="1:26">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -15481,7 +15580,7 @@
       <c r="Y129"/>
       <c r="Z129"/>
     </row>
-    <row r="130" spans="1:26">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -15509,7 +15608,7 @@
       <c r="Y130"/>
       <c r="Z130"/>
     </row>
-    <row r="131" spans="1:26">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -15537,7 +15636,7 @@
       <c r="Y131"/>
       <c r="Z131"/>
     </row>
-    <row r="132" spans="1:26">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -15565,7 +15664,7 @@
       <c r="Y132"/>
       <c r="Z132"/>
     </row>
-    <row r="133" spans="1:26">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -15593,7 +15692,7 @@
       <c r="Y133"/>
       <c r="Z133"/>
     </row>
-    <row r="134" spans="1:26">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -15621,7 +15720,7 @@
       <c r="Y134"/>
       <c r="Z134"/>
     </row>
-    <row r="135" spans="1:26">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -15649,7 +15748,7 @@
       <c r="Y135"/>
       <c r="Z135"/>
     </row>
-    <row r="136" spans="1:26">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -15677,7 +15776,7 @@
       <c r="Y136"/>
       <c r="Z136"/>
     </row>
-    <row r="137" spans="1:26">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
@@ -15705,7 +15804,7 @@
       <c r="Y137"/>
       <c r="Z137"/>
     </row>
-    <row r="138" spans="1:26">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
@@ -15733,7 +15832,7 @@
       <c r="Y138"/>
       <c r="Z138"/>
     </row>
-    <row r="139" spans="1:26">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
@@ -15761,7 +15860,7 @@
       <c r="Y139"/>
       <c r="Z139"/>
     </row>
-    <row r="140" spans="1:26">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
@@ -15789,7 +15888,7 @@
       <c r="Y140"/>
       <c r="Z140"/>
     </row>
-    <row r="141" spans="1:26">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
@@ -15817,7 +15916,7 @@
       <c r="Y141"/>
       <c r="Z141"/>
     </row>
-    <row r="142" spans="1:26">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A142" s="7"/>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
@@ -15845,7 +15944,7 @@
       <c r="Y142"/>
       <c r="Z142"/>
     </row>
-    <row r="143" spans="1:26">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A143" s="7"/>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
@@ -15873,7 +15972,7 @@
       <c r="Y143"/>
       <c r="Z143"/>
     </row>
-    <row r="144" spans="1:26">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A144" s="7"/>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
@@ -15901,7 +16000,7 @@
       <c r="Y144"/>
       <c r="Z144"/>
     </row>
-    <row r="145" spans="1:26">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A145" s="7"/>
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
@@ -15929,7 +16028,7 @@
       <c r="Y145"/>
       <c r="Z145"/>
     </row>
-    <row r="146" spans="1:26">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A146" s="7"/>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
@@ -15957,7 +16056,7 @@
       <c r="Y146"/>
       <c r="Z146"/>
     </row>
-    <row r="147" spans="1:26">
+    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A147" s="7"/>
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
@@ -15985,7 +16084,7 @@
       <c r="Y147"/>
       <c r="Z147"/>
     </row>
-    <row r="148" spans="1:26">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A148" s="7"/>
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
@@ -16013,7 +16112,7 @@
       <c r="Y148"/>
       <c r="Z148"/>
     </row>
-    <row r="149" spans="1:26">
+    <row r="149" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A149" s="7"/>
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
@@ -16041,7 +16140,7 @@
       <c r="Y149"/>
       <c r="Z149"/>
     </row>
-    <row r="150" spans="1:26">
+    <row r="150" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A150" s="7"/>
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
@@ -16069,7 +16168,7 @@
       <c r="Y150"/>
       <c r="Z150"/>
     </row>
-    <row r="151" spans="1:26">
+    <row r="151" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
@@ -16097,7 +16196,7 @@
       <c r="Y151"/>
       <c r="Z151"/>
     </row>
-    <row r="152" spans="1:26">
+    <row r="152" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
@@ -16125,7 +16224,7 @@
       <c r="Y152"/>
       <c r="Z152"/>
     </row>
-    <row r="153" spans="1:26">
+    <row r="153" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A153" s="7"/>
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
@@ -16153,7 +16252,7 @@
       <c r="Y153"/>
       <c r="Z153"/>
     </row>
-    <row r="154" spans="1:26">
+    <row r="154" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A154" s="7"/>
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
@@ -16181,7 +16280,7 @@
       <c r="Y154"/>
       <c r="Z154"/>
     </row>
-    <row r="155" spans="1:26">
+    <row r="155" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A155" s="7"/>
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
@@ -16209,7 +16308,7 @@
       <c r="Y155"/>
       <c r="Z155"/>
     </row>
-    <row r="156" spans="1:26">
+    <row r="156" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A156" s="7"/>
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
@@ -16237,7 +16336,7 @@
       <c r="Y156"/>
       <c r="Z156"/>
     </row>
-    <row r="157" spans="1:26">
+    <row r="157" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A157" s="7"/>
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
@@ -16265,7 +16364,7 @@
       <c r="Y157"/>
       <c r="Z157"/>
     </row>
-    <row r="158" spans="1:26">
+    <row r="158" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A158" s="7"/>
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
@@ -16293,7 +16392,7 @@
       <c r="Y158"/>
       <c r="Z158"/>
     </row>
-    <row r="159" spans="1:26">
+    <row r="159" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A159" s="7"/>
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
@@ -16321,7 +16420,7 @@
       <c r="Y159"/>
       <c r="Z159"/>
     </row>
-    <row r="160" spans="1:26">
+    <row r="160" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A160" s="7"/>
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
@@ -16349,7 +16448,7 @@
       <c r="Y160"/>
       <c r="Z160"/>
     </row>
-    <row r="161" spans="1:26">
+    <row r="161" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A161" s="7"/>
       <c r="B161" s="7"/>
       <c r="C161" s="7"/>
@@ -16377,7 +16476,7 @@
       <c r="Y161"/>
       <c r="Z161"/>
     </row>
-    <row r="162" spans="1:26">
+    <row r="162" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A162" s="7"/>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
@@ -16405,7 +16504,7 @@
       <c r="Y162"/>
       <c r="Z162"/>
     </row>
-    <row r="163" spans="1:26">
+    <row r="163" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A163" s="7"/>
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
@@ -16433,7 +16532,7 @@
       <c r="Y163"/>
       <c r="Z163"/>
     </row>
-    <row r="164" spans="1:26">
+    <row r="164" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A164" s="7"/>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
@@ -16461,7 +16560,7 @@
       <c r="Y164"/>
       <c r="Z164"/>
     </row>
-    <row r="165" spans="1:26">
+    <row r="165" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A165" s="7"/>
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
@@ -16489,7 +16588,7 @@
       <c r="Y165"/>
       <c r="Z165"/>
     </row>
-    <row r="166" spans="1:26">
+    <row r="166" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A166" s="7"/>
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
@@ -16517,7 +16616,7 @@
       <c r="Y166"/>
       <c r="Z166"/>
     </row>
-    <row r="167" spans="1:26">
+    <row r="167" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A167" s="7"/>
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
@@ -16545,7 +16644,7 @@
       <c r="Y167"/>
       <c r="Z167"/>
     </row>
-    <row r="168" spans="1:26">
+    <row r="168" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A168" s="7"/>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
@@ -16573,7 +16672,7 @@
       <c r="Y168"/>
       <c r="Z168"/>
     </row>
-    <row r="169" spans="1:26">
+    <row r="169" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A169" s="7"/>
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
@@ -16601,7 +16700,7 @@
       <c r="Y169"/>
       <c r="Z169"/>
     </row>
-    <row r="170" spans="1:26">
+    <row r="170" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A170" s="7"/>
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
@@ -16629,7 +16728,7 @@
       <c r="Y170"/>
       <c r="Z170"/>
     </row>
-    <row r="171" spans="1:26">
+    <row r="171" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A171" s="7"/>
       <c r="B171" s="7"/>
       <c r="C171" s="7"/>
@@ -16657,7 +16756,7 @@
       <c r="Y171"/>
       <c r="Z171"/>
     </row>
-    <row r="172" spans="1:26">
+    <row r="172" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A172" s="7"/>
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
@@ -16685,7 +16784,7 @@
       <c r="Y172"/>
       <c r="Z172"/>
     </row>
-    <row r="173" spans="1:26">
+    <row r="173" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A173" s="7"/>
       <c r="B173" s="7"/>
       <c r="C173" s="7"/>
@@ -16713,7 +16812,7 @@
       <c r="Y173"/>
       <c r="Z173"/>
     </row>
-    <row r="174" spans="1:26">
+    <row r="174" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A174" s="7"/>
       <c r="B174" s="7"/>
       <c r="C174" s="7"/>
@@ -16741,7 +16840,7 @@
       <c r="Y174"/>
       <c r="Z174"/>
     </row>
-    <row r="175" spans="1:26">
+    <row r="175" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A175" s="7"/>
       <c r="B175" s="7"/>
       <c r="C175" s="7"/>
@@ -16769,7 +16868,7 @@
       <c r="Y175"/>
       <c r="Z175"/>
     </row>
-    <row r="176" spans="1:26">
+    <row r="176" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A176" s="7"/>
       <c r="B176" s="7"/>
       <c r="C176" s="7"/>
@@ -16797,7 +16896,7 @@
       <c r="Y176"/>
       <c r="Z176"/>
     </row>
-    <row r="177" spans="1:26">
+    <row r="177" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A177" s="7"/>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
@@ -16825,7 +16924,7 @@
       <c r="Y177"/>
       <c r="Z177"/>
     </row>
-    <row r="178" spans="1:26">
+    <row r="178" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A178" s="7"/>
       <c r="B178" s="7"/>
       <c r="C178" s="7"/>
@@ -16853,7 +16952,7 @@
       <c r="Y178"/>
       <c r="Z178"/>
     </row>
-    <row r="179" spans="1:26">
+    <row r="179" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A179" s="7"/>
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
@@ -16881,7 +16980,7 @@
       <c r="Y179"/>
       <c r="Z179"/>
     </row>
-    <row r="180" spans="1:26">
+    <row r="180" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A180" s="7"/>
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
@@ -16909,7 +17008,7 @@
       <c r="Y180"/>
       <c r="Z180"/>
     </row>
-    <row r="181" spans="1:26">
+    <row r="181" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A181" s="7"/>
       <c r="B181" s="7"/>
       <c r="C181" s="7"/>
@@ -16937,7 +17036,7 @@
       <c r="Y181"/>
       <c r="Z181"/>
     </row>
-    <row r="182" spans="1:26">
+    <row r="182" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A182" s="7"/>
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
@@ -16965,7 +17064,7 @@
       <c r="Y182"/>
       <c r="Z182"/>
     </row>
-    <row r="183" spans="1:26">
+    <row r="183" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A183" s="7"/>
       <c r="B183" s="7"/>
       <c r="C183" s="7"/>
@@ -16993,7 +17092,7 @@
       <c r="Y183"/>
       <c r="Z183"/>
     </row>
-    <row r="184" spans="1:26">
+    <row r="184" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A184" s="7"/>
       <c r="B184" s="7"/>
       <c r="C184" s="7"/>
@@ -17021,7 +17120,7 @@
       <c r="Y184"/>
       <c r="Z184"/>
     </row>
-    <row r="185" spans="1:26">
+    <row r="185" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A185" s="7"/>
       <c r="B185" s="7"/>
       <c r="C185" s="7"/>
@@ -17049,7 +17148,7 @@
       <c r="Y185"/>
       <c r="Z185"/>
     </row>
-    <row r="186" spans="1:26">
+    <row r="186" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A186" s="7"/>
       <c r="B186" s="7"/>
       <c r="C186" s="7"/>
@@ -17077,7 +17176,7 @@
       <c r="Y186"/>
       <c r="Z186"/>
     </row>
-    <row r="187" spans="1:26">
+    <row r="187" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A187" s="7"/>
       <c r="B187" s="7"/>
       <c r="C187" s="7"/>
@@ -17105,7 +17204,7 @@
       <c r="Y187"/>
       <c r="Z187"/>
     </row>
-    <row r="188" spans="1:26">
+    <row r="188" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A188" s="7"/>
       <c r="B188" s="7"/>
       <c r="C188" s="7"/>
@@ -17133,7 +17232,7 @@
       <c r="Y188"/>
       <c r="Z188"/>
     </row>
-    <row r="189" spans="1:26">
+    <row r="189" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A189" s="7"/>
       <c r="B189" s="7"/>
       <c r="C189" s="7"/>
@@ -17161,7 +17260,7 @@
       <c r="Y189"/>
       <c r="Z189"/>
     </row>
-    <row r="190" spans="1:26">
+    <row r="190" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A190" s="7"/>
       <c r="B190" s="7"/>
       <c r="C190" s="7"/>
@@ -17189,7 +17288,7 @@
       <c r="Y190"/>
       <c r="Z190"/>
     </row>
-    <row r="191" spans="1:26">
+    <row r="191" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A191" s="7"/>
       <c r="B191" s="7"/>
       <c r="C191" s="7"/>
@@ -17217,7 +17316,7 @@
       <c r="Y191"/>
       <c r="Z191"/>
     </row>
-    <row r="192" spans="1:26">
+    <row r="192" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A192" s="7"/>
       <c r="B192" s="7"/>
       <c r="C192" s="7"/>
@@ -17245,7 +17344,7 @@
       <c r="Y192"/>
       <c r="Z192"/>
     </row>
-    <row r="193" spans="1:26">
+    <row r="193" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A193" s="7"/>
       <c r="B193" s="7"/>
       <c r="C193" s="7"/>
@@ -17273,7 +17372,7 @@
       <c r="Y193"/>
       <c r="Z193"/>
     </row>
-    <row r="194" spans="1:26">
+    <row r="194" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A194" s="7"/>
       <c r="B194" s="7"/>
       <c r="C194" s="7"/>
@@ -17301,7 +17400,7 @@
       <c r="Y194"/>
       <c r="Z194"/>
     </row>
-    <row r="195" spans="1:26">
+    <row r="195" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A195" s="7"/>
       <c r="B195" s="7"/>
       <c r="C195" s="7"/>
@@ -17329,7 +17428,7 @@
       <c r="Y195"/>
       <c r="Z195"/>
     </row>
-    <row r="196" spans="1:26">
+    <row r="196" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A196" s="7"/>
       <c r="B196" s="7"/>
       <c r="C196" s="7"/>
@@ -17357,7 +17456,7 @@
       <c r="Y196"/>
       <c r="Z196"/>
     </row>
-    <row r="197" spans="1:26">
+    <row r="197" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A197" s="7"/>
       <c r="B197" s="7"/>
       <c r="C197" s="7"/>
@@ -17385,7 +17484,7 @@
       <c r="Y197"/>
       <c r="Z197"/>
     </row>
-    <row r="198" spans="1:26">
+    <row r="198" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A198" s="7"/>
       <c r="B198" s="7"/>
       <c r="C198" s="7"/>
@@ -17413,7 +17512,7 @@
       <c r="Y198"/>
       <c r="Z198"/>
     </row>
-    <row r="199" spans="1:26">
+    <row r="199" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A199" s="7"/>
       <c r="B199" s="7"/>
       <c r="C199" s="7"/>
@@ -17441,7 +17540,7 @@
       <c r="Y199"/>
       <c r="Z199"/>
     </row>
-    <row r="200" spans="1:26">
+    <row r="200" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A200" s="7"/>
       <c r="B200" s="7"/>
       <c r="C200" s="7"/>
@@ -17469,7 +17568,7 @@
       <c r="Y200"/>
       <c r="Z200"/>
     </row>
-    <row r="201" spans="1:26">
+    <row r="201" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A201" s="7"/>
       <c r="B201" s="7"/>
       <c r="C201" s="7"/>
@@ -17497,7 +17596,7 @@
       <c r="Y201"/>
       <c r="Z201"/>
     </row>
-    <row r="202" spans="1:26">
+    <row r="202" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A202" s="7"/>
       <c r="B202" s="7"/>
       <c r="C202" s="7"/>
@@ -17525,7 +17624,7 @@
       <c r="Y202"/>
       <c r="Z202"/>
     </row>
-    <row r="203" spans="1:26">
+    <row r="203" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A203" s="7"/>
       <c r="B203" s="7"/>
       <c r="C203" s="7"/>
@@ -17553,7 +17652,7 @@
       <c r="Y203"/>
       <c r="Z203"/>
     </row>
-    <row r="204" spans="1:26">
+    <row r="204" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A204" s="7"/>
       <c r="B204" s="7"/>
       <c r="C204" s="7"/>
@@ -17581,7 +17680,7 @@
       <c r="Y204"/>
       <c r="Z204"/>
     </row>
-    <row r="205" spans="1:26">
+    <row r="205" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A205" s="7"/>
       <c r="B205" s="7"/>
       <c r="C205" s="7"/>
@@ -17609,7 +17708,7 @@
       <c r="Y205"/>
       <c r="Z205"/>
     </row>
-    <row r="206" spans="1:26">
+    <row r="206" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A206" s="7"/>
       <c r="B206" s="7"/>
       <c r="C206" s="7"/>
@@ -17637,7 +17736,7 @@
       <c r="Y206"/>
       <c r="Z206"/>
     </row>
-    <row r="207" spans="1:26">
+    <row r="207" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A207" s="7"/>
       <c r="B207" s="7"/>
       <c r="C207" s="7"/>
@@ -17665,7 +17764,7 @@
       <c r="Y207"/>
       <c r="Z207"/>
     </row>
-    <row r="208" spans="1:26">
+    <row r="208" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A208" s="7"/>
       <c r="B208" s="7"/>
       <c r="C208" s="7"/>
@@ -17693,7 +17792,7 @@
       <c r="Y208"/>
       <c r="Z208"/>
     </row>
-    <row r="209" spans="1:26">
+    <row r="209" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A209" s="7"/>
       <c r="B209" s="7"/>
       <c r="C209" s="7"/>
@@ -17721,7 +17820,7 @@
       <c r="Y209"/>
       <c r="Z209"/>
     </row>
-    <row r="210" spans="1:26">
+    <row r="210" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A210" s="7"/>
       <c r="B210" s="7"/>
       <c r="C210" s="7"/>
@@ -17749,7 +17848,7 @@
       <c r="Y210"/>
       <c r="Z210"/>
     </row>
-    <row r="211" spans="1:26">
+    <row r="211" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A211" s="7"/>
       <c r="B211" s="7"/>
       <c r="C211" s="7"/>
@@ -17777,7 +17876,7 @@
       <c r="Y211"/>
       <c r="Z211"/>
     </row>
-    <row r="212" spans="1:26">
+    <row r="212" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A212" s="7"/>
       <c r="B212" s="7"/>
       <c r="C212" s="7"/>
@@ -17805,7 +17904,7 @@
       <c r="Y212"/>
       <c r="Z212"/>
     </row>
-    <row r="213" spans="1:26">
+    <row r="213" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A213" s="7"/>
       <c r="B213" s="7"/>
       <c r="C213" s="7"/>
@@ -17833,7 +17932,7 @@
       <c r="Y213"/>
       <c r="Z213"/>
     </row>
-    <row r="214" spans="1:26">
+    <row r="214" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A214" s="7"/>
       <c r="B214" s="7"/>
       <c r="C214" s="7"/>
@@ -17861,7 +17960,7 @@
       <c r="Y214"/>
       <c r="Z214"/>
     </row>
-    <row r="215" spans="1:26">
+    <row r="215" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A215" s="7"/>
       <c r="B215" s="7"/>
       <c r="C215" s="7"/>
@@ -17889,7 +17988,7 @@
       <c r="Y215"/>
       <c r="Z215"/>
     </row>
-    <row r="216" spans="1:26">
+    <row r="216" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A216" s="7"/>
       <c r="B216" s="7"/>
       <c r="C216" s="7"/>
@@ -17917,7 +18016,7 @@
       <c r="Y216"/>
       <c r="Z216"/>
     </row>
-    <row r="217" spans="1:26">
+    <row r="217" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A217" s="7"/>
       <c r="B217" s="7"/>
       <c r="C217" s="7"/>
@@ -17945,7 +18044,7 @@
       <c r="Y217"/>
       <c r="Z217"/>
     </row>
-    <row r="218" spans="1:26">
+    <row r="218" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A218" s="7"/>
       <c r="B218" s="7"/>
       <c r="C218" s="7"/>
@@ -17973,7 +18072,7 @@
       <c r="Y218"/>
       <c r="Z218"/>
     </row>
-    <row r="219" spans="1:26">
+    <row r="219" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A219" s="7"/>
       <c r="B219" s="7"/>
       <c r="C219" s="7"/>
@@ -18001,7 +18100,7 @@
       <c r="Y219"/>
       <c r="Z219"/>
     </row>
-    <row r="220" spans="1:26">
+    <row r="220" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A220" s="7"/>
       <c r="B220" s="7"/>
       <c r="C220" s="7"/>
@@ -18029,7 +18128,7 @@
       <c r="Y220"/>
       <c r="Z220"/>
     </row>
-    <row r="221" spans="1:26">
+    <row r="221" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A221" s="7"/>
       <c r="B221" s="7"/>
       <c r="C221" s="7"/>
@@ -18057,7 +18156,7 @@
       <c r="Y221"/>
       <c r="Z221"/>
     </row>
-    <row r="222" spans="1:26">
+    <row r="222" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A222" s="7"/>
       <c r="B222" s="7"/>
       <c r="C222" s="7"/>
@@ -18085,7 +18184,7 @@
       <c r="Y222"/>
       <c r="Z222"/>
     </row>
-    <row r="223" spans="1:26">
+    <row r="223" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A223" s="7"/>
       <c r="B223" s="7"/>
       <c r="C223" s="7"/>
@@ -18113,7 +18212,7 @@
       <c r="Y223"/>
       <c r="Z223"/>
     </row>
-    <row r="224" spans="1:26">
+    <row r="224" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A224" s="7"/>
       <c r="B224" s="7"/>
       <c r="C224" s="7"/>
@@ -18141,7 +18240,7 @@
       <c r="Y224"/>
       <c r="Z224"/>
     </row>
-    <row r="225" spans="1:26">
+    <row r="225" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A225" s="7"/>
       <c r="B225" s="7"/>
       <c r="C225" s="7"/>
@@ -18169,7 +18268,7 @@
       <c r="Y225"/>
       <c r="Z225"/>
     </row>
-    <row r="226" spans="1:26">
+    <row r="226" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A226" s="7"/>
       <c r="B226" s="7"/>
       <c r="C226" s="7"/>
@@ -18197,7 +18296,7 @@
       <c r="Y226"/>
       <c r="Z226"/>
     </row>
-    <row r="227" spans="1:26">
+    <row r="227" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A227" s="7"/>
       <c r="B227" s="7"/>
       <c r="C227" s="7"/>
@@ -18225,7 +18324,7 @@
       <c r="Y227"/>
       <c r="Z227"/>
     </row>
-    <row r="228" spans="1:26">
+    <row r="228" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A228" s="7"/>
       <c r="B228" s="7"/>
       <c r="C228" s="7"/>
@@ -18253,7 +18352,7 @@
       <c r="Y228"/>
       <c r="Z228"/>
     </row>
-    <row r="229" spans="1:26">
+    <row r="229" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A229" s="7"/>
       <c r="B229" s="7"/>
       <c r="C229" s="7"/>
@@ -18281,7 +18380,7 @@
       <c r="Y229"/>
       <c r="Z229"/>
     </row>
-    <row r="230" spans="1:26">
+    <row r="230" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A230" s="7"/>
       <c r="B230" s="7"/>
       <c r="C230" s="7"/>
@@ -18309,7 +18408,7 @@
       <c r="Y230"/>
       <c r="Z230"/>
     </row>
-    <row r="231" spans="1:26">
+    <row r="231" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A231" s="7"/>
       <c r="B231" s="7"/>
       <c r="C231" s="7"/>
@@ -18337,7 +18436,7 @@
       <c r="Y231"/>
       <c r="Z231"/>
     </row>
-    <row r="232" spans="1:26">
+    <row r="232" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A232" s="7"/>
       <c r="B232" s="7"/>
       <c r="C232" s="7"/>
@@ -18365,7 +18464,7 @@
       <c r="Y232"/>
       <c r="Z232"/>
     </row>
-    <row r="233" spans="1:26">
+    <row r="233" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A233" s="7"/>
       <c r="B233" s="7"/>
       <c r="C233" s="7"/>
@@ -18393,7 +18492,7 @@
       <c r="Y233"/>
       <c r="Z233"/>
     </row>
-    <row r="234" spans="1:26">
+    <row r="234" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A234" s="7"/>
       <c r="B234" s="7"/>
       <c r="C234" s="7"/>
@@ -18421,7 +18520,7 @@
       <c r="Y234"/>
       <c r="Z234"/>
     </row>
-    <row r="235" spans="1:26">
+    <row r="235" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A235" s="7"/>
       <c r="B235" s="7"/>
       <c r="C235" s="7"/>
@@ -18449,7 +18548,7 @@
       <c r="Y235"/>
       <c r="Z235"/>
     </row>
-    <row r="236" spans="1:26">
+    <row r="236" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A236" s="7"/>
       <c r="B236" s="7"/>
       <c r="C236" s="7"/>
@@ -18477,7 +18576,7 @@
       <c r="Y236"/>
       <c r="Z236"/>
     </row>
-    <row r="237" spans="1:26">
+    <row r="237" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A237" s="7"/>
       <c r="B237" s="7"/>
       <c r="C237" s="7"/>
@@ -18505,7 +18604,7 @@
       <c r="Y237"/>
       <c r="Z237"/>
     </row>
-    <row r="238" spans="1:26">
+    <row r="238" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A238" s="7"/>
       <c r="B238" s="7"/>
       <c r="C238" s="7"/>
@@ -18533,7 +18632,7 @@
       <c r="Y238"/>
       <c r="Z238"/>
     </row>
-    <row r="239" spans="1:26">
+    <row r="239" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A239" s="7"/>
       <c r="B239" s="7"/>
       <c r="C239" s="7"/>
@@ -18561,7 +18660,7 @@
       <c r="Y239"/>
       <c r="Z239"/>
     </row>
-    <row r="240" spans="1:26">
+    <row r="240" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A240" s="7"/>
       <c r="B240" s="7"/>
       <c r="C240" s="7"/>
@@ -18589,7 +18688,7 @@
       <c r="Y240"/>
       <c r="Z240"/>
     </row>
-    <row r="241" spans="1:26">
+    <row r="241" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A241" s="7"/>
       <c r="B241" s="7"/>
       <c r="C241" s="7"/>
@@ -18617,7 +18716,7 @@
       <c r="Y241"/>
       <c r="Z241"/>
     </row>
-    <row r="242" spans="1:26">
+    <row r="242" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A242" s="7"/>
       <c r="B242" s="7"/>
       <c r="C242" s="7"/>
@@ -18645,7 +18744,7 @@
       <c r="Y242"/>
       <c r="Z242"/>
     </row>
-    <row r="243" spans="1:26">
+    <row r="243" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A243" s="7"/>
       <c r="B243" s="7"/>
       <c r="C243" s="7"/>
@@ -18673,7 +18772,7 @@
       <c r="Y243"/>
       <c r="Z243"/>
     </row>
-    <row r="244" spans="1:26">
+    <row r="244" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A244" s="7"/>
       <c r="B244" s="7"/>
       <c r="C244" s="7"/>
@@ -18701,7 +18800,7 @@
       <c r="Y244"/>
       <c r="Z244"/>
     </row>
-    <row r="245" spans="1:26">
+    <row r="245" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A245" s="7"/>
       <c r="B245" s="7"/>
       <c r="C245" s="7"/>
@@ -18729,7 +18828,7 @@
       <c r="Y245"/>
       <c r="Z245"/>
     </row>
-    <row r="246" spans="1:26">
+    <row r="246" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A246" s="7"/>
       <c r="B246" s="7"/>
       <c r="C246" s="7"/>
@@ -18757,7 +18856,7 @@
       <c r="Y246"/>
       <c r="Z246"/>
     </row>
-    <row r="247" spans="1:26">
+    <row r="247" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A247" s="7"/>
       <c r="B247" s="7"/>
       <c r="C247" s="7"/>
@@ -18785,7 +18884,7 @@
       <c r="Y247"/>
       <c r="Z247"/>
     </row>
-    <row r="248" spans="1:26">
+    <row r="248" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A248" s="7"/>
       <c r="B248" s="7"/>
       <c r="C248" s="7"/>
@@ -18813,7 +18912,7 @@
       <c r="Y248"/>
       <c r="Z248"/>
     </row>
-    <row r="249" spans="1:26">
+    <row r="249" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A249" s="7"/>
       <c r="B249" s="7"/>
       <c r="C249" s="7"/>
@@ -18841,7 +18940,7 @@
       <c r="Y249"/>
       <c r="Z249"/>
     </row>
-    <row r="250" spans="1:26">
+    <row r="250" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A250" s="7"/>
       <c r="B250" s="7"/>
       <c r="C250" s="7"/>
@@ -18869,7 +18968,7 @@
       <c r="Y250"/>
       <c r="Z250"/>
     </row>
-    <row r="251" spans="1:26">
+    <row r="251" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A251" s="7"/>
       <c r="B251" s="7"/>
       <c r="C251" s="7"/>
@@ -18897,7 +18996,7 @@
       <c r="Y251"/>
       <c r="Z251"/>
     </row>
-    <row r="252" spans="1:26">
+    <row r="252" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A252" s="7"/>
       <c r="B252" s="7"/>
       <c r="C252" s="7"/>
@@ -18925,7 +19024,7 @@
       <c r="Y252"/>
       <c r="Z252"/>
     </row>
-    <row r="253" spans="1:26">
+    <row r="253" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A253" s="7"/>
       <c r="B253" s="7"/>
       <c r="C253" s="7"/>
@@ -18953,7 +19052,7 @@
       <c r="Y253"/>
       <c r="Z253"/>
     </row>
-    <row r="254" spans="1:26">
+    <row r="254" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A254" s="7"/>
       <c r="B254" s="7"/>
       <c r="C254" s="7"/>
@@ -18981,7 +19080,7 @@
       <c r="Y254"/>
       <c r="Z254"/>
     </row>
-    <row r="255" spans="1:26">
+    <row r="255" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A255" s="7"/>
       <c r="B255" s="7"/>
       <c r="C255" s="7"/>
@@ -19009,7 +19108,7 @@
       <c r="Y255"/>
       <c r="Z255"/>
     </row>
-    <row r="256" spans="1:26">
+    <row r="256" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A256" s="7"/>
       <c r="B256" s="7"/>
       <c r="C256" s="7"/>
@@ -19037,7 +19136,7 @@
       <c r="Y256"/>
       <c r="Z256"/>
     </row>
-    <row r="257" spans="1:26">
+    <row r="257" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A257" s="7"/>
       <c r="B257" s="7"/>
       <c r="C257" s="7"/>
@@ -19065,7 +19164,7 @@
       <c r="Y257"/>
       <c r="Z257"/>
     </row>
-    <row r="258" spans="1:26">
+    <row r="258" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A258" s="7"/>
       <c r="B258" s="7"/>
       <c r="C258" s="7"/>
@@ -19093,7 +19192,7 @@
       <c r="Y258"/>
       <c r="Z258"/>
     </row>
-    <row r="259" spans="1:26">
+    <row r="259" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A259" s="7"/>
       <c r="B259" s="7"/>
       <c r="C259" s="7"/>
@@ -19121,7 +19220,7 @@
       <c r="Y259"/>
       <c r="Z259"/>
     </row>
-    <row r="260" spans="1:26">
+    <row r="260" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A260" s="7"/>
       <c r="B260" s="7"/>
       <c r="C260" s="7"/>
@@ -19149,7 +19248,7 @@
       <c r="Y260"/>
       <c r="Z260"/>
     </row>
-    <row r="261" spans="1:26">
+    <row r="261" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A261" s="7"/>
       <c r="B261" s="7"/>
       <c r="C261" s="7"/>
@@ -19177,7 +19276,7 @@
       <c r="Y261"/>
       <c r="Z261"/>
     </row>
-    <row r="262" spans="1:26">
+    <row r="262" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A262" s="7"/>
       <c r="B262" s="7"/>
       <c r="C262" s="7"/>
@@ -19205,7 +19304,7 @@
       <c r="Y262"/>
       <c r="Z262"/>
     </row>
-    <row r="263" spans="1:26">
+    <row r="263" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A263" s="7"/>
       <c r="B263" s="7"/>
       <c r="C263" s="7"/>
@@ -19233,7 +19332,7 @@
       <c r="Y263"/>
       <c r="Z263"/>
     </row>
-    <row r="264" spans="1:26">
+    <row r="264" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A264" s="7"/>
       <c r="B264" s="7"/>
       <c r="C264" s="7"/>
@@ -19261,7 +19360,7 @@
       <c r="Y264"/>
       <c r="Z264"/>
     </row>
-    <row r="265" spans="1:26">
+    <row r="265" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A265" s="7"/>
       <c r="B265" s="7"/>
       <c r="C265" s="7"/>
@@ -19289,7 +19388,7 @@
       <c r="Y265"/>
       <c r="Z265"/>
     </row>
-    <row r="266" spans="1:26">
+    <row r="266" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A266" s="7"/>
       <c r="B266" s="7"/>
       <c r="C266" s="7"/>
@@ -19317,7 +19416,7 @@
       <c r="Y266"/>
       <c r="Z266"/>
     </row>
-    <row r="267" spans="1:26">
+    <row r="267" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A267" s="7"/>
       <c r="B267" s="7"/>
       <c r="C267" s="7"/>
@@ -19345,7 +19444,7 @@
       <c r="Y267"/>
       <c r="Z267"/>
     </row>
-    <row r="268" spans="1:26">
+    <row r="268" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A268" s="7"/>
       <c r="B268" s="7"/>
       <c r="C268" s="7"/>
@@ -19373,7 +19472,7 @@
       <c r="Y268"/>
       <c r="Z268"/>
     </row>
-    <row r="269" spans="1:26">
+    <row r="269" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A269" s="7"/>
       <c r="B269" s="7"/>
       <c r="C269" s="7"/>
@@ -19401,7 +19500,7 @@
       <c r="Y269"/>
       <c r="Z269"/>
     </row>
-    <row r="270" spans="1:26">
+    <row r="270" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A270" s="7"/>
       <c r="B270" s="7"/>
       <c r="C270" s="7"/>
@@ -19429,7 +19528,7 @@
       <c r="Y270"/>
       <c r="Z270"/>
     </row>
-    <row r="271" spans="1:26">
+    <row r="271" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A271" s="7"/>
       <c r="B271" s="7"/>
       <c r="C271" s="7"/>
@@ -19457,7 +19556,7 @@
       <c r="Y271"/>
       <c r="Z271"/>
     </row>
-    <row r="272" spans="1:26">
+    <row r="272" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A272" s="7"/>
       <c r="B272" s="7"/>
       <c r="C272" s="7"/>
@@ -19485,7 +19584,7 @@
       <c r="Y272"/>
       <c r="Z272"/>
     </row>
-    <row r="273" spans="1:26">
+    <row r="273" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A273" s="7"/>
       <c r="B273" s="7"/>
       <c r="C273" s="7"/>
@@ -19513,7 +19612,7 @@
       <c r="Y273"/>
       <c r="Z273"/>
     </row>
-    <row r="274" spans="1:26">
+    <row r="274" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A274" s="7"/>
       <c r="B274" s="7"/>
       <c r="C274" s="7"/>
@@ -19541,7 +19640,7 @@
       <c r="Y274"/>
       <c r="Z274"/>
     </row>
-    <row r="275" spans="1:26">
+    <row r="275" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A275" s="7"/>
       <c r="B275" s="7"/>
       <c r="C275" s="7"/>
@@ -19569,7 +19668,7 @@
       <c r="Y275"/>
       <c r="Z275"/>
     </row>
-    <row r="276" spans="1:26">
+    <row r="276" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A276" s="7"/>
       <c r="B276" s="7"/>
       <c r="C276" s="7"/>
@@ -19597,7 +19696,7 @@
       <c r="Y276"/>
       <c r="Z276"/>
     </row>
-    <row r="277" spans="1:26">
+    <row r="277" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A277" s="7"/>
       <c r="B277" s="7"/>
       <c r="C277" s="7"/>
@@ -19625,7 +19724,7 @@
       <c r="Y277"/>
       <c r="Z277"/>
     </row>
-    <row r="278" spans="1:26">
+    <row r="278" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A278" s="7"/>
       <c r="B278" s="7"/>
       <c r="C278" s="7"/>
@@ -19653,7 +19752,7 @@
       <c r="Y278"/>
       <c r="Z278"/>
     </row>
-    <row r="279" spans="1:26">
+    <row r="279" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A279" s="7"/>
       <c r="B279" s="7"/>
       <c r="C279" s="7"/>
@@ -19681,7 +19780,7 @@
       <c r="Y279"/>
       <c r="Z279"/>
     </row>
-    <row r="280" spans="1:26">
+    <row r="280" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A280" s="7"/>
       <c r="B280" s="7"/>
       <c r="C280" s="7"/>
@@ -19709,7 +19808,7 @@
       <c r="Y280"/>
       <c r="Z280"/>
     </row>
-    <row r="281" spans="1:26">
+    <row r="281" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A281" s="7"/>
       <c r="B281" s="7"/>
       <c r="C281" s="7"/>
@@ -19737,7 +19836,7 @@
       <c r="Y281"/>
       <c r="Z281"/>
     </row>
-    <row r="282" spans="1:26">
+    <row r="282" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A282" s="7"/>
       <c r="B282" s="7"/>
       <c r="C282" s="7"/>
@@ -19765,7 +19864,7 @@
       <c r="Y282"/>
       <c r="Z282"/>
     </row>
-    <row r="283" spans="1:26">
+    <row r="283" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A283" s="7"/>
       <c r="B283" s="7"/>
       <c r="C283" s="7"/>
@@ -19793,7 +19892,7 @@
       <c r="Y283"/>
       <c r="Z283"/>
     </row>
-    <row r="284" spans="1:26">
+    <row r="284" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A284" s="7"/>
       <c r="B284" s="7"/>
       <c r="C284" s="7"/>
@@ -19821,7 +19920,7 @@
       <c r="Y284"/>
       <c r="Z284"/>
     </row>
-    <row r="285" spans="1:26">
+    <row r="285" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A285" s="7"/>
       <c r="B285" s="7"/>
       <c r="C285" s="7"/>
@@ -19849,7 +19948,7 @@
       <c r="Y285"/>
       <c r="Z285"/>
     </row>
-    <row r="286" spans="1:26">
+    <row r="286" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A286" s="7"/>
       <c r="B286" s="7"/>
       <c r="C286" s="7"/>
@@ -19877,7 +19976,7 @@
       <c r="Y286"/>
       <c r="Z286"/>
     </row>
-    <row r="287" spans="1:26">
+    <row r="287" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A287" s="7"/>
       <c r="B287" s="7"/>
       <c r="C287" s="7"/>
@@ -19905,7 +20004,7 @@
       <c r="Y287"/>
       <c r="Z287"/>
     </row>
-    <row r="288" spans="1:26">
+    <row r="288" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A288" s="7"/>
       <c r="B288" s="7"/>
       <c r="C288" s="7"/>
@@ -19933,7 +20032,7 @@
       <c r="Y288"/>
       <c r="Z288"/>
     </row>
-    <row r="289" spans="1:26">
+    <row r="289" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A289" s="7"/>
       <c r="B289" s="7"/>
       <c r="C289" s="7"/>
@@ -19961,7 +20060,7 @@
       <c r="Y289"/>
       <c r="Z289"/>
     </row>
-    <row r="290" spans="1:26">
+    <row r="290" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A290" s="7"/>
       <c r="B290" s="7"/>
       <c r="C290" s="7"/>
@@ -19989,7 +20088,7 @@
       <c r="Y290"/>
       <c r="Z290"/>
     </row>
-    <row r="291" spans="1:26">
+    <row r="291" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A291" s="7"/>
       <c r="B291" s="7"/>
       <c r="C291" s="7"/>
@@ -20017,7 +20116,7 @@
       <c r="Y291"/>
       <c r="Z291"/>
     </row>
-    <row r="292" spans="1:26">
+    <row r="292" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A292" s="7"/>
       <c r="B292" s="7"/>
       <c r="C292" s="7"/>
@@ -20045,7 +20144,7 @@
       <c r="Y292"/>
       <c r="Z292"/>
     </row>
-    <row r="293" spans="1:26">
+    <row r="293" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A293" s="7"/>
       <c r="B293" s="7"/>
       <c r="C293" s="7"/>
@@ -20073,7 +20172,7 @@
       <c r="Y293"/>
       <c r="Z293"/>
     </row>
-    <row r="294" spans="1:26">
+    <row r="294" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A294" s="7"/>
       <c r="B294" s="7"/>
       <c r="C294" s="7"/>
@@ -20101,7 +20200,7 @@
       <c r="Y294"/>
       <c r="Z294"/>
     </row>
-    <row r="295" spans="1:26">
+    <row r="295" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A295" s="7"/>
       <c r="B295" s="7"/>
       <c r="C295" s="7"/>
@@ -20129,7 +20228,7 @@
       <c r="Y295"/>
       <c r="Z295"/>
     </row>
-    <row r="296" spans="1:26">
+    <row r="296" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A296" s="7"/>
       <c r="B296" s="7"/>
       <c r="C296" s="7"/>
@@ -20157,7 +20256,7 @@
       <c r="Y296"/>
       <c r="Z296"/>
     </row>
-    <row r="297" spans="1:26">
+    <row r="297" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A297" s="7"/>
       <c r="B297" s="7"/>
       <c r="C297" s="7"/>
@@ -20185,7 +20284,7 @@
       <c r="Y297"/>
       <c r="Z297"/>
     </row>
-    <row r="298" spans="1:26">
+    <row r="298" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A298" s="7"/>
       <c r="B298" s="7"/>
       <c r="C298" s="7"/>
@@ -20213,7 +20312,7 @@
       <c r="Y298"/>
       <c r="Z298"/>
     </row>
-    <row r="299" spans="1:26">
+    <row r="299" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A299" s="7"/>
       <c r="B299" s="7"/>
       <c r="C299" s="7"/>
@@ -20241,7 +20340,7 @@
       <c r="Y299"/>
       <c r="Z299"/>
     </row>
-    <row r="300" spans="1:26">
+    <row r="300" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A300" s="7"/>
       <c r="B300" s="7"/>
       <c r="C300" s="7"/>
@@ -20269,7 +20368,7 @@
       <c r="Y300"/>
       <c r="Z300"/>
     </row>
-    <row r="301" spans="1:26">
+    <row r="301" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A301" s="7"/>
       <c r="B301" s="7"/>
       <c r="C301" s="7"/>
@@ -20297,7 +20396,7 @@
       <c r="Y301"/>
       <c r="Z301"/>
     </row>
-    <row r="302" spans="1:26">
+    <row r="302" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A302" s="7"/>
       <c r="B302" s="7"/>
       <c r="C302" s="7"/>
@@ -20325,7 +20424,7 @@
       <c r="Y302"/>
       <c r="Z302"/>
     </row>
-    <row r="303" spans="1:26">
+    <row r="303" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A303" s="7"/>
       <c r="B303" s="7"/>
       <c r="C303" s="7"/>
@@ -20353,7 +20452,7 @@
       <c r="Y303"/>
       <c r="Z303"/>
     </row>
-    <row r="304" spans="1:26">
+    <row r="304" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A304" s="7"/>
       <c r="B304" s="7"/>
       <c r="C304" s="7"/>
@@ -20381,7 +20480,7 @@
       <c r="Y304"/>
       <c r="Z304"/>
     </row>
-    <row r="305" spans="1:26">
+    <row r="305" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A305" s="7"/>
       <c r="B305" s="7"/>
       <c r="C305" s="7"/>
@@ -20409,7 +20508,7 @@
       <c r="Y305"/>
       <c r="Z305"/>
     </row>
-    <row r="306" spans="1:26">
+    <row r="306" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A306" s="7"/>
       <c r="B306" s="7"/>
       <c r="C306" s="7"/>
@@ -20437,7 +20536,7 @@
       <c r="Y306"/>
       <c r="Z306"/>
     </row>
-    <row r="307" spans="1:26">
+    <row r="307" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A307" s="7"/>
       <c r="B307" s="7"/>
       <c r="C307" s="7"/>
@@ -20465,7 +20564,7 @@
       <c r="Y307"/>
       <c r="Z307"/>
     </row>
-    <row r="308" spans="1:26">
+    <row r="308" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A308" s="7"/>
       <c r="B308" s="7"/>
       <c r="C308" s="7"/>
@@ -20493,7 +20592,7 @@
       <c r="Y308"/>
       <c r="Z308"/>
     </row>
-    <row r="309" spans="1:26">
+    <row r="309" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A309" s="7"/>
       <c r="B309" s="7"/>
       <c r="C309" s="7"/>
@@ -20521,7 +20620,7 @@
       <c r="Y309"/>
       <c r="Z309"/>
     </row>
-    <row r="310" spans="1:26">
+    <row r="310" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A310" s="7"/>
       <c r="B310" s="7"/>
       <c r="C310" s="7"/>
@@ -20549,7 +20648,7 @@
       <c r="Y310"/>
       <c r="Z310"/>
     </row>
-    <row r="311" spans="1:26">
+    <row r="311" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A311" s="7"/>
       <c r="B311" s="7"/>
       <c r="C311" s="7"/>
@@ -20577,7 +20676,7 @@
       <c r="Y311"/>
       <c r="Z311"/>
     </row>
-    <row r="312" spans="1:26">
+    <row r="312" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A312" s="7"/>
       <c r="B312" s="7"/>
       <c r="C312" s="7"/>
@@ -20605,7 +20704,7 @@
       <c r="Y312"/>
       <c r="Z312"/>
     </row>
-    <row r="313" spans="1:26">
+    <row r="313" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A313" s="7"/>
       <c r="B313" s="7"/>
       <c r="C313" s="7"/>
@@ -20633,7 +20732,7 @@
       <c r="Y313"/>
       <c r="Z313"/>
     </row>
-    <row r="314" spans="1:26">
+    <row r="314" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A314" s="7"/>
       <c r="B314" s="7"/>
       <c r="C314" s="7"/>
@@ -20661,7 +20760,7 @@
       <c r="Y314"/>
       <c r="Z314"/>
     </row>
-    <row r="315" spans="1:26">
+    <row r="315" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A315" s="7"/>
       <c r="B315" s="7"/>
       <c r="C315" s="7"/>
@@ -20689,7 +20788,7 @@
       <c r="Y315"/>
       <c r="Z315"/>
     </row>
-    <row r="316" spans="1:26">
+    <row r="316" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A316" s="7"/>
       <c r="B316" s="7"/>
       <c r="C316" s="7"/>
@@ -20717,7 +20816,7 @@
       <c r="Y316"/>
       <c r="Z316"/>
     </row>
-    <row r="317" spans="1:26">
+    <row r="317" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A317" s="7"/>
       <c r="B317" s="7"/>
       <c r="C317" s="7"/>
@@ -20745,7 +20844,7 @@
       <c r="Y317"/>
       <c r="Z317"/>
     </row>
-    <row r="318" spans="1:26">
+    <row r="318" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A318" s="7"/>
       <c r="B318" s="7"/>
       <c r="C318" s="7"/>
@@ -20773,7 +20872,7 @@
       <c r="Y318"/>
       <c r="Z318"/>
     </row>
-    <row r="319" spans="1:26">
+    <row r="319" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A319" s="7"/>
       <c r="B319" s="7"/>
       <c r="C319" s="7"/>
@@ -20801,7 +20900,7 @@
       <c r="Y319"/>
       <c r="Z319"/>
     </row>
-    <row r="320" spans="1:26">
+    <row r="320" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A320" s="7"/>
       <c r="B320" s="7"/>
       <c r="C320" s="7"/>
@@ -20829,7 +20928,7 @@
       <c r="Y320"/>
       <c r="Z320"/>
     </row>
-    <row r="321" spans="1:26">
+    <row r="321" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A321" s="7"/>
       <c r="B321" s="7"/>
       <c r="C321" s="7"/>
@@ -20857,7 +20956,7 @@
       <c r="Y321"/>
       <c r="Z321"/>
     </row>
-    <row r="322" spans="1:26">
+    <row r="322" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A322" s="7"/>
       <c r="B322" s="7"/>
       <c r="C322" s="7"/>
@@ -20885,7 +20984,7 @@
       <c r="Y322"/>
       <c r="Z322"/>
     </row>
-    <row r="323" spans="1:26">
+    <row r="323" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A323" s="7"/>
       <c r="B323" s="7"/>
       <c r="C323" s="7"/>
@@ -20913,7 +21012,7 @@
       <c r="Y323"/>
       <c r="Z323"/>
     </row>
-    <row r="324" spans="1:26">
+    <row r="324" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A324" s="7"/>
       <c r="B324" s="7"/>
       <c r="C324" s="7"/>
@@ -20941,7 +21040,7 @@
       <c r="Y324"/>
       <c r="Z324"/>
     </row>
-    <row r="325" spans="1:26">
+    <row r="325" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A325" s="7"/>
       <c r="B325" s="7"/>
       <c r="C325" s="7"/>
@@ -20969,7 +21068,7 @@
       <c r="Y325"/>
       <c r="Z325"/>
     </row>
-    <row r="326" spans="1:26">
+    <row r="326" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A326" s="7"/>
       <c r="B326" s="7"/>
       <c r="C326" s="7"/>
@@ -20997,7 +21096,7 @@
       <c r="Y326"/>
       <c r="Z326"/>
     </row>
-    <row r="327" spans="1:26">
+    <row r="327" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A327" s="7"/>
       <c r="B327" s="7"/>
       <c r="C327" s="7"/>
@@ -21025,7 +21124,7 @@
       <c r="Y327"/>
       <c r="Z327"/>
     </row>
-    <row r="328" spans="1:26">
+    <row r="328" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A328" s="7"/>
       <c r="B328" s="7"/>
       <c r="C328" s="7"/>
@@ -21053,7 +21152,7 @@
       <c r="Y328"/>
       <c r="Z328"/>
     </row>
-    <row r="329" spans="1:26">
+    <row r="329" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A329" s="7"/>
       <c r="B329" s="7"/>
       <c r="C329" s="7"/>
@@ -21081,7 +21180,7 @@
       <c r="Y329"/>
       <c r="Z329"/>
     </row>
-    <row r="330" spans="1:26">
+    <row r="330" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A330" s="7"/>
       <c r="B330" s="7"/>
       <c r="C330" s="7"/>
@@ -21109,7 +21208,7 @@
       <c r="Y330"/>
       <c r="Z330"/>
     </row>
-    <row r="331" spans="1:26">
+    <row r="331" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A331" s="7"/>
       <c r="B331" s="7"/>
       <c r="C331" s="7"/>
@@ -21137,7 +21236,7 @@
       <c r="Y331"/>
       <c r="Z331"/>
     </row>
-    <row r="332" spans="1:26">
+    <row r="332" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A332" s="7"/>
       <c r="B332" s="7"/>
       <c r="C332" s="7"/>
@@ -21165,7 +21264,7 @@
       <c r="Y332"/>
       <c r="Z332"/>
     </row>
-    <row r="333" spans="1:26">
+    <row r="333" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A333" s="7"/>
       <c r="B333" s="7"/>
       <c r="C333" s="7"/>
@@ -21193,7 +21292,7 @@
       <c r="Y333"/>
       <c r="Z333"/>
     </row>
-    <row r="334" spans="1:26">
+    <row r="334" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A334" s="7"/>
       <c r="B334" s="7"/>
       <c r="C334" s="7"/>
@@ -21221,7 +21320,7 @@
       <c r="Y334"/>
       <c r="Z334"/>
     </row>
-    <row r="335" spans="1:26">
+    <row r="335" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A335" s="7"/>
       <c r="B335" s="7"/>
       <c r="C335" s="7"/>
@@ -21249,7 +21348,7 @@
       <c r="Y335"/>
       <c r="Z335"/>
     </row>
-    <row r="336" spans="1:26">
+    <row r="336" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A336" s="7"/>
       <c r="B336" s="7"/>
       <c r="C336" s="7"/>
@@ -21277,7 +21376,7 @@
       <c r="Y336"/>
       <c r="Z336"/>
     </row>
-    <row r="337" spans="1:26">
+    <row r="337" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A337" s="7"/>
       <c r="B337" s="7"/>
       <c r="C337" s="7"/>
@@ -21305,7 +21404,7 @@
       <c r="Y337"/>
       <c r="Z337"/>
     </row>
-    <row r="338" spans="1:26">
+    <row r="338" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A338" s="7"/>
       <c r="B338" s="7"/>
       <c r="C338" s="7"/>
@@ -21333,7 +21432,7 @@
       <c r="Y338"/>
       <c r="Z338"/>
     </row>
-    <row r="339" spans="1:26">
+    <row r="339" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A339" s="7"/>
       <c r="B339" s="7"/>
       <c r="C339" s="7"/>
@@ -21361,7 +21460,7 @@
       <c r="Y339"/>
       <c r="Z339"/>
     </row>
-    <row r="340" spans="1:26">
+    <row r="340" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A340" s="7"/>
       <c r="B340" s="7"/>
       <c r="C340" s="7"/>
@@ -21389,7 +21488,7 @@
       <c r="Y340"/>
       <c r="Z340"/>
     </row>
-    <row r="341" spans="1:26">
+    <row r="341" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A341" s="7"/>
       <c r="B341" s="7"/>
       <c r="C341" s="7"/>
@@ -21417,7 +21516,7 @@
       <c r="Y341"/>
       <c r="Z341"/>
     </row>
-    <row r="342" spans="1:26">
+    <row r="342" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A342" s="7"/>
       <c r="B342" s="7"/>
       <c r="C342" s="7"/>
@@ -21445,7 +21544,7 @@
       <c r="Y342"/>
       <c r="Z342"/>
     </row>
-    <row r="343" spans="1:26">
+    <row r="343" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A343" s="7"/>
       <c r="B343" s="7"/>
       <c r="C343" s="7"/>
@@ -21473,7 +21572,7 @@
       <c r="Y343"/>
       <c r="Z343"/>
     </row>
-    <row r="344" spans="1:26">
+    <row r="344" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A344" s="7"/>
       <c r="B344" s="7"/>
       <c r="C344" s="7"/>
@@ -21501,7 +21600,7 @@
       <c r="Y344"/>
       <c r="Z344"/>
     </row>
-    <row r="345" spans="1:26">
+    <row r="345" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A345" s="7"/>
       <c r="B345" s="7"/>
       <c r="C345" s="7"/>
@@ -21529,7 +21628,7 @@
       <c r="Y345"/>
       <c r="Z345"/>
     </row>
-    <row r="346" spans="1:26">
+    <row r="346" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A346" s="7"/>
       <c r="B346" s="7"/>
       <c r="C346" s="7"/>
@@ -21557,7 +21656,7 @@
       <c r="Y346"/>
       <c r="Z346"/>
     </row>
-    <row r="347" spans="1:26">
+    <row r="347" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A347" s="7"/>
       <c r="B347" s="7"/>
       <c r="C347" s="7"/>
@@ -21585,7 +21684,7 @@
       <c r="Y347"/>
       <c r="Z347"/>
     </row>
-    <row r="348" spans="1:26">
+    <row r="348" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A348" s="7"/>
       <c r="B348" s="7"/>
       <c r="C348" s="7"/>
@@ -21613,7 +21712,7 @@
       <c r="Y348"/>
       <c r="Z348"/>
     </row>
-    <row r="349" spans="1:26">
+    <row r="349" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A349" s="7"/>
       <c r="B349" s="7"/>
       <c r="C349" s="7"/>
@@ -21641,7 +21740,7 @@
       <c r="Y349"/>
       <c r="Z349"/>
     </row>
-    <row r="350" spans="1:26">
+    <row r="350" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A350" s="7"/>
       <c r="B350" s="7"/>
       <c r="C350" s="7"/>
@@ -21669,7 +21768,7 @@
       <c r="Y350"/>
       <c r="Z350"/>
     </row>
-    <row r="351" spans="1:26">
+    <row r="351" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A351" s="7"/>
       <c r="B351" s="7"/>
       <c r="C351" s="7"/>
@@ -21697,7 +21796,7 @@
       <c r="Y351"/>
       <c r="Z351"/>
     </row>
-    <row r="352" spans="1:26">
+    <row r="352" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A352" s="7"/>
       <c r="B352" s="7"/>
       <c r="C352" s="7"/>
@@ -21725,7 +21824,7 @@
       <c r="Y352"/>
       <c r="Z352"/>
     </row>
-    <row r="353" spans="1:26">
+    <row r="353" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A353" s="7"/>
       <c r="B353" s="7"/>
       <c r="C353" s="7"/>
@@ -21753,7 +21852,7 @@
       <c r="Y353"/>
       <c r="Z353"/>
     </row>
-    <row r="354" spans="1:26">
+    <row r="354" spans="1:26" x14ac:dyDescent="0.25">
       <c r="U354"/>
       <c r="V354"/>
       <c r="W354"/>
@@ -21761,7 +21860,7 @@
       <c r="Y354"/>
       <c r="Z354"/>
     </row>
-    <row r="355" spans="1:26">
+    <row r="355" spans="1:26" x14ac:dyDescent="0.25">
       <c r="U355"/>
       <c r="V355"/>
       <c r="W355"/>
@@ -21769,7 +21868,7 @@
       <c r="Y355"/>
       <c r="Z355"/>
     </row>
-    <row r="356" spans="1:26">
+    <row r="356" spans="1:26" x14ac:dyDescent="0.25">
       <c r="U356"/>
       <c r="V356"/>
       <c r="W356"/>
@@ -21777,7 +21876,7 @@
       <c r="Y356"/>
       <c r="Z356"/>
     </row>
-    <row r="357" spans="1:26">
+    <row r="357" spans="1:26" x14ac:dyDescent="0.25">
       <c r="U357"/>
       <c r="V357"/>
       <c r="W357"/>
@@ -21785,7 +21884,7 @@
       <c r="Y357"/>
       <c r="Z357"/>
     </row>
-    <row r="358" spans="1:26">
+    <row r="358" spans="1:26" x14ac:dyDescent="0.25">
       <c r="U358"/>
       <c r="V358"/>
       <c r="W358"/>
@@ -21793,7 +21892,7 @@
       <c r="Y358"/>
       <c r="Z358"/>
     </row>
-    <row r="359" spans="1:26">
+    <row r="359" spans="1:26" x14ac:dyDescent="0.25">
       <c r="U359"/>
       <c r="V359"/>
       <c r="W359"/>
@@ -21801,7 +21900,7 @@
       <c r="Y359"/>
       <c r="Z359"/>
     </row>
-    <row r="360" spans="1:26">
+    <row r="360" spans="1:26" x14ac:dyDescent="0.25">
       <c r="U360"/>
       <c r="V360"/>
       <c r="W360"/>
@@ -21809,7 +21908,7 @@
       <c r="Y360"/>
       <c r="Z360"/>
     </row>
-    <row r="361" spans="1:26">
+    <row r="361" spans="1:26" x14ac:dyDescent="0.25">
       <c r="U361"/>
       <c r="V361"/>
       <c r="W361"/>
@@ -21817,7 +21916,7 @@
       <c r="Y361"/>
       <c r="Z361"/>
     </row>
-    <row r="362" spans="1:26">
+    <row r="362" spans="1:26" x14ac:dyDescent="0.25">
       <c r="U362"/>
       <c r="V362"/>
       <c r="W362"/>
@@ -21825,7 +21924,7 @@
       <c r="Y362"/>
       <c r="Z362"/>
     </row>
-    <row r="363" spans="1:26">
+    <row r="363" spans="1:26" x14ac:dyDescent="0.25">
       <c r="U363"/>
       <c r="V363"/>
       <c r="W363"/>
@@ -21833,7 +21932,7 @@
       <c r="Y363"/>
       <c r="Z363"/>
     </row>
-    <row r="364" spans="1:26">
+    <row r="364" spans="1:26" x14ac:dyDescent="0.25">
       <c r="U364"/>
       <c r="V364"/>
       <c r="W364"/>
@@ -21841,7 +21940,7 @@
       <c r="Y364"/>
       <c r="Z364"/>
     </row>
-    <row r="365" spans="1:26">
+    <row r="365" spans="1:26" x14ac:dyDescent="0.25">
       <c r="U365"/>
       <c r="V365"/>
       <c r="W365"/>
@@ -21849,7 +21948,7 @@
       <c r="Y365"/>
       <c r="Z365"/>
     </row>
-    <row r="366" spans="1:26">
+    <row r="366" spans="1:26" x14ac:dyDescent="0.25">
       <c r="U366"/>
       <c r="V366"/>
       <c r="W366"/>
@@ -21857,7 +21956,7 @@
       <c r="Y366"/>
       <c r="Z366"/>
     </row>
-    <row r="367" spans="1:26">
+    <row r="367" spans="1:26" x14ac:dyDescent="0.25">
       <c r="U367"/>
       <c r="V367"/>
       <c r="W367"/>
@@ -21865,7 +21964,7 @@
       <c r="Y367"/>
       <c r="Z367"/>
     </row>
-    <row r="368" spans="1:26">
+    <row r="368" spans="1:26" x14ac:dyDescent="0.25">
       <c r="U368"/>
       <c r="V368"/>
       <c r="W368"/>
@@ -21873,7 +21972,7 @@
       <c r="Y368"/>
       <c r="Z368"/>
     </row>
-    <row r="369" spans="21:26">
+    <row r="369" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U369"/>
       <c r="V369"/>
       <c r="W369"/>
@@ -21881,7 +21980,7 @@
       <c r="Y369"/>
       <c r="Z369"/>
     </row>
-    <row r="370" spans="21:26">
+    <row r="370" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U370"/>
       <c r="V370"/>
       <c r="W370"/>
@@ -21889,7 +21988,7 @@
       <c r="Y370"/>
       <c r="Z370"/>
     </row>
-    <row r="371" spans="21:26">
+    <row r="371" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U371"/>
       <c r="V371"/>
       <c r="W371"/>
@@ -21897,7 +21996,7 @@
       <c r="Y371"/>
       <c r="Z371"/>
     </row>
-    <row r="372" spans="21:26">
+    <row r="372" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U372"/>
       <c r="V372"/>
       <c r="W372"/>
@@ -21905,7 +22004,7 @@
       <c r="Y372"/>
       <c r="Z372"/>
     </row>
-    <row r="373" spans="21:26">
+    <row r="373" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U373"/>
       <c r="V373"/>
       <c r="W373"/>
@@ -21913,7 +22012,7 @@
       <c r="Y373"/>
       <c r="Z373"/>
     </row>
-    <row r="374" spans="21:26">
+    <row r="374" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U374"/>
       <c r="V374"/>
       <c r="W374"/>
@@ -21921,7 +22020,7 @@
       <c r="Y374"/>
       <c r="Z374"/>
     </row>
-    <row r="375" spans="21:26">
+    <row r="375" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U375"/>
       <c r="V375"/>
       <c r="W375"/>
@@ -21929,7 +22028,7 @@
       <c r="Y375"/>
       <c r="Z375"/>
     </row>
-    <row r="376" spans="21:26">
+    <row r="376" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U376"/>
       <c r="V376"/>
       <c r="W376"/>
@@ -21937,7 +22036,7 @@
       <c r="Y376"/>
       <c r="Z376"/>
     </row>
-    <row r="377" spans="21:26">
+    <row r="377" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U377"/>
       <c r="V377"/>
       <c r="W377"/>
@@ -21945,7 +22044,7 @@
       <c r="Y377"/>
       <c r="Z377"/>
     </row>
-    <row r="378" spans="21:26">
+    <row r="378" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U378"/>
       <c r="V378"/>
       <c r="W378"/>
@@ -21953,7 +22052,7 @@
       <c r="Y378"/>
       <c r="Z378"/>
     </row>
-    <row r="379" spans="21:26">
+    <row r="379" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U379"/>
       <c r="V379"/>
       <c r="W379"/>
@@ -21961,7 +22060,7 @@
       <c r="Y379"/>
       <c r="Z379"/>
     </row>
-    <row r="380" spans="21:26">
+    <row r="380" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U380"/>
       <c r="V380"/>
       <c r="W380"/>
@@ -21969,7 +22068,7 @@
       <c r="Y380"/>
       <c r="Z380"/>
     </row>
-    <row r="381" spans="21:26">
+    <row r="381" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U381"/>
       <c r="V381"/>
       <c r="W381"/>
@@ -21977,7 +22076,7 @@
       <c r="Y381"/>
       <c r="Z381"/>
     </row>
-    <row r="382" spans="21:26">
+    <row r="382" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U382"/>
       <c r="V382"/>
       <c r="W382"/>
@@ -21985,7 +22084,7 @@
       <c r="Y382"/>
       <c r="Z382"/>
     </row>
-    <row r="383" spans="21:26">
+    <row r="383" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U383"/>
       <c r="V383"/>
       <c r="W383"/>
@@ -21993,7 +22092,7 @@
       <c r="Y383"/>
       <c r="Z383"/>
     </row>
-    <row r="384" spans="21:26">
+    <row r="384" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U384"/>
       <c r="V384"/>
       <c r="W384"/>
@@ -22001,7 +22100,7 @@
       <c r="Y384"/>
       <c r="Z384"/>
     </row>
-    <row r="385" spans="21:26">
+    <row r="385" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U385"/>
       <c r="V385"/>
       <c r="W385"/>
@@ -22009,7 +22108,7 @@
       <c r="Y385"/>
       <c r="Z385"/>
     </row>
-    <row r="386" spans="21:26">
+    <row r="386" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U386"/>
       <c r="V386"/>
       <c r="W386"/>
@@ -22017,7 +22116,7 @@
       <c r="Y386"/>
       <c r="Z386"/>
     </row>
-    <row r="387" spans="21:26">
+    <row r="387" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U387"/>
       <c r="V387"/>
       <c r="W387"/>
@@ -22025,7 +22124,7 @@
       <c r="Y387"/>
       <c r="Z387"/>
     </row>
-    <row r="388" spans="21:26">
+    <row r="388" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U388"/>
       <c r="V388"/>
       <c r="W388"/>
@@ -22033,7 +22132,7 @@
       <c r="Y388"/>
       <c r="Z388"/>
     </row>
-    <row r="389" spans="21:26">
+    <row r="389" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U389"/>
       <c r="V389"/>
       <c r="W389"/>
@@ -22041,7 +22140,7 @@
       <c r="Y389"/>
       <c r="Z389"/>
     </row>
-    <row r="390" spans="21:26">
+    <row r="390" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U390"/>
       <c r="V390"/>
       <c r="W390"/>
@@ -22049,7 +22148,7 @@
       <c r="Y390"/>
       <c r="Z390"/>
     </row>
-    <row r="391" spans="21:26">
+    <row r="391" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U391"/>
       <c r="V391"/>
       <c r="W391"/>
@@ -22057,7 +22156,7 @@
       <c r="Y391"/>
       <c r="Z391"/>
     </row>
-    <row r="392" spans="21:26">
+    <row r="392" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U392"/>
       <c r="V392"/>
       <c r="W392"/>
@@ -22065,7 +22164,7 @@
       <c r="Y392"/>
       <c r="Z392"/>
     </row>
-    <row r="393" spans="21:26">
+    <row r="393" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U393"/>
       <c r="V393"/>
       <c r="W393"/>
@@ -22073,7 +22172,7 @@
       <c r="Y393"/>
       <c r="Z393"/>
     </row>
-    <row r="394" spans="21:26">
+    <row r="394" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U394"/>
       <c r="V394"/>
       <c r="W394"/>
@@ -22081,7 +22180,7 @@
       <c r="Y394"/>
       <c r="Z394"/>
     </row>
-    <row r="395" spans="21:26">
+    <row r="395" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U395"/>
       <c r="V395"/>
       <c r="W395"/>
@@ -22089,7 +22188,7 @@
       <c r="Y395"/>
       <c r="Z395"/>
     </row>
-    <row r="396" spans="21:26">
+    <row r="396" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U396"/>
       <c r="V396"/>
       <c r="W396"/>
@@ -22097,7 +22196,7 @@
       <c r="Y396"/>
       <c r="Z396"/>
     </row>
-    <row r="397" spans="21:26">
+    <row r="397" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U397"/>
       <c r="V397"/>
       <c r="W397"/>
@@ -22105,7 +22204,7 @@
       <c r="Y397"/>
       <c r="Z397"/>
     </row>
-    <row r="398" spans="21:26">
+    <row r="398" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U398"/>
       <c r="V398"/>
       <c r="W398"/>
@@ -22113,7 +22212,7 @@
       <c r="Y398"/>
       <c r="Z398"/>
     </row>
-    <row r="399" spans="21:26">
+    <row r="399" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U399"/>
       <c r="V399"/>
       <c r="W399"/>
@@ -22121,7 +22220,7 @@
       <c r="Y399"/>
       <c r="Z399"/>
     </row>
-    <row r="400" spans="21:26">
+    <row r="400" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U400"/>
       <c r="V400"/>
       <c r="W400"/>
@@ -22129,7 +22228,7 @@
       <c r="Y400"/>
       <c r="Z400"/>
     </row>
-    <row r="401" spans="21:26">
+    <row r="401" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U401"/>
       <c r="V401"/>
       <c r="W401"/>
@@ -22137,7 +22236,7 @@
       <c r="Y401"/>
       <c r="Z401"/>
     </row>
-    <row r="402" spans="21:26">
+    <row r="402" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U402"/>
       <c r="V402"/>
       <c r="W402"/>
@@ -22145,7 +22244,7 @@
       <c r="Y402"/>
       <c r="Z402"/>
     </row>
-    <row r="403" spans="21:26">
+    <row r="403" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U403"/>
       <c r="V403"/>
       <c r="W403"/>
@@ -22153,7 +22252,7 @@
       <c r="Y403"/>
       <c r="Z403"/>
     </row>
-    <row r="404" spans="21:26">
+    <row r="404" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U404"/>
       <c r="V404"/>
       <c r="W404"/>
@@ -22161,7 +22260,7 @@
       <c r="Y404"/>
       <c r="Z404"/>
     </row>
-    <row r="405" spans="21:26">
+    <row r="405" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U405"/>
       <c r="V405"/>
       <c r="W405"/>
@@ -22169,7 +22268,7 @@
       <c r="Y405"/>
       <c r="Z405"/>
     </row>
-    <row r="406" spans="21:26">
+    <row r="406" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U406"/>
       <c r="V406"/>
       <c r="W406"/>
@@ -22177,7 +22276,7 @@
       <c r="Y406"/>
       <c r="Z406"/>
     </row>
-    <row r="407" spans="21:26">
+    <row r="407" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U407"/>
       <c r="V407"/>
       <c r="W407"/>
@@ -22185,7 +22284,7 @@
       <c r="Y407"/>
       <c r="Z407"/>
     </row>
-    <row r="408" spans="21:26">
+    <row r="408" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U408"/>
       <c r="V408"/>
       <c r="W408"/>
@@ -22193,7 +22292,7 @@
       <c r="Y408"/>
       <c r="Z408"/>
     </row>
-    <row r="409" spans="21:26">
+    <row r="409" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U409"/>
       <c r="V409"/>
       <c r="W409"/>
@@ -22201,7 +22300,7 @@
       <c r="Y409"/>
       <c r="Z409"/>
     </row>
-    <row r="410" spans="21:26">
+    <row r="410" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U410"/>
       <c r="V410"/>
       <c r="W410"/>
@@ -22209,7 +22308,7 @@
       <c r="Y410"/>
       <c r="Z410"/>
     </row>
-    <row r="411" spans="21:26">
+    <row r="411" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U411"/>
       <c r="V411"/>
       <c r="W411"/>
@@ -22217,7 +22316,7 @@
       <c r="Y411"/>
       <c r="Z411"/>
     </row>
-    <row r="412" spans="21:26">
+    <row r="412" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U412"/>
       <c r="V412"/>
       <c r="W412"/>
@@ -22225,7 +22324,7 @@
       <c r="Y412"/>
       <c r="Z412"/>
     </row>
-    <row r="413" spans="21:26">
+    <row r="413" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U413"/>
       <c r="V413"/>
       <c r="W413"/>
@@ -22233,7 +22332,7 @@
       <c r="Y413"/>
       <c r="Z413"/>
     </row>
-    <row r="414" spans="21:26">
+    <row r="414" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U414"/>
       <c r="V414"/>
       <c r="W414"/>
@@ -22241,7 +22340,7 @@
       <c r="Y414"/>
       <c r="Z414"/>
     </row>
-    <row r="415" spans="21:26">
+    <row r="415" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U415"/>
       <c r="V415"/>
       <c r="W415"/>
@@ -22249,7 +22348,7 @@
       <c r="Y415"/>
       <c r="Z415"/>
     </row>
-    <row r="416" spans="21:26">
+    <row r="416" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U416"/>
       <c r="V416"/>
       <c r="W416"/>
@@ -22257,7 +22356,7 @@
       <c r="Y416"/>
       <c r="Z416"/>
     </row>
-    <row r="417" spans="21:26">
+    <row r="417" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U417"/>
       <c r="V417"/>
       <c r="W417"/>
@@ -22265,7 +22364,7 @@
       <c r="Y417"/>
       <c r="Z417"/>
     </row>
-    <row r="418" spans="21:26">
+    <row r="418" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U418"/>
       <c r="V418"/>
       <c r="W418"/>
@@ -22273,7 +22372,7 @@
       <c r="Y418"/>
       <c r="Z418"/>
     </row>
-    <row r="419" spans="21:26">
+    <row r="419" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U419"/>
       <c r="V419"/>
       <c r="W419"/>
@@ -22281,7 +22380,7 @@
       <c r="Y419"/>
       <c r="Z419"/>
     </row>
-    <row r="420" spans="21:26">
+    <row r="420" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U420"/>
       <c r="V420"/>
       <c r="W420"/>
@@ -22289,7 +22388,7 @@
       <c r="Y420"/>
       <c r="Z420"/>
     </row>
-    <row r="421" spans="21:26">
+    <row r="421" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U421"/>
       <c r="V421"/>
       <c r="W421"/>
@@ -22297,7 +22396,7 @@
       <c r="Y421"/>
       <c r="Z421"/>
     </row>
-    <row r="422" spans="21:26">
+    <row r="422" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U422"/>
       <c r="V422"/>
       <c r="W422"/>
@@ -22305,7 +22404,7 @@
       <c r="Y422"/>
       <c r="Z422"/>
     </row>
-    <row r="423" spans="21:26">
+    <row r="423" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U423"/>
       <c r="V423"/>
       <c r="W423"/>
@@ -22313,7 +22412,7 @@
       <c r="Y423"/>
       <c r="Z423"/>
     </row>
-    <row r="424" spans="21:26">
+    <row r="424" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U424"/>
       <c r="V424"/>
       <c r="W424"/>
@@ -22321,7 +22420,7 @@
       <c r="Y424"/>
       <c r="Z424"/>
     </row>
-    <row r="425" spans="21:26">
+    <row r="425" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U425"/>
       <c r="V425"/>
       <c r="W425"/>
@@ -22329,7 +22428,7 @@
       <c r="Y425"/>
       <c r="Z425"/>
     </row>
-    <row r="426" spans="21:26">
+    <row r="426" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U426"/>
       <c r="V426"/>
       <c r="W426"/>
@@ -22337,7 +22436,7 @@
       <c r="Y426"/>
       <c r="Z426"/>
     </row>
-    <row r="427" spans="21:26">
+    <row r="427" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U427"/>
       <c r="V427"/>
       <c r="W427"/>
@@ -22345,7 +22444,7 @@
       <c r="Y427"/>
       <c r="Z427"/>
     </row>
-    <row r="428" spans="21:26">
+    <row r="428" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U428"/>
       <c r="V428"/>
       <c r="W428"/>
@@ -22353,7 +22452,7 @@
       <c r="Y428"/>
       <c r="Z428"/>
     </row>
-    <row r="429" spans="21:26">
+    <row r="429" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U429"/>
       <c r="V429"/>
       <c r="W429"/>
@@ -22361,7 +22460,7 @@
       <c r="Y429"/>
       <c r="Z429"/>
     </row>
-    <row r="430" spans="21:26">
+    <row r="430" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U430"/>
       <c r="V430"/>
       <c r="W430"/>
@@ -22369,7 +22468,7 @@
       <c r="Y430"/>
       <c r="Z430"/>
     </row>
-    <row r="431" spans="21:26">
+    <row r="431" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U431"/>
       <c r="V431"/>
       <c r="W431"/>
@@ -22377,7 +22476,7 @@
       <c r="Y431"/>
       <c r="Z431"/>
     </row>
-    <row r="432" spans="21:26">
+    <row r="432" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U432"/>
       <c r="V432"/>
       <c r="W432"/>
@@ -22385,7 +22484,7 @@
       <c r="Y432"/>
       <c r="Z432"/>
     </row>
-    <row r="433" spans="21:26">
+    <row r="433" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U433"/>
       <c r="V433"/>
       <c r="W433"/>
@@ -22393,7 +22492,7 @@
       <c r="Y433"/>
       <c r="Z433"/>
     </row>
-    <row r="434" spans="21:26">
+    <row r="434" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U434"/>
       <c r="V434"/>
       <c r="W434"/>
@@ -22401,7 +22500,7 @@
       <c r="Y434"/>
       <c r="Z434"/>
     </row>
-    <row r="435" spans="21:26">
+    <row r="435" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U435"/>
       <c r="V435"/>
       <c r="W435"/>
@@ -22409,7 +22508,7 @@
       <c r="Y435"/>
       <c r="Z435"/>
     </row>
-    <row r="436" spans="21:26">
+    <row r="436" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U436"/>
       <c r="V436"/>
       <c r="W436"/>
@@ -22417,7 +22516,7 @@
       <c r="Y436"/>
       <c r="Z436"/>
     </row>
-    <row r="437" spans="21:26">
+    <row r="437" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U437"/>
       <c r="V437"/>
       <c r="W437"/>
@@ -22425,7 +22524,7 @@
       <c r="Y437"/>
       <c r="Z437"/>
     </row>
-    <row r="438" spans="21:26">
+    <row r="438" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U438"/>
       <c r="V438"/>
       <c r="W438"/>
@@ -22433,7 +22532,7 @@
       <c r="Y438"/>
       <c r="Z438"/>
     </row>
-    <row r="439" spans="21:26">
+    <row r="439" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U439"/>
       <c r="V439"/>
       <c r="W439"/>
@@ -22441,7 +22540,7 @@
       <c r="Y439"/>
       <c r="Z439"/>
     </row>
-    <row r="440" spans="21:26">
+    <row r="440" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U440"/>
       <c r="V440"/>
       <c r="W440"/>
@@ -22449,7 +22548,7 @@
       <c r="Y440"/>
       <c r="Z440"/>
     </row>
-    <row r="441" spans="21:26">
+    <row r="441" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U441"/>
       <c r="V441"/>
       <c r="W441"/>
@@ -22457,7 +22556,7 @@
       <c r="Y441"/>
       <c r="Z441"/>
     </row>
-    <row r="442" spans="21:26">
+    <row r="442" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U442"/>
       <c r="V442"/>
       <c r="W442"/>
@@ -22465,7 +22564,7 @@
       <c r="Y442"/>
       <c r="Z442"/>
     </row>
-    <row r="443" spans="21:26">
+    <row r="443" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U443"/>
       <c r="V443"/>
       <c r="W443"/>
@@ -22473,7 +22572,7 @@
       <c r="Y443"/>
       <c r="Z443"/>
     </row>
-    <row r="444" spans="21:26">
+    <row r="444" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U444"/>
       <c r="V444"/>
       <c r="W444"/>
@@ -22481,7 +22580,7 @@
       <c r="Y444"/>
       <c r="Z444"/>
     </row>
-    <row r="445" spans="21:26">
+    <row r="445" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U445"/>
       <c r="V445"/>
       <c r="W445"/>
@@ -22489,7 +22588,7 @@
       <c r="Y445"/>
       <c r="Z445"/>
     </row>
-    <row r="446" spans="21:26">
+    <row r="446" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U446"/>
       <c r="V446"/>
       <c r="W446"/>
@@ -22497,7 +22596,7 @@
       <c r="Y446"/>
       <c r="Z446"/>
     </row>
-    <row r="447" spans="21:26">
+    <row r="447" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U447"/>
       <c r="V447"/>
       <c r="W447"/>
@@ -22505,7 +22604,7 @@
       <c r="Y447"/>
       <c r="Z447"/>
     </row>
-    <row r="448" spans="21:26">
+    <row r="448" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U448"/>
       <c r="V448"/>
       <c r="W448"/>
@@ -22513,7 +22612,7 @@
       <c r="Y448"/>
       <c r="Z448"/>
     </row>
-    <row r="449" spans="21:26">
+    <row r="449" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U449"/>
       <c r="V449"/>
       <c r="W449"/>
@@ -22521,7 +22620,7 @@
       <c r="Y449"/>
       <c r="Z449"/>
     </row>
-    <row r="450" spans="21:26">
+    <row r="450" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U450"/>
       <c r="V450"/>
       <c r="W450"/>
@@ -22529,7 +22628,7 @@
       <c r="Y450"/>
       <c r="Z450"/>
     </row>
-    <row r="451" spans="21:26">
+    <row r="451" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U451"/>
       <c r="V451"/>
       <c r="W451"/>
@@ -22537,7 +22636,7 @@
       <c r="Y451"/>
       <c r="Z451"/>
     </row>
-    <row r="452" spans="21:26">
+    <row r="452" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U452"/>
       <c r="V452"/>
       <c r="W452"/>
@@ -22545,7 +22644,7 @@
       <c r="Y452"/>
       <c r="Z452"/>
     </row>
-    <row r="453" spans="21:26">
+    <row r="453" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U453"/>
       <c r="V453"/>
       <c r="W453"/>
@@ -22553,7 +22652,7 @@
       <c r="Y453"/>
       <c r="Z453"/>
     </row>
-    <row r="454" spans="21:26">
+    <row r="454" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U454"/>
       <c r="V454"/>
       <c r="W454"/>
@@ -22561,7 +22660,7 @@
       <c r="Y454"/>
       <c r="Z454"/>
     </row>
-    <row r="455" spans="21:26">
+    <row r="455" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U455"/>
       <c r="V455"/>
       <c r="W455"/>
@@ -22569,7 +22668,7 @@
       <c r="Y455"/>
       <c r="Z455"/>
     </row>
-    <row r="456" spans="21:26">
+    <row r="456" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U456"/>
       <c r="V456"/>
       <c r="W456"/>
@@ -22577,7 +22676,7 @@
       <c r="Y456"/>
       <c r="Z456"/>
     </row>
-    <row r="457" spans="21:26">
+    <row r="457" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U457"/>
       <c r="V457"/>
       <c r="W457"/>
@@ -22585,7 +22684,7 @@
       <c r="Y457"/>
       <c r="Z457"/>
     </row>
-    <row r="458" spans="21:26">
+    <row r="458" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U458"/>
       <c r="V458"/>
       <c r="W458"/>
@@ -22593,7 +22692,7 @@
       <c r="Y458"/>
       <c r="Z458"/>
     </row>
-    <row r="459" spans="21:26">
+    <row r="459" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U459"/>
       <c r="V459"/>
       <c r="W459"/>
@@ -22601,7 +22700,7 @@
       <c r="Y459"/>
       <c r="Z459"/>
     </row>
-    <row r="460" spans="21:26">
+    <row r="460" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U460"/>
       <c r="V460"/>
       <c r="W460"/>
@@ -22609,7 +22708,7 @@
       <c r="Y460"/>
       <c r="Z460"/>
     </row>
-    <row r="461" spans="21:26">
+    <row r="461" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U461"/>
       <c r="V461"/>
       <c r="W461"/>
@@ -22617,7 +22716,7 @@
       <c r="Y461"/>
       <c r="Z461"/>
     </row>
-    <row r="462" spans="21:26">
+    <row r="462" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U462"/>
       <c r="V462"/>
       <c r="W462"/>
@@ -22625,7 +22724,7 @@
       <c r="Y462"/>
       <c r="Z462"/>
     </row>
-    <row r="463" spans="21:26">
+    <row r="463" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U463"/>
       <c r="V463"/>
       <c r="W463"/>
@@ -22633,7 +22732,7 @@
       <c r="Y463"/>
       <c r="Z463"/>
     </row>
-    <row r="464" spans="21:26">
+    <row r="464" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U464"/>
       <c r="V464"/>
       <c r="W464"/>
@@ -22641,7 +22740,7 @@
       <c r="Y464"/>
       <c r="Z464"/>
     </row>
-    <row r="465" spans="21:26">
+    <row r="465" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U465"/>
       <c r="V465"/>
       <c r="W465"/>
@@ -22649,7 +22748,7 @@
       <c r="Y465"/>
       <c r="Z465"/>
     </row>
-    <row r="466" spans="21:26">
+    <row r="466" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U466"/>
       <c r="V466"/>
       <c r="W466"/>
@@ -22657,7 +22756,7 @@
       <c r="Y466"/>
       <c r="Z466"/>
     </row>
-    <row r="467" spans="21:26">
+    <row r="467" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U467"/>
       <c r="V467"/>
       <c r="W467"/>
@@ -22665,7 +22764,7 @@
       <c r="Y467"/>
       <c r="Z467"/>
     </row>
-    <row r="468" spans="21:26">
+    <row r="468" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U468"/>
       <c r="V468"/>
       <c r="W468"/>
@@ -22673,7 +22772,7 @@
       <c r="Y468"/>
       <c r="Z468"/>
     </row>
-    <row r="469" spans="21:26">
+    <row r="469" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U469"/>
       <c r="V469"/>
       <c r="W469"/>
@@ -22681,7 +22780,7 @@
       <c r="Y469"/>
       <c r="Z469"/>
     </row>
-    <row r="470" spans="21:26">
+    <row r="470" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U470"/>
       <c r="V470"/>
       <c r="W470"/>
@@ -22689,7 +22788,7 @@
       <c r="Y470"/>
       <c r="Z470"/>
     </row>
-    <row r="471" spans="21:26">
+    <row r="471" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U471"/>
       <c r="V471"/>
       <c r="W471"/>
@@ -22697,7 +22796,7 @@
       <c r="Y471"/>
       <c r="Z471"/>
     </row>
-    <row r="472" spans="21:26">
+    <row r="472" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U472"/>
       <c r="V472"/>
       <c r="W472"/>
@@ -22705,7 +22804,7 @@
       <c r="Y472"/>
       <c r="Z472"/>
     </row>
-    <row r="473" spans="21:26">
+    <row r="473" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U473"/>
       <c r="V473"/>
       <c r="W473"/>
@@ -22713,7 +22812,7 @@
       <c r="Y473"/>
       <c r="Z473"/>
     </row>
-    <row r="474" spans="21:26">
+    <row r="474" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U474"/>
       <c r="V474"/>
       <c r="W474"/>
@@ -22721,7 +22820,7 @@
       <c r="Y474"/>
       <c r="Z474"/>
     </row>
-    <row r="475" spans="21:26">
+    <row r="475" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U475"/>
       <c r="V475"/>
       <c r="W475"/>
@@ -22729,7 +22828,7 @@
       <c r="Y475"/>
       <c r="Z475"/>
     </row>
-    <row r="476" spans="21:26">
+    <row r="476" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U476"/>
       <c r="V476"/>
       <c r="W476"/>
@@ -22737,7 +22836,7 @@
       <c r="Y476"/>
       <c r="Z476"/>
     </row>
-    <row r="477" spans="21:26">
+    <row r="477" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U477"/>
       <c r="V477"/>
       <c r="W477"/>
@@ -22745,7 +22844,7 @@
       <c r="Y477"/>
       <c r="Z477"/>
     </row>
-    <row r="478" spans="21:26">
+    <row r="478" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U478"/>
       <c r="V478"/>
       <c r="W478"/>
@@ -22753,7 +22852,7 @@
       <c r="Y478"/>
       <c r="Z478"/>
     </row>
-    <row r="479" spans="21:26">
+    <row r="479" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U479"/>
       <c r="V479"/>
       <c r="W479"/>
@@ -22761,7 +22860,7 @@
       <c r="Y479"/>
       <c r="Z479"/>
     </row>
-    <row r="480" spans="21:26">
+    <row r="480" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U480"/>
       <c r="V480"/>
       <c r="W480"/>
@@ -22769,7 +22868,7 @@
       <c r="Y480"/>
       <c r="Z480"/>
     </row>
-    <row r="481" spans="21:26">
+    <row r="481" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U481"/>
       <c r="V481"/>
       <c r="W481"/>
@@ -22777,7 +22876,7 @@
       <c r="Y481"/>
       <c r="Z481"/>
     </row>
-    <row r="482" spans="21:26">
+    <row r="482" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U482"/>
       <c r="V482"/>
       <c r="W482"/>
@@ -22785,7 +22884,7 @@
       <c r="Y482"/>
       <c r="Z482"/>
     </row>
-    <row r="483" spans="21:26">
+    <row r="483" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U483"/>
       <c r="V483"/>
       <c r="W483"/>
@@ -22793,7 +22892,7 @@
       <c r="Y483"/>
       <c r="Z483"/>
     </row>
-    <row r="484" spans="21:26">
+    <row r="484" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U484"/>
       <c r="V484"/>
       <c r="W484"/>
@@ -22801,7 +22900,7 @@
       <c r="Y484"/>
       <c r="Z484"/>
     </row>
-    <row r="485" spans="21:26">
+    <row r="485" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U485"/>
       <c r="V485"/>
       <c r="W485"/>
@@ -22809,7 +22908,7 @@
       <c r="Y485"/>
       <c r="Z485"/>
     </row>
-    <row r="486" spans="21:26">
+    <row r="486" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U486"/>
       <c r="V486"/>
       <c r="W486"/>
@@ -22817,7 +22916,7 @@
       <c r="Y486"/>
       <c r="Z486"/>
     </row>
-    <row r="487" spans="21:26">
+    <row r="487" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U487"/>
       <c r="V487"/>
       <c r="W487"/>
@@ -22825,7 +22924,7 @@
       <c r="Y487"/>
       <c r="Z487"/>
     </row>
-    <row r="488" spans="21:26">
+    <row r="488" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U488"/>
       <c r="V488"/>
       <c r="W488"/>
@@ -22833,7 +22932,7 @@
       <c r="Y488"/>
       <c r="Z488"/>
     </row>
-    <row r="489" spans="21:26">
+    <row r="489" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U489"/>
       <c r="V489"/>
       <c r="W489"/>
@@ -22841,7 +22940,7 @@
       <c r="Y489"/>
       <c r="Z489"/>
     </row>
-    <row r="490" spans="21:26">
+    <row r="490" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U490"/>
       <c r="V490"/>
       <c r="W490"/>
@@ -22849,7 +22948,7 @@
       <c r="Y490"/>
       <c r="Z490"/>
     </row>
-    <row r="491" spans="21:26">
+    <row r="491" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U491"/>
       <c r="V491"/>
       <c r="W491"/>
@@ -22857,7 +22956,7 @@
       <c r="Y491"/>
       <c r="Z491"/>
     </row>
-    <row r="492" spans="21:26">
+    <row r="492" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U492"/>
       <c r="V492"/>
       <c r="W492"/>
@@ -22865,7 +22964,7 @@
       <c r="Y492"/>
       <c r="Z492"/>
     </row>
-    <row r="493" spans="21:26">
+    <row r="493" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U493"/>
       <c r="V493"/>
       <c r="W493"/>
@@ -22873,7 +22972,7 @@
       <c r="Y493"/>
       <c r="Z493"/>
     </row>
-    <row r="494" spans="21:26">
+    <row r="494" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U494"/>
       <c r="V494"/>
       <c r="W494"/>
@@ -22881,7 +22980,7 @@
       <c r="Y494"/>
       <c r="Z494"/>
     </row>
-    <row r="495" spans="21:26">
+    <row r="495" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U495"/>
       <c r="V495"/>
       <c r="W495"/>
@@ -22889,7 +22988,7 @@
       <c r="Y495"/>
       <c r="Z495"/>
     </row>
-    <row r="496" spans="21:26">
+    <row r="496" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U496"/>
       <c r="V496"/>
       <c r="W496"/>
@@ -22897,7 +22996,7 @@
       <c r="Y496"/>
       <c r="Z496"/>
     </row>
-    <row r="497" spans="21:26">
+    <row r="497" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U497"/>
       <c r="V497"/>
       <c r="W497"/>
@@ -22905,7 +23004,7 @@
       <c r="Y497"/>
       <c r="Z497"/>
     </row>
-    <row r="498" spans="21:26">
+    <row r="498" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U498"/>
       <c r="V498"/>
       <c r="W498"/>
@@ -22913,7 +23012,7 @@
       <c r="Y498"/>
       <c r="Z498"/>
     </row>
-    <row r="499" spans="21:26">
+    <row r="499" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U499"/>
       <c r="V499"/>
       <c r="W499"/>
@@ -22921,7 +23020,7 @@
       <c r="Y499"/>
       <c r="Z499"/>
     </row>
-    <row r="500" spans="21:26">
+    <row r="500" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U500"/>
       <c r="V500"/>
       <c r="W500"/>
@@ -22929,7 +23028,7 @@
       <c r="Y500"/>
       <c r="Z500"/>
     </row>
-    <row r="501" spans="21:26">
+    <row r="501" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U501"/>
       <c r="V501"/>
       <c r="W501"/>
@@ -22937,7 +23036,7 @@
       <c r="Y501"/>
       <c r="Z501"/>
     </row>
-    <row r="502" spans="21:26">
+    <row r="502" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U502"/>
       <c r="V502"/>
       <c r="W502"/>
@@ -22945,7 +23044,7 @@
       <c r="Y502"/>
       <c r="Z502"/>
     </row>
-    <row r="503" spans="21:26">
+    <row r="503" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U503"/>
       <c r="V503"/>
       <c r="W503"/>
@@ -22953,7 +23052,7 @@
       <c r="Y503"/>
       <c r="Z503"/>
     </row>
-    <row r="504" spans="21:26">
+    <row r="504" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U504"/>
       <c r="V504"/>
       <c r="W504"/>
@@ -22961,7 +23060,7 @@
       <c r="Y504"/>
       <c r="Z504"/>
     </row>
-    <row r="505" spans="21:26">
+    <row r="505" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U505"/>
       <c r="V505"/>
       <c r="W505"/>
@@ -22969,7 +23068,7 @@
       <c r="Y505"/>
       <c r="Z505"/>
     </row>
-    <row r="506" spans="21:26">
+    <row r="506" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U506"/>
       <c r="V506"/>
       <c r="W506"/>
@@ -22977,7 +23076,7 @@
       <c r="Y506"/>
       <c r="Z506"/>
     </row>
-    <row r="507" spans="21:26">
+    <row r="507" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U507"/>
       <c r="V507"/>
       <c r="W507"/>
@@ -22985,7 +23084,7 @@
       <c r="Y507"/>
       <c r="Z507"/>
     </row>
-    <row r="508" spans="21:26">
+    <row r="508" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U508"/>
       <c r="V508"/>
       <c r="W508"/>
@@ -22993,7 +23092,7 @@
       <c r="Y508"/>
       <c r="Z508"/>
     </row>
-    <row r="509" spans="21:26">
+    <row r="509" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U509"/>
       <c r="V509"/>
       <c r="W509"/>
@@ -23001,7 +23100,7 @@
       <c r="Y509"/>
       <c r="Z509"/>
     </row>
-    <row r="510" spans="21:26">
+    <row r="510" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U510"/>
       <c r="V510"/>
       <c r="W510"/>
@@ -23009,7 +23108,7 @@
       <c r="Y510"/>
       <c r="Z510"/>
     </row>
-    <row r="511" spans="21:26">
+    <row r="511" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U511"/>
       <c r="V511"/>
       <c r="W511"/>
@@ -23017,7 +23116,7 @@
       <c r="Y511"/>
       <c r="Z511"/>
     </row>
-    <row r="512" spans="21:26">
+    <row r="512" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U512"/>
       <c r="V512"/>
       <c r="W512"/>
@@ -23025,7 +23124,7 @@
       <c r="Y512"/>
       <c r="Z512"/>
     </row>
-    <row r="513" spans="21:26">
+    <row r="513" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U513"/>
       <c r="V513"/>
       <c r="W513"/>
@@ -23033,7 +23132,7 @@
       <c r="Y513"/>
       <c r="Z513"/>
     </row>
-    <row r="514" spans="21:26">
+    <row r="514" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U514"/>
       <c r="V514"/>
       <c r="W514"/>
@@ -23041,7 +23140,7 @@
       <c r="Y514"/>
       <c r="Z514"/>
     </row>
-    <row r="515" spans="21:26">
+    <row r="515" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U515"/>
       <c r="V515"/>
       <c r="W515"/>
@@ -23049,7 +23148,7 @@
       <c r="Y515"/>
       <c r="Z515"/>
     </row>
-    <row r="516" spans="21:26">
+    <row r="516" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U516"/>
       <c r="V516"/>
       <c r="W516"/>
@@ -23057,7 +23156,7 @@
       <c r="Y516"/>
       <c r="Z516"/>
     </row>
-    <row r="517" spans="21:26">
+    <row r="517" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U517"/>
       <c r="V517"/>
       <c r="W517"/>
@@ -23065,7 +23164,7 @@
       <c r="Y517"/>
       <c r="Z517"/>
     </row>
-    <row r="518" spans="21:26">
+    <row r="518" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U518"/>
       <c r="V518"/>
       <c r="W518"/>
@@ -23073,7 +23172,7 @@
       <c r="Y518"/>
       <c r="Z518"/>
     </row>
-    <row r="519" spans="21:26">
+    <row r="519" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U519"/>
       <c r="V519"/>
       <c r="W519"/>
@@ -23081,7 +23180,7 @@
       <c r="Y519"/>
       <c r="Z519"/>
     </row>
-    <row r="520" spans="21:26">
+    <row r="520" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U520"/>
       <c r="V520"/>
       <c r="W520"/>
@@ -23089,7 +23188,7 @@
       <c r="Y520"/>
       <c r="Z520"/>
     </row>
-    <row r="521" spans="21:26">
+    <row r="521" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U521"/>
       <c r="V521"/>
       <c r="W521"/>
@@ -23097,7 +23196,7 @@
       <c r="Y521"/>
       <c r="Z521"/>
     </row>
-    <row r="522" spans="21:26">
+    <row r="522" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U522"/>
       <c r="V522"/>
       <c r="W522"/>
@@ -23105,7 +23204,7 @@
       <c r="Y522"/>
       <c r="Z522"/>
     </row>
-    <row r="523" spans="21:26">
+    <row r="523" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U523"/>
       <c r="V523"/>
       <c r="W523"/>
@@ -23113,7 +23212,7 @@
       <c r="Y523"/>
       <c r="Z523"/>
     </row>
-    <row r="524" spans="21:26">
+    <row r="524" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U524"/>
       <c r="V524"/>
       <c r="W524"/>
@@ -23121,7 +23220,7 @@
       <c r="Y524"/>
       <c r="Z524"/>
     </row>
-    <row r="525" spans="21:26">
+    <row r="525" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U525"/>
       <c r="V525"/>
       <c r="W525"/>
@@ -23129,7 +23228,7 @@
       <c r="Y525"/>
       <c r="Z525"/>
     </row>
-    <row r="526" spans="21:26">
+    <row r="526" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U526"/>
       <c r="V526"/>
       <c r="W526"/>
@@ -23137,7 +23236,7 @@
       <c r="Y526"/>
       <c r="Z526"/>
     </row>
-    <row r="527" spans="21:26">
+    <row r="527" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U527"/>
       <c r="V527"/>
       <c r="W527"/>
@@ -23145,7 +23244,7 @@
       <c r="Y527"/>
       <c r="Z527"/>
     </row>
-    <row r="528" spans="21:26">
+    <row r="528" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U528"/>
       <c r="V528"/>
       <c r="W528"/>
@@ -23153,7 +23252,7 @@
       <c r="Y528"/>
       <c r="Z528"/>
     </row>
-    <row r="529" spans="21:26">
+    <row r="529" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U529"/>
       <c r="V529"/>
       <c r="W529"/>
@@ -23161,7 +23260,7 @@
       <c r="Y529"/>
       <c r="Z529"/>
     </row>
-    <row r="530" spans="21:26">
+    <row r="530" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U530"/>
       <c r="V530"/>
       <c r="W530"/>
@@ -23169,7 +23268,7 @@
       <c r="Y530"/>
       <c r="Z530"/>
     </row>
-    <row r="531" spans="21:26">
+    <row r="531" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U531"/>
       <c r="V531"/>
       <c r="W531"/>
@@ -23177,7 +23276,7 @@
       <c r="Y531"/>
       <c r="Z531"/>
     </row>
-    <row r="532" spans="21:26">
+    <row r="532" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U532"/>
       <c r="V532"/>
       <c r="W532"/>
@@ -23185,7 +23284,7 @@
       <c r="Y532"/>
       <c r="Z532"/>
     </row>
-    <row r="533" spans="21:26">
+    <row r="533" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U533"/>
       <c r="V533"/>
       <c r="W533"/>
@@ -23193,7 +23292,7 @@
       <c r="Y533"/>
       <c r="Z533"/>
     </row>
-    <row r="534" spans="21:26">
+    <row r="534" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U534"/>
       <c r="V534"/>
       <c r="W534"/>
@@ -23201,7 +23300,7 @@
       <c r="Y534"/>
       <c r="Z534"/>
     </row>
-    <row r="535" spans="21:26">
+    <row r="535" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U535"/>
       <c r="V535"/>
       <c r="W535"/>
@@ -23209,7 +23308,7 @@
       <c r="Y535"/>
       <c r="Z535"/>
     </row>
-    <row r="536" spans="21:26">
+    <row r="536" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U536"/>
       <c r="V536"/>
       <c r="W536"/>
@@ -23217,7 +23316,7 @@
       <c r="Y536"/>
       <c r="Z536"/>
     </row>
-    <row r="537" spans="21:26">
+    <row r="537" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U537"/>
       <c r="V537"/>
       <c r="W537"/>
@@ -23225,7 +23324,7 @@
       <c r="Y537"/>
       <c r="Z537"/>
     </row>
-    <row r="538" spans="21:26">
+    <row r="538" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U538"/>
       <c r="V538"/>
       <c r="W538"/>
@@ -23233,7 +23332,7 @@
       <c r="Y538"/>
       <c r="Z538"/>
     </row>
-    <row r="539" spans="21:26">
+    <row r="539" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U539"/>
       <c r="V539"/>
       <c r="W539"/>
@@ -23241,7 +23340,7 @@
       <c r="Y539"/>
       <c r="Z539"/>
     </row>
-    <row r="540" spans="21:26">
+    <row r="540" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U540"/>
       <c r="V540"/>
       <c r="W540"/>
@@ -23249,7 +23348,7 @@
       <c r="Y540"/>
       <c r="Z540"/>
     </row>
-    <row r="541" spans="21:26">
+    <row r="541" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U541"/>
       <c r="V541"/>
       <c r="W541"/>
@@ -23257,7 +23356,7 @@
       <c r="Y541"/>
       <c r="Z541"/>
     </row>
-    <row r="542" spans="21:26">
+    <row r="542" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U542"/>
       <c r="V542"/>
       <c r="W542"/>
@@ -23265,7 +23364,7 @@
       <c r="Y542"/>
       <c r="Z542"/>
     </row>
-    <row r="543" spans="21:26">
+    <row r="543" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U543"/>
       <c r="V543"/>
       <c r="W543"/>
@@ -23273,7 +23372,7 @@
       <c r="Y543"/>
       <c r="Z543"/>
     </row>
-    <row r="544" spans="21:26">
+    <row r="544" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U544"/>
       <c r="V544"/>
       <c r="W544"/>
@@ -23281,7 +23380,7 @@
       <c r="Y544"/>
       <c r="Z544"/>
     </row>
-    <row r="545" spans="21:26">
+    <row r="545" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U545"/>
       <c r="V545"/>
       <c r="W545"/>
@@ -23289,7 +23388,7 @@
       <c r="Y545"/>
       <c r="Z545"/>
     </row>
-    <row r="546" spans="21:26">
+    <row r="546" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U546"/>
       <c r="V546"/>
       <c r="W546"/>
@@ -23297,7 +23396,7 @@
       <c r="Y546"/>
       <c r="Z546"/>
     </row>
-    <row r="547" spans="21:26">
+    <row r="547" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U547"/>
       <c r="V547"/>
       <c r="W547"/>
@@ -23305,7 +23404,7 @@
       <c r="Y547"/>
       <c r="Z547"/>
     </row>
-    <row r="548" spans="21:26">
+    <row r="548" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U548"/>
       <c r="V548"/>
       <c r="W548"/>
@@ -23313,7 +23412,7 @@
       <c r="Y548"/>
       <c r="Z548"/>
     </row>
-    <row r="549" spans="21:26">
+    <row r="549" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U549"/>
       <c r="V549"/>
       <c r="W549"/>
@@ -23321,7 +23420,7 @@
       <c r="Y549"/>
       <c r="Z549"/>
     </row>
-    <row r="550" spans="21:26">
+    <row r="550" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U550"/>
       <c r="V550"/>
       <c r="W550"/>
@@ -23329,7 +23428,7 @@
       <c r="Y550"/>
       <c r="Z550"/>
     </row>
-    <row r="551" spans="21:26">
+    <row r="551" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U551"/>
       <c r="V551"/>
       <c r="W551"/>
@@ -23337,7 +23436,7 @@
       <c r="Y551"/>
       <c r="Z551"/>
     </row>
-    <row r="552" spans="21:26">
+    <row r="552" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U552"/>
       <c r="V552"/>
       <c r="W552"/>
@@ -23345,7 +23444,7 @@
       <c r="Y552"/>
       <c r="Z552"/>
     </row>
-    <row r="553" spans="21:26">
+    <row r="553" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U553"/>
       <c r="V553"/>
       <c r="W553"/>
@@ -23353,7 +23452,7 @@
       <c r="Y553"/>
       <c r="Z553"/>
     </row>
-    <row r="554" spans="21:26">
+    <row r="554" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U554"/>
       <c r="V554"/>
       <c r="W554"/>
@@ -23361,7 +23460,7 @@
       <c r="Y554"/>
       <c r="Z554"/>
     </row>
-    <row r="555" spans="21:26">
+    <row r="555" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U555"/>
       <c r="V555"/>
       <c r="W555"/>
@@ -23369,7 +23468,7 @@
       <c r="Y555"/>
       <c r="Z555"/>
     </row>
-    <row r="556" spans="21:26">
+    <row r="556" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U556"/>
       <c r="V556"/>
       <c r="W556"/>
@@ -23377,7 +23476,7 @@
       <c r="Y556"/>
       <c r="Z556"/>
     </row>
-    <row r="557" spans="21:26">
+    <row r="557" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U557"/>
       <c r="V557"/>
       <c r="W557"/>
@@ -23385,7 +23484,7 @@
       <c r="Y557"/>
       <c r="Z557"/>
     </row>
-    <row r="558" spans="21:26">
+    <row r="558" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U558"/>
       <c r="V558"/>
       <c r="W558"/>
@@ -23393,7 +23492,7 @@
       <c r="Y558"/>
       <c r="Z558"/>
     </row>
-    <row r="559" spans="21:26">
+    <row r="559" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U559"/>
       <c r="V559"/>
       <c r="W559"/>
@@ -23401,7 +23500,7 @@
       <c r="Y559"/>
       <c r="Z559"/>
     </row>
-    <row r="560" spans="21:26">
+    <row r="560" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U560"/>
       <c r="V560"/>
       <c r="W560"/>
@@ -23409,7 +23508,7 @@
       <c r="Y560"/>
       <c r="Z560"/>
     </row>
-    <row r="561" spans="21:26">
+    <row r="561" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U561"/>
       <c r="V561"/>
       <c r="W561"/>
@@ -23417,7 +23516,7 @@
       <c r="Y561"/>
       <c r="Z561"/>
     </row>
-    <row r="562" spans="21:26">
+    <row r="562" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U562"/>
       <c r="V562"/>
       <c r="W562"/>
@@ -23425,7 +23524,7 @@
       <c r="Y562"/>
       <c r="Z562"/>
     </row>
-    <row r="563" spans="21:26">
+    <row r="563" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U563"/>
       <c r="V563"/>
       <c r="W563"/>
@@ -23433,7 +23532,7 @@
       <c r="Y563"/>
       <c r="Z563"/>
     </row>
-    <row r="564" spans="21:26">
+    <row r="564" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U564"/>
       <c r="V564"/>
       <c r="W564"/>
@@ -23441,7 +23540,7 @@
       <c r="Y564"/>
       <c r="Z564"/>
     </row>
-    <row r="565" spans="21:26">
+    <row r="565" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U565"/>
       <c r="V565"/>
       <c r="W565"/>
@@ -23449,7 +23548,7 @@
       <c r="Y565"/>
       <c r="Z565"/>
     </row>
-    <row r="566" spans="21:26">
+    <row r="566" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U566"/>
       <c r="V566"/>
       <c r="W566"/>
@@ -23457,7 +23556,7 @@
       <c r="Y566"/>
       <c r="Z566"/>
     </row>
-    <row r="567" spans="21:26">
+    <row r="567" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U567"/>
       <c r="V567"/>
       <c r="W567"/>
@@ -23465,7 +23564,7 @@
       <c r="Y567"/>
       <c r="Z567"/>
     </row>
-    <row r="568" spans="21:26">
+    <row r="568" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U568"/>
       <c r="V568"/>
       <c r="W568"/>
@@ -23473,7 +23572,7 @@
       <c r="Y568"/>
       <c r="Z568"/>
     </row>
-    <row r="569" spans="21:26">
+    <row r="569" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U569"/>
       <c r="V569"/>
       <c r="W569"/>
@@ -23481,7 +23580,7 @@
       <c r="Y569"/>
       <c r="Z569"/>
     </row>
-    <row r="570" spans="21:26">
+    <row r="570" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U570"/>
       <c r="V570"/>
       <c r="W570"/>
@@ -23489,7 +23588,7 @@
       <c r="Y570"/>
       <c r="Z570"/>
     </row>
-    <row r="571" spans="21:26">
+    <row r="571" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U571"/>
       <c r="V571"/>
       <c r="W571"/>
@@ -23497,7 +23596,7 @@
       <c r="Y571"/>
       <c r="Z571"/>
     </row>
-    <row r="572" spans="21:26">
+    <row r="572" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U572"/>
       <c r="V572"/>
       <c r="W572"/>
@@ -23505,7 +23604,7 @@
       <c r="Y572"/>
       <c r="Z572"/>
     </row>
-    <row r="573" spans="21:26">
+    <row r="573" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U573"/>
       <c r="V573"/>
       <c r="W573"/>
@@ -23513,7 +23612,7 @@
       <c r="Y573"/>
       <c r="Z573"/>
     </row>
-    <row r="574" spans="21:26">
+    <row r="574" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U574"/>
       <c r="V574"/>
       <c r="W574"/>
@@ -23521,7 +23620,7 @@
       <c r="Y574"/>
       <c r="Z574"/>
     </row>
-    <row r="575" spans="21:26">
+    <row r="575" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U575"/>
       <c r="V575"/>
       <c r="W575"/>
@@ -23529,7 +23628,7 @@
       <c r="Y575"/>
       <c r="Z575"/>
     </row>
-    <row r="576" spans="21:26">
+    <row r="576" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U576"/>
       <c r="V576"/>
       <c r="W576"/>
@@ -23537,7 +23636,7 @@
       <c r="Y576"/>
       <c r="Z576"/>
     </row>
-    <row r="577" spans="21:26">
+    <row r="577" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U577"/>
       <c r="V577"/>
       <c r="W577"/>
@@ -23545,7 +23644,7 @@
       <c r="Y577"/>
       <c r="Z577"/>
     </row>
-    <row r="578" spans="21:26">
+    <row r="578" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U578"/>
       <c r="V578"/>
       <c r="W578"/>
@@ -23553,7 +23652,7 @@
       <c r="Y578"/>
       <c r="Z578"/>
     </row>
-    <row r="579" spans="21:26">
+    <row r="579" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U579"/>
       <c r="V579"/>
       <c r="W579"/>
@@ -23561,7 +23660,7 @@
       <c r="Y579"/>
       <c r="Z579"/>
     </row>
-    <row r="580" spans="21:26">
+    <row r="580" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U580"/>
       <c r="V580"/>
       <c r="W580"/>
@@ -23569,7 +23668,7 @@
       <c r="Y580"/>
       <c r="Z580"/>
     </row>
-    <row r="581" spans="21:26">
+    <row r="581" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U581"/>
       <c r="V581"/>
       <c r="W581"/>
@@ -23577,7 +23676,7 @@
       <c r="Y581"/>
       <c r="Z581"/>
     </row>
-    <row r="582" spans="21:26">
+    <row r="582" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U582"/>
       <c r="V582"/>
       <c r="W582"/>
@@ -23585,7 +23684,7 @@
       <c r="Y582"/>
       <c r="Z582"/>
     </row>
-    <row r="583" spans="21:26">
+    <row r="583" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U583"/>
       <c r="V583"/>
       <c r="W583"/>
@@ -23593,7 +23692,7 @@
       <c r="Y583"/>
       <c r="Z583"/>
     </row>
-    <row r="584" spans="21:26">
+    <row r="584" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U584"/>
       <c r="V584"/>
       <c r="W584"/>
@@ -23601,7 +23700,7 @@
       <c r="Y584"/>
       <c r="Z584"/>
     </row>
-    <row r="585" spans="21:26">
+    <row r="585" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U585"/>
       <c r="V585"/>
       <c r="W585"/>
@@ -23609,7 +23708,7 @@
       <c r="Y585"/>
       <c r="Z585"/>
     </row>
-    <row r="586" spans="21:26">
+    <row r="586" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U586"/>
       <c r="V586"/>
       <c r="W586"/>
@@ -23617,7 +23716,7 @@
       <c r="Y586"/>
       <c r="Z586"/>
     </row>
-    <row r="587" spans="21:26">
+    <row r="587" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U587"/>
       <c r="V587"/>
       <c r="W587"/>
@@ -23625,7 +23724,7 @@
       <c r="Y587"/>
       <c r="Z587"/>
     </row>
-    <row r="588" spans="21:26">
+    <row r="588" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U588"/>
       <c r="V588"/>
       <c r="W588"/>
@@ -23633,7 +23732,7 @@
       <c r="Y588"/>
       <c r="Z588"/>
     </row>
-    <row r="589" spans="21:26">
+    <row r="589" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U589"/>
       <c r="V589"/>
       <c r="W589"/>
@@ -23641,7 +23740,7 @@
       <c r="Y589"/>
       <c r="Z589"/>
     </row>
-    <row r="590" spans="21:26">
+    <row r="590" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U590"/>
       <c r="V590"/>
       <c r="W590"/>
@@ -23649,7 +23748,7 @@
       <c r="Y590"/>
       <c r="Z590"/>
     </row>
-    <row r="591" spans="21:26">
+    <row r="591" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U591"/>
       <c r="V591"/>
       <c r="W591"/>
@@ -23657,7 +23756,7 @@
       <c r="Y591"/>
       <c r="Z591"/>
     </row>
-    <row r="592" spans="21:26">
+    <row r="592" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U592"/>
       <c r="V592"/>
       <c r="W592"/>
@@ -23665,7 +23764,7 @@
       <c r="Y592"/>
       <c r="Z592"/>
     </row>
-    <row r="593" spans="21:26">
+    <row r="593" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U593"/>
       <c r="V593"/>
       <c r="W593"/>
@@ -23673,7 +23772,7 @@
       <c r="Y593"/>
       <c r="Z593"/>
     </row>
-    <row r="594" spans="21:26">
+    <row r="594" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U594"/>
       <c r="V594"/>
       <c r="W594"/>
@@ -23681,7 +23780,7 @@
       <c r="Y594"/>
       <c r="Z594"/>
     </row>
-    <row r="595" spans="21:26">
+    <row r="595" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U595"/>
       <c r="V595"/>
       <c r="W595"/>
@@ -23689,7 +23788,7 @@
       <c r="Y595"/>
       <c r="Z595"/>
     </row>
-    <row r="596" spans="21:26">
+    <row r="596" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U596"/>
       <c r="V596"/>
       <c r="W596"/>
@@ -23697,7 +23796,7 @@
       <c r="Y596"/>
       <c r="Z596"/>
     </row>
-    <row r="597" spans="21:26">
+    <row r="597" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U597"/>
       <c r="V597"/>
       <c r="W597"/>
@@ -23705,7 +23804,7 @@
       <c r="Y597"/>
       <c r="Z597"/>
     </row>
-    <row r="598" spans="21:26">
+    <row r="598" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U598"/>
       <c r="V598"/>
       <c r="W598"/>
@@ -23713,7 +23812,7 @@
       <c r="Y598"/>
       <c r="Z598"/>
     </row>
-    <row r="599" spans="21:26">
+    <row r="599" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U599"/>
       <c r="V599"/>
       <c r="W599"/>
@@ -23721,7 +23820,7 @@
       <c r="Y599"/>
       <c r="Z599"/>
     </row>
-    <row r="600" spans="21:26">
+    <row r="600" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U600"/>
       <c r="V600"/>
       <c r="W600"/>
@@ -23729,7 +23828,7 @@
       <c r="Y600"/>
       <c r="Z600"/>
     </row>
-    <row r="601" spans="21:26">
+    <row r="601" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U601"/>
       <c r="V601"/>
       <c r="W601"/>
@@ -23737,7 +23836,7 @@
       <c r="Y601"/>
       <c r="Z601"/>
     </row>
-    <row r="602" spans="21:26">
+    <row r="602" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U602"/>
       <c r="V602"/>
       <c r="W602"/>
@@ -23745,7 +23844,7 @@
       <c r="Y602"/>
       <c r="Z602"/>
     </row>
-    <row r="603" spans="21:26">
+    <row r="603" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U603"/>
       <c r="V603"/>
       <c r="W603"/>
@@ -23753,7 +23852,7 @@
       <c r="Y603"/>
       <c r="Z603"/>
     </row>
-    <row r="604" spans="21:26">
+    <row r="604" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U604"/>
       <c r="V604"/>
       <c r="W604"/>
@@ -23761,7 +23860,7 @@
       <c r="Y604"/>
       <c r="Z604"/>
     </row>
-    <row r="605" spans="21:26">
+    <row r="605" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U605"/>
       <c r="V605"/>
       <c r="W605"/>
@@ -23769,7 +23868,7 @@
       <c r="Y605"/>
       <c r="Z605"/>
     </row>
-    <row r="606" spans="21:26">
+    <row r="606" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U606"/>
       <c r="V606"/>
       <c r="W606"/>
@@ -23777,7 +23876,7 @@
       <c r="Y606"/>
       <c r="Z606"/>
     </row>
-    <row r="607" spans="21:26">
+    <row r="607" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U607"/>
       <c r="V607"/>
       <c r="W607"/>
@@ -23785,7 +23884,7 @@
       <c r="Y607"/>
       <c r="Z607"/>
     </row>
-    <row r="608" spans="21:26">
+    <row r="608" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U608"/>
       <c r="V608"/>
       <c r="W608"/>
@@ -23793,7 +23892,7 @@
       <c r="Y608"/>
       <c r="Z608"/>
     </row>
-    <row r="609" spans="21:26">
+    <row r="609" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U609"/>
       <c r="V609"/>
       <c r="W609"/>
@@ -23801,7 +23900,7 @@
       <c r="Y609"/>
       <c r="Z609"/>
     </row>
-    <row r="610" spans="21:26">
+    <row r="610" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U610"/>
       <c r="V610"/>
       <c r="W610"/>
@@ -23809,7 +23908,7 @@
       <c r="Y610"/>
       <c r="Z610"/>
     </row>
-    <row r="611" spans="21:26">
+    <row r="611" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U611"/>
       <c r="V611"/>
       <c r="W611"/>
@@ -23817,7 +23916,7 @@
       <c r="Y611"/>
       <c r="Z611"/>
     </row>
-    <row r="612" spans="21:26">
+    <row r="612" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U612"/>
       <c r="V612"/>
       <c r="W612"/>
@@ -23825,7 +23924,7 @@
       <c r="Y612"/>
       <c r="Z612"/>
     </row>
-    <row r="613" spans="21:26">
+    <row r="613" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U613"/>
       <c r="V613"/>
       <c r="W613"/>
@@ -23833,7 +23932,7 @@
       <c r="Y613"/>
       <c r="Z613"/>
     </row>
-    <row r="614" spans="21:26">
+    <row r="614" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U614"/>
       <c r="V614"/>
       <c r="W614"/>
@@ -23841,7 +23940,7 @@
       <c r="Y614"/>
       <c r="Z614"/>
     </row>
-    <row r="615" spans="21:26">
+    <row r="615" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U615"/>
       <c r="V615"/>
       <c r="W615"/>
@@ -23849,7 +23948,7 @@
       <c r="Y615"/>
       <c r="Z615"/>
     </row>
-    <row r="616" spans="21:26">
+    <row r="616" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U616"/>
       <c r="V616"/>
       <c r="W616"/>
@@ -23857,7 +23956,7 @@
       <c r="Y616"/>
       <c r="Z616"/>
     </row>
-    <row r="617" spans="21:26">
+    <row r="617" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U617"/>
       <c r="V617"/>
       <c r="W617"/>
@@ -23865,7 +23964,7 @@
       <c r="Y617"/>
       <c r="Z617"/>
     </row>
-    <row r="618" spans="21:26">
+    <row r="618" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U618"/>
       <c r="V618"/>
       <c r="W618"/>
@@ -23873,7 +23972,7 @@
       <c r="Y618"/>
       <c r="Z618"/>
     </row>
-    <row r="619" spans="21:26">
+    <row r="619" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U619"/>
       <c r="V619"/>
       <c r="W619"/>
@@ -23881,7 +23980,7 @@
       <c r="Y619"/>
       <c r="Z619"/>
     </row>
-    <row r="620" spans="21:26">
+    <row r="620" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U620"/>
       <c r="V620"/>
       <c r="W620"/>
@@ -23889,7 +23988,7 @@
       <c r="Y620"/>
       <c r="Z620"/>
     </row>
-    <row r="621" spans="21:26">
+    <row r="621" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U621"/>
       <c r="V621"/>
       <c r="W621"/>
@@ -23897,7 +23996,7 @@
       <c r="Y621"/>
       <c r="Z621"/>
     </row>
-    <row r="622" spans="21:26">
+    <row r="622" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U622"/>
       <c r="V622"/>
       <c r="W622"/>
@@ -23905,7 +24004,7 @@
       <c r="Y622"/>
       <c r="Z622"/>
     </row>
-    <row r="623" spans="21:26">
+    <row r="623" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U623"/>
       <c r="V623"/>
       <c r="W623"/>
@@ -23913,7 +24012,7 @@
       <c r="Y623"/>
       <c r="Z623"/>
     </row>
-    <row r="624" spans="21:26">
+    <row r="624" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U624"/>
       <c r="V624"/>
       <c r="W624"/>
@@ -23921,7 +24020,7 @@
       <c r="Y624"/>
       <c r="Z624"/>
     </row>
-    <row r="625" spans="21:26">
+    <row r="625" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U625"/>
       <c r="V625"/>
       <c r="W625"/>
@@ -23929,7 +24028,7 @@
       <c r="Y625"/>
       <c r="Z625"/>
     </row>
-    <row r="626" spans="21:26">
+    <row r="626" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U626"/>
       <c r="V626"/>
       <c r="W626"/>
@@ -23937,7 +24036,7 @@
       <c r="Y626"/>
       <c r="Z626"/>
     </row>
-    <row r="627" spans="21:26">
+    <row r="627" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U627"/>
       <c r="V627"/>
       <c r="W627"/>
@@ -23945,7 +24044,7 @@
       <c r="Y627"/>
       <c r="Z627"/>
     </row>
-    <row r="628" spans="21:26">
+    <row r="628" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U628"/>
       <c r="V628"/>
       <c r="W628"/>
@@ -23953,7 +24052,7 @@
       <c r="Y628"/>
       <c r="Z628"/>
     </row>
-    <row r="629" spans="21:26">
+    <row r="629" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U629"/>
       <c r="V629"/>
       <c r="W629"/>
@@ -23961,7 +24060,7 @@
       <c r="Y629"/>
       <c r="Z629"/>
     </row>
-    <row r="630" spans="21:26">
+    <row r="630" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U630"/>
       <c r="V630"/>
       <c r="W630"/>
@@ -23969,7 +24068,7 @@
       <c r="Y630"/>
       <c r="Z630"/>
     </row>
-    <row r="631" spans="21:26">
+    <row r="631" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U631"/>
       <c r="V631"/>
       <c r="W631"/>
@@ -23977,7 +24076,7 @@
       <c r="Y631"/>
       <c r="Z631"/>
     </row>
-    <row r="632" spans="21:26">
+    <row r="632" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U632"/>
       <c r="V632"/>
       <c r="W632"/>
@@ -23985,7 +24084,7 @@
       <c r="Y632"/>
       <c r="Z632"/>
     </row>
-    <row r="633" spans="21:26">
+    <row r="633" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U633"/>
       <c r="V633"/>
       <c r="W633"/>
@@ -23993,7 +24092,7 @@
       <c r="Y633"/>
       <c r="Z633"/>
     </row>
-    <row r="634" spans="21:26">
+    <row r="634" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U634"/>
       <c r="V634"/>
       <c r="W634"/>
@@ -24001,7 +24100,7 @@
       <c r="Y634"/>
       <c r="Z634"/>
     </row>
-    <row r="635" spans="21:26">
+    <row r="635" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U635"/>
       <c r="V635"/>
       <c r="W635"/>
@@ -24009,7 +24108,7 @@
       <c r="Y635"/>
       <c r="Z635"/>
     </row>
-    <row r="636" spans="21:26">
+    <row r="636" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U636"/>
       <c r="V636"/>
       <c r="W636"/>
@@ -24017,7 +24116,7 @@
       <c r="Y636"/>
       <c r="Z636"/>
     </row>
-    <row r="637" spans="21:26">
+    <row r="637" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U637"/>
       <c r="V637"/>
       <c r="W637"/>
@@ -24025,7 +24124,7 @@
       <c r="Y637"/>
       <c r="Z637"/>
     </row>
-    <row r="638" spans="21:26">
+    <row r="638" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U638"/>
       <c r="V638"/>
       <c r="W638"/>
@@ -24033,7 +24132,7 @@
       <c r="Y638"/>
       <c r="Z638"/>
     </row>
-    <row r="639" spans="21:26">
+    <row r="639" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U639"/>
       <c r="V639"/>
       <c r="W639"/>
@@ -24041,7 +24140,7 @@
       <c r="Y639"/>
       <c r="Z639"/>
     </row>
-    <row r="640" spans="21:26">
+    <row r="640" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U640"/>
       <c r="V640"/>
       <c r="W640"/>
@@ -24049,7 +24148,7 @@
       <c r="Y640"/>
       <c r="Z640"/>
     </row>
-    <row r="641" spans="21:26">
+    <row r="641" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U641"/>
       <c r="V641"/>
       <c r="W641"/>
@@ -24057,7 +24156,7 @@
       <c r="Y641"/>
       <c r="Z641"/>
     </row>
-    <row r="642" spans="21:26">
+    <row r="642" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U642"/>
       <c r="V642"/>
       <c r="W642"/>
@@ -24065,7 +24164,7 @@
       <c r="Y642"/>
       <c r="Z642"/>
     </row>
-    <row r="643" spans="21:26">
+    <row r="643" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U643"/>
       <c r="V643"/>
       <c r="W643"/>
@@ -24073,7 +24172,7 @@
       <c r="Y643"/>
       <c r="Z643"/>
     </row>
-    <row r="644" spans="21:26">
+    <row r="644" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U644"/>
       <c r="V644"/>
       <c r="W644"/>
@@ -24081,7 +24180,7 @@
       <c r="Y644"/>
       <c r="Z644"/>
     </row>
-    <row r="645" spans="21:26">
+    <row r="645" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U645"/>
       <c r="V645"/>
       <c r="W645"/>
@@ -24089,7 +24188,7 @@
       <c r="Y645"/>
       <c r="Z645"/>
     </row>
-    <row r="646" spans="21:26">
+    <row r="646" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U646"/>
       <c r="V646"/>
       <c r="W646"/>
@@ -24097,7 +24196,7 @@
       <c r="Y646"/>
       <c r="Z646"/>
     </row>
-    <row r="647" spans="21:26">
+    <row r="647" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U647"/>
       <c r="V647"/>
       <c r="W647"/>
@@ -24105,7 +24204,7 @@
       <c r="Y647"/>
       <c r="Z647"/>
     </row>
-    <row r="648" spans="21:26">
+    <row r="648" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U648"/>
       <c r="V648"/>
       <c r="W648"/>
@@ -24113,7 +24212,7 @@
       <c r="Y648"/>
       <c r="Z648"/>
     </row>
-    <row r="649" spans="21:26">
+    <row r="649" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U649"/>
       <c r="V649"/>
       <c r="W649"/>
@@ -24121,7 +24220,7 @@
       <c r="Y649"/>
       <c r="Z649"/>
     </row>
-    <row r="650" spans="21:26">
+    <row r="650" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U650"/>
       <c r="V650"/>
       <c r="W650"/>
@@ -24129,7 +24228,7 @@
       <c r="Y650"/>
       <c r="Z650"/>
     </row>
-    <row r="651" spans="21:26">
+    <row r="651" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U651"/>
       <c r="V651"/>
       <c r="W651"/>
@@ -24137,7 +24236,7 @@
       <c r="Y651"/>
       <c r="Z651"/>
     </row>
-    <row r="652" spans="21:26">
+    <row r="652" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U652"/>
       <c r="V652"/>
       <c r="W652"/>
@@ -24145,7 +24244,7 @@
       <c r="Y652"/>
       <c r="Z652"/>
     </row>
-    <row r="653" spans="21:26">
+    <row r="653" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U653"/>
       <c r="V653"/>
       <c r="W653"/>
@@ -24153,7 +24252,7 @@
       <c r="Y653"/>
       <c r="Z653"/>
     </row>
-    <row r="654" spans="21:26">
+    <row r="654" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U654"/>
       <c r="V654"/>
       <c r="W654"/>
@@ -24161,7 +24260,7 @@
       <c r="Y654"/>
       <c r="Z654"/>
     </row>
-    <row r="655" spans="21:26">
+    <row r="655" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U655"/>
       <c r="V655"/>
       <c r="W655"/>
@@ -24169,7 +24268,7 @@
       <c r="Y655"/>
       <c r="Z655"/>
     </row>
-    <row r="656" spans="21:26">
+    <row r="656" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U656"/>
       <c r="V656"/>
       <c r="W656"/>
@@ -24177,7 +24276,7 @@
       <c r="Y656"/>
       <c r="Z656"/>
     </row>
-    <row r="657" spans="21:26">
+    <row r="657" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U657"/>
       <c r="V657"/>
       <c r="W657"/>
@@ -24185,7 +24284,7 @@
       <c r="Y657"/>
       <c r="Z657"/>
     </row>
-    <row r="658" spans="21:26">
+    <row r="658" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U658"/>
       <c r="V658"/>
       <c r="W658"/>
@@ -24193,7 +24292,7 @@
       <c r="Y658"/>
       <c r="Z658"/>
     </row>
-    <row r="659" spans="21:26">
+    <row r="659" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U659"/>
       <c r="V659"/>
       <c r="W659"/>
@@ -24201,7 +24300,7 @@
       <c r="Y659"/>
       <c r="Z659"/>
     </row>
-    <row r="660" spans="21:26">
+    <row r="660" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U660"/>
       <c r="V660"/>
       <c r="W660"/>
@@ -24209,7 +24308,7 @@
       <c r="Y660"/>
       <c r="Z660"/>
     </row>
-    <row r="661" spans="21:26">
+    <row r="661" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U661"/>
       <c r="V661"/>
       <c r="W661"/>
@@ -24217,7 +24316,7 @@
       <c r="Y661"/>
       <c r="Z661"/>
     </row>
-    <row r="662" spans="21:26">
+    <row r="662" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U662"/>
       <c r="V662"/>
       <c r="W662"/>
@@ -24225,7 +24324,7 @@
       <c r="Y662"/>
       <c r="Z662"/>
     </row>
-    <row r="663" spans="21:26">
+    <row r="663" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U663"/>
       <c r="V663"/>
       <c r="W663"/>
@@ -24233,7 +24332,7 @@
       <c r="Y663"/>
       <c r="Z663"/>
     </row>
-    <row r="664" spans="21:26">
+    <row r="664" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U664"/>
       <c r="V664"/>
       <c r="W664"/>
@@ -24241,7 +24340,7 @@
       <c r="Y664"/>
       <c r="Z664"/>
     </row>
-    <row r="665" spans="21:26">
+    <row r="665" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U665"/>
       <c r="V665"/>
       <c r="W665"/>
@@ -24249,7 +24348,7 @@
       <c r="Y665"/>
       <c r="Z665"/>
     </row>
-    <row r="666" spans="21:26">
+    <row r="666" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U666"/>
       <c r="V666"/>
       <c r="W666"/>
@@ -24257,7 +24356,7 @@
       <c r="Y666"/>
       <c r="Z666"/>
     </row>
-    <row r="667" spans="21:26">
+    <row r="667" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U667"/>
       <c r="V667"/>
       <c r="W667"/>
@@ -24265,7 +24364,7 @@
       <c r="Y667"/>
       <c r="Z667"/>
     </row>
-    <row r="668" spans="21:26">
+    <row r="668" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U668"/>
       <c r="V668"/>
       <c r="W668"/>
@@ -24273,7 +24372,7 @@
       <c r="Y668"/>
       <c r="Z668"/>
     </row>
-    <row r="669" spans="21:26">
+    <row r="669" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U669"/>
       <c r="V669"/>
       <c r="W669"/>
@@ -24281,7 +24380,7 @@
       <c r="Y669"/>
       <c r="Z669"/>
     </row>
-    <row r="670" spans="21:26">
+    <row r="670" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U670"/>
       <c r="V670"/>
       <c r="W670"/>
@@ -24289,7 +24388,7 @@
       <c r="Y670"/>
       <c r="Z670"/>
     </row>
-    <row r="671" spans="21:26">
+    <row r="671" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U671"/>
       <c r="V671"/>
       <c r="W671"/>
@@ -24297,7 +24396,7 @@
       <c r="Y671"/>
       <c r="Z671"/>
     </row>
-    <row r="672" spans="21:26">
+    <row r="672" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U672"/>
       <c r="V672"/>
       <c r="W672"/>
@@ -24305,7 +24404,7 @@
       <c r="Y672"/>
       <c r="Z672"/>
     </row>
-    <row r="673" spans="21:26">
+    <row r="673" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U673"/>
       <c r="V673"/>
       <c r="W673"/>
@@ -24313,7 +24412,7 @@
       <c r="Y673"/>
       <c r="Z673"/>
     </row>
-    <row r="674" spans="21:26">
+    <row r="674" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U674"/>
       <c r="V674"/>
       <c r="W674"/>
@@ -24321,7 +24420,7 @@
       <c r="Y674"/>
       <c r="Z674"/>
     </row>
-    <row r="675" spans="21:26">
+    <row r="675" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U675"/>
       <c r="V675"/>
       <c r="W675"/>
@@ -24329,7 +24428,7 @@
       <c r="Y675"/>
       <c r="Z675"/>
     </row>
-    <row r="676" spans="21:26">
+    <row r="676" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U676"/>
       <c r="V676"/>
       <c r="W676"/>
@@ -24337,7 +24436,7 @@
       <c r="Y676"/>
       <c r="Z676"/>
     </row>
-    <row r="677" spans="21:26">
+    <row r="677" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U677"/>
       <c r="V677"/>
       <c r="W677"/>
@@ -24345,7 +24444,7 @@
       <c r="Y677"/>
       <c r="Z677"/>
     </row>
-    <row r="678" spans="21:26">
+    <row r="678" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U678"/>
       <c r="V678"/>
       <c r="W678"/>
@@ -24353,7 +24452,7 @@
       <c r="Y678"/>
       <c r="Z678"/>
     </row>
-    <row r="679" spans="21:26">
+    <row r="679" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U679"/>
       <c r="V679"/>
       <c r="W679"/>
@@ -24361,7 +24460,7 @@
       <c r="Y679"/>
       <c r="Z679"/>
     </row>
-    <row r="680" spans="21:26">
+    <row r="680" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U680"/>
       <c r="V680"/>
       <c r="W680"/>
@@ -24369,7 +24468,7 @@
       <c r="Y680"/>
       <c r="Z680"/>
     </row>
-    <row r="681" spans="21:26">
+    <row r="681" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U681"/>
       <c r="V681"/>
       <c r="W681"/>
@@ -24377,7 +24476,7 @@
       <c r="Y681"/>
       <c r="Z681"/>
     </row>
-    <row r="682" spans="21:26">
+    <row r="682" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U682"/>
       <c r="V682"/>
       <c r="W682"/>
@@ -24385,7 +24484,7 @@
       <c r="Y682"/>
       <c r="Z682"/>
     </row>
-    <row r="683" spans="21:26">
+    <row r="683" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U683"/>
       <c r="V683"/>
       <c r="W683"/>
@@ -24393,7 +24492,7 @@
       <c r="Y683"/>
       <c r="Z683"/>
     </row>
-    <row r="684" spans="21:26">
+    <row r="684" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U684"/>
       <c r="V684"/>
       <c r="W684"/>
@@ -24401,7 +24500,7 @@
       <c r="Y684"/>
       <c r="Z684"/>
     </row>
-    <row r="685" spans="21:26">
+    <row r="685" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U685"/>
       <c r="V685"/>
       <c r="W685"/>
@@ -24409,7 +24508,7 @@
       <c r="Y685"/>
       <c r="Z685"/>
     </row>
-    <row r="686" spans="21:26">
+    <row r="686" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U686"/>
       <c r="V686"/>
       <c r="W686"/>
@@ -24417,7 +24516,7 @@
       <c r="Y686"/>
       <c r="Z686"/>
     </row>
-    <row r="687" spans="21:26">
+    <row r="687" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U687"/>
       <c r="V687"/>
       <c r="W687"/>
@@ -24425,7 +24524,7 @@
       <c r="Y687"/>
       <c r="Z687"/>
     </row>
-    <row r="688" spans="21:26">
+    <row r="688" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U688"/>
       <c r="V688"/>
       <c r="W688"/>
@@ -24433,7 +24532,7 @@
       <c r="Y688"/>
       <c r="Z688"/>
     </row>
-    <row r="689" spans="21:26">
+    <row r="689" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U689"/>
       <c r="V689"/>
       <c r="W689"/>
@@ -24441,7 +24540,7 @@
       <c r="Y689"/>
       <c r="Z689"/>
     </row>
-    <row r="690" spans="21:26">
+    <row r="690" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U690"/>
       <c r="V690"/>
       <c r="W690"/>
@@ -24449,7 +24548,7 @@
       <c r="Y690"/>
       <c r="Z690"/>
     </row>
-    <row r="691" spans="21:26">
+    <row r="691" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U691"/>
       <c r="V691"/>
       <c r="W691"/>
@@ -24457,7 +24556,7 @@
       <c r="Y691"/>
       <c r="Z691"/>
     </row>
-    <row r="692" spans="21:26">
+    <row r="692" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U692"/>
       <c r="V692"/>
       <c r="W692"/>
@@ -24465,7 +24564,7 @@
       <c r="Y692"/>
       <c r="Z692"/>
     </row>
-    <row r="693" spans="21:26">
+    <row r="693" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U693"/>
       <c r="V693"/>
       <c r="W693"/>
@@ -24473,7 +24572,7 @@
       <c r="Y693"/>
       <c r="Z693"/>
     </row>
-    <row r="694" spans="21:26">
+    <row r="694" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U694"/>
       <c r="V694"/>
       <c r="W694"/>
@@ -24481,7 +24580,7 @@
       <c r="Y694"/>
       <c r="Z694"/>
     </row>
-    <row r="695" spans="21:26">
+    <row r="695" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U695"/>
       <c r="V695"/>
       <c r="W695"/>
@@ -24489,7 +24588,7 @@
       <c r="Y695"/>
       <c r="Z695"/>
     </row>
-    <row r="696" spans="21:26">
+    <row r="696" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U696"/>
       <c r="V696"/>
       <c r="W696"/>
@@ -24497,7 +24596,7 @@
       <c r="Y696"/>
       <c r="Z696"/>
     </row>
-    <row r="697" spans="21:26">
+    <row r="697" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U697"/>
       <c r="V697"/>
       <c r="W697"/>
@@ -24505,7 +24604,7 @@
       <c r="Y697"/>
       <c r="Z697"/>
     </row>
-    <row r="698" spans="21:26">
+    <row r="698" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U698"/>
       <c r="V698"/>
       <c r="W698"/>
@@ -24513,7 +24612,7 @@
       <c r="Y698"/>
       <c r="Z698"/>
     </row>
-    <row r="699" spans="21:26">
+    <row r="699" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U699"/>
       <c r="V699"/>
       <c r="W699"/>
@@ -24521,7 +24620,7 @@
       <c r="Y699"/>
       <c r="Z699"/>
     </row>
-    <row r="700" spans="21:26">
+    <row r="700" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U700"/>
       <c r="V700"/>
       <c r="W700"/>
@@ -24529,7 +24628,7 @@
       <c r="Y700"/>
       <c r="Z700"/>
     </row>
-    <row r="701" spans="21:26">
+    <row r="701" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U701"/>
       <c r="V701"/>
       <c r="W701"/>
@@ -24537,7 +24636,7 @@
       <c r="Y701"/>
       <c r="Z701"/>
     </row>
-    <row r="702" spans="21:26">
+    <row r="702" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U702"/>
       <c r="V702"/>
       <c r="W702"/>
@@ -24545,7 +24644,7 @@
       <c r="Y702"/>
       <c r="Z702"/>
     </row>
-    <row r="703" spans="21:26">
+    <row r="703" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U703"/>
       <c r="V703"/>
       <c r="W703"/>
@@ -24553,7 +24652,7 @@
       <c r="Y703"/>
       <c r="Z703"/>
     </row>
-    <row r="704" spans="21:26">
+    <row r="704" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U704"/>
       <c r="V704"/>
       <c r="W704"/>
@@ -24561,7 +24660,7 @@
       <c r="Y704"/>
       <c r="Z704"/>
     </row>
-    <row r="705" spans="21:26">
+    <row r="705" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U705"/>
       <c r="V705"/>
       <c r="W705"/>
@@ -24569,7 +24668,7 @@
       <c r="Y705"/>
       <c r="Z705"/>
     </row>
-    <row r="706" spans="21:26">
+    <row r="706" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U706"/>
       <c r="V706"/>
       <c r="W706"/>
@@ -24577,7 +24676,7 @@
       <c r="Y706"/>
       <c r="Z706"/>
     </row>
-    <row r="707" spans="21:26">
+    <row r="707" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U707"/>
       <c r="V707"/>
       <c r="W707"/>
@@ -24585,7 +24684,7 @@
       <c r="Y707"/>
       <c r="Z707"/>
     </row>
-    <row r="708" spans="21:26">
+    <row r="708" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U708"/>
       <c r="V708"/>
       <c r="W708"/>
@@ -24593,7 +24692,7 @@
       <c r="Y708"/>
       <c r="Z708"/>
     </row>
-    <row r="709" spans="21:26">
+    <row r="709" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U709"/>
       <c r="V709"/>
       <c r="W709"/>
@@ -24601,7 +24700,7 @@
       <c r="Y709"/>
       <c r="Z709"/>
     </row>
-    <row r="710" spans="21:26">
+    <row r="710" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U710"/>
       <c r="V710"/>
       <c r="W710"/>
@@ -24609,7 +24708,7 @@
       <c r="Y710"/>
       <c r="Z710"/>
     </row>
-    <row r="711" spans="21:26">
+    <row r="711" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U711"/>
       <c r="V711"/>
       <c r="W711"/>
@@ -24617,7 +24716,7 @@
       <c r="Y711"/>
       <c r="Z711"/>
     </row>
-    <row r="712" spans="21:26">
+    <row r="712" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U712"/>
       <c r="V712"/>
       <c r="W712"/>
@@ -24625,7 +24724,7 @@
       <c r="Y712"/>
       <c r="Z712"/>
     </row>
-    <row r="713" spans="21:26">
+    <row r="713" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U713"/>
       <c r="V713"/>
       <c r="W713"/>
@@ -24633,7 +24732,7 @@
       <c r="Y713"/>
       <c r="Z713"/>
     </row>
-    <row r="714" spans="21:26">
+    <row r="714" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U714"/>
       <c r="V714"/>
       <c r="W714"/>
@@ -24641,7 +24740,7 @@
       <c r="Y714"/>
       <c r="Z714"/>
     </row>
-    <row r="715" spans="21:26">
+    <row r="715" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U715"/>
       <c r="V715"/>
       <c r="W715"/>
@@ -24649,7 +24748,7 @@
       <c r="Y715"/>
       <c r="Z715"/>
     </row>
-    <row r="716" spans="21:26">
+    <row r="716" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U716"/>
       <c r="V716"/>
       <c r="W716"/>
@@ -24657,7 +24756,7 @@
       <c r="Y716"/>
       <c r="Z716"/>
     </row>
-    <row r="717" spans="21:26">
+    <row r="717" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U717"/>
       <c r="V717"/>
       <c r="W717"/>
@@ -24665,7 +24764,7 @@
       <c r="Y717"/>
       <c r="Z717"/>
     </row>
-    <row r="718" spans="21:26">
+    <row r="718" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U718"/>
       <c r="V718"/>
       <c r="W718"/>
@@ -24673,7 +24772,7 @@
       <c r="Y718"/>
       <c r="Z718"/>
     </row>
-    <row r="719" spans="21:26">
+    <row r="719" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U719"/>
       <c r="V719"/>
       <c r="W719"/>
@@ -24681,7 +24780,7 @@
       <c r="Y719"/>
       <c r="Z719"/>
     </row>
-    <row r="720" spans="21:26">
+    <row r="720" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U720"/>
       <c r="V720"/>
       <c r="W720"/>
@@ -24689,7 +24788,7 @@
       <c r="Y720"/>
       <c r="Z720"/>
     </row>
-    <row r="721" spans="21:26">
+    <row r="721" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U721"/>
       <c r="V721"/>
       <c r="W721"/>
@@ -24697,7 +24796,7 @@
       <c r="Y721"/>
       <c r="Z721"/>
     </row>
-    <row r="722" spans="21:26">
+    <row r="722" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U722"/>
       <c r="V722"/>
       <c r="W722"/>
@@ -24705,7 +24804,7 @@
       <c r="Y722"/>
       <c r="Z722"/>
     </row>
-    <row r="723" spans="21:26">
+    <row r="723" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U723"/>
       <c r="V723"/>
       <c r="W723"/>
@@ -24713,7 +24812,7 @@
       <c r="Y723"/>
       <c r="Z723"/>
     </row>
-    <row r="724" spans="21:26">
+    <row r="724" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U724"/>
       <c r="V724"/>
       <c r="W724"/>
@@ -24721,7 +24820,7 @@
       <c r="Y724"/>
       <c r="Z724"/>
     </row>
-    <row r="725" spans="21:26">
+    <row r="725" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U725"/>
       <c r="V725"/>
       <c r="W725"/>
@@ -24729,7 +24828,7 @@
       <c r="Y725"/>
       <c r="Z725"/>
     </row>
-    <row r="726" spans="21:26">
+    <row r="726" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U726"/>
       <c r="V726"/>
       <c r="W726"/>
@@ -24737,7 +24836,7 @@
       <c r="Y726"/>
       <c r="Z726"/>
     </row>
-    <row r="727" spans="21:26">
+    <row r="727" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U727"/>
       <c r="V727"/>
       <c r="W727"/>
@@ -24745,7 +24844,7 @@
       <c r="Y727"/>
       <c r="Z727"/>
     </row>
-    <row r="728" spans="21:26">
+    <row r="728" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U728"/>
       <c r="V728"/>
       <c r="W728"/>
@@ -24753,7 +24852,7 @@
       <c r="Y728"/>
       <c r="Z728"/>
     </row>
-    <row r="729" spans="21:26">
+    <row r="729" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U729"/>
       <c r="V729"/>
       <c r="W729"/>
@@ -24761,7 +24860,7 @@
       <c r="Y729"/>
       <c r="Z729"/>
     </row>
-    <row r="730" spans="21:26">
+    <row r="730" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U730"/>
       <c r="V730"/>
       <c r="W730"/>
@@ -24769,7 +24868,7 @@
       <c r="Y730"/>
       <c r="Z730"/>
     </row>
-    <row r="731" spans="21:26">
+    <row r="731" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U731"/>
       <c r="V731"/>
       <c r="W731"/>
@@ -24777,7 +24876,7 @@
       <c r="Y731"/>
       <c r="Z731"/>
     </row>
-    <row r="732" spans="21:26">
+    <row r="732" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U732"/>
       <c r="V732"/>
       <c r="W732"/>
@@ -24785,7 +24884,7 @@
       <c r="Y732"/>
       <c r="Z732"/>
     </row>
-    <row r="733" spans="21:26">
+    <row r="733" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U733"/>
       <c r="V733"/>
       <c r="W733"/>
@@ -24793,7 +24892,7 @@
       <c r="Y733"/>
       <c r="Z733"/>
     </row>
-    <row r="734" spans="21:26">
+    <row r="734" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U734"/>
       <c r="V734"/>
       <c r="W734"/>
@@ -24801,7 +24900,7 @@
       <c r="Y734"/>
       <c r="Z734"/>
     </row>
-    <row r="735" spans="21:26">
+    <row r="735" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U735"/>
       <c r="V735"/>
       <c r="W735"/>
@@ -24809,7 +24908,7 @@
       <c r="Y735"/>
       <c r="Z735"/>
     </row>
-    <row r="736" spans="21:26">
+    <row r="736" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U736"/>
       <c r="V736"/>
       <c r="W736"/>
@@ -24817,7 +24916,7 @@
       <c r="Y736"/>
       <c r="Z736"/>
     </row>
-    <row r="737" spans="21:26">
+    <row r="737" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U737"/>
       <c r="V737"/>
       <c r="W737"/>
@@ -24825,7 +24924,7 @@
       <c r="Y737"/>
       <c r="Z737"/>
     </row>
-    <row r="738" spans="21:26">
+    <row r="738" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U738"/>
       <c r="V738"/>
       <c r="W738"/>
@@ -24833,7 +24932,7 @@
       <c r="Y738"/>
       <c r="Z738"/>
     </row>
-    <row r="739" spans="21:26">
+    <row r="739" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U739"/>
       <c r="V739"/>
       <c r="W739"/>
@@ -24841,7 +24940,7 @@
       <c r="Y739"/>
       <c r="Z739"/>
     </row>
-    <row r="740" spans="21:26">
+    <row r="740" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U740"/>
       <c r="V740"/>
       <c r="W740"/>
@@ -24849,7 +24948,7 @@
       <c r="Y740"/>
       <c r="Z740"/>
     </row>
-    <row r="741" spans="21:26">
+    <row r="741" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U741"/>
       <c r="V741"/>
       <c r="W741"/>
@@ -24857,7 +24956,7 @@
       <c r="Y741"/>
       <c r="Z741"/>
     </row>
-    <row r="742" spans="21:26">
+    <row r="742" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U742"/>
       <c r="V742"/>
       <c r="W742"/>
@@ -24865,7 +24964,7 @@
       <c r="Y742"/>
       <c r="Z742"/>
     </row>
-    <row r="743" spans="21:26">
+    <row r="743" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U743"/>
       <c r="V743"/>
       <c r="W743"/>
@@ -24873,7 +24972,7 @@
       <c r="Y743"/>
       <c r="Z743"/>
     </row>
-    <row r="744" spans="21:26">
+    <row r="744" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U744"/>
       <c r="V744"/>
       <c r="W744"/>
@@ -24881,7 +24980,7 @@
       <c r="Y744"/>
       <c r="Z744"/>
     </row>
-    <row r="745" spans="21:26">
+    <row r="745" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U745"/>
       <c r="V745"/>
       <c r="W745"/>
@@ -24889,7 +24988,7 @@
       <c r="Y745"/>
       <c r="Z745"/>
     </row>
-    <row r="746" spans="21:26">
+    <row r="746" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U746"/>
       <c r="V746"/>
       <c r="W746"/>
@@ -24897,7 +24996,7 @@
       <c r="Y746"/>
       <c r="Z746"/>
     </row>
-    <row r="747" spans="21:26">
+    <row r="747" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U747"/>
       <c r="V747"/>
       <c r="W747"/>
@@ -24905,7 +25004,7 @@
       <c r="Y747"/>
       <c r="Z747"/>
     </row>
-    <row r="748" spans="21:26">
+    <row r="748" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U748"/>
       <c r="V748"/>
       <c r="W748"/>
@@ -24913,7 +25012,7 @@
       <c r="Y748"/>
       <c r="Z748"/>
     </row>
-    <row r="749" spans="21:26">
+    <row r="749" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U749"/>
       <c r="V749"/>
       <c r="W749"/>
@@ -24921,7 +25020,7 @@
       <c r="Y749"/>
       <c r="Z749"/>
     </row>
-    <row r="750" spans="21:26">
+    <row r="750" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U750"/>
       <c r="V750"/>
       <c r="W750"/>
@@ -24929,7 +25028,7 @@
       <c r="Y750"/>
       <c r="Z750"/>
     </row>
-    <row r="751" spans="21:26">
+    <row r="751" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U751"/>
       <c r="V751"/>
       <c r="W751"/>
@@ -24937,7 +25036,7 @@
       <c r="Y751"/>
       <c r="Z751"/>
     </row>
-    <row r="752" spans="21:26">
+    <row r="752" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U752"/>
       <c r="V752"/>
       <c r="W752"/>
@@ -24945,7 +25044,7 @@
       <c r="Y752"/>
       <c r="Z752"/>
     </row>
-    <row r="753" spans="21:26">
+    <row r="753" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U753"/>
       <c r="V753"/>
       <c r="W753"/>
@@ -24953,7 +25052,7 @@
       <c r="Y753"/>
       <c r="Z753"/>
     </row>
-    <row r="754" spans="21:26">
+    <row r="754" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U754"/>
       <c r="V754"/>
       <c r="W754"/>
@@ -24961,7 +25060,7 @@
       <c r="Y754"/>
       <c r="Z754"/>
     </row>
-    <row r="755" spans="21:26">
+    <row r="755" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U755"/>
       <c r="V755"/>
       <c r="W755"/>
@@ -24969,7 +25068,7 @@
       <c r="Y755"/>
       <c r="Z755"/>
     </row>
-    <row r="756" spans="21:26">
+    <row r="756" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U756"/>
       <c r="V756"/>
       <c r="W756"/>
@@ -24977,7 +25076,7 @@
       <c r="Y756"/>
       <c r="Z756"/>
     </row>
-    <row r="757" spans="21:26">
+    <row r="757" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U757"/>
       <c r="V757"/>
       <c r="W757"/>
@@ -24985,7 +25084,7 @@
       <c r="Y757"/>
       <c r="Z757"/>
     </row>
-    <row r="758" spans="21:26">
+    <row r="758" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U758"/>
       <c r="V758"/>
       <c r="W758"/>
@@ -24993,7 +25092,7 @@
       <c r="Y758"/>
       <c r="Z758"/>
     </row>
-    <row r="759" spans="21:26">
+    <row r="759" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U759"/>
       <c r="V759"/>
       <c r="W759"/>
@@ -25001,7 +25100,7 @@
       <c r="Y759"/>
       <c r="Z759"/>
     </row>
-    <row r="760" spans="21:26">
+    <row r="760" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U760"/>
       <c r="V760"/>
       <c r="W760"/>
@@ -25009,7 +25108,7 @@
       <c r="Y760"/>
       <c r="Z760"/>
     </row>
-    <row r="761" spans="21:26">
+    <row r="761" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U761"/>
       <c r="V761"/>
       <c r="W761"/>
@@ -25017,7 +25116,7 @@
       <c r="Y761"/>
       <c r="Z761"/>
     </row>
-    <row r="762" spans="21:26">
+    <row r="762" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U762"/>
       <c r="V762"/>
       <c r="W762"/>
@@ -25025,7 +25124,7 @@
       <c r="Y762"/>
       <c r="Z762"/>
     </row>
-    <row r="763" spans="21:26">
+    <row r="763" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U763"/>
       <c r="V763"/>
       <c r="W763"/>
@@ -25033,7 +25132,7 @@
       <c r="Y763"/>
       <c r="Z763"/>
     </row>
-    <row r="764" spans="21:26">
+    <row r="764" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U764"/>
       <c r="V764"/>
       <c r="W764"/>
@@ -25041,7 +25140,7 @@
       <c r="Y764"/>
       <c r="Z764"/>
     </row>
-    <row r="765" spans="21:26">
+    <row r="765" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U765"/>
       <c r="V765"/>
       <c r="W765"/>
@@ -25049,7 +25148,7 @@
       <c r="Y765"/>
       <c r="Z765"/>
     </row>
-    <row r="766" spans="21:26">
+    <row r="766" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U766"/>
       <c r="V766"/>
       <c r="W766"/>
@@ -25057,7 +25156,7 @@
       <c r="Y766"/>
       <c r="Z766"/>
     </row>
-    <row r="767" spans="21:26">
+    <row r="767" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U767"/>
       <c r="V767"/>
       <c r="W767"/>
@@ -25065,7 +25164,7 @@
       <c r="Y767"/>
       <c r="Z767"/>
     </row>
-    <row r="768" spans="21:26">
+    <row r="768" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U768"/>
       <c r="V768"/>
       <c r="W768"/>
@@ -25073,7 +25172,7 @@
       <c r="Y768"/>
       <c r="Z768"/>
     </row>
-    <row r="769" spans="21:26">
+    <row r="769" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U769"/>
       <c r="V769"/>
       <c r="W769"/>
@@ -25081,7 +25180,7 @@
       <c r="Y769"/>
       <c r="Z769"/>
     </row>
-    <row r="770" spans="21:26">
+    <row r="770" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U770"/>
       <c r="V770"/>
       <c r="W770"/>
@@ -25089,7 +25188,7 @@
       <c r="Y770"/>
       <c r="Z770"/>
     </row>
-    <row r="771" spans="21:26">
+    <row r="771" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U771"/>
       <c r="V771"/>
       <c r="W771"/>
@@ -25097,7 +25196,7 @@
       <c r="Y771"/>
       <c r="Z771"/>
     </row>
-    <row r="772" spans="21:26">
+    <row r="772" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U772"/>
       <c r="V772"/>
       <c r="W772"/>
@@ -25105,7 +25204,7 @@
       <c r="Y772"/>
       <c r="Z772"/>
     </row>
-    <row r="773" spans="21:26">
+    <row r="773" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U773"/>
       <c r="V773"/>
       <c r="W773"/>
@@ -25113,7 +25212,7 @@
       <c r="Y773"/>
       <c r="Z773"/>
     </row>
-    <row r="774" spans="21:26">
+    <row r="774" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U774"/>
       <c r="V774"/>
       <c r="W774"/>
@@ -25121,7 +25220,7 @@
       <c r="Y774"/>
       <c r="Z774"/>
     </row>
-    <row r="775" spans="21:26">
+    <row r="775" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U775"/>
       <c r="V775"/>
       <c r="W775"/>
@@ -25129,7 +25228,7 @@
       <c r="Y775"/>
       <c r="Z775"/>
     </row>
-    <row r="776" spans="21:26">
+    <row r="776" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U776"/>
       <c r="V776"/>
       <c r="W776"/>
@@ -25137,7 +25236,7 @@
       <c r="Y776"/>
       <c r="Z776"/>
     </row>
-    <row r="777" spans="21:26">
+    <row r="777" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U777"/>
       <c r="V777"/>
       <c r="W777"/>
@@ -25145,7 +25244,7 @@
       <c r="Y777"/>
       <c r="Z777"/>
     </row>
-    <row r="778" spans="21:26">
+    <row r="778" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U778"/>
       <c r="V778"/>
       <c r="W778"/>
@@ -25153,7 +25252,7 @@
       <c r="Y778"/>
       <c r="Z778"/>
     </row>
-    <row r="779" spans="21:26">
+    <row r="779" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U779"/>
       <c r="V779"/>
       <c r="W779"/>
@@ -25161,7 +25260,7 @@
       <c r="Y779"/>
       <c r="Z779"/>
     </row>
-    <row r="780" spans="21:26">
+    <row r="780" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U780"/>
       <c r="V780"/>
       <c r="W780"/>
@@ -25169,7 +25268,7 @@
       <c r="Y780"/>
       <c r="Z780"/>
     </row>
-    <row r="781" spans="21:26">
+    <row r="781" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U781"/>
       <c r="V781"/>
       <c r="W781"/>
@@ -25177,7 +25276,7 @@
       <c r="Y781"/>
       <c r="Z781"/>
     </row>
-    <row r="782" spans="21:26">
+    <row r="782" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U782"/>
       <c r="V782"/>
       <c r="W782"/>
@@ -25185,7 +25284,7 @@
       <c r="Y782"/>
       <c r="Z782"/>
     </row>
-    <row r="783" spans="21:26">
+    <row r="783" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U783"/>
       <c r="V783"/>
       <c r="W783"/>
@@ -25193,7 +25292,7 @@
       <c r="Y783"/>
       <c r="Z783"/>
     </row>
-    <row r="784" spans="21:26">
+    <row r="784" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U784"/>
       <c r="V784"/>
       <c r="W784"/>
@@ -25201,7 +25300,7 @@
       <c r="Y784"/>
       <c r="Z784"/>
     </row>
-    <row r="785" spans="21:26">
+    <row r="785" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U785"/>
       <c r="V785"/>
       <c r="W785"/>
@@ -25209,7 +25308,7 @@
       <c r="Y785"/>
       <c r="Z785"/>
     </row>
-    <row r="786" spans="21:26">
+    <row r="786" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U786"/>
       <c r="V786"/>
       <c r="W786"/>
@@ -25217,7 +25316,7 @@
       <c r="Y786"/>
       <c r="Z786"/>
     </row>
-    <row r="787" spans="21:26">
+    <row r="787" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U787"/>
       <c r="V787"/>
       <c r="W787"/>
@@ -25225,7 +25324,7 @@
       <c r="Y787"/>
       <c r="Z787"/>
     </row>
-    <row r="788" spans="21:26">
+    <row r="788" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U788"/>
       <c r="V788"/>
       <c r="W788"/>
@@ -25233,7 +25332,7 @@
       <c r="Y788"/>
       <c r="Z788"/>
     </row>
-    <row r="789" spans="21:26">
+    <row r="789" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U789"/>
       <c r="V789"/>
       <c r="W789"/>
@@ -25241,7 +25340,7 @@
       <c r="Y789"/>
       <c r="Z789"/>
     </row>
-    <row r="790" spans="21:26">
+    <row r="790" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U790"/>
       <c r="V790"/>
       <c r="W790"/>
@@ -25249,7 +25348,7 @@
       <c r="Y790"/>
       <c r="Z790"/>
     </row>
-    <row r="791" spans="21:26">
+    <row r="791" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U791"/>
       <c r="V791"/>
       <c r="W791"/>
@@ -25257,7 +25356,7 @@
       <c r="Y791"/>
       <c r="Z791"/>
     </row>
-    <row r="792" spans="21:26">
+    <row r="792" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U792"/>
       <c r="V792"/>
       <c r="W792"/>
@@ -25265,7 +25364,7 @@
       <c r="Y792"/>
       <c r="Z792"/>
     </row>
-    <row r="793" spans="21:26">
+    <row r="793" spans="21:26" x14ac:dyDescent="0.25">
       <c r="U793"/>
       <c r="V793"/>
       <c r="W793"/>
@@ -25274,29 +25373,29 @@
       <c r="Z793"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BG126" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
+  <autoFilter ref="A1:BG126"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="33.6640625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="38.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="33.625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="34">
+    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -25316,7 +25415,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="34">
+    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>129</v>
       </c>
@@ -25333,7 +25432,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="34">
+    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -25350,7 +25449,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="34">
+    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>129</v>
       </c>
@@ -25373,20 +25472,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="22.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>46</v>
       </c>
@@ -25397,7 +25496,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>49</v>
       </c>
@@ -25408,7 +25507,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>50</v>
       </c>
@@ -25419,7 +25518,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>51</v>
       </c>
@@ -25430,7 +25529,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>52</v>
       </c>
@@ -25441,7 +25540,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>221</v>
       </c>
@@ -25452,7 +25551,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>225</v>
       </c>
@@ -25460,7 +25559,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>226</v>
       </c>
@@ -25468,7 +25567,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
         <v>227</v>
       </c>
@@ -25476,7 +25575,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="s">
         <v>124</v>
       </c>
@@ -25484,7 +25583,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
         <v>228</v>
       </c>
@@ -25492,7 +25591,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
         <v>42</v>
       </c>
@@ -25500,7 +25599,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
         <v>229</v>
       </c>
@@ -25514,16 +25613,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
@@ -25540,7 +25639,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>233</v>
       </c>
@@ -25557,7 +25656,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>234</v>
       </c>
@@ -25574,7 +25673,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>235</v>
       </c>

--- a/resources/excels/GA.xlsx
+++ b/resources/excels/GA.xlsx
@@ -1,37 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\resources\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400947/Projects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA4667A-4B93-4945-A433-4976E4E8D34F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="35835" windowHeight="9075" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
     <sheet name="Priority" sheetId="10" r:id="rId2"/>
     <sheet name="Headers" sheetId="9" r:id="rId3"/>
-    <sheet name="NFTRTickets-San" sheetId="3" r:id="rId4"/>
-    <sheet name="FTRTickets-San" sheetId="2" r:id="rId5"/>
-    <sheet name="NFTRTickets-Reg" sheetId="11" r:id="rId6"/>
-    <sheet name="FTRTickets-Reg" sheetId="12" r:id="rId7"/>
-    <sheet name="UserManagement" sheetId="19" r:id="rId8"/>
-    <sheet name="PinnedTags" sheetId="5" r:id="rId9"/>
-    <sheet name="Ticket State" sheetId="6" r:id="rId10"/>
-    <sheet name="TemplateManagement" sheetId="20" r:id="rId11"/>
-    <sheet name="Ticket Transfer Rules" sheetId="15" r:id="rId12"/>
-    <sheet name="Authentication Policy" sheetId="17" r:id="rId13"/>
-    <sheet name="Action Tagging" sheetId="18" r:id="rId14"/>
-    <sheet name="State Queue Mapping" sheetId="21" r:id="rId15"/>
-    <sheet name="Transfer To Queue" sheetId="22" r:id="rId16"/>
-    <sheet name="QuestionAnswerKey" sheetId="23" r:id="rId17"/>
+    <sheet name="OpenAPILoginSheet" sheetId="24" r:id="rId4"/>
+    <sheet name="NFTRTickets-San" sheetId="3" r:id="rId5"/>
+    <sheet name="FTRTickets-San" sheetId="2" r:id="rId6"/>
+    <sheet name="NFTRTickets-Reg" sheetId="11" r:id="rId7"/>
+    <sheet name="FTRTickets-Reg" sheetId="12" r:id="rId8"/>
+    <sheet name="UserManagement" sheetId="19" r:id="rId9"/>
+    <sheet name="PinnedTags" sheetId="5" r:id="rId10"/>
+    <sheet name="Ticket State" sheetId="6" r:id="rId11"/>
+    <sheet name="TemplateManagement" sheetId="20" r:id="rId12"/>
+    <sheet name="Ticket Transfer Rules" sheetId="15" r:id="rId13"/>
+    <sheet name="Authentication Policy" sheetId="17" r:id="rId14"/>
+    <sheet name="Action Tagging" sheetId="18" r:id="rId15"/>
+    <sheet name="State Queue Mapping" sheetId="21" r:id="rId16"/>
+    <sheet name="Transfer To Queue" sheetId="22" r:id="rId17"/>
+    <sheet name="QuestionAnswerKey" sheetId="23" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'NFTRTickets-Reg'!$A$1:$BG$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'NFTRTickets-Reg'!$A$1:$BG$126</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2872" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="714">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2168,13 +2170,34 @@
   </si>
   <si>
     <t>FnF Indicator</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>API Type</t>
+  </si>
+  <si>
+    <t>Rest API</t>
+  </si>
+  <si>
+    <t>WKMh2WXamTTQtIrnkrC5/l9fCYOHhSa1hOgpKvmn5xZhNHkdTo8g7gpsGKiMXb/w3AjioDsIHk34HzJaReuqYUcHmN0KtpzrDoIHQ0cD0obcoZSykDm5lk55QPMbd20Vn3ZBFMDN4F9BYfxy98fwZXs+aUvM7wF6m2qunUhETMXh6NdTHBuJKtUMH7IE46UYg9h8k7UmWW8KkVjoyNuMii7OQUy6vMr+Y8CA4XGdqvFJ7ro9d9G87RjRl2YU0JG45DWmhKrb+fz7znkk7Q3o5ON5BZMEp+CXZ3cj8FJB4N6EO5ZAt4mEHUqrT/EbzZbjOVRnkrYtjRtudTn2/lJGxLSGoSUIVwxVkOCeJIHQusqWsb5R+Jf85rTmsKp+F//RZ8VzDxhL318YW4mF+fJGFeH29eGKFcqbwSBeAjizIpjxK3O1qcayBK+W7aVcsVU/UAFui5pdaE5loXhJ3rtuPQ==</t>
+  </si>
+  <si>
+    <t>OpenAPIValidToken</t>
+  </si>
+  <si>
+    <t>WKMh2WXamTTQtIrnkrC5/l9fCYOHhSa1hOgpKvmn5xZhNHkdTo8g7gpsGKiMXb/w3AjioDsIHk34HzJaReuqYUcHmN0KtpzrDoIHQ0cD0obcoZSykDm5lk55QPMbd20Vn3ZBFMDN4F9BYfxy98fwZXs+aUvM7wF6m2qunUhETMXh6NdTHBuJKtUMH7IE46UYg9h8k7UmWW8KkVjoyNuMii7OQUy6vMr+Y8CA4XGdqvFJ7ro9d9G87RjRl2YU0JG45DWmhKrb+fz7znkk7Q3o5ON5BZMEp+CXZ3cj8FJB4N6EO5ZAt4mEHUqrT/EbzZbjOVRnkrYtjRtudTn2/lJGxLSGoSUIVwxVkOCeJIHQusqWsb5R+Jf85rTmsKp+F//RZ8VzDxhL318YW4mF+fJGFeH29eGKFcqbwSBeAjizIpjxK3O1qcayBK+W7aVcsVU/UAFui5pdaE5loXhJ3rtu</t>
+  </si>
+  <si>
+    <t>OpenApiInvalidToken</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2238,6 +2261,13 @@
       <color rgb="FF172B4D"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2354,7 +2384,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2408,12 +2438,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
-    <cellStyle name="Normal 4" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2469,7 +2502,7 @@
         <xdr:cNvPr id="9217" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000001240000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001240000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2517,7 +2550,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2560,7 +2593,7 @@
         <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2889,23 +2922,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="14.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2959,7 +2992,7 @@
       </c>
       <c r="R1" s="7"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>2396518</v>
       </c>
@@ -3013,7 +3046,7 @@
       </c>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>2394650</v>
       </c>
@@ -3064,7 +3097,7 @@
       </c>
       <c r="R3" s="7"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>2390932</v>
       </c>
@@ -3085,7 +3118,7 @@
       </c>
       <c r="R4" s="7"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" s="7">
         <v>2396518</v>
       </c>
@@ -3113,7 +3146,94 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" s="1">
+        <v>735873718</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3" s="1">
+        <v>735873718</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="D4" s="1">
+        <v>735873718</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>640</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C4">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -3123,14 +3243,14 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>65</v>
       </c>
@@ -3141,7 +3261,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -3149,7 +3269,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -3157,7 +3277,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -3165,7 +3285,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -3173,7 +3293,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -3190,21 +3310,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J13" activeCellId="1" sqref="I1 J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="30.875" style="10" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="30.83203125" style="10" customWidth="1" collapsed="1"/>
     <col min="2" max="16384" width="9" style="10" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="11" t="s">
         <v>177</v>
       </c>
@@ -3212,7 +3332,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="10" t="s">
         <v>175</v>
       </c>
@@ -3220,7 +3340,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="10" t="s">
         <v>173</v>
       </c>
@@ -3228,7 +3348,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="10" t="s">
         <v>171</v>
       </c>
@@ -3236,17 +3356,17 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="10" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="10" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="10" t="s">
         <v>167</v>
       </c>
@@ -3256,23 +3376,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="13.375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.1640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>136</v>
       </c>
@@ -3294,31 +3414,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="19.625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="8" customWidth="1"/>
     <col min="5" max="5" width="11.5" style="8" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="8" customWidth="1"/>
     <col min="7" max="7" width="10" style="8" customWidth="1"/>
     <col min="8" max="8" width="11" style="8" customWidth="1"/>
-    <col min="9" max="10" width="10.125" style="8" customWidth="1"/>
+    <col min="9" max="10" width="10.1640625" style="8" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="8" customWidth="1"/>
-    <col min="12" max="12" width="11.625" style="8" customWidth="1"/>
-    <col min="13" max="13" width="11.875" style="8" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="11.83203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="17">
       <c r="A1" t="s">
         <v>141</v>
       </c>
@@ -3361,7 +3481,7 @@
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
     </row>
-    <row r="2" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="42">
       <c r="A2" s="19" t="s">
         <v>642</v>
       </c>
@@ -3395,22 +3515,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>157</v>
       </c>
@@ -3443,7 +3563,7 @@
       </c>
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>158</v>
       </c>
@@ -3464,7 +3584,7 @@
       </c>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="17">
       <c r="A3" s="1" t="s">
         <v>611</v>
       </c>
@@ -3484,7 +3604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="16" t="s">
         <v>644</v>
       </c>
@@ -3501,7 +3621,7 @@
       </c>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="16" t="s">
         <v>645</v>
       </c>
@@ -3518,7 +3638,7 @@
       </c>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="16" t="s">
         <v>646</v>
       </c>
@@ -3535,7 +3655,7 @@
       </c>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="16" t="s">
         <v>647</v>
       </c>
@@ -3552,7 +3672,7 @@
       </c>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="16" t="s">
         <v>648</v>
       </c>
@@ -3569,7 +3689,7 @@
       </c>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="16" t="s">
         <v>649</v>
       </c>
@@ -3586,7 +3706,7 @@
       </c>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="16" t="s">
         <v>650</v>
       </c>
@@ -3603,7 +3723,7 @@
       </c>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="16" t="s">
         <v>651</v>
       </c>
@@ -3620,7 +3740,7 @@
       </c>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="16" t="s">
         <v>652</v>
       </c>
@@ -3637,7 +3757,7 @@
       </c>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="16" t="s">
         <v>653</v>
       </c>
@@ -3660,24 +3780,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" style="13" customWidth="1"/>
     <col min="2" max="2" width="9" style="13"/>
-    <col min="3" max="3" width="13.875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="13" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="13" customWidth="1"/>
     <col min="5" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="12" t="s">
         <v>178</v>
       </c>
@@ -3712,7 +3832,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="16">
       <c r="A2" s="17" t="s">
         <v>222</v>
       </c>
@@ -3733,7 +3853,7 @@
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="16">
       <c r="A3" s="17" t="s">
         <v>217</v>
       </c>
@@ -3754,7 +3874,7 @@
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="16">
       <c r="A4" s="17" t="s">
         <v>223</v>
       </c>
@@ -3775,7 +3895,7 @@
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="16">
       <c r="A5" s="17" t="s">
         <v>216</v>
       </c>
@@ -3796,7 +3916,7 @@
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="16">
       <c r="A6" s="17" t="s">
         <v>224</v>
       </c>
@@ -3817,7 +3937,7 @@
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="16">
       <c r="A7" s="17" t="s">
         <v>124</v>
       </c>
@@ -3838,7 +3958,7 @@
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="16">
       <c r="A8" s="17" t="s">
         <v>227</v>
       </c>
@@ -3859,7 +3979,7 @@
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="16">
       <c r="A9" s="17" t="s">
         <v>229</v>
       </c>
@@ -3880,7 +4000,7 @@
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="16">
       <c r="A10" s="17" t="s">
         <v>230</v>
       </c>
@@ -3901,7 +4021,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="16">
       <c r="A11" s="17" t="s">
         <v>225</v>
       </c>
@@ -3922,7 +4042,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="16">
       <c r="A12" s="17" t="s">
         <v>42</v>
       </c>
@@ -3943,7 +4063,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="16">
       <c r="A13" s="16" t="s">
         <v>228</v>
       </c>
@@ -3970,17 +4090,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="37" t="s">
         <v>139</v>
       </c>
@@ -3991,7 +4111,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="17" t="s">
         <v>222</v>
       </c>
@@ -4002,7 +4122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="17" t="s">
         <v>217</v>
       </c>
@@ -4013,7 +4133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="17" t="s">
         <v>223</v>
       </c>
@@ -4029,23 +4149,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="36.375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" style="8" customWidth="1"/>
     <col min="2" max="2" width="47.5" style="8" customWidth="1"/>
-    <col min="3" max="3" width="58.125" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="10.875" style="8"/>
+    <col min="3" max="3" width="58.1640625" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="17">
       <c r="A1" s="31" t="s">
         <v>655</v>
       </c>
@@ -4056,7 +4176,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="17">
       <c r="A2" s="31" t="s">
         <v>658</v>
       </c>
@@ -4067,7 +4187,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="34">
       <c r="A3" s="31" t="s">
         <v>238</v>
       </c>
@@ -4078,7 +4198,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="17">
       <c r="A4" s="31" t="s">
         <v>663</v>
       </c>
@@ -4089,7 +4209,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="17">
       <c r="A5" s="31" t="s">
         <v>666</v>
       </c>
@@ -4100,7 +4220,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="17">
       <c r="A6" s="31" t="s">
         <v>669</v>
       </c>
@@ -4109,7 +4229,7 @@
       </c>
       <c r="C6" s="38"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="17">
       <c r="A7" s="31" t="s">
         <v>237</v>
       </c>
@@ -4120,7 +4240,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="17">
       <c r="A8" s="31" t="s">
         <v>673</v>
       </c>
@@ -4131,7 +4251,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="17">
       <c r="A9" s="31" t="s">
         <v>676</v>
       </c>
@@ -4142,7 +4262,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="17">
       <c r="A10" s="31" t="s">
         <v>679</v>
       </c>
@@ -4153,7 +4273,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="17">
       <c r="A11" s="31" t="s">
         <v>682</v>
       </c>
@@ -4164,7 +4284,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="17">
       <c r="A12" s="31" t="s">
         <v>685</v>
       </c>
@@ -4175,7 +4295,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="17">
       <c r="A13" s="31" t="s">
         <v>688</v>
       </c>
@@ -4184,7 +4304,7 @@
       </c>
       <c r="C13" s="38"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="17">
       <c r="A14" s="31" t="s">
         <v>690</v>
       </c>
@@ -4193,7 +4313,7 @@
       </c>
       <c r="C14" s="38"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="17">
       <c r="A15" s="31" t="s">
         <v>692</v>
       </c>
@@ -4210,49 +4330,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
         <v>116</v>
       </c>
@@ -4263,27 +4383,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="21.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>74</v>
       </c>
@@ -4324,7 +4444,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="34">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -4351,7 +4471,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>86</v>
       </c>
@@ -4378,7 +4498,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="17">
       <c r="A4" s="1" t="s">
         <v>91</v>
       </c>
@@ -4405,7 +4525,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>108</v>
       </c>
@@ -4438,7 +4558,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>109</v>
       </c>
@@ -4463,7 +4583,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>110</v>
       </c>
@@ -4488,7 +4608,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>111</v>
       </c>
@@ -4515,7 +4635,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>107</v>
       </c>
@@ -4542,7 +4662,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="30" t="s">
         <v>565</v>
       </c>
@@ -4569,7 +4689,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="30" t="s">
         <v>570</v>
       </c>
@@ -4596,7 +4716,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="30" t="s">
         <v>576</v>
       </c>
@@ -4627,7 +4747,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>584</v>
       </c>
@@ -4652,7 +4772,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="34">
       <c r="A14" s="30" t="s">
         <v>588</v>
       </c>
@@ -4689,7 +4809,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="30" t="s">
         <v>593</v>
       </c>
@@ -4720,7 +4840,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="30" t="s">
         <v>597</v>
       </c>
@@ -4745,7 +4865,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="7" customFormat="1">
       <c r="A17" s="30" t="s">
         <v>604</v>
       </c>
@@ -4770,7 +4890,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="30" t="s">
         <v>619</v>
       </c>
@@ -4797,7 +4917,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="51">
       <c r="A19" s="30" t="s">
         <v>624</v>
       </c>
@@ -4838,7 +4958,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="30" t="s">
         <v>629</v>
       </c>
@@ -4867,7 +4987,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" s="7" customFormat="1">
       <c r="A21" s="1" t="s">
         <v>695</v>
       </c>
@@ -4902,7 +5022,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="7" customFormat="1">
       <c r="A22" s="1" t="s">
         <v>703</v>
       </c>
@@ -4940,42 +5060,91 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A20AF0E-4DF7-5C4A-BDDF-8CDE3D7AB572}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="65.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17">
+      <c r="A1" s="39" t="s">
+        <v>707</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="409.6">
+      <c r="A3" s="39" t="s">
+        <v>710</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="409.6">
+      <c r="A4" s="39" t="s">
+        <v>712</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>713</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BG2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="26" width="23.875" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="26" width="23.83203125" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="9.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" ht="19" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -5154,7 +5323,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" ht="19" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>129</v>
       </c>
@@ -5257,23 +5426,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="4" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -5293,7 +5462,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="15" t="s">
         <v>129</v>
       </c>
@@ -5318,22 +5487,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BG793"/>
   <sheetViews>
     <sheetView topLeftCell="AP1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AV1" sqref="AV1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="21" max="26" width="9" style="7" collapsed="1"/>
-    <col min="48" max="48" width="18.625" customWidth="1"/>
-    <col min="50" max="50" width="18.625" customWidth="1"/>
+    <col min="48" max="48" width="18.6640625" customWidth="1"/>
+    <col min="50" max="50" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -5512,7 +5681,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59">
       <c r="A2" s="23" t="s">
         <v>129</v>
       </c>
@@ -5586,7 +5755,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59">
       <c r="A3" s="23" t="s">
         <v>129</v>
       </c>
@@ -5674,7 +5843,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:59">
       <c r="A4" s="23" t="s">
         <v>129</v>
       </c>
@@ -5762,7 +5931,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:59">
       <c r="A5" s="23" t="s">
         <v>129</v>
       </c>
@@ -5838,7 +6007,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:59">
       <c r="A6" s="23" t="s">
         <v>129</v>
       </c>
@@ -5908,7 +6077,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:59">
       <c r="A7" s="23" t="s">
         <v>125</v>
       </c>
@@ -5984,7 +6153,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:59">
       <c r="A8" s="23" t="s">
         <v>125</v>
       </c>
@@ -6068,7 +6237,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:59">
       <c r="A9" s="23" t="s">
         <v>125</v>
       </c>
@@ -6152,7 +6321,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:59">
       <c r="A10" s="23" t="s">
         <v>125</v>
       </c>
@@ -6232,7 +6401,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:59">
       <c r="A11" s="23" t="s">
         <v>125</v>
       </c>
@@ -6306,7 +6475,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:59">
       <c r="A12" s="23" t="s">
         <v>125</v>
       </c>
@@ -6390,7 +6559,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:59">
       <c r="A13" s="23" t="s">
         <v>125</v>
       </c>
@@ -6460,7 +6629,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:59">
       <c r="A14" s="23" t="s">
         <v>125</v>
       </c>
@@ -6540,7 +6709,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:59">
       <c r="A15" s="23" t="s">
         <v>125</v>
       </c>
@@ -6630,7 +6799,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:59">
       <c r="A16" s="23" t="s">
         <v>125</v>
       </c>
@@ -6710,7 +6879,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:58">
       <c r="A17" s="23" t="s">
         <v>129</v>
       </c>
@@ -6786,7 +6955,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:58">
       <c r="A18" s="23" t="s">
         <v>125</v>
       </c>
@@ -6862,7 +7031,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:58">
       <c r="A19" s="23" t="s">
         <v>129</v>
       </c>
@@ -6942,7 +7111,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:58">
       <c r="A20" s="23" t="s">
         <v>129</v>
       </c>
@@ -7012,7 +7181,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:58">
       <c r="A21" s="23" t="s">
         <v>125</v>
       </c>
@@ -7098,7 +7267,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:58">
       <c r="A22" s="23" t="s">
         <v>125</v>
       </c>
@@ -7178,7 +7347,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:58">
       <c r="A23" s="23" t="s">
         <v>125</v>
       </c>
@@ -7258,7 +7427,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:58">
       <c r="A24" s="23" t="s">
         <v>125</v>
       </c>
@@ -7348,7 +7517,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:58">
       <c r="A25" s="23" t="s">
         <v>125</v>
       </c>
@@ -7426,7 +7595,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:58">
       <c r="A26" s="23" t="s">
         <v>129</v>
       </c>
@@ -7514,7 +7683,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:58">
       <c r="A27" s="23" t="s">
         <v>125</v>
       </c>
@@ -7604,7 +7773,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:58">
       <c r="A28" s="23" t="s">
         <v>125</v>
       </c>
@@ -7682,7 +7851,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:58">
       <c r="A29" s="23" t="s">
         <v>125</v>
       </c>
@@ -7764,7 +7933,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:58">
       <c r="A30" s="23" t="s">
         <v>125</v>
       </c>
@@ -7838,7 +8007,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:58">
       <c r="A31" s="23" t="s">
         <v>125</v>
       </c>
@@ -7912,7 +8081,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:58">
       <c r="A32" s="23" t="s">
         <v>125</v>
       </c>
@@ -7992,7 +8161,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:58">
       <c r="A33" s="23" t="s">
         <v>125</v>
       </c>
@@ -8062,7 +8231,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:58">
       <c r="A34" s="23" t="s">
         <v>125</v>
       </c>
@@ -8132,7 +8301,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:58">
       <c r="A35" s="23" t="s">
         <v>125</v>
       </c>
@@ -8202,7 +8371,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:58">
       <c r="A36" s="23" t="s">
         <v>125</v>
       </c>
@@ -8282,7 +8451,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:58">
       <c r="A37" s="23" t="s">
         <v>125</v>
       </c>
@@ -8356,7 +8525,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:58">
       <c r="A38" s="23" t="s">
         <v>125</v>
       </c>
@@ -8430,7 +8599,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:58">
       <c r="A39" s="23" t="s">
         <v>129</v>
       </c>
@@ -8500,7 +8669,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:58">
       <c r="A40" s="23" t="s">
         <v>125</v>
       </c>
@@ -8586,7 +8755,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:58">
       <c r="A41" s="23" t="s">
         <v>125</v>
       </c>
@@ -8672,7 +8841,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:58">
       <c r="A42" s="23" t="s">
         <v>125</v>
       </c>
@@ -8752,7 +8921,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:58">
       <c r="A43" s="23" t="s">
         <v>125</v>
       </c>
@@ -8838,7 +9007,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:58">
       <c r="A44" s="23" t="s">
         <v>125</v>
       </c>
@@ -8918,7 +9087,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:58">
       <c r="A45" s="23" t="s">
         <v>125</v>
       </c>
@@ -9004,7 +9173,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:58">
       <c r="A46" s="23" t="s">
         <v>125</v>
       </c>
@@ -9086,7 +9255,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:58">
       <c r="A47" s="23" t="s">
         <v>125</v>
       </c>
@@ -9172,7 +9341,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:58">
       <c r="A48" s="23" t="s">
         <v>125</v>
       </c>
@@ -9262,7 +9431,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:58">
       <c r="A49" s="23" t="s">
         <v>125</v>
       </c>
@@ -9340,7 +9509,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:58">
       <c r="A50" s="23" t="s">
         <v>125</v>
       </c>
@@ -9412,7 +9581,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="51" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:58">
       <c r="A51" s="23" t="s">
         <v>125</v>
       </c>
@@ -9484,7 +9653,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:58">
       <c r="A52" s="23" t="s">
         <v>125</v>
       </c>
@@ -9568,7 +9737,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:58">
       <c r="A53" s="23" t="s">
         <v>125</v>
       </c>
@@ -9652,7 +9821,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:58">
       <c r="A54" s="23" t="s">
         <v>125</v>
       </c>
@@ -9736,7 +9905,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:58">
       <c r="A55" s="23" t="s">
         <v>125</v>
       </c>
@@ -9804,7 +9973,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:58">
       <c r="A56" s="23" t="s">
         <v>125</v>
       </c>
@@ -9888,7 +10057,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:58">
       <c r="A57" s="23" t="s">
         <v>125</v>
       </c>
@@ -9972,7 +10141,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:58">
       <c r="A58" s="23" t="s">
         <v>125</v>
       </c>
@@ -10052,7 +10221,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:58">
       <c r="A59" s="23" t="s">
         <v>125</v>
       </c>
@@ -10132,7 +10301,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:58">
       <c r="A60" s="23" t="s">
         <v>125</v>
       </c>
@@ -10212,7 +10381,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:58">
       <c r="A61" s="23" t="s">
         <v>125</v>
       </c>
@@ -10302,7 +10471,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:58">
       <c r="A62" s="23" t="s">
         <v>125</v>
       </c>
@@ -10392,7 +10561,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:58">
       <c r="A63" s="23" t="s">
         <v>125</v>
       </c>
@@ -10474,7 +10643,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:58">
       <c r="A64" s="23" t="s">
         <v>125</v>
       </c>
@@ -10564,7 +10733,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:58">
       <c r="A65" s="23" t="s">
         <v>125</v>
       </c>
@@ -10644,7 +10813,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:58">
       <c r="A66" s="23" t="s">
         <v>125</v>
       </c>
@@ -10728,7 +10897,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="67" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:58">
       <c r="A67" s="23" t="s">
         <v>125</v>
       </c>
@@ -10814,7 +10983,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:58">
       <c r="A68" s="23" t="s">
         <v>125</v>
       </c>
@@ -10888,7 +11057,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:58">
       <c r="A69" s="23" t="s">
         <v>125</v>
       </c>
@@ -10964,7 +11133,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:58">
       <c r="A70" s="23" t="s">
         <v>125</v>
       </c>
@@ -11040,7 +11209,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="71" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:58">
       <c r="A71" s="23" t="s">
         <v>125</v>
       </c>
@@ -11116,7 +11285,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:58">
       <c r="A72" s="23" t="s">
         <v>125</v>
       </c>
@@ -11192,7 +11361,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:58">
       <c r="A73" s="23" t="s">
         <v>125</v>
       </c>
@@ -11276,7 +11445,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:58">
       <c r="A74" s="23" t="s">
         <v>125</v>
       </c>
@@ -11356,7 +11525,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:58">
       <c r="A75" s="23" t="s">
         <v>125</v>
       </c>
@@ -11436,7 +11605,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:58">
       <c r="A76" s="23" t="s">
         <v>125</v>
       </c>
@@ -11522,7 +11691,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:58">
       <c r="A77" s="23" t="s">
         <v>125</v>
       </c>
@@ -11602,7 +11771,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:58">
       <c r="A78" s="23" t="s">
         <v>125</v>
       </c>
@@ -11686,7 +11855,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="79" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:58">
       <c r="A79" s="23" t="s">
         <v>125</v>
       </c>
@@ -11770,7 +11939,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:58">
       <c r="A80" s="23" t="s">
         <v>129</v>
       </c>
@@ -11846,7 +12015,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="81" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:58">
       <c r="A81" s="23" t="s">
         <v>129</v>
       </c>
@@ -11928,7 +12097,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="82" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:58">
       <c r="A82" s="23" t="s">
         <v>129</v>
       </c>
@@ -12010,7 +12179,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="83" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:58">
       <c r="A83" s="23" t="s">
         <v>129</v>
       </c>
@@ -12092,7 +12261,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="84" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:58">
       <c r="A84" s="23" t="s">
         <v>129</v>
       </c>
@@ -12174,7 +12343,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="85" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:58">
       <c r="A85" s="23" t="s">
         <v>129</v>
       </c>
@@ -12256,7 +12425,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="86" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:58">
       <c r="A86" s="23" t="s">
         <v>129</v>
       </c>
@@ -12338,7 +12507,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="87" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:58">
       <c r="A87" s="23" t="s">
         <v>129</v>
       </c>
@@ -12426,7 +12595,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="88" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:58">
       <c r="A88" s="23" t="s">
         <v>129</v>
       </c>
@@ -12514,7 +12683,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="89" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:58">
       <c r="A89" s="23" t="s">
         <v>129</v>
       </c>
@@ -12602,7 +12771,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="90" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:58">
       <c r="A90" s="23" t="s">
         <v>129</v>
       </c>
@@ -12690,7 +12859,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="91" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:58">
       <c r="A91" s="23" t="s">
         <v>129</v>
       </c>
@@ -12778,7 +12947,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="92" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:58">
       <c r="A92" s="23" t="s">
         <v>129</v>
       </c>
@@ -12846,7 +13015,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="93" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:58">
       <c r="A93" s="23" t="s">
         <v>129</v>
       </c>
@@ -12914,7 +13083,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="94" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:58">
       <c r="A94" s="23" t="s">
         <v>129</v>
       </c>
@@ -12990,7 +13159,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="95" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:58">
       <c r="A95" s="23" t="s">
         <v>129</v>
       </c>
@@ -13066,7 +13235,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="96" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:58">
       <c r="A96" s="23" t="s">
         <v>129</v>
       </c>
@@ -13142,7 +13311,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="97" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:58">
       <c r="A97" s="23" t="s">
         <v>129</v>
       </c>
@@ -13218,7 +13387,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="98" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:58">
       <c r="A98" s="23" t="s">
         <v>129</v>
       </c>
@@ -13294,7 +13463,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="99" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:58">
       <c r="A99" s="23" t="s">
         <v>129</v>
       </c>
@@ -13370,7 +13539,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="100" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:58">
       <c r="A100" s="23" t="s">
         <v>129</v>
       </c>
@@ -13448,7 +13617,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="101" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:58">
       <c r="A101" s="23" t="s">
         <v>125</v>
       </c>
@@ -13534,7 +13703,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="102" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:58">
       <c r="A102" s="23" t="s">
         <v>125</v>
       </c>
@@ -13614,7 +13783,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="103" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:58">
       <c r="A103" s="23" t="s">
         <v>125</v>
       </c>
@@ -13700,7 +13869,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="104" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:58">
       <c r="A104" s="23" t="s">
         <v>125</v>
       </c>
@@ -13776,7 +13945,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="105" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:58">
       <c r="A105" s="23" t="s">
         <v>125</v>
       </c>
@@ -13862,7 +14031,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="106" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:58">
       <c r="A106" s="23" t="s">
         <v>125</v>
       </c>
@@ -13954,7 +14123,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="107" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:58">
       <c r="A107" s="23" t="s">
         <v>125</v>
       </c>
@@ -14034,7 +14203,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="108" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:58">
       <c r="A108" s="23" t="s">
         <v>129</v>
       </c>
@@ -14108,7 +14277,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="109" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:58">
       <c r="A109" s="23" t="s">
         <v>129</v>
       </c>
@@ -14182,7 +14351,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="110" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:58">
       <c r="A110" s="23" t="s">
         <v>125</v>
       </c>
@@ -14262,7 +14431,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="111" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:58">
       <c r="A111" s="23" t="s">
         <v>125</v>
       </c>
@@ -14342,7 +14511,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="112" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:58">
       <c r="A112" s="23" t="s">
         <v>129</v>
       </c>
@@ -14422,7 +14591,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="113" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:58">
       <c r="A113" s="23" t="s">
         <v>129</v>
       </c>
@@ -14502,7 +14671,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:58">
       <c r="A114" s="23" t="s">
         <v>129</v>
       </c>
@@ -14576,7 +14745,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:58">
       <c r="A115" s="23" t="s">
         <v>129</v>
       </c>
@@ -14650,7 +14819,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="116" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:58">
       <c r="A116" s="23" t="s">
         <v>125</v>
       </c>
@@ -14734,7 +14903,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="117" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:58">
       <c r="A117" s="23" t="s">
         <v>125</v>
       </c>
@@ -14810,7 +14979,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="118" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:58">
       <c r="A118" s="23" t="s">
         <v>125</v>
       </c>
@@ -14890,7 +15059,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="119" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:58">
       <c r="A119" s="23" t="s">
         <v>125</v>
       </c>
@@ -14970,7 +15139,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="120" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:58">
       <c r="A120" s="23" t="s">
         <v>125</v>
       </c>
@@ -15054,7 +15223,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="121" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:58">
       <c r="A121" s="23" t="s">
         <v>125</v>
       </c>
@@ -15122,7 +15291,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="122" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:58">
       <c r="A122" s="23" t="s">
         <v>125</v>
       </c>
@@ -15202,7 +15371,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="123" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:58">
       <c r="A123" s="23" t="s">
         <v>125</v>
       </c>
@@ -15282,7 +15451,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="124" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:58">
       <c r="A124" s="23" t="s">
         <v>125</v>
       </c>
@@ -15344,7 +15513,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="125" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:58">
       <c r="A125" s="23" t="s">
         <v>125</v>
       </c>
@@ -15406,7 +15575,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="126" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:58">
       <c r="A126" s="23" t="s">
         <v>125</v>
       </c>
@@ -15496,7 +15665,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:58">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -15524,7 +15693,7 @@
       <c r="Y127"/>
       <c r="Z127"/>
     </row>
-    <row r="128" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:58">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -15552,7 +15721,7 @@
       <c r="Y128"/>
       <c r="Z128"/>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:26">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -15580,7 +15749,7 @@
       <c r="Y129"/>
       <c r="Z129"/>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:26">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -15608,7 +15777,7 @@
       <c r="Y130"/>
       <c r="Z130"/>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:26">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -15636,7 +15805,7 @@
       <c r="Y131"/>
       <c r="Z131"/>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:26">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -15664,7 +15833,7 @@
       <c r="Y132"/>
       <c r="Z132"/>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:26">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -15692,7 +15861,7 @@
       <c r="Y133"/>
       <c r="Z133"/>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:26">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -15720,7 +15889,7 @@
       <c r="Y134"/>
       <c r="Z134"/>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:26">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -15748,7 +15917,7 @@
       <c r="Y135"/>
       <c r="Z135"/>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:26">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -15776,7 +15945,7 @@
       <c r="Y136"/>
       <c r="Z136"/>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:26">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
@@ -15804,7 +15973,7 @@
       <c r="Y137"/>
       <c r="Z137"/>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:26">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
@@ -15832,7 +16001,7 @@
       <c r="Y138"/>
       <c r="Z138"/>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:26">
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
@@ -15860,7 +16029,7 @@
       <c r="Y139"/>
       <c r="Z139"/>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:26">
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
@@ -15888,7 +16057,7 @@
       <c r="Y140"/>
       <c r="Z140"/>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:26">
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
@@ -15916,7 +16085,7 @@
       <c r="Y141"/>
       <c r="Z141"/>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:26">
       <c r="A142" s="7"/>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
@@ -15944,7 +16113,7 @@
       <c r="Y142"/>
       <c r="Z142"/>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:26">
       <c r="A143" s="7"/>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
@@ -15972,7 +16141,7 @@
       <c r="Y143"/>
       <c r="Z143"/>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:26">
       <c r="A144" s="7"/>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
@@ -16000,7 +16169,7 @@
       <c r="Y144"/>
       <c r="Z144"/>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:26">
       <c r="A145" s="7"/>
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
@@ -16028,7 +16197,7 @@
       <c r="Y145"/>
       <c r="Z145"/>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:26">
       <c r="A146" s="7"/>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
@@ -16056,7 +16225,7 @@
       <c r="Y146"/>
       <c r="Z146"/>
     </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:26">
       <c r="A147" s="7"/>
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
@@ -16084,7 +16253,7 @@
       <c r="Y147"/>
       <c r="Z147"/>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:26">
       <c r="A148" s="7"/>
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
@@ -16112,7 +16281,7 @@
       <c r="Y148"/>
       <c r="Z148"/>
     </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:26">
       <c r="A149" s="7"/>
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
@@ -16140,7 +16309,7 @@
       <c r="Y149"/>
       <c r="Z149"/>
     </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:26">
       <c r="A150" s="7"/>
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
@@ -16168,7 +16337,7 @@
       <c r="Y150"/>
       <c r="Z150"/>
     </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:26">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
@@ -16196,7 +16365,7 @@
       <c r="Y151"/>
       <c r="Z151"/>
     </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:26">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
@@ -16224,7 +16393,7 @@
       <c r="Y152"/>
       <c r="Z152"/>
     </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:26">
       <c r="A153" s="7"/>
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
@@ -16252,7 +16421,7 @@
       <c r="Y153"/>
       <c r="Z153"/>
     </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:26">
       <c r="A154" s="7"/>
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
@@ -16280,7 +16449,7 @@
       <c r="Y154"/>
       <c r="Z154"/>
     </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:26">
       <c r="A155" s="7"/>
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
@@ -16308,7 +16477,7 @@
       <c r="Y155"/>
       <c r="Z155"/>
     </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:26">
       <c r="A156" s="7"/>
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
@@ -16336,7 +16505,7 @@
       <c r="Y156"/>
       <c r="Z156"/>
     </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:26">
       <c r="A157" s="7"/>
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
@@ -16364,7 +16533,7 @@
       <c r="Y157"/>
       <c r="Z157"/>
     </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:26">
       <c r="A158" s="7"/>
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
@@ -16392,7 +16561,7 @@
       <c r="Y158"/>
       <c r="Z158"/>
     </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:26">
       <c r="A159" s="7"/>
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
@@ -16420,7 +16589,7 @@
       <c r="Y159"/>
       <c r="Z159"/>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:26">
       <c r="A160" s="7"/>
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
@@ -16448,7 +16617,7 @@
       <c r="Y160"/>
       <c r="Z160"/>
     </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:26">
       <c r="A161" s="7"/>
       <c r="B161" s="7"/>
       <c r="C161" s="7"/>
@@ -16476,7 +16645,7 @@
       <c r="Y161"/>
       <c r="Z161"/>
     </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:26">
       <c r="A162" s="7"/>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
@@ -16504,7 +16673,7 @@
       <c r="Y162"/>
       <c r="Z162"/>
     </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:26">
       <c r="A163" s="7"/>
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
@@ -16532,7 +16701,7 @@
       <c r="Y163"/>
       <c r="Z163"/>
     </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:26">
       <c r="A164" s="7"/>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
@@ -16560,7 +16729,7 @@
       <c r="Y164"/>
       <c r="Z164"/>
     </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:26">
       <c r="A165" s="7"/>
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
@@ -16588,7 +16757,7 @@
       <c r="Y165"/>
       <c r="Z165"/>
     </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:26">
       <c r="A166" s="7"/>
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
@@ -16616,7 +16785,7 @@
       <c r="Y166"/>
       <c r="Z166"/>
     </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:26">
       <c r="A167" s="7"/>
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
@@ -16644,7 +16813,7 @@
       <c r="Y167"/>
       <c r="Z167"/>
     </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:26">
       <c r="A168" s="7"/>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
@@ -16672,7 +16841,7 @@
       <c r="Y168"/>
       <c r="Z168"/>
     </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:26">
       <c r="A169" s="7"/>
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
@@ -16700,7 +16869,7 @@
       <c r="Y169"/>
       <c r="Z169"/>
     </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:26">
       <c r="A170" s="7"/>
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
@@ -16728,7 +16897,7 @@
       <c r="Y170"/>
       <c r="Z170"/>
     </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:26">
       <c r="A171" s="7"/>
       <c r="B171" s="7"/>
       <c r="C171" s="7"/>
@@ -16756,7 +16925,7 @@
       <c r="Y171"/>
       <c r="Z171"/>
     </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:26">
       <c r="A172" s="7"/>
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
@@ -16784,7 +16953,7 @@
       <c r="Y172"/>
       <c r="Z172"/>
     </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:26">
       <c r="A173" s="7"/>
       <c r="B173" s="7"/>
       <c r="C173" s="7"/>
@@ -16812,7 +16981,7 @@
       <c r="Y173"/>
       <c r="Z173"/>
     </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:26">
       <c r="A174" s="7"/>
       <c r="B174" s="7"/>
       <c r="C174" s="7"/>
@@ -16840,7 +17009,7 @@
       <c r="Y174"/>
       <c r="Z174"/>
     </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:26">
       <c r="A175" s="7"/>
       <c r="B175" s="7"/>
       <c r="C175" s="7"/>
@@ -16868,7 +17037,7 @@
       <c r="Y175"/>
       <c r="Z175"/>
     </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:26">
       <c r="A176" s="7"/>
       <c r="B176" s="7"/>
       <c r="C176" s="7"/>
@@ -16896,7 +17065,7 @@
       <c r="Y176"/>
       <c r="Z176"/>
     </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:26">
       <c r="A177" s="7"/>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
@@ -16924,7 +17093,7 @@
       <c r="Y177"/>
       <c r="Z177"/>
     </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:26">
       <c r="A178" s="7"/>
       <c r="B178" s="7"/>
       <c r="C178" s="7"/>
@@ -16952,7 +17121,7 @@
       <c r="Y178"/>
       <c r="Z178"/>
     </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:26">
       <c r="A179" s="7"/>
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
@@ -16980,7 +17149,7 @@
       <c r="Y179"/>
       <c r="Z179"/>
     </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:26">
       <c r="A180" s="7"/>
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
@@ -17008,7 +17177,7 @@
       <c r="Y180"/>
       <c r="Z180"/>
     </row>
-    <row r="181" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:26">
       <c r="A181" s="7"/>
       <c r="B181" s="7"/>
       <c r="C181" s="7"/>
@@ -17036,7 +17205,7 @@
       <c r="Y181"/>
       <c r="Z181"/>
     </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:26">
       <c r="A182" s="7"/>
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
@@ -17064,7 +17233,7 @@
       <c r="Y182"/>
       <c r="Z182"/>
     </row>
-    <row r="183" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:26">
       <c r="A183" s="7"/>
       <c r="B183" s="7"/>
       <c r="C183" s="7"/>
@@ -17092,7 +17261,7 @@
       <c r="Y183"/>
       <c r="Z183"/>
     </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:26">
       <c r="A184" s="7"/>
       <c r="B184" s="7"/>
       <c r="C184" s="7"/>
@@ -17120,7 +17289,7 @@
       <c r="Y184"/>
       <c r="Z184"/>
     </row>
-    <row r="185" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:26">
       <c r="A185" s="7"/>
       <c r="B185" s="7"/>
       <c r="C185" s="7"/>
@@ -17148,7 +17317,7 @@
       <c r="Y185"/>
       <c r="Z185"/>
     </row>
-    <row r="186" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:26">
       <c r="A186" s="7"/>
       <c r="B186" s="7"/>
       <c r="C186" s="7"/>
@@ -17176,7 +17345,7 @@
       <c r="Y186"/>
       <c r="Z186"/>
     </row>
-    <row r="187" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:26">
       <c r="A187" s="7"/>
       <c r="B187" s="7"/>
       <c r="C187" s="7"/>
@@ -17204,7 +17373,7 @@
       <c r="Y187"/>
       <c r="Z187"/>
     </row>
-    <row r="188" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:26">
       <c r="A188" s="7"/>
       <c r="B188" s="7"/>
       <c r="C188" s="7"/>
@@ -17232,7 +17401,7 @@
       <c r="Y188"/>
       <c r="Z188"/>
     </row>
-    <row r="189" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:26">
       <c r="A189" s="7"/>
       <c r="B189" s="7"/>
       <c r="C189" s="7"/>
@@ -17260,7 +17429,7 @@
       <c r="Y189"/>
       <c r="Z189"/>
     </row>
-    <row r="190" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:26">
       <c r="A190" s="7"/>
       <c r="B190" s="7"/>
       <c r="C190" s="7"/>
@@ -17288,7 +17457,7 @@
       <c r="Y190"/>
       <c r="Z190"/>
     </row>
-    <row r="191" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:26">
       <c r="A191" s="7"/>
       <c r="B191" s="7"/>
       <c r="C191" s="7"/>
@@ -17316,7 +17485,7 @@
       <c r="Y191"/>
       <c r="Z191"/>
     </row>
-    <row r="192" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:26">
       <c r="A192" s="7"/>
       <c r="B192" s="7"/>
       <c r="C192" s="7"/>
@@ -17344,7 +17513,7 @@
       <c r="Y192"/>
       <c r="Z192"/>
     </row>
-    <row r="193" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:26">
       <c r="A193" s="7"/>
       <c r="B193" s="7"/>
       <c r="C193" s="7"/>
@@ -17372,7 +17541,7 @@
       <c r="Y193"/>
       <c r="Z193"/>
     </row>
-    <row r="194" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:26">
       <c r="A194" s="7"/>
       <c r="B194" s="7"/>
       <c r="C194" s="7"/>
@@ -17400,7 +17569,7 @@
       <c r="Y194"/>
       <c r="Z194"/>
     </row>
-    <row r="195" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:26">
       <c r="A195" s="7"/>
       <c r="B195" s="7"/>
       <c r="C195" s="7"/>
@@ -17428,7 +17597,7 @@
       <c r="Y195"/>
       <c r="Z195"/>
     </row>
-    <row r="196" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:26">
       <c r="A196" s="7"/>
       <c r="B196" s="7"/>
       <c r="C196" s="7"/>
@@ -17456,7 +17625,7 @@
       <c r="Y196"/>
       <c r="Z196"/>
     </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:26">
       <c r="A197" s="7"/>
       <c r="B197" s="7"/>
       <c r="C197" s="7"/>
@@ -17484,7 +17653,7 @@
       <c r="Y197"/>
       <c r="Z197"/>
     </row>
-    <row r="198" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:26">
       <c r="A198" s="7"/>
       <c r="B198" s="7"/>
       <c r="C198" s="7"/>
@@ -17512,7 +17681,7 @@
       <c r="Y198"/>
       <c r="Z198"/>
     </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:26">
       <c r="A199" s="7"/>
       <c r="B199" s="7"/>
       <c r="C199" s="7"/>
@@ -17540,7 +17709,7 @@
       <c r="Y199"/>
       <c r="Z199"/>
     </row>
-    <row r="200" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:26">
       <c r="A200" s="7"/>
       <c r="B200" s="7"/>
       <c r="C200" s="7"/>
@@ -17568,7 +17737,7 @@
       <c r="Y200"/>
       <c r="Z200"/>
     </row>
-    <row r="201" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:26">
       <c r="A201" s="7"/>
       <c r="B201" s="7"/>
       <c r="C201" s="7"/>
@@ -17596,7 +17765,7 @@
       <c r="Y201"/>
       <c r="Z201"/>
     </row>
-    <row r="202" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:26">
       <c r="A202" s="7"/>
       <c r="B202" s="7"/>
       <c r="C202" s="7"/>
@@ -17624,7 +17793,7 @@
       <c r="Y202"/>
       <c r="Z202"/>
     </row>
-    <row r="203" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:26">
       <c r="A203" s="7"/>
       <c r="B203" s="7"/>
       <c r="C203" s="7"/>
@@ -17652,7 +17821,7 @@
       <c r="Y203"/>
       <c r="Z203"/>
     </row>
-    <row r="204" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:26">
       <c r="A204" s="7"/>
       <c r="B204" s="7"/>
       <c r="C204" s="7"/>
@@ -17680,7 +17849,7 @@
       <c r="Y204"/>
       <c r="Z204"/>
     </row>
-    <row r="205" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:26">
       <c r="A205" s="7"/>
       <c r="B205" s="7"/>
       <c r="C205" s="7"/>
@@ -17708,7 +17877,7 @@
       <c r="Y205"/>
       <c r="Z205"/>
     </row>
-    <row r="206" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:26">
       <c r="A206" s="7"/>
       <c r="B206" s="7"/>
       <c r="C206" s="7"/>
@@ -17736,7 +17905,7 @@
       <c r="Y206"/>
       <c r="Z206"/>
     </row>
-    <row r="207" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:26">
       <c r="A207" s="7"/>
       <c r="B207" s="7"/>
       <c r="C207" s="7"/>
@@ -17764,7 +17933,7 @@
       <c r="Y207"/>
       <c r="Z207"/>
     </row>
-    <row r="208" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:26">
       <c r="A208" s="7"/>
       <c r="B208" s="7"/>
       <c r="C208" s="7"/>
@@ -17792,7 +17961,7 @@
       <c r="Y208"/>
       <c r="Z208"/>
     </row>
-    <row r="209" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:26">
       <c r="A209" s="7"/>
       <c r="B209" s="7"/>
       <c r="C209" s="7"/>
@@ -17820,7 +17989,7 @@
       <c r="Y209"/>
       <c r="Z209"/>
     </row>
-    <row r="210" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:26">
       <c r="A210" s="7"/>
       <c r="B210" s="7"/>
       <c r="C210" s="7"/>
@@ -17848,7 +18017,7 @@
       <c r="Y210"/>
       <c r="Z210"/>
     </row>
-    <row r="211" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:26">
       <c r="A211" s="7"/>
       <c r="B211" s="7"/>
       <c r="C211" s="7"/>
@@ -17876,7 +18045,7 @@
       <c r="Y211"/>
       <c r="Z211"/>
     </row>
-    <row r="212" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:26">
       <c r="A212" s="7"/>
       <c r="B212" s="7"/>
       <c r="C212" s="7"/>
@@ -17904,7 +18073,7 @@
       <c r="Y212"/>
       <c r="Z212"/>
     </row>
-    <row r="213" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:26">
       <c r="A213" s="7"/>
       <c r="B213" s="7"/>
       <c r="C213" s="7"/>
@@ -17932,7 +18101,7 @@
       <c r="Y213"/>
       <c r="Z213"/>
     </row>
-    <row r="214" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:26">
       <c r="A214" s="7"/>
       <c r="B214" s="7"/>
       <c r="C214" s="7"/>
@@ -17960,7 +18129,7 @@
       <c r="Y214"/>
       <c r="Z214"/>
     </row>
-    <row r="215" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:26">
       <c r="A215" s="7"/>
       <c r="B215" s="7"/>
       <c r="C215" s="7"/>
@@ -17988,7 +18157,7 @@
       <c r="Y215"/>
       <c r="Z215"/>
     </row>
-    <row r="216" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:26">
       <c r="A216" s="7"/>
       <c r="B216" s="7"/>
       <c r="C216" s="7"/>
@@ -18016,7 +18185,7 @@
       <c r="Y216"/>
       <c r="Z216"/>
     </row>
-    <row r="217" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:26">
       <c r="A217" s="7"/>
       <c r="B217" s="7"/>
       <c r="C217" s="7"/>
@@ -18044,7 +18213,7 @@
       <c r="Y217"/>
       <c r="Z217"/>
     </row>
-    <row r="218" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:26">
       <c r="A218" s="7"/>
       <c r="B218" s="7"/>
       <c r="C218" s="7"/>
@@ -18072,7 +18241,7 @@
       <c r="Y218"/>
       <c r="Z218"/>
     </row>
-    <row r="219" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:26">
       <c r="A219" s="7"/>
       <c r="B219" s="7"/>
       <c r="C219" s="7"/>
@@ -18100,7 +18269,7 @@
       <c r="Y219"/>
       <c r="Z219"/>
     </row>
-    <row r="220" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:26">
       <c r="A220" s="7"/>
       <c r="B220" s="7"/>
       <c r="C220" s="7"/>
@@ -18128,7 +18297,7 @@
       <c r="Y220"/>
       <c r="Z220"/>
     </row>
-    <row r="221" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:26">
       <c r="A221" s="7"/>
       <c r="B221" s="7"/>
       <c r="C221" s="7"/>
@@ -18156,7 +18325,7 @@
       <c r="Y221"/>
       <c r="Z221"/>
     </row>
-    <row r="222" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:26">
       <c r="A222" s="7"/>
       <c r="B222" s="7"/>
       <c r="C222" s="7"/>
@@ -18184,7 +18353,7 @@
       <c r="Y222"/>
       <c r="Z222"/>
     </row>
-    <row r="223" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:26">
       <c r="A223" s="7"/>
       <c r="B223" s="7"/>
       <c r="C223" s="7"/>
@@ -18212,7 +18381,7 @@
       <c r="Y223"/>
       <c r="Z223"/>
     </row>
-    <row r="224" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:26">
       <c r="A224" s="7"/>
       <c r="B224" s="7"/>
       <c r="C224" s="7"/>
@@ -18240,7 +18409,7 @@
       <c r="Y224"/>
       <c r="Z224"/>
     </row>
-    <row r="225" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:26">
       <c r="A225" s="7"/>
       <c r="B225" s="7"/>
       <c r="C225" s="7"/>
@@ -18268,7 +18437,7 @@
       <c r="Y225"/>
       <c r="Z225"/>
     </row>
-    <row r="226" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:26">
       <c r="A226" s="7"/>
       <c r="B226" s="7"/>
       <c r="C226" s="7"/>
@@ -18296,7 +18465,7 @@
       <c r="Y226"/>
       <c r="Z226"/>
     </row>
-    <row r="227" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:26">
       <c r="A227" s="7"/>
       <c r="B227" s="7"/>
       <c r="C227" s="7"/>
@@ -18324,7 +18493,7 @@
       <c r="Y227"/>
       <c r="Z227"/>
     </row>
-    <row r="228" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:26">
       <c r="A228" s="7"/>
       <c r="B228" s="7"/>
       <c r="C228" s="7"/>
@@ -18352,7 +18521,7 @@
       <c r="Y228"/>
       <c r="Z228"/>
     </row>
-    <row r="229" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:26">
       <c r="A229" s="7"/>
       <c r="B229" s="7"/>
       <c r="C229" s="7"/>
@@ -18380,7 +18549,7 @@
       <c r="Y229"/>
       <c r="Z229"/>
     </row>
-    <row r="230" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:26">
       <c r="A230" s="7"/>
       <c r="B230" s="7"/>
       <c r="C230" s="7"/>
@@ -18408,7 +18577,7 @@
       <c r="Y230"/>
       <c r="Z230"/>
     </row>
-    <row r="231" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:26">
       <c r="A231" s="7"/>
       <c r="B231" s="7"/>
       <c r="C231" s="7"/>
@@ -18436,7 +18605,7 @@
       <c r="Y231"/>
       <c r="Z231"/>
     </row>
-    <row r="232" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:26">
       <c r="A232" s="7"/>
       <c r="B232" s="7"/>
       <c r="C232" s="7"/>
@@ -18464,7 +18633,7 @@
       <c r="Y232"/>
       <c r="Z232"/>
     </row>
-    <row r="233" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:26">
       <c r="A233" s="7"/>
       <c r="B233" s="7"/>
       <c r="C233" s="7"/>
@@ -18492,7 +18661,7 @@
       <c r="Y233"/>
       <c r="Z233"/>
     </row>
-    <row r="234" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:26">
       <c r="A234" s="7"/>
       <c r="B234" s="7"/>
       <c r="C234" s="7"/>
@@ -18520,7 +18689,7 @@
       <c r="Y234"/>
       <c r="Z234"/>
     </row>
-    <row r="235" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:26">
       <c r="A235" s="7"/>
       <c r="B235" s="7"/>
       <c r="C235" s="7"/>
@@ -18548,7 +18717,7 @@
       <c r="Y235"/>
       <c r="Z235"/>
     </row>
-    <row r="236" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:26">
       <c r="A236" s="7"/>
       <c r="B236" s="7"/>
       <c r="C236" s="7"/>
@@ -18576,7 +18745,7 @@
       <c r="Y236"/>
       <c r="Z236"/>
     </row>
-    <row r="237" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:26">
       <c r="A237" s="7"/>
       <c r="B237" s="7"/>
       <c r="C237" s="7"/>
@@ -18604,7 +18773,7 @@
       <c r="Y237"/>
       <c r="Z237"/>
     </row>
-    <row r="238" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:26">
       <c r="A238" s="7"/>
       <c r="B238" s="7"/>
       <c r="C238" s="7"/>
@@ -18632,7 +18801,7 @@
       <c r="Y238"/>
       <c r="Z238"/>
     </row>
-    <row r="239" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:26">
       <c r="A239" s="7"/>
       <c r="B239" s="7"/>
       <c r="C239" s="7"/>
@@ -18660,7 +18829,7 @@
       <c r="Y239"/>
       <c r="Z239"/>
     </row>
-    <row r="240" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:26">
       <c r="A240" s="7"/>
       <c r="B240" s="7"/>
       <c r="C240" s="7"/>
@@ -18688,7 +18857,7 @@
       <c r="Y240"/>
       <c r="Z240"/>
     </row>
-    <row r="241" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:26">
       <c r="A241" s="7"/>
       <c r="B241" s="7"/>
       <c r="C241" s="7"/>
@@ -18716,7 +18885,7 @@
       <c r="Y241"/>
       <c r="Z241"/>
     </row>
-    <row r="242" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:26">
       <c r="A242" s="7"/>
       <c r="B242" s="7"/>
       <c r="C242" s="7"/>
@@ -18744,7 +18913,7 @@
       <c r="Y242"/>
       <c r="Z242"/>
     </row>
-    <row r="243" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:26">
       <c r="A243" s="7"/>
       <c r="B243" s="7"/>
       <c r="C243" s="7"/>
@@ -18772,7 +18941,7 @@
       <c r="Y243"/>
       <c r="Z243"/>
     </row>
-    <row r="244" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:26">
       <c r="A244" s="7"/>
       <c r="B244" s="7"/>
       <c r="C244" s="7"/>
@@ -18800,7 +18969,7 @@
       <c r="Y244"/>
       <c r="Z244"/>
     </row>
-    <row r="245" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:26">
       <c r="A245" s="7"/>
       <c r="B245" s="7"/>
       <c r="C245" s="7"/>
@@ -18828,7 +18997,7 @@
       <c r="Y245"/>
       <c r="Z245"/>
     </row>
-    <row r="246" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:26">
       <c r="A246" s="7"/>
       <c r="B246" s="7"/>
       <c r="C246" s="7"/>
@@ -18856,7 +19025,7 @@
       <c r="Y246"/>
       <c r="Z246"/>
     </row>
-    <row r="247" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:26">
       <c r="A247" s="7"/>
       <c r="B247" s="7"/>
       <c r="C247" s="7"/>
@@ -18884,7 +19053,7 @@
       <c r="Y247"/>
       <c r="Z247"/>
     </row>
-    <row r="248" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:26">
       <c r="A248" s="7"/>
       <c r="B248" s="7"/>
       <c r="C248" s="7"/>
@@ -18912,7 +19081,7 @@
       <c r="Y248"/>
       <c r="Z248"/>
     </row>
-    <row r="249" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:26">
       <c r="A249" s="7"/>
       <c r="B249" s="7"/>
       <c r="C249" s="7"/>
@@ -18940,7 +19109,7 @@
       <c r="Y249"/>
       <c r="Z249"/>
     </row>
-    <row r="250" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:26">
       <c r="A250" s="7"/>
       <c r="B250" s="7"/>
       <c r="C250" s="7"/>
@@ -18968,7 +19137,7 @@
       <c r="Y250"/>
       <c r="Z250"/>
     </row>
-    <row r="251" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:26">
       <c r="A251" s="7"/>
       <c r="B251" s="7"/>
       <c r="C251" s="7"/>
@@ -18996,7 +19165,7 @@
       <c r="Y251"/>
       <c r="Z251"/>
     </row>
-    <row r="252" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:26">
       <c r="A252" s="7"/>
       <c r="B252" s="7"/>
       <c r="C252" s="7"/>
@@ -19024,7 +19193,7 @@
       <c r="Y252"/>
       <c r="Z252"/>
     </row>
-    <row r="253" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:26">
       <c r="A253" s="7"/>
       <c r="B253" s="7"/>
       <c r="C253" s="7"/>
@@ -19052,7 +19221,7 @@
       <c r="Y253"/>
       <c r="Z253"/>
     </row>
-    <row r="254" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:26">
       <c r="A254" s="7"/>
       <c r="B254" s="7"/>
       <c r="C254" s="7"/>
@@ -19080,7 +19249,7 @@
       <c r="Y254"/>
       <c r="Z254"/>
     </row>
-    <row r="255" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:26">
       <c r="A255" s="7"/>
       <c r="B255" s="7"/>
       <c r="C255" s="7"/>
@@ -19108,7 +19277,7 @@
       <c r="Y255"/>
       <c r="Z255"/>
     </row>
-    <row r="256" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:26">
       <c r="A256" s="7"/>
       <c r="B256" s="7"/>
       <c r="C256" s="7"/>
@@ -19136,7 +19305,7 @@
       <c r="Y256"/>
       <c r="Z256"/>
     </row>
-    <row r="257" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:26">
       <c r="A257" s="7"/>
       <c r="B257" s="7"/>
       <c r="C257" s="7"/>
@@ -19164,7 +19333,7 @@
       <c r="Y257"/>
       <c r="Z257"/>
     </row>
-    <row r="258" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:26">
       <c r="A258" s="7"/>
       <c r="B258" s="7"/>
       <c r="C258" s="7"/>
@@ -19192,7 +19361,7 @@
       <c r="Y258"/>
       <c r="Z258"/>
     </row>
-    <row r="259" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:26">
       <c r="A259" s="7"/>
       <c r="B259" s="7"/>
       <c r="C259" s="7"/>
@@ -19220,7 +19389,7 @@
       <c r="Y259"/>
       <c r="Z259"/>
     </row>
-    <row r="260" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:26">
       <c r="A260" s="7"/>
       <c r="B260" s="7"/>
       <c r="C260" s="7"/>
@@ -19248,7 +19417,7 @@
       <c r="Y260"/>
       <c r="Z260"/>
     </row>
-    <row r="261" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:26">
       <c r="A261" s="7"/>
       <c r="B261" s="7"/>
       <c r="C261" s="7"/>
@@ -19276,7 +19445,7 @@
       <c r="Y261"/>
       <c r="Z261"/>
     </row>
-    <row r="262" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:26">
       <c r="A262" s="7"/>
       <c r="B262" s="7"/>
       <c r="C262" s="7"/>
@@ -19304,7 +19473,7 @@
       <c r="Y262"/>
       <c r="Z262"/>
     </row>
-    <row r="263" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:26">
       <c r="A263" s="7"/>
       <c r="B263" s="7"/>
       <c r="C263" s="7"/>
@@ -19332,7 +19501,7 @@
       <c r="Y263"/>
       <c r="Z263"/>
     </row>
-    <row r="264" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:26">
       <c r="A264" s="7"/>
       <c r="B264" s="7"/>
       <c r="C264" s="7"/>
@@ -19360,7 +19529,7 @@
       <c r="Y264"/>
       <c r="Z264"/>
     </row>
-    <row r="265" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:26">
       <c r="A265" s="7"/>
       <c r="B265" s="7"/>
       <c r="C265" s="7"/>
@@ -19388,7 +19557,7 @@
       <c r="Y265"/>
       <c r="Z265"/>
     </row>
-    <row r="266" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:26">
       <c r="A266" s="7"/>
       <c r="B266" s="7"/>
       <c r="C266" s="7"/>
@@ -19416,7 +19585,7 @@
       <c r="Y266"/>
       <c r="Z266"/>
     </row>
-    <row r="267" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:26">
       <c r="A267" s="7"/>
       <c r="B267" s="7"/>
       <c r="C267" s="7"/>
@@ -19444,7 +19613,7 @@
       <c r="Y267"/>
       <c r="Z267"/>
     </row>
-    <row r="268" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:26">
       <c r="A268" s="7"/>
       <c r="B268" s="7"/>
       <c r="C268" s="7"/>
@@ -19472,7 +19641,7 @@
       <c r="Y268"/>
       <c r="Z268"/>
     </row>
-    <row r="269" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:26">
       <c r="A269" s="7"/>
       <c r="B269" s="7"/>
       <c r="C269" s="7"/>
@@ -19500,7 +19669,7 @@
       <c r="Y269"/>
       <c r="Z269"/>
     </row>
-    <row r="270" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:26">
       <c r="A270" s="7"/>
       <c r="B270" s="7"/>
       <c r="C270" s="7"/>
@@ -19528,7 +19697,7 @@
       <c r="Y270"/>
       <c r="Z270"/>
     </row>
-    <row r="271" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:26">
       <c r="A271" s="7"/>
       <c r="B271" s="7"/>
       <c r="C271" s="7"/>
@@ -19556,7 +19725,7 @@
       <c r="Y271"/>
       <c r="Z271"/>
     </row>
-    <row r="272" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:26">
       <c r="A272" s="7"/>
       <c r="B272" s="7"/>
       <c r="C272" s="7"/>
@@ -19584,7 +19753,7 @@
       <c r="Y272"/>
       <c r="Z272"/>
     </row>
-    <row r="273" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:26">
       <c r="A273" s="7"/>
       <c r="B273" s="7"/>
       <c r="C273" s="7"/>
@@ -19612,7 +19781,7 @@
       <c r="Y273"/>
       <c r="Z273"/>
     </row>
-    <row r="274" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:26">
       <c r="A274" s="7"/>
       <c r="B274" s="7"/>
       <c r="C274" s="7"/>
@@ -19640,7 +19809,7 @@
       <c r="Y274"/>
       <c r="Z274"/>
     </row>
-    <row r="275" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:26">
       <c r="A275" s="7"/>
       <c r="B275" s="7"/>
       <c r="C275" s="7"/>
@@ -19668,7 +19837,7 @@
       <c r="Y275"/>
       <c r="Z275"/>
     </row>
-    <row r="276" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:26">
       <c r="A276" s="7"/>
       <c r="B276" s="7"/>
       <c r="C276" s="7"/>
@@ -19696,7 +19865,7 @@
       <c r="Y276"/>
       <c r="Z276"/>
     </row>
-    <row r="277" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:26">
       <c r="A277" s="7"/>
       <c r="B277" s="7"/>
       <c r="C277" s="7"/>
@@ -19724,7 +19893,7 @@
       <c r="Y277"/>
       <c r="Z277"/>
     </row>
-    <row r="278" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:26">
       <c r="A278" s="7"/>
       <c r="B278" s="7"/>
       <c r="C278" s="7"/>
@@ -19752,7 +19921,7 @@
       <c r="Y278"/>
       <c r="Z278"/>
     </row>
-    <row r="279" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:26">
       <c r="A279" s="7"/>
       <c r="B279" s="7"/>
       <c r="C279" s="7"/>
@@ -19780,7 +19949,7 @@
       <c r="Y279"/>
       <c r="Z279"/>
     </row>
-    <row r="280" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:26">
       <c r="A280" s="7"/>
       <c r="B280" s="7"/>
       <c r="C280" s="7"/>
@@ -19808,7 +19977,7 @@
       <c r="Y280"/>
       <c r="Z280"/>
     </row>
-    <row r="281" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:26">
       <c r="A281" s="7"/>
       <c r="B281" s="7"/>
       <c r="C281" s="7"/>
@@ -19836,7 +20005,7 @@
       <c r="Y281"/>
       <c r="Z281"/>
     </row>
-    <row r="282" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:26">
       <c r="A282" s="7"/>
       <c r="B282" s="7"/>
       <c r="C282" s="7"/>
@@ -19864,7 +20033,7 @@
       <c r="Y282"/>
       <c r="Z282"/>
     </row>
-    <row r="283" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:26">
       <c r="A283" s="7"/>
       <c r="B283" s="7"/>
       <c r="C283" s="7"/>
@@ -19892,7 +20061,7 @@
       <c r="Y283"/>
       <c r="Z283"/>
     </row>
-    <row r="284" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:26">
       <c r="A284" s="7"/>
       <c r="B284" s="7"/>
       <c r="C284" s="7"/>
@@ -19920,7 +20089,7 @@
       <c r="Y284"/>
       <c r="Z284"/>
     </row>
-    <row r="285" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:26">
       <c r="A285" s="7"/>
       <c r="B285" s="7"/>
       <c r="C285" s="7"/>
@@ -19948,7 +20117,7 @@
       <c r="Y285"/>
       <c r="Z285"/>
     </row>
-    <row r="286" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:26">
       <c r="A286" s="7"/>
       <c r="B286" s="7"/>
       <c r="C286" s="7"/>
@@ -19976,7 +20145,7 @@
       <c r="Y286"/>
       <c r="Z286"/>
     </row>
-    <row r="287" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:26">
       <c r="A287" s="7"/>
       <c r="B287" s="7"/>
       <c r="C287" s="7"/>
@@ -20004,7 +20173,7 @@
       <c r="Y287"/>
       <c r="Z287"/>
     </row>
-    <row r="288" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:26">
       <c r="A288" s="7"/>
       <c r="B288" s="7"/>
       <c r="C288" s="7"/>
@@ -20032,7 +20201,7 @@
       <c r="Y288"/>
       <c r="Z288"/>
     </row>
-    <row r="289" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:26">
       <c r="A289" s="7"/>
       <c r="B289" s="7"/>
       <c r="C289" s="7"/>
@@ -20060,7 +20229,7 @@
       <c r="Y289"/>
       <c r="Z289"/>
     </row>
-    <row r="290" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:26">
       <c r="A290" s="7"/>
       <c r="B290" s="7"/>
       <c r="C290" s="7"/>
@@ -20088,7 +20257,7 @@
       <c r="Y290"/>
       <c r="Z290"/>
     </row>
-    <row r="291" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:26">
       <c r="A291" s="7"/>
       <c r="B291" s="7"/>
       <c r="C291" s="7"/>
@@ -20116,7 +20285,7 @@
       <c r="Y291"/>
       <c r="Z291"/>
     </row>
-    <row r="292" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:26">
       <c r="A292" s="7"/>
       <c r="B292" s="7"/>
       <c r="C292" s="7"/>
@@ -20144,7 +20313,7 @@
       <c r="Y292"/>
       <c r="Z292"/>
     </row>
-    <row r="293" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:26">
       <c r="A293" s="7"/>
       <c r="B293" s="7"/>
       <c r="C293" s="7"/>
@@ -20172,7 +20341,7 @@
       <c r="Y293"/>
       <c r="Z293"/>
     </row>
-    <row r="294" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:26">
       <c r="A294" s="7"/>
       <c r="B294" s="7"/>
       <c r="C294" s="7"/>
@@ -20200,7 +20369,7 @@
       <c r="Y294"/>
       <c r="Z294"/>
     </row>
-    <row r="295" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:26">
       <c r="A295" s="7"/>
       <c r="B295" s="7"/>
       <c r="C295" s="7"/>
@@ -20228,7 +20397,7 @@
       <c r="Y295"/>
       <c r="Z295"/>
     </row>
-    <row r="296" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:26">
       <c r="A296" s="7"/>
       <c r="B296" s="7"/>
       <c r="C296" s="7"/>
@@ -20256,7 +20425,7 @@
       <c r="Y296"/>
       <c r="Z296"/>
     </row>
-    <row r="297" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:26">
       <c r="A297" s="7"/>
       <c r="B297" s="7"/>
       <c r="C297" s="7"/>
@@ -20284,7 +20453,7 @@
       <c r="Y297"/>
       <c r="Z297"/>
     </row>
-    <row r="298" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:26">
       <c r="A298" s="7"/>
       <c r="B298" s="7"/>
       <c r="C298" s="7"/>
@@ -20312,7 +20481,7 @@
       <c r="Y298"/>
       <c r="Z298"/>
     </row>
-    <row r="299" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:26">
       <c r="A299" s="7"/>
       <c r="B299" s="7"/>
       <c r="C299" s="7"/>
@@ -20340,7 +20509,7 @@
       <c r="Y299"/>
       <c r="Z299"/>
     </row>
-    <row r="300" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:26">
       <c r="A300" s="7"/>
       <c r="B300" s="7"/>
       <c r="C300" s="7"/>
@@ -20368,7 +20537,7 @@
       <c r="Y300"/>
       <c r="Z300"/>
     </row>
-    <row r="301" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:26">
       <c r="A301" s="7"/>
       <c r="B301" s="7"/>
       <c r="C301" s="7"/>
@@ -20396,7 +20565,7 @@
       <c r="Y301"/>
       <c r="Z301"/>
     </row>
-    <row r="302" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:26">
       <c r="A302" s="7"/>
       <c r="B302" s="7"/>
       <c r="C302" s="7"/>
@@ -20424,7 +20593,7 @@
       <c r="Y302"/>
       <c r="Z302"/>
     </row>
-    <row r="303" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:26">
       <c r="A303" s="7"/>
       <c r="B303" s="7"/>
       <c r="C303" s="7"/>
@@ -20452,7 +20621,7 @@
       <c r="Y303"/>
       <c r="Z303"/>
     </row>
-    <row r="304" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:26">
       <c r="A304" s="7"/>
       <c r="B304" s="7"/>
       <c r="C304" s="7"/>
@@ -20480,7 +20649,7 @@
       <c r="Y304"/>
       <c r="Z304"/>
     </row>
-    <row r="305" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:26">
       <c r="A305" s="7"/>
       <c r="B305" s="7"/>
       <c r="C305" s="7"/>
@@ -20508,7 +20677,7 @@
       <c r="Y305"/>
       <c r="Z305"/>
     </row>
-    <row r="306" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:26">
       <c r="A306" s="7"/>
       <c r="B306" s="7"/>
       <c r="C306" s="7"/>
@@ -20536,7 +20705,7 @@
       <c r="Y306"/>
       <c r="Z306"/>
     </row>
-    <row r="307" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:26">
       <c r="A307" s="7"/>
       <c r="B307" s="7"/>
       <c r="C307" s="7"/>
@@ -20564,7 +20733,7 @@
       <c r="Y307"/>
       <c r="Z307"/>
     </row>
-    <row r="308" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:26">
       <c r="A308" s="7"/>
       <c r="B308" s="7"/>
       <c r="C308" s="7"/>
@@ -20592,7 +20761,7 @@
       <c r="Y308"/>
       <c r="Z308"/>
     </row>
-    <row r="309" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:26">
       <c r="A309" s="7"/>
       <c r="B309" s="7"/>
       <c r="C309" s="7"/>
@@ -20620,7 +20789,7 @@
       <c r="Y309"/>
       <c r="Z309"/>
     </row>
-    <row r="310" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:26">
       <c r="A310" s="7"/>
       <c r="B310" s="7"/>
       <c r="C310" s="7"/>
@@ -20648,7 +20817,7 @@
       <c r="Y310"/>
       <c r="Z310"/>
     </row>
-    <row r="311" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:26">
       <c r="A311" s="7"/>
       <c r="B311" s="7"/>
       <c r="C311" s="7"/>
@@ -20676,7 +20845,7 @@
       <c r="Y311"/>
       <c r="Z311"/>
     </row>
-    <row r="312" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:26">
       <c r="A312" s="7"/>
       <c r="B312" s="7"/>
       <c r="C312" s="7"/>
@@ -20704,7 +20873,7 @@
       <c r="Y312"/>
       <c r="Z312"/>
     </row>
-    <row r="313" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:26">
       <c r="A313" s="7"/>
       <c r="B313" s="7"/>
       <c r="C313" s="7"/>
@@ -20732,7 +20901,7 @@
       <c r="Y313"/>
       <c r="Z313"/>
     </row>
-    <row r="314" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:26">
       <c r="A314" s="7"/>
       <c r="B314" s="7"/>
       <c r="C314" s="7"/>
@@ -20760,7 +20929,7 @@
       <c r="Y314"/>
       <c r="Z314"/>
     </row>
-    <row r="315" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:26">
       <c r="A315" s="7"/>
       <c r="B315" s="7"/>
       <c r="C315" s="7"/>
@@ -20788,7 +20957,7 @@
       <c r="Y315"/>
       <c r="Z315"/>
     </row>
-    <row r="316" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:26">
       <c r="A316" s="7"/>
       <c r="B316" s="7"/>
       <c r="C316" s="7"/>
@@ -20816,7 +20985,7 @@
       <c r="Y316"/>
       <c r="Z316"/>
     </row>
-    <row r="317" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:26">
       <c r="A317" s="7"/>
       <c r="B317" s="7"/>
       <c r="C317" s="7"/>
@@ -20844,7 +21013,7 @@
       <c r="Y317"/>
       <c r="Z317"/>
     </row>
-    <row r="318" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:26">
       <c r="A318" s="7"/>
       <c r="B318" s="7"/>
       <c r="C318" s="7"/>
@@ -20872,7 +21041,7 @@
       <c r="Y318"/>
       <c r="Z318"/>
     </row>
-    <row r="319" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:26">
       <c r="A319" s="7"/>
       <c r="B319" s="7"/>
       <c r="C319" s="7"/>
@@ -20900,7 +21069,7 @@
       <c r="Y319"/>
       <c r="Z319"/>
     </row>
-    <row r="320" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:26">
       <c r="A320" s="7"/>
       <c r="B320" s="7"/>
       <c r="C320" s="7"/>
@@ -20928,7 +21097,7 @@
       <c r="Y320"/>
       <c r="Z320"/>
     </row>
-    <row r="321" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:26">
       <c r="A321" s="7"/>
       <c r="B321" s="7"/>
       <c r="C321" s="7"/>
@@ -20956,7 +21125,7 @@
       <c r="Y321"/>
       <c r="Z321"/>
     </row>
-    <row r="322" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:26">
       <c r="A322" s="7"/>
       <c r="B322" s="7"/>
       <c r="C322" s="7"/>
@@ -20984,7 +21153,7 @@
       <c r="Y322"/>
       <c r="Z322"/>
     </row>
-    <row r="323" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:26">
       <c r="A323" s="7"/>
       <c r="B323" s="7"/>
       <c r="C323" s="7"/>
@@ -21012,7 +21181,7 @@
       <c r="Y323"/>
       <c r="Z323"/>
     </row>
-    <row r="324" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:26">
       <c r="A324" s="7"/>
       <c r="B324" s="7"/>
       <c r="C324" s="7"/>
@@ -21040,7 +21209,7 @@
       <c r="Y324"/>
       <c r="Z324"/>
     </row>
-    <row r="325" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:26">
       <c r="A325" s="7"/>
       <c r="B325" s="7"/>
       <c r="C325" s="7"/>
@@ -21068,7 +21237,7 @@
       <c r="Y325"/>
       <c r="Z325"/>
     </row>
-    <row r="326" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:26">
       <c r="A326" s="7"/>
       <c r="B326" s="7"/>
       <c r="C326" s="7"/>
@@ -21096,7 +21265,7 @@
       <c r="Y326"/>
       <c r="Z326"/>
     </row>
-    <row r="327" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:26">
       <c r="A327" s="7"/>
       <c r="B327" s="7"/>
       <c r="C327" s="7"/>
@@ -21124,7 +21293,7 @@
       <c r="Y327"/>
       <c r="Z327"/>
     </row>
-    <row r="328" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:26">
       <c r="A328" s="7"/>
       <c r="B328" s="7"/>
       <c r="C328" s="7"/>
@@ -21152,7 +21321,7 @@
       <c r="Y328"/>
       <c r="Z328"/>
     </row>
-    <row r="329" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:26">
       <c r="A329" s="7"/>
       <c r="B329" s="7"/>
       <c r="C329" s="7"/>
@@ -21180,7 +21349,7 @@
       <c r="Y329"/>
       <c r="Z329"/>
     </row>
-    <row r="330" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:26">
       <c r="A330" s="7"/>
       <c r="B330" s="7"/>
       <c r="C330" s="7"/>
@@ -21208,7 +21377,7 @@
       <c r="Y330"/>
       <c r="Z330"/>
     </row>
-    <row r="331" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:26">
       <c r="A331" s="7"/>
       <c r="B331" s="7"/>
       <c r="C331" s="7"/>
@@ -21236,7 +21405,7 @@
       <c r="Y331"/>
       <c r="Z331"/>
     </row>
-    <row r="332" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:26">
       <c r="A332" s="7"/>
       <c r="B332" s="7"/>
       <c r="C332" s="7"/>
@@ -21264,7 +21433,7 @@
       <c r="Y332"/>
       <c r="Z332"/>
     </row>
-    <row r="333" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:26">
       <c r="A333" s="7"/>
       <c r="B333" s="7"/>
       <c r="C333" s="7"/>
@@ -21292,7 +21461,7 @@
       <c r="Y333"/>
       <c r="Z333"/>
     </row>
-    <row r="334" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:26">
       <c r="A334" s="7"/>
       <c r="B334" s="7"/>
       <c r="C334" s="7"/>
@@ -21320,7 +21489,7 @@
       <c r="Y334"/>
       <c r="Z334"/>
     </row>
-    <row r="335" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:26">
       <c r="A335" s="7"/>
       <c r="B335" s="7"/>
       <c r="C335" s="7"/>
@@ -21348,7 +21517,7 @@
       <c r="Y335"/>
       <c r="Z335"/>
     </row>
-    <row r="336" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:26">
       <c r="A336" s="7"/>
       <c r="B336" s="7"/>
       <c r="C336" s="7"/>
@@ -21376,7 +21545,7 @@
       <c r="Y336"/>
       <c r="Z336"/>
     </row>
-    <row r="337" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:26">
       <c r="A337" s="7"/>
       <c r="B337" s="7"/>
       <c r="C337" s="7"/>
@@ -21404,7 +21573,7 @@
       <c r="Y337"/>
       <c r="Z337"/>
     </row>
-    <row r="338" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:26">
       <c r="A338" s="7"/>
       <c r="B338" s="7"/>
       <c r="C338" s="7"/>
@@ -21432,7 +21601,7 @@
       <c r="Y338"/>
       <c r="Z338"/>
     </row>
-    <row r="339" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:26">
       <c r="A339" s="7"/>
       <c r="B339" s="7"/>
       <c r="C339" s="7"/>
@@ -21460,7 +21629,7 @@
       <c r="Y339"/>
       <c r="Z339"/>
     </row>
-    <row r="340" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:26">
       <c r="A340" s="7"/>
       <c r="B340" s="7"/>
       <c r="C340" s="7"/>
@@ -21488,7 +21657,7 @@
       <c r="Y340"/>
       <c r="Z340"/>
     </row>
-    <row r="341" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:26">
       <c r="A341" s="7"/>
       <c r="B341" s="7"/>
       <c r="C341" s="7"/>
@@ -21516,7 +21685,7 @@
       <c r="Y341"/>
       <c r="Z341"/>
     </row>
-    <row r="342" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:26">
       <c r="A342" s="7"/>
       <c r="B342" s="7"/>
       <c r="C342" s="7"/>
@@ -21544,7 +21713,7 @@
       <c r="Y342"/>
       <c r="Z342"/>
     </row>
-    <row r="343" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:26">
       <c r="A343" s="7"/>
       <c r="B343" s="7"/>
       <c r="C343" s="7"/>
@@ -21572,7 +21741,7 @@
       <c r="Y343"/>
       <c r="Z343"/>
     </row>
-    <row r="344" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:26">
       <c r="A344" s="7"/>
       <c r="B344" s="7"/>
       <c r="C344" s="7"/>
@@ -21600,7 +21769,7 @@
       <c r="Y344"/>
       <c r="Z344"/>
     </row>
-    <row r="345" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:26">
       <c r="A345" s="7"/>
       <c r="B345" s="7"/>
       <c r="C345" s="7"/>
@@ -21628,7 +21797,7 @@
       <c r="Y345"/>
       <c r="Z345"/>
     </row>
-    <row r="346" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:26">
       <c r="A346" s="7"/>
       <c r="B346" s="7"/>
       <c r="C346" s="7"/>
@@ -21656,7 +21825,7 @@
       <c r="Y346"/>
       <c r="Z346"/>
     </row>
-    <row r="347" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:26">
       <c r="A347" s="7"/>
       <c r="B347" s="7"/>
       <c r="C347" s="7"/>
@@ -21684,7 +21853,7 @@
       <c r="Y347"/>
       <c r="Z347"/>
     </row>
-    <row r="348" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:26">
       <c r="A348" s="7"/>
       <c r="B348" s="7"/>
       <c r="C348" s="7"/>
@@ -21712,7 +21881,7 @@
       <c r="Y348"/>
       <c r="Z348"/>
     </row>
-    <row r="349" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:26">
       <c r="A349" s="7"/>
       <c r="B349" s="7"/>
       <c r="C349" s="7"/>
@@ -21740,7 +21909,7 @@
       <c r="Y349"/>
       <c r="Z349"/>
     </row>
-    <row r="350" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:26">
       <c r="A350" s="7"/>
       <c r="B350" s="7"/>
       <c r="C350" s="7"/>
@@ -21768,7 +21937,7 @@
       <c r="Y350"/>
       <c r="Z350"/>
     </row>
-    <row r="351" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:26">
       <c r="A351" s="7"/>
       <c r="B351" s="7"/>
       <c r="C351" s="7"/>
@@ -21796,7 +21965,7 @@
       <c r="Y351"/>
       <c r="Z351"/>
     </row>
-    <row r="352" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:26">
       <c r="A352" s="7"/>
       <c r="B352" s="7"/>
       <c r="C352" s="7"/>
@@ -21824,7 +21993,7 @@
       <c r="Y352"/>
       <c r="Z352"/>
     </row>
-    <row r="353" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:26">
       <c r="A353" s="7"/>
       <c r="B353" s="7"/>
       <c r="C353" s="7"/>
@@ -21852,7 +22021,7 @@
       <c r="Y353"/>
       <c r="Z353"/>
     </row>
-    <row r="354" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:26">
       <c r="U354"/>
       <c r="V354"/>
       <c r="W354"/>
@@ -21860,7 +22029,7 @@
       <c r="Y354"/>
       <c r="Z354"/>
     </row>
-    <row r="355" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:26">
       <c r="U355"/>
       <c r="V355"/>
       <c r="W355"/>
@@ -21868,7 +22037,7 @@
       <c r="Y355"/>
       <c r="Z355"/>
     </row>
-    <row r="356" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:26">
       <c r="U356"/>
       <c r="V356"/>
       <c r="W356"/>
@@ -21876,7 +22045,7 @@
       <c r="Y356"/>
       <c r="Z356"/>
     </row>
-    <row r="357" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:26">
       <c r="U357"/>
       <c r="V357"/>
       <c r="W357"/>
@@ -21884,7 +22053,7 @@
       <c r="Y357"/>
       <c r="Z357"/>
     </row>
-    <row r="358" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:26">
       <c r="U358"/>
       <c r="V358"/>
       <c r="W358"/>
@@ -21892,7 +22061,7 @@
       <c r="Y358"/>
       <c r="Z358"/>
     </row>
-    <row r="359" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:26">
       <c r="U359"/>
       <c r="V359"/>
       <c r="W359"/>
@@ -21900,7 +22069,7 @@
       <c r="Y359"/>
       <c r="Z359"/>
     </row>
-    <row r="360" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:26">
       <c r="U360"/>
       <c r="V360"/>
       <c r="W360"/>
@@ -21908,7 +22077,7 @@
       <c r="Y360"/>
       <c r="Z360"/>
     </row>
-    <row r="361" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:26">
       <c r="U361"/>
       <c r="V361"/>
       <c r="W361"/>
@@ -21916,7 +22085,7 @@
       <c r="Y361"/>
       <c r="Z361"/>
     </row>
-    <row r="362" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:26">
       <c r="U362"/>
       <c r="V362"/>
       <c r="W362"/>
@@ -21924,7 +22093,7 @@
       <c r="Y362"/>
       <c r="Z362"/>
     </row>
-    <row r="363" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:26">
       <c r="U363"/>
       <c r="V363"/>
       <c r="W363"/>
@@ -21932,7 +22101,7 @@
       <c r="Y363"/>
       <c r="Z363"/>
     </row>
-    <row r="364" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:26">
       <c r="U364"/>
       <c r="V364"/>
       <c r="W364"/>
@@ -21940,7 +22109,7 @@
       <c r="Y364"/>
       <c r="Z364"/>
     </row>
-    <row r="365" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:26">
       <c r="U365"/>
       <c r="V365"/>
       <c r="W365"/>
@@ -21948,7 +22117,7 @@
       <c r="Y365"/>
       <c r="Z365"/>
     </row>
-    <row r="366" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:26">
       <c r="U366"/>
       <c r="V366"/>
       <c r="W366"/>
@@ -21956,7 +22125,7 @@
       <c r="Y366"/>
       <c r="Z366"/>
     </row>
-    <row r="367" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:26">
       <c r="U367"/>
       <c r="V367"/>
       <c r="W367"/>
@@ -21964,7 +22133,7 @@
       <c r="Y367"/>
       <c r="Z367"/>
     </row>
-    <row r="368" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:26">
       <c r="U368"/>
       <c r="V368"/>
       <c r="W368"/>
@@ -21972,7 +22141,7 @@
       <c r="Y368"/>
       <c r="Z368"/>
     </row>
-    <row r="369" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="369" spans="21:26">
       <c r="U369"/>
       <c r="V369"/>
       <c r="W369"/>
@@ -21980,7 +22149,7 @@
       <c r="Y369"/>
       <c r="Z369"/>
     </row>
-    <row r="370" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="370" spans="21:26">
       <c r="U370"/>
       <c r="V370"/>
       <c r="W370"/>
@@ -21988,7 +22157,7 @@
       <c r="Y370"/>
       <c r="Z370"/>
     </row>
-    <row r="371" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="371" spans="21:26">
       <c r="U371"/>
       <c r="V371"/>
       <c r="W371"/>
@@ -21996,7 +22165,7 @@
       <c r="Y371"/>
       <c r="Z371"/>
     </row>
-    <row r="372" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="372" spans="21:26">
       <c r="U372"/>
       <c r="V372"/>
       <c r="W372"/>
@@ -22004,7 +22173,7 @@
       <c r="Y372"/>
       <c r="Z372"/>
     </row>
-    <row r="373" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="373" spans="21:26">
       <c r="U373"/>
       <c r="V373"/>
       <c r="W373"/>
@@ -22012,7 +22181,7 @@
       <c r="Y373"/>
       <c r="Z373"/>
     </row>
-    <row r="374" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="374" spans="21:26">
       <c r="U374"/>
       <c r="V374"/>
       <c r="W374"/>
@@ -22020,7 +22189,7 @@
       <c r="Y374"/>
       <c r="Z374"/>
     </row>
-    <row r="375" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="375" spans="21:26">
       <c r="U375"/>
       <c r="V375"/>
       <c r="W375"/>
@@ -22028,7 +22197,7 @@
       <c r="Y375"/>
       <c r="Z375"/>
     </row>
-    <row r="376" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="376" spans="21:26">
       <c r="U376"/>
       <c r="V376"/>
       <c r="W376"/>
@@ -22036,7 +22205,7 @@
       <c r="Y376"/>
       <c r="Z376"/>
     </row>
-    <row r="377" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="377" spans="21:26">
       <c r="U377"/>
       <c r="V377"/>
       <c r="W377"/>
@@ -22044,7 +22213,7 @@
       <c r="Y377"/>
       <c r="Z377"/>
     </row>
-    <row r="378" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="378" spans="21:26">
       <c r="U378"/>
       <c r="V378"/>
       <c r="W378"/>
@@ -22052,7 +22221,7 @@
       <c r="Y378"/>
       <c r="Z378"/>
     </row>
-    <row r="379" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="379" spans="21:26">
       <c r="U379"/>
       <c r="V379"/>
       <c r="W379"/>
@@ -22060,7 +22229,7 @@
       <c r="Y379"/>
       <c r="Z379"/>
     </row>
-    <row r="380" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="380" spans="21:26">
       <c r="U380"/>
       <c r="V380"/>
       <c r="W380"/>
@@ -22068,7 +22237,7 @@
       <c r="Y380"/>
       <c r="Z380"/>
     </row>
-    <row r="381" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="381" spans="21:26">
       <c r="U381"/>
       <c r="V381"/>
       <c r="W381"/>
@@ -22076,7 +22245,7 @@
       <c r="Y381"/>
       <c r="Z381"/>
     </row>
-    <row r="382" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="382" spans="21:26">
       <c r="U382"/>
       <c r="V382"/>
       <c r="W382"/>
@@ -22084,7 +22253,7 @@
       <c r="Y382"/>
       <c r="Z382"/>
     </row>
-    <row r="383" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="383" spans="21:26">
       <c r="U383"/>
       <c r="V383"/>
       <c r="W383"/>
@@ -22092,7 +22261,7 @@
       <c r="Y383"/>
       <c r="Z383"/>
     </row>
-    <row r="384" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="384" spans="21:26">
       <c r="U384"/>
       <c r="V384"/>
       <c r="W384"/>
@@ -22100,7 +22269,7 @@
       <c r="Y384"/>
       <c r="Z384"/>
     </row>
-    <row r="385" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="385" spans="21:26">
       <c r="U385"/>
       <c r="V385"/>
       <c r="W385"/>
@@ -22108,7 +22277,7 @@
       <c r="Y385"/>
       <c r="Z385"/>
     </row>
-    <row r="386" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="386" spans="21:26">
       <c r="U386"/>
       <c r="V386"/>
       <c r="W386"/>
@@ -22116,7 +22285,7 @@
       <c r="Y386"/>
       <c r="Z386"/>
     </row>
-    <row r="387" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="387" spans="21:26">
       <c r="U387"/>
       <c r="V387"/>
       <c r="W387"/>
@@ -22124,7 +22293,7 @@
       <c r="Y387"/>
       <c r="Z387"/>
     </row>
-    <row r="388" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="388" spans="21:26">
       <c r="U388"/>
       <c r="V388"/>
       <c r="W388"/>
@@ -22132,7 +22301,7 @@
       <c r="Y388"/>
       <c r="Z388"/>
     </row>
-    <row r="389" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="389" spans="21:26">
       <c r="U389"/>
       <c r="V389"/>
       <c r="W389"/>
@@ -22140,7 +22309,7 @@
       <c r="Y389"/>
       <c r="Z389"/>
     </row>
-    <row r="390" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="390" spans="21:26">
       <c r="U390"/>
       <c r="V390"/>
       <c r="W390"/>
@@ -22148,7 +22317,7 @@
       <c r="Y390"/>
       <c r="Z390"/>
     </row>
-    <row r="391" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="391" spans="21:26">
       <c r="U391"/>
       <c r="V391"/>
       <c r="W391"/>
@@ -22156,7 +22325,7 @@
       <c r="Y391"/>
       <c r="Z391"/>
     </row>
-    <row r="392" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="392" spans="21:26">
       <c r="U392"/>
       <c r="V392"/>
       <c r="W392"/>
@@ -22164,7 +22333,7 @@
       <c r="Y392"/>
       <c r="Z392"/>
     </row>
-    <row r="393" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="393" spans="21:26">
       <c r="U393"/>
       <c r="V393"/>
       <c r="W393"/>
@@ -22172,7 +22341,7 @@
       <c r="Y393"/>
       <c r="Z393"/>
     </row>
-    <row r="394" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="394" spans="21:26">
       <c r="U394"/>
       <c r="V394"/>
       <c r="W394"/>
@@ -22180,7 +22349,7 @@
       <c r="Y394"/>
       <c r="Z394"/>
     </row>
-    <row r="395" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="395" spans="21:26">
       <c r="U395"/>
       <c r="V395"/>
       <c r="W395"/>
@@ -22188,7 +22357,7 @@
       <c r="Y395"/>
       <c r="Z395"/>
     </row>
-    <row r="396" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="396" spans="21:26">
       <c r="U396"/>
       <c r="V396"/>
       <c r="W396"/>
@@ -22196,7 +22365,7 @@
       <c r="Y396"/>
       <c r="Z396"/>
     </row>
-    <row r="397" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="397" spans="21:26">
       <c r="U397"/>
       <c r="V397"/>
       <c r="W397"/>
@@ -22204,7 +22373,7 @@
       <c r="Y397"/>
       <c r="Z397"/>
     </row>
-    <row r="398" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="398" spans="21:26">
       <c r="U398"/>
       <c r="V398"/>
       <c r="W398"/>
@@ -22212,7 +22381,7 @@
       <c r="Y398"/>
       <c r="Z398"/>
     </row>
-    <row r="399" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="399" spans="21:26">
       <c r="U399"/>
       <c r="V399"/>
       <c r="W399"/>
@@ -22220,7 +22389,7 @@
       <c r="Y399"/>
       <c r="Z399"/>
     </row>
-    <row r="400" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="400" spans="21:26">
       <c r="U400"/>
       <c r="V400"/>
       <c r="W400"/>
@@ -22228,7 +22397,7 @@
       <c r="Y400"/>
       <c r="Z400"/>
     </row>
-    <row r="401" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="401" spans="21:26">
       <c r="U401"/>
       <c r="V401"/>
       <c r="W401"/>
@@ -22236,7 +22405,7 @@
       <c r="Y401"/>
       <c r="Z401"/>
     </row>
-    <row r="402" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="402" spans="21:26">
       <c r="U402"/>
       <c r="V402"/>
       <c r="W402"/>
@@ -22244,7 +22413,7 @@
       <c r="Y402"/>
       <c r="Z402"/>
     </row>
-    <row r="403" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="403" spans="21:26">
       <c r="U403"/>
       <c r="V403"/>
       <c r="W403"/>
@@ -22252,7 +22421,7 @@
       <c r="Y403"/>
       <c r="Z403"/>
     </row>
-    <row r="404" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="404" spans="21:26">
       <c r="U404"/>
       <c r="V404"/>
       <c r="W404"/>
@@ -22260,7 +22429,7 @@
       <c r="Y404"/>
       <c r="Z404"/>
     </row>
-    <row r="405" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="405" spans="21:26">
       <c r="U405"/>
       <c r="V405"/>
       <c r="W405"/>
@@ -22268,7 +22437,7 @@
       <c r="Y405"/>
       <c r="Z405"/>
     </row>
-    <row r="406" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="406" spans="21:26">
       <c r="U406"/>
       <c r="V406"/>
       <c r="W406"/>
@@ -22276,7 +22445,7 @@
       <c r="Y406"/>
       <c r="Z406"/>
     </row>
-    <row r="407" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="407" spans="21:26">
       <c r="U407"/>
       <c r="V407"/>
       <c r="W407"/>
@@ -22284,7 +22453,7 @@
       <c r="Y407"/>
       <c r="Z407"/>
     </row>
-    <row r="408" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="408" spans="21:26">
       <c r="U408"/>
       <c r="V408"/>
       <c r="W408"/>
@@ -22292,7 +22461,7 @@
       <c r="Y408"/>
       <c r="Z408"/>
     </row>
-    <row r="409" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="409" spans="21:26">
       <c r="U409"/>
       <c r="V409"/>
       <c r="W409"/>
@@ -22300,7 +22469,7 @@
       <c r="Y409"/>
       <c r="Z409"/>
     </row>
-    <row r="410" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="410" spans="21:26">
       <c r="U410"/>
       <c r="V410"/>
       <c r="W410"/>
@@ -22308,7 +22477,7 @@
       <c r="Y410"/>
       <c r="Z410"/>
     </row>
-    <row r="411" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="411" spans="21:26">
       <c r="U411"/>
       <c r="V411"/>
       <c r="W411"/>
@@ -22316,7 +22485,7 @@
       <c r="Y411"/>
       <c r="Z411"/>
     </row>
-    <row r="412" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="412" spans="21:26">
       <c r="U412"/>
       <c r="V412"/>
       <c r="W412"/>
@@ -22324,7 +22493,7 @@
       <c r="Y412"/>
       <c r="Z412"/>
     </row>
-    <row r="413" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="413" spans="21:26">
       <c r="U413"/>
       <c r="V413"/>
       <c r="W413"/>
@@ -22332,7 +22501,7 @@
       <c r="Y413"/>
       <c r="Z413"/>
     </row>
-    <row r="414" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="414" spans="21:26">
       <c r="U414"/>
       <c r="V414"/>
       <c r="W414"/>
@@ -22340,7 +22509,7 @@
       <c r="Y414"/>
       <c r="Z414"/>
     </row>
-    <row r="415" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="415" spans="21:26">
       <c r="U415"/>
       <c r="V415"/>
       <c r="W415"/>
@@ -22348,7 +22517,7 @@
       <c r="Y415"/>
       <c r="Z415"/>
     </row>
-    <row r="416" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="416" spans="21:26">
       <c r="U416"/>
       <c r="V416"/>
       <c r="W416"/>
@@ -22356,7 +22525,7 @@
       <c r="Y416"/>
       <c r="Z416"/>
     </row>
-    <row r="417" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="417" spans="21:26">
       <c r="U417"/>
       <c r="V417"/>
       <c r="W417"/>
@@ -22364,7 +22533,7 @@
       <c r="Y417"/>
       <c r="Z417"/>
     </row>
-    <row r="418" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="418" spans="21:26">
       <c r="U418"/>
       <c r="V418"/>
       <c r="W418"/>
@@ -22372,7 +22541,7 @@
       <c r="Y418"/>
       <c r="Z418"/>
     </row>
-    <row r="419" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="419" spans="21:26">
       <c r="U419"/>
       <c r="V419"/>
       <c r="W419"/>
@@ -22380,7 +22549,7 @@
       <c r="Y419"/>
       <c r="Z419"/>
     </row>
-    <row r="420" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="420" spans="21:26">
       <c r="U420"/>
       <c r="V420"/>
       <c r="W420"/>
@@ -22388,7 +22557,7 @@
       <c r="Y420"/>
       <c r="Z420"/>
     </row>
-    <row r="421" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="421" spans="21:26">
       <c r="U421"/>
       <c r="V421"/>
       <c r="W421"/>
@@ -22396,7 +22565,7 @@
       <c r="Y421"/>
       <c r="Z421"/>
     </row>
-    <row r="422" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="422" spans="21:26">
       <c r="U422"/>
       <c r="V422"/>
       <c r="W422"/>
@@ -22404,7 +22573,7 @@
       <c r="Y422"/>
       <c r="Z422"/>
     </row>
-    <row r="423" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="423" spans="21:26">
       <c r="U423"/>
       <c r="V423"/>
       <c r="W423"/>
@@ -22412,7 +22581,7 @@
       <c r="Y423"/>
       <c r="Z423"/>
     </row>
-    <row r="424" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="424" spans="21:26">
       <c r="U424"/>
       <c r="V424"/>
       <c r="W424"/>
@@ -22420,7 +22589,7 @@
       <c r="Y424"/>
       <c r="Z424"/>
     </row>
-    <row r="425" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="425" spans="21:26">
       <c r="U425"/>
       <c r="V425"/>
       <c r="W425"/>
@@ -22428,7 +22597,7 @@
       <c r="Y425"/>
       <c r="Z425"/>
     </row>
-    <row r="426" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="426" spans="21:26">
       <c r="U426"/>
       <c r="V426"/>
       <c r="W426"/>
@@ -22436,7 +22605,7 @@
       <c r="Y426"/>
       <c r="Z426"/>
     </row>
-    <row r="427" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="427" spans="21:26">
       <c r="U427"/>
       <c r="V427"/>
       <c r="W427"/>
@@ -22444,7 +22613,7 @@
       <c r="Y427"/>
       <c r="Z427"/>
     </row>
-    <row r="428" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="428" spans="21:26">
       <c r="U428"/>
       <c r="V428"/>
       <c r="W428"/>
@@ -22452,7 +22621,7 @@
       <c r="Y428"/>
       <c r="Z428"/>
     </row>
-    <row r="429" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="429" spans="21:26">
       <c r="U429"/>
       <c r="V429"/>
       <c r="W429"/>
@@ -22460,7 +22629,7 @@
       <c r="Y429"/>
       <c r="Z429"/>
     </row>
-    <row r="430" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="430" spans="21:26">
       <c r="U430"/>
       <c r="V430"/>
       <c r="W430"/>
@@ -22468,7 +22637,7 @@
       <c r="Y430"/>
       <c r="Z430"/>
     </row>
-    <row r="431" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="431" spans="21:26">
       <c r="U431"/>
       <c r="V431"/>
       <c r="W431"/>
@@ -22476,7 +22645,7 @@
       <c r="Y431"/>
       <c r="Z431"/>
     </row>
-    <row r="432" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="432" spans="21:26">
       <c r="U432"/>
       <c r="V432"/>
       <c r="W432"/>
@@ -22484,7 +22653,7 @@
       <c r="Y432"/>
       <c r="Z432"/>
     </row>
-    <row r="433" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="433" spans="21:26">
       <c r="U433"/>
       <c r="V433"/>
       <c r="W433"/>
@@ -22492,7 +22661,7 @@
       <c r="Y433"/>
       <c r="Z433"/>
     </row>
-    <row r="434" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="434" spans="21:26">
       <c r="U434"/>
       <c r="V434"/>
       <c r="W434"/>
@@ -22500,7 +22669,7 @@
       <c r="Y434"/>
       <c r="Z434"/>
     </row>
-    <row r="435" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="435" spans="21:26">
       <c r="U435"/>
       <c r="V435"/>
       <c r="W435"/>
@@ -22508,7 +22677,7 @@
       <c r="Y435"/>
       <c r="Z435"/>
     </row>
-    <row r="436" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="436" spans="21:26">
       <c r="U436"/>
       <c r="V436"/>
       <c r="W436"/>
@@ -22516,7 +22685,7 @@
       <c r="Y436"/>
       <c r="Z436"/>
     </row>
-    <row r="437" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="437" spans="21:26">
       <c r="U437"/>
       <c r="V437"/>
       <c r="W437"/>
@@ -22524,7 +22693,7 @@
       <c r="Y437"/>
       <c r="Z437"/>
     </row>
-    <row r="438" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="438" spans="21:26">
       <c r="U438"/>
       <c r="V438"/>
       <c r="W438"/>
@@ -22532,7 +22701,7 @@
       <c r="Y438"/>
       <c r="Z438"/>
     </row>
-    <row r="439" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="439" spans="21:26">
       <c r="U439"/>
       <c r="V439"/>
       <c r="W439"/>
@@ -22540,7 +22709,7 @@
       <c r="Y439"/>
       <c r="Z439"/>
     </row>
-    <row r="440" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="440" spans="21:26">
       <c r="U440"/>
       <c r="V440"/>
       <c r="W440"/>
@@ -22548,7 +22717,7 @@
       <c r="Y440"/>
       <c r="Z440"/>
     </row>
-    <row r="441" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="441" spans="21:26">
       <c r="U441"/>
       <c r="V441"/>
       <c r="W441"/>
@@ -22556,7 +22725,7 @@
       <c r="Y441"/>
       <c r="Z441"/>
     </row>
-    <row r="442" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="442" spans="21:26">
       <c r="U442"/>
       <c r="V442"/>
       <c r="W442"/>
@@ -22564,7 +22733,7 @@
       <c r="Y442"/>
       <c r="Z442"/>
     </row>
-    <row r="443" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="443" spans="21:26">
       <c r="U443"/>
       <c r="V443"/>
       <c r="W443"/>
@@ -22572,7 +22741,7 @@
       <c r="Y443"/>
       <c r="Z443"/>
     </row>
-    <row r="444" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="444" spans="21:26">
       <c r="U444"/>
       <c r="V444"/>
       <c r="W444"/>
@@ -22580,7 +22749,7 @@
       <c r="Y444"/>
       <c r="Z444"/>
     </row>
-    <row r="445" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="445" spans="21:26">
       <c r="U445"/>
       <c r="V445"/>
       <c r="W445"/>
@@ -22588,7 +22757,7 @@
       <c r="Y445"/>
       <c r="Z445"/>
     </row>
-    <row r="446" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="446" spans="21:26">
       <c r="U446"/>
       <c r="V446"/>
       <c r="W446"/>
@@ -22596,7 +22765,7 @@
       <c r="Y446"/>
       <c r="Z446"/>
     </row>
-    <row r="447" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="447" spans="21:26">
       <c r="U447"/>
       <c r="V447"/>
       <c r="W447"/>
@@ -22604,7 +22773,7 @@
       <c r="Y447"/>
       <c r="Z447"/>
     </row>
-    <row r="448" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="448" spans="21:26">
       <c r="U448"/>
       <c r="V448"/>
       <c r="W448"/>
@@ -22612,7 +22781,7 @@
       <c r="Y448"/>
       <c r="Z448"/>
     </row>
-    <row r="449" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="449" spans="21:26">
       <c r="U449"/>
       <c r="V449"/>
       <c r="W449"/>
@@ -22620,7 +22789,7 @@
       <c r="Y449"/>
       <c r="Z449"/>
     </row>
-    <row r="450" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="450" spans="21:26">
       <c r="U450"/>
       <c r="V450"/>
       <c r="W450"/>
@@ -22628,7 +22797,7 @@
       <c r="Y450"/>
       <c r="Z450"/>
     </row>
-    <row r="451" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="451" spans="21:26">
       <c r="U451"/>
       <c r="V451"/>
       <c r="W451"/>
@@ -22636,7 +22805,7 @@
       <c r="Y451"/>
       <c r="Z451"/>
     </row>
-    <row r="452" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="452" spans="21:26">
       <c r="U452"/>
       <c r="V452"/>
       <c r="W452"/>
@@ -22644,7 +22813,7 @@
       <c r="Y452"/>
       <c r="Z452"/>
     </row>
-    <row r="453" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="453" spans="21:26">
       <c r="U453"/>
       <c r="V453"/>
       <c r="W453"/>
@@ -22652,7 +22821,7 @@
       <c r="Y453"/>
       <c r="Z453"/>
     </row>
-    <row r="454" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="454" spans="21:26">
       <c r="U454"/>
       <c r="V454"/>
       <c r="W454"/>
@@ -22660,7 +22829,7 @@
       <c r="Y454"/>
       <c r="Z454"/>
     </row>
-    <row r="455" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="455" spans="21:26">
       <c r="U455"/>
       <c r="V455"/>
       <c r="W455"/>
@@ -22668,7 +22837,7 @@
       <c r="Y455"/>
       <c r="Z455"/>
     </row>
-    <row r="456" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="456" spans="21:26">
       <c r="U456"/>
       <c r="V456"/>
       <c r="W456"/>
@@ -22676,7 +22845,7 @@
       <c r="Y456"/>
       <c r="Z456"/>
     </row>
-    <row r="457" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="457" spans="21:26">
       <c r="U457"/>
       <c r="V457"/>
       <c r="W457"/>
@@ -22684,7 +22853,7 @@
       <c r="Y457"/>
       <c r="Z457"/>
     </row>
-    <row r="458" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="458" spans="21:26">
       <c r="U458"/>
       <c r="V458"/>
       <c r="W458"/>
@@ -22692,7 +22861,7 @@
       <c r="Y458"/>
       <c r="Z458"/>
     </row>
-    <row r="459" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="459" spans="21:26">
       <c r="U459"/>
       <c r="V459"/>
       <c r="W459"/>
@@ -22700,7 +22869,7 @@
       <c r="Y459"/>
       <c r="Z459"/>
     </row>
-    <row r="460" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="460" spans="21:26">
       <c r="U460"/>
       <c r="V460"/>
       <c r="W460"/>
@@ -22708,7 +22877,7 @@
       <c r="Y460"/>
       <c r="Z460"/>
     </row>
-    <row r="461" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="461" spans="21:26">
       <c r="U461"/>
       <c r="V461"/>
       <c r="W461"/>
@@ -22716,7 +22885,7 @@
       <c r="Y461"/>
       <c r="Z461"/>
     </row>
-    <row r="462" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="462" spans="21:26">
       <c r="U462"/>
       <c r="V462"/>
       <c r="W462"/>
@@ -22724,7 +22893,7 @@
       <c r="Y462"/>
       <c r="Z462"/>
     </row>
-    <row r="463" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="463" spans="21:26">
       <c r="U463"/>
       <c r="V463"/>
       <c r="W463"/>
@@ -22732,7 +22901,7 @@
       <c r="Y463"/>
       <c r="Z463"/>
     </row>
-    <row r="464" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="464" spans="21:26">
       <c r="U464"/>
       <c r="V464"/>
       <c r="W464"/>
@@ -22740,7 +22909,7 @@
       <c r="Y464"/>
       <c r="Z464"/>
     </row>
-    <row r="465" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="465" spans="21:26">
       <c r="U465"/>
       <c r="V465"/>
       <c r="W465"/>
@@ -22748,7 +22917,7 @@
       <c r="Y465"/>
       <c r="Z465"/>
     </row>
-    <row r="466" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="466" spans="21:26">
       <c r="U466"/>
       <c r="V466"/>
       <c r="W466"/>
@@ -22756,7 +22925,7 @@
       <c r="Y466"/>
       <c r="Z466"/>
     </row>
-    <row r="467" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="467" spans="21:26">
       <c r="U467"/>
       <c r="V467"/>
       <c r="W467"/>
@@ -22764,7 +22933,7 @@
       <c r="Y467"/>
       <c r="Z467"/>
     </row>
-    <row r="468" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="468" spans="21:26">
       <c r="U468"/>
       <c r="V468"/>
       <c r="W468"/>
@@ -22772,7 +22941,7 @@
       <c r="Y468"/>
       <c r="Z468"/>
     </row>
-    <row r="469" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="469" spans="21:26">
       <c r="U469"/>
       <c r="V469"/>
       <c r="W469"/>
@@ -22780,7 +22949,7 @@
       <c r="Y469"/>
       <c r="Z469"/>
     </row>
-    <row r="470" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="470" spans="21:26">
       <c r="U470"/>
       <c r="V470"/>
       <c r="W470"/>
@@ -22788,7 +22957,7 @@
       <c r="Y470"/>
       <c r="Z470"/>
     </row>
-    <row r="471" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="471" spans="21:26">
       <c r="U471"/>
       <c r="V471"/>
       <c r="W471"/>
@@ -22796,7 +22965,7 @@
       <c r="Y471"/>
       <c r="Z471"/>
     </row>
-    <row r="472" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="472" spans="21:26">
       <c r="U472"/>
       <c r="V472"/>
       <c r="W472"/>
@@ -22804,7 +22973,7 @@
       <c r="Y472"/>
       <c r="Z472"/>
     </row>
-    <row r="473" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="473" spans="21:26">
       <c r="U473"/>
       <c r="V473"/>
       <c r="W473"/>
@@ -22812,7 +22981,7 @@
       <c r="Y473"/>
       <c r="Z473"/>
     </row>
-    <row r="474" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="474" spans="21:26">
       <c r="U474"/>
       <c r="V474"/>
       <c r="W474"/>
@@ -22820,7 +22989,7 @@
       <c r="Y474"/>
       <c r="Z474"/>
     </row>
-    <row r="475" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="475" spans="21:26">
       <c r="U475"/>
       <c r="V475"/>
       <c r="W475"/>
@@ -22828,7 +22997,7 @@
       <c r="Y475"/>
       <c r="Z475"/>
     </row>
-    <row r="476" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="476" spans="21:26">
       <c r="U476"/>
       <c r="V476"/>
       <c r="W476"/>
@@ -22836,7 +23005,7 @@
       <c r="Y476"/>
       <c r="Z476"/>
     </row>
-    <row r="477" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="477" spans="21:26">
       <c r="U477"/>
       <c r="V477"/>
       <c r="W477"/>
@@ -22844,7 +23013,7 @@
       <c r="Y477"/>
       <c r="Z477"/>
     </row>
-    <row r="478" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="478" spans="21:26">
       <c r="U478"/>
       <c r="V478"/>
       <c r="W478"/>
@@ -22852,7 +23021,7 @@
       <c r="Y478"/>
       <c r="Z478"/>
     </row>
-    <row r="479" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="479" spans="21:26">
       <c r="U479"/>
       <c r="V479"/>
       <c r="W479"/>
@@ -22860,7 +23029,7 @@
       <c r="Y479"/>
       <c r="Z479"/>
     </row>
-    <row r="480" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="480" spans="21:26">
       <c r="U480"/>
       <c r="V480"/>
       <c r="W480"/>
@@ -22868,7 +23037,7 @@
       <c r="Y480"/>
       <c r="Z480"/>
     </row>
-    <row r="481" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="481" spans="21:26">
       <c r="U481"/>
       <c r="V481"/>
       <c r="W481"/>
@@ -22876,7 +23045,7 @@
       <c r="Y481"/>
       <c r="Z481"/>
     </row>
-    <row r="482" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="482" spans="21:26">
       <c r="U482"/>
       <c r="V482"/>
       <c r="W482"/>
@@ -22884,7 +23053,7 @@
       <c r="Y482"/>
       <c r="Z482"/>
     </row>
-    <row r="483" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="483" spans="21:26">
       <c r="U483"/>
       <c r="V483"/>
       <c r="W483"/>
@@ -22892,7 +23061,7 @@
       <c r="Y483"/>
       <c r="Z483"/>
     </row>
-    <row r="484" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="484" spans="21:26">
       <c r="U484"/>
       <c r="V484"/>
       <c r="W484"/>
@@ -22900,7 +23069,7 @@
       <c r="Y484"/>
       <c r="Z484"/>
     </row>
-    <row r="485" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="485" spans="21:26">
       <c r="U485"/>
       <c r="V485"/>
       <c r="W485"/>
@@ -22908,7 +23077,7 @@
       <c r="Y485"/>
       <c r="Z485"/>
     </row>
-    <row r="486" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="486" spans="21:26">
       <c r="U486"/>
       <c r="V486"/>
       <c r="W486"/>
@@ -22916,7 +23085,7 @@
       <c r="Y486"/>
       <c r="Z486"/>
     </row>
-    <row r="487" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="487" spans="21:26">
       <c r="U487"/>
       <c r="V487"/>
       <c r="W487"/>
@@ -22924,7 +23093,7 @@
       <c r="Y487"/>
       <c r="Z487"/>
     </row>
-    <row r="488" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="488" spans="21:26">
       <c r="U488"/>
       <c r="V488"/>
       <c r="W488"/>
@@ -22932,7 +23101,7 @@
       <c r="Y488"/>
       <c r="Z488"/>
     </row>
-    <row r="489" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="489" spans="21:26">
       <c r="U489"/>
       <c r="V489"/>
       <c r="W489"/>
@@ -22940,7 +23109,7 @@
       <c r="Y489"/>
       <c r="Z489"/>
     </row>
-    <row r="490" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="490" spans="21:26">
       <c r="U490"/>
       <c r="V490"/>
       <c r="W490"/>
@@ -22948,7 +23117,7 @@
       <c r="Y490"/>
       <c r="Z490"/>
     </row>
-    <row r="491" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="491" spans="21:26">
       <c r="U491"/>
       <c r="V491"/>
       <c r="W491"/>
@@ -22956,7 +23125,7 @@
       <c r="Y491"/>
       <c r="Z491"/>
     </row>
-    <row r="492" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="492" spans="21:26">
       <c r="U492"/>
       <c r="V492"/>
       <c r="W492"/>
@@ -22964,7 +23133,7 @@
       <c r="Y492"/>
       <c r="Z492"/>
     </row>
-    <row r="493" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="493" spans="21:26">
       <c r="U493"/>
       <c r="V493"/>
       <c r="W493"/>
@@ -22972,7 +23141,7 @@
       <c r="Y493"/>
       <c r="Z493"/>
     </row>
-    <row r="494" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="494" spans="21:26">
       <c r="U494"/>
       <c r="V494"/>
       <c r="W494"/>
@@ -22980,7 +23149,7 @@
       <c r="Y494"/>
       <c r="Z494"/>
     </row>
-    <row r="495" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="495" spans="21:26">
       <c r="U495"/>
       <c r="V495"/>
       <c r="W495"/>
@@ -22988,7 +23157,7 @@
       <c r="Y495"/>
       <c r="Z495"/>
     </row>
-    <row r="496" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="496" spans="21:26">
       <c r="U496"/>
       <c r="V496"/>
       <c r="W496"/>
@@ -22996,7 +23165,7 @@
       <c r="Y496"/>
       <c r="Z496"/>
     </row>
-    <row r="497" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="497" spans="21:26">
       <c r="U497"/>
       <c r="V497"/>
       <c r="W497"/>
@@ -23004,7 +23173,7 @@
       <c r="Y497"/>
       <c r="Z497"/>
     </row>
-    <row r="498" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="498" spans="21:26">
       <c r="U498"/>
       <c r="V498"/>
       <c r="W498"/>
@@ -23012,7 +23181,7 @@
       <c r="Y498"/>
       <c r="Z498"/>
     </row>
-    <row r="499" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="499" spans="21:26">
       <c r="U499"/>
       <c r="V499"/>
       <c r="W499"/>
@@ -23020,7 +23189,7 @@
       <c r="Y499"/>
       <c r="Z499"/>
     </row>
-    <row r="500" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="500" spans="21:26">
       <c r="U500"/>
       <c r="V500"/>
       <c r="W500"/>
@@ -23028,7 +23197,7 @@
       <c r="Y500"/>
       <c r="Z500"/>
     </row>
-    <row r="501" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="501" spans="21:26">
       <c r="U501"/>
       <c r="V501"/>
       <c r="W501"/>
@@ -23036,7 +23205,7 @@
       <c r="Y501"/>
       <c r="Z501"/>
     </row>
-    <row r="502" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="502" spans="21:26">
       <c r="U502"/>
       <c r="V502"/>
       <c r="W502"/>
@@ -23044,7 +23213,7 @@
       <c r="Y502"/>
       <c r="Z502"/>
     </row>
-    <row r="503" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="503" spans="21:26">
       <c r="U503"/>
       <c r="V503"/>
       <c r="W503"/>
@@ -23052,7 +23221,7 @@
       <c r="Y503"/>
       <c r="Z503"/>
     </row>
-    <row r="504" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="504" spans="21:26">
       <c r="U504"/>
       <c r="V504"/>
       <c r="W504"/>
@@ -23060,7 +23229,7 @@
       <c r="Y504"/>
       <c r="Z504"/>
     </row>
-    <row r="505" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="505" spans="21:26">
       <c r="U505"/>
       <c r="V505"/>
       <c r="W505"/>
@@ -23068,7 +23237,7 @@
       <c r="Y505"/>
       <c r="Z505"/>
     </row>
-    <row r="506" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="506" spans="21:26">
       <c r="U506"/>
       <c r="V506"/>
       <c r="W506"/>
@@ -23076,7 +23245,7 @@
       <c r="Y506"/>
       <c r="Z506"/>
     </row>
-    <row r="507" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="507" spans="21:26">
       <c r="U507"/>
       <c r="V507"/>
       <c r="W507"/>
@@ -23084,7 +23253,7 @@
       <c r="Y507"/>
       <c r="Z507"/>
     </row>
-    <row r="508" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="508" spans="21:26">
       <c r="U508"/>
       <c r="V508"/>
       <c r="W508"/>
@@ -23092,7 +23261,7 @@
       <c r="Y508"/>
       <c r="Z508"/>
     </row>
-    <row r="509" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="509" spans="21:26">
       <c r="U509"/>
       <c r="V509"/>
       <c r="W509"/>
@@ -23100,7 +23269,7 @@
       <c r="Y509"/>
       <c r="Z509"/>
     </row>
-    <row r="510" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="510" spans="21:26">
       <c r="U510"/>
       <c r="V510"/>
       <c r="W510"/>
@@ -23108,7 +23277,7 @@
       <c r="Y510"/>
       <c r="Z510"/>
     </row>
-    <row r="511" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="511" spans="21:26">
       <c r="U511"/>
       <c r="V511"/>
       <c r="W511"/>
@@ -23116,7 +23285,7 @@
       <c r="Y511"/>
       <c r="Z511"/>
     </row>
-    <row r="512" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="512" spans="21:26">
       <c r="U512"/>
       <c r="V512"/>
       <c r="W512"/>
@@ -23124,7 +23293,7 @@
       <c r="Y512"/>
       <c r="Z512"/>
     </row>
-    <row r="513" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="513" spans="21:26">
       <c r="U513"/>
       <c r="V513"/>
       <c r="W513"/>
@@ -23132,7 +23301,7 @@
       <c r="Y513"/>
       <c r="Z513"/>
     </row>
-    <row r="514" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="514" spans="21:26">
       <c r="U514"/>
       <c r="V514"/>
       <c r="W514"/>
@@ -23140,7 +23309,7 @@
       <c r="Y514"/>
       <c r="Z514"/>
     </row>
-    <row r="515" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="515" spans="21:26">
       <c r="U515"/>
       <c r="V515"/>
       <c r="W515"/>
@@ -23148,7 +23317,7 @@
       <c r="Y515"/>
       <c r="Z515"/>
     </row>
-    <row r="516" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="516" spans="21:26">
       <c r="U516"/>
       <c r="V516"/>
       <c r="W516"/>
@@ -23156,7 +23325,7 @@
       <c r="Y516"/>
       <c r="Z516"/>
     </row>
-    <row r="517" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="517" spans="21:26">
       <c r="U517"/>
       <c r="V517"/>
       <c r="W517"/>
@@ -23164,7 +23333,7 @@
       <c r="Y517"/>
       <c r="Z517"/>
     </row>
-    <row r="518" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="518" spans="21:26">
       <c r="U518"/>
       <c r="V518"/>
       <c r="W518"/>
@@ -23172,7 +23341,7 @@
       <c r="Y518"/>
       <c r="Z518"/>
     </row>
-    <row r="519" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="519" spans="21:26">
       <c r="U519"/>
       <c r="V519"/>
       <c r="W519"/>
@@ -23180,7 +23349,7 @@
       <c r="Y519"/>
       <c r="Z519"/>
     </row>
-    <row r="520" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="520" spans="21:26">
       <c r="U520"/>
       <c r="V520"/>
       <c r="W520"/>
@@ -23188,7 +23357,7 @@
       <c r="Y520"/>
       <c r="Z520"/>
     </row>
-    <row r="521" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="521" spans="21:26">
       <c r="U521"/>
       <c r="V521"/>
       <c r="W521"/>
@@ -23196,7 +23365,7 @@
       <c r="Y521"/>
       <c r="Z521"/>
     </row>
-    <row r="522" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="522" spans="21:26">
       <c r="U522"/>
       <c r="V522"/>
       <c r="W522"/>
@@ -23204,7 +23373,7 @@
       <c r="Y522"/>
       <c r="Z522"/>
     </row>
-    <row r="523" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="523" spans="21:26">
       <c r="U523"/>
       <c r="V523"/>
       <c r="W523"/>
@@ -23212,7 +23381,7 @@
       <c r="Y523"/>
       <c r="Z523"/>
     </row>
-    <row r="524" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="524" spans="21:26">
       <c r="U524"/>
       <c r="V524"/>
       <c r="W524"/>
@@ -23220,7 +23389,7 @@
       <c r="Y524"/>
       <c r="Z524"/>
     </row>
-    <row r="525" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="525" spans="21:26">
       <c r="U525"/>
       <c r="V525"/>
       <c r="W525"/>
@@ -23228,7 +23397,7 @@
       <c r="Y525"/>
       <c r="Z525"/>
     </row>
-    <row r="526" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="526" spans="21:26">
       <c r="U526"/>
       <c r="V526"/>
       <c r="W526"/>
@@ -23236,7 +23405,7 @@
       <c r="Y526"/>
       <c r="Z526"/>
     </row>
-    <row r="527" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="527" spans="21:26">
       <c r="U527"/>
       <c r="V527"/>
       <c r="W527"/>
@@ -23244,7 +23413,7 @@
       <c r="Y527"/>
       <c r="Z527"/>
     </row>
-    <row r="528" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="528" spans="21:26">
       <c r="U528"/>
       <c r="V528"/>
       <c r="W528"/>
@@ -23252,7 +23421,7 @@
       <c r="Y528"/>
       <c r="Z528"/>
     </row>
-    <row r="529" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="529" spans="21:26">
       <c r="U529"/>
       <c r="V529"/>
       <c r="W529"/>
@@ -23260,7 +23429,7 @@
       <c r="Y529"/>
       <c r="Z529"/>
     </row>
-    <row r="530" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="530" spans="21:26">
       <c r="U530"/>
       <c r="V530"/>
       <c r="W530"/>
@@ -23268,7 +23437,7 @@
       <c r="Y530"/>
       <c r="Z530"/>
     </row>
-    <row r="531" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="531" spans="21:26">
       <c r="U531"/>
       <c r="V531"/>
       <c r="W531"/>
@@ -23276,7 +23445,7 @@
       <c r="Y531"/>
       <c r="Z531"/>
     </row>
-    <row r="532" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="532" spans="21:26">
       <c r="U532"/>
       <c r="V532"/>
       <c r="W532"/>
@@ -23284,7 +23453,7 @@
       <c r="Y532"/>
       <c r="Z532"/>
     </row>
-    <row r="533" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="533" spans="21:26">
       <c r="U533"/>
       <c r="V533"/>
       <c r="W533"/>
@@ -23292,7 +23461,7 @@
       <c r="Y533"/>
       <c r="Z533"/>
     </row>
-    <row r="534" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="534" spans="21:26">
       <c r="U534"/>
       <c r="V534"/>
       <c r="W534"/>
@@ -23300,7 +23469,7 @@
       <c r="Y534"/>
       <c r="Z534"/>
     </row>
-    <row r="535" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="535" spans="21:26">
       <c r="U535"/>
       <c r="V535"/>
       <c r="W535"/>
@@ -23308,7 +23477,7 @@
       <c r="Y535"/>
       <c r="Z535"/>
     </row>
-    <row r="536" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="536" spans="21:26">
       <c r="U536"/>
       <c r="V536"/>
       <c r="W536"/>
@@ -23316,7 +23485,7 @@
       <c r="Y536"/>
       <c r="Z536"/>
     </row>
-    <row r="537" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="537" spans="21:26">
       <c r="U537"/>
       <c r="V537"/>
       <c r="W537"/>
@@ -23324,7 +23493,7 @@
       <c r="Y537"/>
       <c r="Z537"/>
     </row>
-    <row r="538" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="538" spans="21:26">
       <c r="U538"/>
       <c r="V538"/>
       <c r="W538"/>
@@ -23332,7 +23501,7 @@
       <c r="Y538"/>
       <c r="Z538"/>
     </row>
-    <row r="539" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="539" spans="21:26">
       <c r="U539"/>
       <c r="V539"/>
       <c r="W539"/>
@@ -23340,7 +23509,7 @@
       <c r="Y539"/>
       <c r="Z539"/>
     </row>
-    <row r="540" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="540" spans="21:26">
       <c r="U540"/>
       <c r="V540"/>
       <c r="W540"/>
@@ -23348,7 +23517,7 @@
       <c r="Y540"/>
       <c r="Z540"/>
     </row>
-    <row r="541" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="541" spans="21:26">
       <c r="U541"/>
       <c r="V541"/>
       <c r="W541"/>
@@ -23356,7 +23525,7 @@
       <c r="Y541"/>
       <c r="Z541"/>
     </row>
-    <row r="542" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="542" spans="21:26">
       <c r="U542"/>
       <c r="V542"/>
       <c r="W542"/>
@@ -23364,7 +23533,7 @@
       <c r="Y542"/>
       <c r="Z542"/>
     </row>
-    <row r="543" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="543" spans="21:26">
       <c r="U543"/>
       <c r="V543"/>
       <c r="W543"/>
@@ -23372,7 +23541,7 @@
       <c r="Y543"/>
       <c r="Z543"/>
     </row>
-    <row r="544" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="544" spans="21:26">
       <c r="U544"/>
       <c r="V544"/>
       <c r="W544"/>
@@ -23380,7 +23549,7 @@
       <c r="Y544"/>
       <c r="Z544"/>
     </row>
-    <row r="545" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="545" spans="21:26">
       <c r="U545"/>
       <c r="V545"/>
       <c r="W545"/>
@@ -23388,7 +23557,7 @@
       <c r="Y545"/>
       <c r="Z545"/>
     </row>
-    <row r="546" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="546" spans="21:26">
       <c r="U546"/>
       <c r="V546"/>
       <c r="W546"/>
@@ -23396,7 +23565,7 @@
       <c r="Y546"/>
       <c r="Z546"/>
     </row>
-    <row r="547" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="547" spans="21:26">
       <c r="U547"/>
       <c r="V547"/>
       <c r="W547"/>
@@ -23404,7 +23573,7 @@
       <c r="Y547"/>
       <c r="Z547"/>
     </row>
-    <row r="548" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="548" spans="21:26">
       <c r="U548"/>
       <c r="V548"/>
       <c r="W548"/>
@@ -23412,7 +23581,7 @@
       <c r="Y548"/>
       <c r="Z548"/>
     </row>
-    <row r="549" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="549" spans="21:26">
       <c r="U549"/>
       <c r="V549"/>
       <c r="W549"/>
@@ -23420,7 +23589,7 @@
       <c r="Y549"/>
       <c r="Z549"/>
     </row>
-    <row r="550" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="550" spans="21:26">
       <c r="U550"/>
       <c r="V550"/>
       <c r="W550"/>
@@ -23428,7 +23597,7 @@
       <c r="Y550"/>
       <c r="Z550"/>
     </row>
-    <row r="551" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="551" spans="21:26">
       <c r="U551"/>
       <c r="V551"/>
       <c r="W551"/>
@@ -23436,7 +23605,7 @@
       <c r="Y551"/>
       <c r="Z551"/>
     </row>
-    <row r="552" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="552" spans="21:26">
       <c r="U552"/>
       <c r="V552"/>
       <c r="W552"/>
@@ -23444,7 +23613,7 @@
       <c r="Y552"/>
       <c r="Z552"/>
     </row>
-    <row r="553" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="553" spans="21:26">
       <c r="U553"/>
       <c r="V553"/>
       <c r="W553"/>
@@ -23452,7 +23621,7 @@
       <c r="Y553"/>
       <c r="Z553"/>
     </row>
-    <row r="554" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="554" spans="21:26">
       <c r="U554"/>
       <c r="V554"/>
       <c r="W554"/>
@@ -23460,7 +23629,7 @@
       <c r="Y554"/>
       <c r="Z554"/>
     </row>
-    <row r="555" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="555" spans="21:26">
       <c r="U555"/>
       <c r="V555"/>
       <c r="W555"/>
@@ -23468,7 +23637,7 @@
       <c r="Y555"/>
       <c r="Z555"/>
     </row>
-    <row r="556" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="556" spans="21:26">
       <c r="U556"/>
       <c r="V556"/>
       <c r="W556"/>
@@ -23476,7 +23645,7 @@
       <c r="Y556"/>
       <c r="Z556"/>
     </row>
-    <row r="557" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="557" spans="21:26">
       <c r="U557"/>
       <c r="V557"/>
       <c r="W557"/>
@@ -23484,7 +23653,7 @@
       <c r="Y557"/>
       <c r="Z557"/>
     </row>
-    <row r="558" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="558" spans="21:26">
       <c r="U558"/>
       <c r="V558"/>
       <c r="W558"/>
@@ -23492,7 +23661,7 @@
       <c r="Y558"/>
       <c r="Z558"/>
     </row>
-    <row r="559" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="559" spans="21:26">
       <c r="U559"/>
       <c r="V559"/>
       <c r="W559"/>
@@ -23500,7 +23669,7 @@
       <c r="Y559"/>
       <c r="Z559"/>
     </row>
-    <row r="560" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="560" spans="21:26">
       <c r="U560"/>
       <c r="V560"/>
       <c r="W560"/>
@@ -23508,7 +23677,7 @@
       <c r="Y560"/>
       <c r="Z560"/>
     </row>
-    <row r="561" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="561" spans="21:26">
       <c r="U561"/>
       <c r="V561"/>
       <c r="W561"/>
@@ -23516,7 +23685,7 @@
       <c r="Y561"/>
       <c r="Z561"/>
     </row>
-    <row r="562" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="562" spans="21:26">
       <c r="U562"/>
       <c r="V562"/>
       <c r="W562"/>
@@ -23524,7 +23693,7 @@
       <c r="Y562"/>
       <c r="Z562"/>
     </row>
-    <row r="563" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="563" spans="21:26">
       <c r="U563"/>
       <c r="V563"/>
       <c r="W563"/>
@@ -23532,7 +23701,7 @@
       <c r="Y563"/>
       <c r="Z563"/>
     </row>
-    <row r="564" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="564" spans="21:26">
       <c r="U564"/>
       <c r="V564"/>
       <c r="W564"/>
@@ -23540,7 +23709,7 @@
       <c r="Y564"/>
       <c r="Z564"/>
     </row>
-    <row r="565" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="565" spans="21:26">
       <c r="U565"/>
       <c r="V565"/>
       <c r="W565"/>
@@ -23548,7 +23717,7 @@
       <c r="Y565"/>
       <c r="Z565"/>
     </row>
-    <row r="566" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="566" spans="21:26">
       <c r="U566"/>
       <c r="V566"/>
       <c r="W566"/>
@@ -23556,7 +23725,7 @@
       <c r="Y566"/>
       <c r="Z566"/>
     </row>
-    <row r="567" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="567" spans="21:26">
       <c r="U567"/>
       <c r="V567"/>
       <c r="W567"/>
@@ -23564,7 +23733,7 @@
       <c r="Y567"/>
       <c r="Z567"/>
     </row>
-    <row r="568" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="568" spans="21:26">
       <c r="U568"/>
       <c r="V568"/>
       <c r="W568"/>
@@ -23572,7 +23741,7 @@
       <c r="Y568"/>
       <c r="Z568"/>
     </row>
-    <row r="569" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="569" spans="21:26">
       <c r="U569"/>
       <c r="V569"/>
       <c r="W569"/>
@@ -23580,7 +23749,7 @@
       <c r="Y569"/>
       <c r="Z569"/>
     </row>
-    <row r="570" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="570" spans="21:26">
       <c r="U570"/>
       <c r="V570"/>
       <c r="W570"/>
@@ -23588,7 +23757,7 @@
       <c r="Y570"/>
       <c r="Z570"/>
     </row>
-    <row r="571" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="571" spans="21:26">
       <c r="U571"/>
       <c r="V571"/>
       <c r="W571"/>
@@ -23596,7 +23765,7 @@
       <c r="Y571"/>
       <c r="Z571"/>
     </row>
-    <row r="572" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="572" spans="21:26">
       <c r="U572"/>
       <c r="V572"/>
       <c r="W572"/>
@@ -23604,7 +23773,7 @@
       <c r="Y572"/>
       <c r="Z572"/>
     </row>
-    <row r="573" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="573" spans="21:26">
       <c r="U573"/>
       <c r="V573"/>
       <c r="W573"/>
@@ -23612,7 +23781,7 @@
       <c r="Y573"/>
       <c r="Z573"/>
     </row>
-    <row r="574" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="574" spans="21:26">
       <c r="U574"/>
       <c r="V574"/>
       <c r="W574"/>
@@ -23620,7 +23789,7 @@
       <c r="Y574"/>
       <c r="Z574"/>
     </row>
-    <row r="575" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="575" spans="21:26">
       <c r="U575"/>
       <c r="V575"/>
       <c r="W575"/>
@@ -23628,7 +23797,7 @@
       <c r="Y575"/>
       <c r="Z575"/>
     </row>
-    <row r="576" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="576" spans="21:26">
       <c r="U576"/>
       <c r="V576"/>
       <c r="W576"/>
@@ -23636,7 +23805,7 @@
       <c r="Y576"/>
       <c r="Z576"/>
     </row>
-    <row r="577" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="577" spans="21:26">
       <c r="U577"/>
       <c r="V577"/>
       <c r="W577"/>
@@ -23644,7 +23813,7 @@
       <c r="Y577"/>
       <c r="Z577"/>
     </row>
-    <row r="578" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="578" spans="21:26">
       <c r="U578"/>
       <c r="V578"/>
       <c r="W578"/>
@@ -23652,7 +23821,7 @@
       <c r="Y578"/>
       <c r="Z578"/>
     </row>
-    <row r="579" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="579" spans="21:26">
       <c r="U579"/>
       <c r="V579"/>
       <c r="W579"/>
@@ -23660,7 +23829,7 @@
       <c r="Y579"/>
       <c r="Z579"/>
     </row>
-    <row r="580" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="580" spans="21:26">
       <c r="U580"/>
       <c r="V580"/>
       <c r="W580"/>
@@ -23668,7 +23837,7 @@
       <c r="Y580"/>
       <c r="Z580"/>
     </row>
-    <row r="581" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="581" spans="21:26">
       <c r="U581"/>
       <c r="V581"/>
       <c r="W581"/>
@@ -23676,7 +23845,7 @@
       <c r="Y581"/>
       <c r="Z581"/>
     </row>
-    <row r="582" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="582" spans="21:26">
       <c r="U582"/>
       <c r="V582"/>
       <c r="W582"/>
@@ -23684,7 +23853,7 @@
       <c r="Y582"/>
       <c r="Z582"/>
     </row>
-    <row r="583" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="583" spans="21:26">
       <c r="U583"/>
       <c r="V583"/>
       <c r="W583"/>
@@ -23692,7 +23861,7 @@
       <c r="Y583"/>
       <c r="Z583"/>
     </row>
-    <row r="584" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="584" spans="21:26">
       <c r="U584"/>
       <c r="V584"/>
       <c r="W584"/>
@@ -23700,7 +23869,7 @@
       <c r="Y584"/>
       <c r="Z584"/>
     </row>
-    <row r="585" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="585" spans="21:26">
       <c r="U585"/>
       <c r="V585"/>
       <c r="W585"/>
@@ -23708,7 +23877,7 @@
       <c r="Y585"/>
       <c r="Z585"/>
     </row>
-    <row r="586" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="586" spans="21:26">
       <c r="U586"/>
       <c r="V586"/>
       <c r="W586"/>
@@ -23716,7 +23885,7 @@
       <c r="Y586"/>
       <c r="Z586"/>
     </row>
-    <row r="587" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="587" spans="21:26">
       <c r="U587"/>
       <c r="V587"/>
       <c r="W587"/>
@@ -23724,7 +23893,7 @@
       <c r="Y587"/>
       <c r="Z587"/>
     </row>
-    <row r="588" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="588" spans="21:26">
       <c r="U588"/>
       <c r="V588"/>
       <c r="W588"/>
@@ -23732,7 +23901,7 @@
       <c r="Y588"/>
       <c r="Z588"/>
     </row>
-    <row r="589" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="589" spans="21:26">
       <c r="U589"/>
       <c r="V589"/>
       <c r="W589"/>
@@ -23740,7 +23909,7 @@
       <c r="Y589"/>
       <c r="Z589"/>
     </row>
-    <row r="590" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="590" spans="21:26">
       <c r="U590"/>
       <c r="V590"/>
       <c r="W590"/>
@@ -23748,7 +23917,7 @@
       <c r="Y590"/>
       <c r="Z590"/>
     </row>
-    <row r="591" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="591" spans="21:26">
       <c r="U591"/>
       <c r="V591"/>
       <c r="W591"/>
@@ -23756,7 +23925,7 @@
       <c r="Y591"/>
       <c r="Z591"/>
     </row>
-    <row r="592" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="592" spans="21:26">
       <c r="U592"/>
       <c r="V592"/>
       <c r="W592"/>
@@ -23764,7 +23933,7 @@
       <c r="Y592"/>
       <c r="Z592"/>
     </row>
-    <row r="593" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="593" spans="21:26">
       <c r="U593"/>
       <c r="V593"/>
       <c r="W593"/>
@@ -23772,7 +23941,7 @@
       <c r="Y593"/>
       <c r="Z593"/>
     </row>
-    <row r="594" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="594" spans="21:26">
       <c r="U594"/>
       <c r="V594"/>
       <c r="W594"/>
@@ -23780,7 +23949,7 @@
       <c r="Y594"/>
       <c r="Z594"/>
     </row>
-    <row r="595" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="595" spans="21:26">
       <c r="U595"/>
       <c r="V595"/>
       <c r="W595"/>
@@ -23788,7 +23957,7 @@
       <c r="Y595"/>
       <c r="Z595"/>
     </row>
-    <row r="596" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="596" spans="21:26">
       <c r="U596"/>
       <c r="V596"/>
       <c r="W596"/>
@@ -23796,7 +23965,7 @@
       <c r="Y596"/>
       <c r="Z596"/>
     </row>
-    <row r="597" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="597" spans="21:26">
       <c r="U597"/>
       <c r="V597"/>
       <c r="W597"/>
@@ -23804,7 +23973,7 @@
       <c r="Y597"/>
       <c r="Z597"/>
     </row>
-    <row r="598" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="598" spans="21:26">
       <c r="U598"/>
       <c r="V598"/>
       <c r="W598"/>
@@ -23812,7 +23981,7 @@
       <c r="Y598"/>
       <c r="Z598"/>
     </row>
-    <row r="599" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="599" spans="21:26">
       <c r="U599"/>
       <c r="V599"/>
       <c r="W599"/>
@@ -23820,7 +23989,7 @@
       <c r="Y599"/>
       <c r="Z599"/>
     </row>
-    <row r="600" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="600" spans="21:26">
       <c r="U600"/>
       <c r="V600"/>
       <c r="W600"/>
@@ -23828,7 +23997,7 @@
       <c r="Y600"/>
       <c r="Z600"/>
     </row>
-    <row r="601" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="601" spans="21:26">
       <c r="U601"/>
       <c r="V601"/>
       <c r="W601"/>
@@ -23836,7 +24005,7 @@
       <c r="Y601"/>
       <c r="Z601"/>
     </row>
-    <row r="602" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="602" spans="21:26">
       <c r="U602"/>
       <c r="V602"/>
       <c r="W602"/>
@@ -23844,7 +24013,7 @@
       <c r="Y602"/>
       <c r="Z602"/>
     </row>
-    <row r="603" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="603" spans="21:26">
       <c r="U603"/>
       <c r="V603"/>
       <c r="W603"/>
@@ -23852,7 +24021,7 @@
       <c r="Y603"/>
       <c r="Z603"/>
     </row>
-    <row r="604" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="604" spans="21:26">
       <c r="U604"/>
       <c r="V604"/>
       <c r="W604"/>
@@ -23860,7 +24029,7 @@
       <c r="Y604"/>
       <c r="Z604"/>
     </row>
-    <row r="605" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="605" spans="21:26">
       <c r="U605"/>
       <c r="V605"/>
       <c r="W605"/>
@@ -23868,7 +24037,7 @@
       <c r="Y605"/>
       <c r="Z605"/>
     </row>
-    <row r="606" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="606" spans="21:26">
       <c r="U606"/>
       <c r="V606"/>
       <c r="W606"/>
@@ -23876,7 +24045,7 @@
       <c r="Y606"/>
       <c r="Z606"/>
     </row>
-    <row r="607" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="607" spans="21:26">
       <c r="U607"/>
       <c r="V607"/>
       <c r="W607"/>
@@ -23884,7 +24053,7 @@
       <c r="Y607"/>
       <c r="Z607"/>
     </row>
-    <row r="608" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="608" spans="21:26">
       <c r="U608"/>
       <c r="V608"/>
       <c r="W608"/>
@@ -23892,7 +24061,7 @@
       <c r="Y608"/>
       <c r="Z608"/>
     </row>
-    <row r="609" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="609" spans="21:26">
       <c r="U609"/>
       <c r="V609"/>
       <c r="W609"/>
@@ -23900,7 +24069,7 @@
       <c r="Y609"/>
       <c r="Z609"/>
     </row>
-    <row r="610" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="610" spans="21:26">
       <c r="U610"/>
       <c r="V610"/>
       <c r="W610"/>
@@ -23908,7 +24077,7 @@
       <c r="Y610"/>
       <c r="Z610"/>
     </row>
-    <row r="611" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="611" spans="21:26">
       <c r="U611"/>
       <c r="V611"/>
       <c r="W611"/>
@@ -23916,7 +24085,7 @@
       <c r="Y611"/>
       <c r="Z611"/>
     </row>
-    <row r="612" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="612" spans="21:26">
       <c r="U612"/>
       <c r="V612"/>
       <c r="W612"/>
@@ -23924,7 +24093,7 @@
       <c r="Y612"/>
       <c r="Z612"/>
     </row>
-    <row r="613" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="613" spans="21:26">
       <c r="U613"/>
       <c r="V613"/>
       <c r="W613"/>
@@ -23932,7 +24101,7 @@
       <c r="Y613"/>
       <c r="Z613"/>
     </row>
-    <row r="614" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="614" spans="21:26">
       <c r="U614"/>
       <c r="V614"/>
       <c r="W614"/>
@@ -23940,7 +24109,7 @@
       <c r="Y614"/>
       <c r="Z614"/>
     </row>
-    <row r="615" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="615" spans="21:26">
       <c r="U615"/>
       <c r="V615"/>
       <c r="W615"/>
@@ -23948,7 +24117,7 @@
       <c r="Y615"/>
       <c r="Z615"/>
     </row>
-    <row r="616" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="616" spans="21:26">
       <c r="U616"/>
       <c r="V616"/>
       <c r="W616"/>
@@ -23956,7 +24125,7 @@
       <c r="Y616"/>
       <c r="Z616"/>
     </row>
-    <row r="617" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="617" spans="21:26">
       <c r="U617"/>
       <c r="V617"/>
       <c r="W617"/>
@@ -23964,7 +24133,7 @@
       <c r="Y617"/>
       <c r="Z617"/>
     </row>
-    <row r="618" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="618" spans="21:26">
       <c r="U618"/>
       <c r="V618"/>
       <c r="W618"/>
@@ -23972,7 +24141,7 @@
       <c r="Y618"/>
       <c r="Z618"/>
     </row>
-    <row r="619" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="619" spans="21:26">
       <c r="U619"/>
       <c r="V619"/>
       <c r="W619"/>
@@ -23980,7 +24149,7 @@
       <c r="Y619"/>
       <c r="Z619"/>
     </row>
-    <row r="620" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="620" spans="21:26">
       <c r="U620"/>
       <c r="V620"/>
       <c r="W620"/>
@@ -23988,7 +24157,7 @@
       <c r="Y620"/>
       <c r="Z620"/>
     </row>
-    <row r="621" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="621" spans="21:26">
       <c r="U621"/>
       <c r="V621"/>
       <c r="W621"/>
@@ -23996,7 +24165,7 @@
       <c r="Y621"/>
       <c r="Z621"/>
     </row>
-    <row r="622" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="622" spans="21:26">
       <c r="U622"/>
       <c r="V622"/>
       <c r="W622"/>
@@ -24004,7 +24173,7 @@
       <c r="Y622"/>
       <c r="Z622"/>
     </row>
-    <row r="623" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="623" spans="21:26">
       <c r="U623"/>
       <c r="V623"/>
       <c r="W623"/>
@@ -24012,7 +24181,7 @@
       <c r="Y623"/>
       <c r="Z623"/>
     </row>
-    <row r="624" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="624" spans="21:26">
       <c r="U624"/>
       <c r="V624"/>
       <c r="W624"/>
@@ -24020,7 +24189,7 @@
       <c r="Y624"/>
       <c r="Z624"/>
     </row>
-    <row r="625" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="625" spans="21:26">
       <c r="U625"/>
       <c r="V625"/>
       <c r="W625"/>
@@ -24028,7 +24197,7 @@
       <c r="Y625"/>
       <c r="Z625"/>
     </row>
-    <row r="626" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="626" spans="21:26">
       <c r="U626"/>
       <c r="V626"/>
       <c r="W626"/>
@@ -24036,7 +24205,7 @@
       <c r="Y626"/>
       <c r="Z626"/>
     </row>
-    <row r="627" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="627" spans="21:26">
       <c r="U627"/>
       <c r="V627"/>
       <c r="W627"/>
@@ -24044,7 +24213,7 @@
       <c r="Y627"/>
       <c r="Z627"/>
     </row>
-    <row r="628" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="628" spans="21:26">
       <c r="U628"/>
       <c r="V628"/>
       <c r="W628"/>
@@ -24052,7 +24221,7 @@
       <c r="Y628"/>
       <c r="Z628"/>
     </row>
-    <row r="629" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="629" spans="21:26">
       <c r="U629"/>
       <c r="V629"/>
       <c r="W629"/>
@@ -24060,7 +24229,7 @@
       <c r="Y629"/>
       <c r="Z629"/>
     </row>
-    <row r="630" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="630" spans="21:26">
       <c r="U630"/>
       <c r="V630"/>
       <c r="W630"/>
@@ -24068,7 +24237,7 @@
       <c r="Y630"/>
       <c r="Z630"/>
     </row>
-    <row r="631" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="631" spans="21:26">
       <c r="U631"/>
       <c r="V631"/>
       <c r="W631"/>
@@ -24076,7 +24245,7 @@
       <c r="Y631"/>
       <c r="Z631"/>
     </row>
-    <row r="632" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="632" spans="21:26">
       <c r="U632"/>
       <c r="V632"/>
       <c r="W632"/>
@@ -24084,7 +24253,7 @@
       <c r="Y632"/>
       <c r="Z632"/>
     </row>
-    <row r="633" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="633" spans="21:26">
       <c r="U633"/>
       <c r="V633"/>
       <c r="W633"/>
@@ -24092,7 +24261,7 @@
       <c r="Y633"/>
       <c r="Z633"/>
     </row>
-    <row r="634" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="634" spans="21:26">
       <c r="U634"/>
       <c r="V634"/>
       <c r="W634"/>
@@ -24100,7 +24269,7 @@
       <c r="Y634"/>
       <c r="Z634"/>
     </row>
-    <row r="635" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="635" spans="21:26">
       <c r="U635"/>
       <c r="V635"/>
       <c r="W635"/>
@@ -24108,7 +24277,7 @@
       <c r="Y635"/>
       <c r="Z635"/>
     </row>
-    <row r="636" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="636" spans="21:26">
       <c r="U636"/>
       <c r="V636"/>
       <c r="W636"/>
@@ -24116,7 +24285,7 @@
       <c r="Y636"/>
       <c r="Z636"/>
     </row>
-    <row r="637" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="637" spans="21:26">
       <c r="U637"/>
       <c r="V637"/>
       <c r="W637"/>
@@ -24124,7 +24293,7 @@
       <c r="Y637"/>
       <c r="Z637"/>
     </row>
-    <row r="638" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="638" spans="21:26">
       <c r="U638"/>
       <c r="V638"/>
       <c r="W638"/>
@@ -24132,7 +24301,7 @@
       <c r="Y638"/>
       <c r="Z638"/>
     </row>
-    <row r="639" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="639" spans="21:26">
       <c r="U639"/>
       <c r="V639"/>
       <c r="W639"/>
@@ -24140,7 +24309,7 @@
       <c r="Y639"/>
       <c r="Z639"/>
     </row>
-    <row r="640" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="640" spans="21:26">
       <c r="U640"/>
       <c r="V640"/>
       <c r="W640"/>
@@ -24148,7 +24317,7 @@
       <c r="Y640"/>
       <c r="Z640"/>
     </row>
-    <row r="641" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="641" spans="21:26">
       <c r="U641"/>
       <c r="V641"/>
       <c r="W641"/>
@@ -24156,7 +24325,7 @@
       <c r="Y641"/>
       <c r="Z641"/>
     </row>
-    <row r="642" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="642" spans="21:26">
       <c r="U642"/>
       <c r="V642"/>
       <c r="W642"/>
@@ -24164,7 +24333,7 @@
       <c r="Y642"/>
       <c r="Z642"/>
     </row>
-    <row r="643" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="643" spans="21:26">
       <c r="U643"/>
       <c r="V643"/>
       <c r="W643"/>
@@ -24172,7 +24341,7 @@
       <c r="Y643"/>
       <c r="Z643"/>
     </row>
-    <row r="644" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="644" spans="21:26">
       <c r="U644"/>
       <c r="V644"/>
       <c r="W644"/>
@@ -24180,7 +24349,7 @@
       <c r="Y644"/>
       <c r="Z644"/>
     </row>
-    <row r="645" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="645" spans="21:26">
       <c r="U645"/>
       <c r="V645"/>
       <c r="W645"/>
@@ -24188,7 +24357,7 @@
       <c r="Y645"/>
       <c r="Z645"/>
     </row>
-    <row r="646" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="646" spans="21:26">
       <c r="U646"/>
       <c r="V646"/>
       <c r="W646"/>
@@ -24196,7 +24365,7 @@
       <c r="Y646"/>
       <c r="Z646"/>
     </row>
-    <row r="647" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="647" spans="21:26">
       <c r="U647"/>
       <c r="V647"/>
       <c r="W647"/>
@@ -24204,7 +24373,7 @@
       <c r="Y647"/>
       <c r="Z647"/>
     </row>
-    <row r="648" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="648" spans="21:26">
       <c r="U648"/>
       <c r="V648"/>
       <c r="W648"/>
@@ -24212,7 +24381,7 @@
       <c r="Y648"/>
       <c r="Z648"/>
     </row>
-    <row r="649" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="649" spans="21:26">
       <c r="U649"/>
       <c r="V649"/>
       <c r="W649"/>
@@ -24220,7 +24389,7 @@
       <c r="Y649"/>
       <c r="Z649"/>
     </row>
-    <row r="650" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="650" spans="21:26">
       <c r="U650"/>
       <c r="V650"/>
       <c r="W650"/>
@@ -24228,7 +24397,7 @@
       <c r="Y650"/>
       <c r="Z650"/>
     </row>
-    <row r="651" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="651" spans="21:26">
       <c r="U651"/>
       <c r="V651"/>
       <c r="W651"/>
@@ -24236,7 +24405,7 @@
       <c r="Y651"/>
       <c r="Z651"/>
     </row>
-    <row r="652" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="652" spans="21:26">
       <c r="U652"/>
       <c r="V652"/>
       <c r="W652"/>
@@ -24244,7 +24413,7 @@
       <c r="Y652"/>
       <c r="Z652"/>
     </row>
-    <row r="653" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="653" spans="21:26">
       <c r="U653"/>
       <c r="V653"/>
       <c r="W653"/>
@@ -24252,7 +24421,7 @@
       <c r="Y653"/>
       <c r="Z653"/>
     </row>
-    <row r="654" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="654" spans="21:26">
       <c r="U654"/>
       <c r="V654"/>
       <c r="W654"/>
@@ -24260,7 +24429,7 @@
       <c r="Y654"/>
       <c r="Z654"/>
     </row>
-    <row r="655" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="655" spans="21:26">
       <c r="U655"/>
       <c r="V655"/>
       <c r="W655"/>
@@ -24268,7 +24437,7 @@
       <c r="Y655"/>
       <c r="Z655"/>
     </row>
-    <row r="656" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="656" spans="21:26">
       <c r="U656"/>
       <c r="V656"/>
       <c r="W656"/>
@@ -24276,7 +24445,7 @@
       <c r="Y656"/>
       <c r="Z656"/>
     </row>
-    <row r="657" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="657" spans="21:26">
       <c r="U657"/>
       <c r="V657"/>
       <c r="W657"/>
@@ -24284,7 +24453,7 @@
       <c r="Y657"/>
       <c r="Z657"/>
     </row>
-    <row r="658" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="658" spans="21:26">
       <c r="U658"/>
       <c r="V658"/>
       <c r="W658"/>
@@ -24292,7 +24461,7 @@
       <c r="Y658"/>
       <c r="Z658"/>
     </row>
-    <row r="659" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="659" spans="21:26">
       <c r="U659"/>
       <c r="V659"/>
       <c r="W659"/>
@@ -24300,7 +24469,7 @@
       <c r="Y659"/>
       <c r="Z659"/>
     </row>
-    <row r="660" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="660" spans="21:26">
       <c r="U660"/>
       <c r="V660"/>
       <c r="W660"/>
@@ -24308,7 +24477,7 @@
       <c r="Y660"/>
       <c r="Z660"/>
     </row>
-    <row r="661" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="661" spans="21:26">
       <c r="U661"/>
       <c r="V661"/>
       <c r="W661"/>
@@ -24316,7 +24485,7 @@
       <c r="Y661"/>
       <c r="Z661"/>
     </row>
-    <row r="662" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="662" spans="21:26">
       <c r="U662"/>
       <c r="V662"/>
       <c r="W662"/>
@@ -24324,7 +24493,7 @@
       <c r="Y662"/>
       <c r="Z662"/>
     </row>
-    <row r="663" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="663" spans="21:26">
       <c r="U663"/>
       <c r="V663"/>
       <c r="W663"/>
@@ -24332,7 +24501,7 @@
       <c r="Y663"/>
       <c r="Z663"/>
     </row>
-    <row r="664" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="664" spans="21:26">
       <c r="U664"/>
       <c r="V664"/>
       <c r="W664"/>
@@ -24340,7 +24509,7 @@
       <c r="Y664"/>
       <c r="Z664"/>
     </row>
-    <row r="665" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="665" spans="21:26">
       <c r="U665"/>
       <c r="V665"/>
       <c r="W665"/>
@@ -24348,7 +24517,7 @@
       <c r="Y665"/>
       <c r="Z665"/>
     </row>
-    <row r="666" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="666" spans="21:26">
       <c r="U666"/>
       <c r="V666"/>
       <c r="W666"/>
@@ -24356,7 +24525,7 @@
       <c r="Y666"/>
       <c r="Z666"/>
     </row>
-    <row r="667" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="667" spans="21:26">
       <c r="U667"/>
       <c r="V667"/>
       <c r="W667"/>
@@ -24364,7 +24533,7 @@
       <c r="Y667"/>
       <c r="Z667"/>
     </row>
-    <row r="668" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="668" spans="21:26">
       <c r="U668"/>
       <c r="V668"/>
       <c r="W668"/>
@@ -24372,7 +24541,7 @@
       <c r="Y668"/>
       <c r="Z668"/>
     </row>
-    <row r="669" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="669" spans="21:26">
       <c r="U669"/>
       <c r="V669"/>
       <c r="W669"/>
@@ -24380,7 +24549,7 @@
       <c r="Y669"/>
       <c r="Z669"/>
     </row>
-    <row r="670" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="670" spans="21:26">
       <c r="U670"/>
       <c r="V670"/>
       <c r="W670"/>
@@ -24388,7 +24557,7 @@
       <c r="Y670"/>
       <c r="Z670"/>
     </row>
-    <row r="671" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="671" spans="21:26">
       <c r="U671"/>
       <c r="V671"/>
       <c r="W671"/>
@@ -24396,7 +24565,7 @@
       <c r="Y671"/>
       <c r="Z671"/>
     </row>
-    <row r="672" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="672" spans="21:26">
       <c r="U672"/>
       <c r="V672"/>
       <c r="W672"/>
@@ -24404,7 +24573,7 @@
       <c r="Y672"/>
       <c r="Z672"/>
     </row>
-    <row r="673" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="673" spans="21:26">
       <c r="U673"/>
       <c r="V673"/>
       <c r="W673"/>
@@ -24412,7 +24581,7 @@
       <c r="Y673"/>
       <c r="Z673"/>
     </row>
-    <row r="674" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="674" spans="21:26">
       <c r="U674"/>
       <c r="V674"/>
       <c r="W674"/>
@@ -24420,7 +24589,7 @@
       <c r="Y674"/>
       <c r="Z674"/>
     </row>
-    <row r="675" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="675" spans="21:26">
       <c r="U675"/>
       <c r="V675"/>
       <c r="W675"/>
@@ -24428,7 +24597,7 @@
       <c r="Y675"/>
       <c r="Z675"/>
     </row>
-    <row r="676" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="676" spans="21:26">
       <c r="U676"/>
       <c r="V676"/>
       <c r="W676"/>
@@ -24436,7 +24605,7 @@
       <c r="Y676"/>
       <c r="Z676"/>
     </row>
-    <row r="677" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="677" spans="21:26">
       <c r="U677"/>
       <c r="V677"/>
       <c r="W677"/>
@@ -24444,7 +24613,7 @@
       <c r="Y677"/>
       <c r="Z677"/>
     </row>
-    <row r="678" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="678" spans="21:26">
       <c r="U678"/>
       <c r="V678"/>
       <c r="W678"/>
@@ -24452,7 +24621,7 @@
       <c r="Y678"/>
       <c r="Z678"/>
     </row>
-    <row r="679" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="679" spans="21:26">
       <c r="U679"/>
       <c r="V679"/>
       <c r="W679"/>
@@ -24460,7 +24629,7 @@
       <c r="Y679"/>
       <c r="Z679"/>
     </row>
-    <row r="680" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="680" spans="21:26">
       <c r="U680"/>
       <c r="V680"/>
       <c r="W680"/>
@@ -24468,7 +24637,7 @@
       <c r="Y680"/>
       <c r="Z680"/>
     </row>
-    <row r="681" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="681" spans="21:26">
       <c r="U681"/>
       <c r="V681"/>
       <c r="W681"/>
@@ -24476,7 +24645,7 @@
       <c r="Y681"/>
       <c r="Z681"/>
     </row>
-    <row r="682" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="682" spans="21:26">
       <c r="U682"/>
       <c r="V682"/>
       <c r="W682"/>
@@ -24484,7 +24653,7 @@
       <c r="Y682"/>
       <c r="Z682"/>
     </row>
-    <row r="683" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="683" spans="21:26">
       <c r="U683"/>
       <c r="V683"/>
       <c r="W683"/>
@@ -24492,7 +24661,7 @@
       <c r="Y683"/>
       <c r="Z683"/>
     </row>
-    <row r="684" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="684" spans="21:26">
       <c r="U684"/>
       <c r="V684"/>
       <c r="W684"/>
@@ -24500,7 +24669,7 @@
       <c r="Y684"/>
       <c r="Z684"/>
     </row>
-    <row r="685" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="685" spans="21:26">
       <c r="U685"/>
       <c r="V685"/>
       <c r="W685"/>
@@ -24508,7 +24677,7 @@
       <c r="Y685"/>
       <c r="Z685"/>
     </row>
-    <row r="686" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="686" spans="21:26">
       <c r="U686"/>
       <c r="V686"/>
       <c r="W686"/>
@@ -24516,7 +24685,7 @@
       <c r="Y686"/>
       <c r="Z686"/>
     </row>
-    <row r="687" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="687" spans="21:26">
       <c r="U687"/>
       <c r="V687"/>
       <c r="W687"/>
@@ -24524,7 +24693,7 @@
       <c r="Y687"/>
       <c r="Z687"/>
     </row>
-    <row r="688" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="688" spans="21:26">
       <c r="U688"/>
       <c r="V688"/>
       <c r="W688"/>
@@ -24532,7 +24701,7 @@
       <c r="Y688"/>
       <c r="Z688"/>
     </row>
-    <row r="689" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="689" spans="21:26">
       <c r="U689"/>
       <c r="V689"/>
       <c r="W689"/>
@@ -24540,7 +24709,7 @@
       <c r="Y689"/>
       <c r="Z689"/>
     </row>
-    <row r="690" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="690" spans="21:26">
       <c r="U690"/>
       <c r="V690"/>
       <c r="W690"/>
@@ -24548,7 +24717,7 @@
       <c r="Y690"/>
       <c r="Z690"/>
     </row>
-    <row r="691" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="691" spans="21:26">
       <c r="U691"/>
       <c r="V691"/>
       <c r="W691"/>
@@ -24556,7 +24725,7 @@
       <c r="Y691"/>
       <c r="Z691"/>
     </row>
-    <row r="692" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="692" spans="21:26">
       <c r="U692"/>
       <c r="V692"/>
       <c r="W692"/>
@@ -24564,7 +24733,7 @@
       <c r="Y692"/>
       <c r="Z692"/>
     </row>
-    <row r="693" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="693" spans="21:26">
       <c r="U693"/>
       <c r="V693"/>
       <c r="W693"/>
@@ -24572,7 +24741,7 @@
       <c r="Y693"/>
       <c r="Z693"/>
     </row>
-    <row r="694" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="694" spans="21:26">
       <c r="U694"/>
       <c r="V694"/>
       <c r="W694"/>
@@ -24580,7 +24749,7 @@
       <c r="Y694"/>
       <c r="Z694"/>
     </row>
-    <row r="695" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="695" spans="21:26">
       <c r="U695"/>
       <c r="V695"/>
       <c r="W695"/>
@@ -24588,7 +24757,7 @@
       <c r="Y695"/>
       <c r="Z695"/>
     </row>
-    <row r="696" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="696" spans="21:26">
       <c r="U696"/>
       <c r="V696"/>
       <c r="W696"/>
@@ -24596,7 +24765,7 @@
       <c r="Y696"/>
       <c r="Z696"/>
     </row>
-    <row r="697" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="697" spans="21:26">
       <c r="U697"/>
       <c r="V697"/>
       <c r="W697"/>
@@ -24604,7 +24773,7 @@
       <c r="Y697"/>
       <c r="Z697"/>
     </row>
-    <row r="698" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="698" spans="21:26">
       <c r="U698"/>
       <c r="V698"/>
       <c r="W698"/>
@@ -24612,7 +24781,7 @@
       <c r="Y698"/>
       <c r="Z698"/>
     </row>
-    <row r="699" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="699" spans="21:26">
       <c r="U699"/>
       <c r="V699"/>
       <c r="W699"/>
@@ -24620,7 +24789,7 @@
       <c r="Y699"/>
       <c r="Z699"/>
     </row>
-    <row r="700" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="700" spans="21:26">
       <c r="U700"/>
       <c r="V700"/>
       <c r="W700"/>
@@ -24628,7 +24797,7 @@
       <c r="Y700"/>
       <c r="Z700"/>
     </row>
-    <row r="701" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="701" spans="21:26">
       <c r="U701"/>
       <c r="V701"/>
       <c r="W701"/>
@@ -24636,7 +24805,7 @@
       <c r="Y701"/>
       <c r="Z701"/>
     </row>
-    <row r="702" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="702" spans="21:26">
       <c r="U702"/>
       <c r="V702"/>
       <c r="W702"/>
@@ -24644,7 +24813,7 @@
       <c r="Y702"/>
       <c r="Z702"/>
     </row>
-    <row r="703" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="703" spans="21:26">
       <c r="U703"/>
       <c r="V703"/>
       <c r="W703"/>
@@ -24652,7 +24821,7 @@
       <c r="Y703"/>
       <c r="Z703"/>
     </row>
-    <row r="704" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="704" spans="21:26">
       <c r="U704"/>
       <c r="V704"/>
       <c r="W704"/>
@@ -24660,7 +24829,7 @@
       <c r="Y704"/>
       <c r="Z704"/>
     </row>
-    <row r="705" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="705" spans="21:26">
       <c r="U705"/>
       <c r="V705"/>
       <c r="W705"/>
@@ -24668,7 +24837,7 @@
       <c r="Y705"/>
       <c r="Z705"/>
     </row>
-    <row r="706" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="706" spans="21:26">
       <c r="U706"/>
       <c r="V706"/>
       <c r="W706"/>
@@ -24676,7 +24845,7 @@
       <c r="Y706"/>
       <c r="Z706"/>
     </row>
-    <row r="707" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="707" spans="21:26">
       <c r="U707"/>
       <c r="V707"/>
       <c r="W707"/>
@@ -24684,7 +24853,7 @@
       <c r="Y707"/>
       <c r="Z707"/>
     </row>
-    <row r="708" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="708" spans="21:26">
       <c r="U708"/>
       <c r="V708"/>
       <c r="W708"/>
@@ -24692,7 +24861,7 @@
       <c r="Y708"/>
       <c r="Z708"/>
     </row>
-    <row r="709" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="709" spans="21:26">
       <c r="U709"/>
       <c r="V709"/>
       <c r="W709"/>
@@ -24700,7 +24869,7 @@
       <c r="Y709"/>
       <c r="Z709"/>
     </row>
-    <row r="710" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="710" spans="21:26">
       <c r="U710"/>
       <c r="V710"/>
       <c r="W710"/>
@@ -24708,7 +24877,7 @@
       <c r="Y710"/>
       <c r="Z710"/>
     </row>
-    <row r="711" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="711" spans="21:26">
       <c r="U711"/>
       <c r="V711"/>
       <c r="W711"/>
@@ -24716,7 +24885,7 @@
       <c r="Y711"/>
       <c r="Z711"/>
     </row>
-    <row r="712" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="712" spans="21:26">
       <c r="U712"/>
       <c r="V712"/>
       <c r="W712"/>
@@ -24724,7 +24893,7 @@
       <c r="Y712"/>
       <c r="Z712"/>
     </row>
-    <row r="713" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="713" spans="21:26">
       <c r="U713"/>
       <c r="V713"/>
       <c r="W713"/>
@@ -24732,7 +24901,7 @@
       <c r="Y713"/>
       <c r="Z713"/>
     </row>
-    <row r="714" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="714" spans="21:26">
       <c r="U714"/>
       <c r="V714"/>
       <c r="W714"/>
@@ -24740,7 +24909,7 @@
       <c r="Y714"/>
       <c r="Z714"/>
     </row>
-    <row r="715" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="715" spans="21:26">
       <c r="U715"/>
       <c r="V715"/>
       <c r="W715"/>
@@ -24748,7 +24917,7 @@
       <c r="Y715"/>
       <c r="Z715"/>
     </row>
-    <row r="716" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="716" spans="21:26">
       <c r="U716"/>
       <c r="V716"/>
       <c r="W716"/>
@@ -24756,7 +24925,7 @@
       <c r="Y716"/>
       <c r="Z716"/>
     </row>
-    <row r="717" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="717" spans="21:26">
       <c r="U717"/>
       <c r="V717"/>
       <c r="W717"/>
@@ -24764,7 +24933,7 @@
       <c r="Y717"/>
       <c r="Z717"/>
     </row>
-    <row r="718" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="718" spans="21:26">
       <c r="U718"/>
       <c r="V718"/>
       <c r="W718"/>
@@ -24772,7 +24941,7 @@
       <c r="Y718"/>
       <c r="Z718"/>
     </row>
-    <row r="719" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="719" spans="21:26">
       <c r="U719"/>
       <c r="V719"/>
       <c r="W719"/>
@@ -24780,7 +24949,7 @@
       <c r="Y719"/>
       <c r="Z719"/>
     </row>
-    <row r="720" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="720" spans="21:26">
       <c r="U720"/>
       <c r="V720"/>
       <c r="W720"/>
@@ -24788,7 +24957,7 @@
       <c r="Y720"/>
       <c r="Z720"/>
     </row>
-    <row r="721" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="721" spans="21:26">
       <c r="U721"/>
       <c r="V721"/>
       <c r="W721"/>
@@ -24796,7 +24965,7 @@
       <c r="Y721"/>
       <c r="Z721"/>
     </row>
-    <row r="722" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="722" spans="21:26">
       <c r="U722"/>
       <c r="V722"/>
       <c r="W722"/>
@@ -24804,7 +24973,7 @@
       <c r="Y722"/>
       <c r="Z722"/>
     </row>
-    <row r="723" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="723" spans="21:26">
       <c r="U723"/>
       <c r="V723"/>
       <c r="W723"/>
@@ -24812,7 +24981,7 @@
       <c r="Y723"/>
       <c r="Z723"/>
     </row>
-    <row r="724" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="724" spans="21:26">
       <c r="U724"/>
       <c r="V724"/>
       <c r="W724"/>
@@ -24820,7 +24989,7 @@
       <c r="Y724"/>
       <c r="Z724"/>
     </row>
-    <row r="725" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="725" spans="21:26">
       <c r="U725"/>
       <c r="V725"/>
       <c r="W725"/>
@@ -24828,7 +24997,7 @@
       <c r="Y725"/>
       <c r="Z725"/>
     </row>
-    <row r="726" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="726" spans="21:26">
       <c r="U726"/>
       <c r="V726"/>
       <c r="W726"/>
@@ -24836,7 +25005,7 @@
       <c r="Y726"/>
       <c r="Z726"/>
     </row>
-    <row r="727" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="727" spans="21:26">
       <c r="U727"/>
       <c r="V727"/>
       <c r="W727"/>
@@ -24844,7 +25013,7 @@
       <c r="Y727"/>
       <c r="Z727"/>
     </row>
-    <row r="728" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="728" spans="21:26">
       <c r="U728"/>
       <c r="V728"/>
       <c r="W728"/>
@@ -24852,7 +25021,7 @@
       <c r="Y728"/>
       <c r="Z728"/>
     </row>
-    <row r="729" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="729" spans="21:26">
       <c r="U729"/>
       <c r="V729"/>
       <c r="W729"/>
@@ -24860,7 +25029,7 @@
       <c r="Y729"/>
       <c r="Z729"/>
     </row>
-    <row r="730" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="730" spans="21:26">
       <c r="U730"/>
       <c r="V730"/>
       <c r="W730"/>
@@ -24868,7 +25037,7 @@
       <c r="Y730"/>
       <c r="Z730"/>
     </row>
-    <row r="731" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="731" spans="21:26">
       <c r="U731"/>
       <c r="V731"/>
       <c r="W731"/>
@@ -24876,7 +25045,7 @@
       <c r="Y731"/>
       <c r="Z731"/>
     </row>
-    <row r="732" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="732" spans="21:26">
       <c r="U732"/>
       <c r="V732"/>
       <c r="W732"/>
@@ -24884,7 +25053,7 @@
       <c r="Y732"/>
       <c r="Z732"/>
     </row>
-    <row r="733" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="733" spans="21:26">
       <c r="U733"/>
       <c r="V733"/>
       <c r="W733"/>
@@ -24892,7 +25061,7 @@
       <c r="Y733"/>
       <c r="Z733"/>
     </row>
-    <row r="734" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="734" spans="21:26">
       <c r="U734"/>
       <c r="V734"/>
       <c r="W734"/>
@@ -24900,7 +25069,7 @@
       <c r="Y734"/>
       <c r="Z734"/>
     </row>
-    <row r="735" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="735" spans="21:26">
       <c r="U735"/>
       <c r="V735"/>
       <c r="W735"/>
@@ -24908,7 +25077,7 @@
       <c r="Y735"/>
       <c r="Z735"/>
     </row>
-    <row r="736" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="736" spans="21:26">
       <c r="U736"/>
       <c r="V736"/>
       <c r="W736"/>
@@ -24916,7 +25085,7 @@
       <c r="Y736"/>
       <c r="Z736"/>
     </row>
-    <row r="737" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="737" spans="21:26">
       <c r="U737"/>
       <c r="V737"/>
       <c r="W737"/>
@@ -24924,7 +25093,7 @@
       <c r="Y737"/>
       <c r="Z737"/>
     </row>
-    <row r="738" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="738" spans="21:26">
       <c r="U738"/>
       <c r="V738"/>
       <c r="W738"/>
@@ -24932,7 +25101,7 @@
       <c r="Y738"/>
       <c r="Z738"/>
     </row>
-    <row r="739" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="739" spans="21:26">
       <c r="U739"/>
       <c r="V739"/>
       <c r="W739"/>
@@ -24940,7 +25109,7 @@
       <c r="Y739"/>
       <c r="Z739"/>
     </row>
-    <row r="740" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="740" spans="21:26">
       <c r="U740"/>
       <c r="V740"/>
       <c r="W740"/>
@@ -24948,7 +25117,7 @@
       <c r="Y740"/>
       <c r="Z740"/>
     </row>
-    <row r="741" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="741" spans="21:26">
       <c r="U741"/>
       <c r="V741"/>
       <c r="W741"/>
@@ -24956,7 +25125,7 @@
       <c r="Y741"/>
       <c r="Z741"/>
     </row>
-    <row r="742" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="742" spans="21:26">
       <c r="U742"/>
       <c r="V742"/>
       <c r="W742"/>
@@ -24964,7 +25133,7 @@
       <c r="Y742"/>
       <c r="Z742"/>
     </row>
-    <row r="743" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="743" spans="21:26">
       <c r="U743"/>
       <c r="V743"/>
       <c r="W743"/>
@@ -24972,7 +25141,7 @@
       <c r="Y743"/>
       <c r="Z743"/>
     </row>
-    <row r="744" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="744" spans="21:26">
       <c r="U744"/>
       <c r="V744"/>
       <c r="W744"/>
@@ -24980,7 +25149,7 @@
       <c r="Y744"/>
       <c r="Z744"/>
     </row>
-    <row r="745" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="745" spans="21:26">
       <c r="U745"/>
       <c r="V745"/>
       <c r="W745"/>
@@ -24988,7 +25157,7 @@
       <c r="Y745"/>
       <c r="Z745"/>
     </row>
-    <row r="746" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="746" spans="21:26">
       <c r="U746"/>
       <c r="V746"/>
       <c r="W746"/>
@@ -24996,7 +25165,7 @@
       <c r="Y746"/>
       <c r="Z746"/>
     </row>
-    <row r="747" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="747" spans="21:26">
       <c r="U747"/>
       <c r="V747"/>
       <c r="W747"/>
@@ -25004,7 +25173,7 @@
       <c r="Y747"/>
       <c r="Z747"/>
     </row>
-    <row r="748" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="748" spans="21:26">
       <c r="U748"/>
       <c r="V748"/>
       <c r="W748"/>
@@ -25012,7 +25181,7 @@
       <c r="Y748"/>
       <c r="Z748"/>
     </row>
-    <row r="749" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="749" spans="21:26">
       <c r="U749"/>
       <c r="V749"/>
       <c r="W749"/>
@@ -25020,7 +25189,7 @@
       <c r="Y749"/>
       <c r="Z749"/>
     </row>
-    <row r="750" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="750" spans="21:26">
       <c r="U750"/>
       <c r="V750"/>
       <c r="W750"/>
@@ -25028,7 +25197,7 @@
       <c r="Y750"/>
       <c r="Z750"/>
     </row>
-    <row r="751" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="751" spans="21:26">
       <c r="U751"/>
       <c r="V751"/>
       <c r="W751"/>
@@ -25036,7 +25205,7 @@
       <c r="Y751"/>
       <c r="Z751"/>
     </row>
-    <row r="752" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="752" spans="21:26">
       <c r="U752"/>
       <c r="V752"/>
       <c r="W752"/>
@@ -25044,7 +25213,7 @@
       <c r="Y752"/>
       <c r="Z752"/>
     </row>
-    <row r="753" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="753" spans="21:26">
       <c r="U753"/>
       <c r="V753"/>
       <c r="W753"/>
@@ -25052,7 +25221,7 @@
       <c r="Y753"/>
       <c r="Z753"/>
     </row>
-    <row r="754" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="754" spans="21:26">
       <c r="U754"/>
       <c r="V754"/>
       <c r="W754"/>
@@ -25060,7 +25229,7 @@
       <c r="Y754"/>
       <c r="Z754"/>
     </row>
-    <row r="755" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="755" spans="21:26">
       <c r="U755"/>
       <c r="V755"/>
       <c r="W755"/>
@@ -25068,7 +25237,7 @@
       <c r="Y755"/>
       <c r="Z755"/>
     </row>
-    <row r="756" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="756" spans="21:26">
       <c r="U756"/>
       <c r="V756"/>
       <c r="W756"/>
@@ -25076,7 +25245,7 @@
       <c r="Y756"/>
       <c r="Z756"/>
     </row>
-    <row r="757" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="757" spans="21:26">
       <c r="U757"/>
       <c r="V757"/>
       <c r="W757"/>
@@ -25084,7 +25253,7 @@
       <c r="Y757"/>
       <c r="Z757"/>
     </row>
-    <row r="758" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="758" spans="21:26">
       <c r="U758"/>
       <c r="V758"/>
       <c r="W758"/>
@@ -25092,7 +25261,7 @@
       <c r="Y758"/>
       <c r="Z758"/>
     </row>
-    <row r="759" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="759" spans="21:26">
       <c r="U759"/>
       <c r="V759"/>
       <c r="W759"/>
@@ -25100,7 +25269,7 @@
       <c r="Y759"/>
       <c r="Z759"/>
     </row>
-    <row r="760" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="760" spans="21:26">
       <c r="U760"/>
       <c r="V760"/>
       <c r="W760"/>
@@ -25108,7 +25277,7 @@
       <c r="Y760"/>
       <c r="Z760"/>
     </row>
-    <row r="761" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="761" spans="21:26">
       <c r="U761"/>
       <c r="V761"/>
       <c r="W761"/>
@@ -25116,7 +25285,7 @@
       <c r="Y761"/>
       <c r="Z761"/>
     </row>
-    <row r="762" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="762" spans="21:26">
       <c r="U762"/>
       <c r="V762"/>
       <c r="W762"/>
@@ -25124,7 +25293,7 @@
       <c r="Y762"/>
       <c r="Z762"/>
     </row>
-    <row r="763" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="763" spans="21:26">
       <c r="U763"/>
       <c r="V763"/>
       <c r="W763"/>
@@ -25132,7 +25301,7 @@
       <c r="Y763"/>
       <c r="Z763"/>
     </row>
-    <row r="764" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="764" spans="21:26">
       <c r="U764"/>
       <c r="V764"/>
       <c r="W764"/>
@@ -25140,7 +25309,7 @@
       <c r="Y764"/>
       <c r="Z764"/>
     </row>
-    <row r="765" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="765" spans="21:26">
       <c r="U765"/>
       <c r="V765"/>
       <c r="W765"/>
@@ -25148,7 +25317,7 @@
       <c r="Y765"/>
       <c r="Z765"/>
     </row>
-    <row r="766" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="766" spans="21:26">
       <c r="U766"/>
       <c r="V766"/>
       <c r="W766"/>
@@ -25156,7 +25325,7 @@
       <c r="Y766"/>
       <c r="Z766"/>
     </row>
-    <row r="767" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="767" spans="21:26">
       <c r="U767"/>
       <c r="V767"/>
       <c r="W767"/>
@@ -25164,7 +25333,7 @@
       <c r="Y767"/>
       <c r="Z767"/>
     </row>
-    <row r="768" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="768" spans="21:26">
       <c r="U768"/>
       <c r="V768"/>
       <c r="W768"/>
@@ -25172,7 +25341,7 @@
       <c r="Y768"/>
       <c r="Z768"/>
     </row>
-    <row r="769" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="769" spans="21:26">
       <c r="U769"/>
       <c r="V769"/>
       <c r="W769"/>
@@ -25180,7 +25349,7 @@
       <c r="Y769"/>
       <c r="Z769"/>
     </row>
-    <row r="770" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="770" spans="21:26">
       <c r="U770"/>
       <c r="V770"/>
       <c r="W770"/>
@@ -25188,7 +25357,7 @@
       <c r="Y770"/>
       <c r="Z770"/>
     </row>
-    <row r="771" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="771" spans="21:26">
       <c r="U771"/>
       <c r="V771"/>
       <c r="W771"/>
@@ -25196,7 +25365,7 @@
       <c r="Y771"/>
       <c r="Z771"/>
     </row>
-    <row r="772" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="772" spans="21:26">
       <c r="U772"/>
       <c r="V772"/>
       <c r="W772"/>
@@ -25204,7 +25373,7 @@
       <c r="Y772"/>
       <c r="Z772"/>
     </row>
-    <row r="773" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="773" spans="21:26">
       <c r="U773"/>
       <c r="V773"/>
       <c r="W773"/>
@@ -25212,7 +25381,7 @@
       <c r="Y773"/>
       <c r="Z773"/>
     </row>
-    <row r="774" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="774" spans="21:26">
       <c r="U774"/>
       <c r="V774"/>
       <c r="W774"/>
@@ -25220,7 +25389,7 @@
       <c r="Y774"/>
       <c r="Z774"/>
     </row>
-    <row r="775" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="775" spans="21:26">
       <c r="U775"/>
       <c r="V775"/>
       <c r="W775"/>
@@ -25228,7 +25397,7 @@
       <c r="Y775"/>
       <c r="Z775"/>
     </row>
-    <row r="776" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="776" spans="21:26">
       <c r="U776"/>
       <c r="V776"/>
       <c r="W776"/>
@@ -25236,7 +25405,7 @@
       <c r="Y776"/>
       <c r="Z776"/>
     </row>
-    <row r="777" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="777" spans="21:26">
       <c r="U777"/>
       <c r="V777"/>
       <c r="W777"/>
@@ -25244,7 +25413,7 @@
       <c r="Y777"/>
       <c r="Z777"/>
     </row>
-    <row r="778" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="778" spans="21:26">
       <c r="U778"/>
       <c r="V778"/>
       <c r="W778"/>
@@ -25252,7 +25421,7 @@
       <c r="Y778"/>
       <c r="Z778"/>
     </row>
-    <row r="779" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="779" spans="21:26">
       <c r="U779"/>
       <c r="V779"/>
       <c r="W779"/>
@@ -25260,7 +25429,7 @@
       <c r="Y779"/>
       <c r="Z779"/>
     </row>
-    <row r="780" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="780" spans="21:26">
       <c r="U780"/>
       <c r="V780"/>
       <c r="W780"/>
@@ -25268,7 +25437,7 @@
       <c r="Y780"/>
       <c r="Z780"/>
     </row>
-    <row r="781" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="781" spans="21:26">
       <c r="U781"/>
       <c r="V781"/>
       <c r="W781"/>
@@ -25276,7 +25445,7 @@
       <c r="Y781"/>
       <c r="Z781"/>
     </row>
-    <row r="782" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="782" spans="21:26">
       <c r="U782"/>
       <c r="V782"/>
       <c r="W782"/>
@@ -25284,7 +25453,7 @@
       <c r="Y782"/>
       <c r="Z782"/>
     </row>
-    <row r="783" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="783" spans="21:26">
       <c r="U783"/>
       <c r="V783"/>
       <c r="W783"/>
@@ -25292,7 +25461,7 @@
       <c r="Y783"/>
       <c r="Z783"/>
     </row>
-    <row r="784" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="784" spans="21:26">
       <c r="U784"/>
       <c r="V784"/>
       <c r="W784"/>
@@ -25300,7 +25469,7 @@
       <c r="Y784"/>
       <c r="Z784"/>
     </row>
-    <row r="785" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="785" spans="21:26">
       <c r="U785"/>
       <c r="V785"/>
       <c r="W785"/>
@@ -25308,7 +25477,7 @@
       <c r="Y785"/>
       <c r="Z785"/>
     </row>
-    <row r="786" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="786" spans="21:26">
       <c r="U786"/>
       <c r="V786"/>
       <c r="W786"/>
@@ -25316,7 +25485,7 @@
       <c r="Y786"/>
       <c r="Z786"/>
     </row>
-    <row r="787" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="787" spans="21:26">
       <c r="U787"/>
       <c r="V787"/>
       <c r="W787"/>
@@ -25324,7 +25493,7 @@
       <c r="Y787"/>
       <c r="Z787"/>
     </row>
-    <row r="788" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="788" spans="21:26">
       <c r="U788"/>
       <c r="V788"/>
       <c r="W788"/>
@@ -25332,7 +25501,7 @@
       <c r="Y788"/>
       <c r="Z788"/>
     </row>
-    <row r="789" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="789" spans="21:26">
       <c r="U789"/>
       <c r="V789"/>
       <c r="W789"/>
@@ -25340,7 +25509,7 @@
       <c r="Y789"/>
       <c r="Z789"/>
     </row>
-    <row r="790" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="790" spans="21:26">
       <c r="U790"/>
       <c r="V790"/>
       <c r="W790"/>
@@ -25348,7 +25517,7 @@
       <c r="Y790"/>
       <c r="Z790"/>
     </row>
-    <row r="791" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="791" spans="21:26">
       <c r="U791"/>
       <c r="V791"/>
       <c r="W791"/>
@@ -25356,7 +25525,7 @@
       <c r="Y791"/>
       <c r="Z791"/>
     </row>
-    <row r="792" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="792" spans="21:26">
       <c r="U792"/>
       <c r="V792"/>
       <c r="W792"/>
@@ -25364,7 +25533,7 @@
       <c r="Y792"/>
       <c r="Z792"/>
     </row>
-    <row r="793" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="793" spans="21:26">
       <c r="U793"/>
       <c r="V793"/>
       <c r="W793"/>
@@ -25373,29 +25542,29 @@
       <c r="Z793"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BG126"/>
+  <autoFilter ref="A1:BG126" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
-    <col min="3" max="3" width="38.625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="33.625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="34">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -25415,7 +25584,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="34">
       <c r="A2" t="s">
         <v>129</v>
       </c>
@@ -25432,7 +25601,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="34">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -25449,7 +25618,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="34">
       <c r="A4" t="s">
         <v>129</v>
       </c>
@@ -25471,21 +25640,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
         <v>46</v>
       </c>
@@ -25496,7 +25665,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="16" t="s">
         <v>49</v>
       </c>
@@ -25507,7 +25676,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="16" t="s">
         <v>50</v>
       </c>
@@ -25518,7 +25687,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="16" t="s">
         <v>51</v>
       </c>
@@ -25529,7 +25698,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="16" t="s">
         <v>52</v>
       </c>
@@ -25540,7 +25709,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="16" t="s">
         <v>221</v>
       </c>
@@ -25551,7 +25720,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="B7" s="16" t="s">
         <v>225</v>
       </c>
@@ -25559,7 +25728,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="B8" s="16" t="s">
         <v>226</v>
       </c>
@@ -25567,7 +25736,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="B9" s="16" t="s">
         <v>227</v>
       </c>
@@ -25575,7 +25744,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="B10" s="16" t="s">
         <v>124</v>
       </c>
@@ -25583,7 +25752,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="B11" s="16" t="s">
         <v>228</v>
       </c>
@@ -25591,7 +25760,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="B12" s="16" t="s">
         <v>42</v>
       </c>
@@ -25599,7 +25768,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="B13" s="16" t="s">
         <v>229</v>
       </c>
@@ -25610,91 +25779,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="D2" s="1">
-        <v>735873718</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="D3" s="1">
-        <v>735873718</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="D4" s="1">
-        <v>735873718</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>640</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C2:C4">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>
--- a/resources/excels/GA.xlsx
+++ b/resources/excels/GA.xlsx
@@ -8,32 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400947/Projects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA4667A-4B93-4945-A433-4976E4E8D34F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146A80E8-0A1E-A041-B392-E8A67484EC4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
     <sheet name="Priority" sheetId="10" r:id="rId2"/>
     <sheet name="Headers" sheetId="9" r:id="rId3"/>
     <sheet name="OpenAPILoginSheet" sheetId="24" r:id="rId4"/>
-    <sheet name="NFTRTickets-San" sheetId="3" r:id="rId5"/>
-    <sheet name="FTRTickets-San" sheetId="2" r:id="rId6"/>
-    <sheet name="NFTRTickets-Reg" sheetId="11" r:id="rId7"/>
-    <sheet name="FTRTickets-Reg" sheetId="12" r:id="rId8"/>
-    <sheet name="UserManagement" sheetId="19" r:id="rId9"/>
-    <sheet name="PinnedTags" sheetId="5" r:id="rId10"/>
-    <sheet name="Ticket State" sheetId="6" r:id="rId11"/>
-    <sheet name="TemplateManagement" sheetId="20" r:id="rId12"/>
-    <sheet name="Ticket Transfer Rules" sheetId="15" r:id="rId13"/>
-    <sheet name="Authentication Policy" sheetId="17" r:id="rId14"/>
-    <sheet name="Action Tagging" sheetId="18" r:id="rId15"/>
-    <sheet name="State Queue Mapping" sheetId="21" r:id="rId16"/>
-    <sheet name="Transfer To Queue" sheetId="22" r:id="rId17"/>
-    <sheet name="QuestionAnswerKey" sheetId="23" r:id="rId18"/>
+    <sheet name="OpenAPIClientConfig" sheetId="25" r:id="rId5"/>
+    <sheet name="ClientConfig" sheetId="26" r:id="rId6"/>
+    <sheet name="NFTRTickets-San" sheetId="3" r:id="rId7"/>
+    <sheet name="FTRTickets-San" sheetId="2" r:id="rId8"/>
+    <sheet name="NFTRTickets-Reg" sheetId="11" r:id="rId9"/>
+    <sheet name="FTRTickets-Reg" sheetId="12" r:id="rId10"/>
+    <sheet name="UserManagement" sheetId="19" r:id="rId11"/>
+    <sheet name="PinnedTags" sheetId="5" r:id="rId12"/>
+    <sheet name="Ticket State" sheetId="6" r:id="rId13"/>
+    <sheet name="TemplateManagement" sheetId="20" r:id="rId14"/>
+    <sheet name="Ticket Transfer Rules" sheetId="15" r:id="rId15"/>
+    <sheet name="Authentication Policy" sheetId="17" r:id="rId16"/>
+    <sheet name="Action Tagging" sheetId="18" r:id="rId17"/>
+    <sheet name="State Queue Mapping" sheetId="21" r:id="rId18"/>
+    <sheet name="Transfer To Queue" sheetId="22" r:id="rId19"/>
+    <sheet name="QuestionAnswerKey" sheetId="23" r:id="rId20"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'NFTRTickets-Reg'!$A$1:$BG$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'NFTRTickets-Reg'!$A$1:$BG$126</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="719">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2191,6 +2193,21 @@
   </si>
   <si>
     <t>OpenApiInvalidToken</t>
+  </si>
+  <si>
+    <t>Field Name</t>
+  </si>
+  <si>
+    <t>customerMsisdn</t>
+  </si>
+  <si>
+    <t>First Category Level</t>
+  </si>
+  <si>
+    <t>Last Category Level</t>
+  </si>
+  <si>
+    <t>Service Complaint</t>
   </si>
 </sst>
 </file>
@@ -2384,7 +2401,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2441,6 +2458,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3146,6 +3164,240 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="34">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="34">
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="34">
+      <c r="A3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="34">
+      <c r="A4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -3232,7 +3484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -3310,7 +3562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -3376,7 +3628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -3414,7 +3666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
@@ -3515,7 +3767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -3780,7 +4032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -4090,7 +4342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -4142,186 +4394,6 @@
       </c>
       <c r="C4" s="37" t="b">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="36.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="47.5" style="8" customWidth="1"/>
-    <col min="3" max="3" width="58.1640625" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="17">
-      <c r="A1" s="31" t="s">
-        <v>655</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>656</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="17">
-      <c r="A2" s="31" t="s">
-        <v>658</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>659</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="34">
-      <c r="A3" s="31" t="s">
-        <v>238</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>661</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="17">
-      <c r="A4" s="31" t="s">
-        <v>663</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>664</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="17">
-      <c r="A5" s="31" t="s">
-        <v>666</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>667</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="17">
-      <c r="A6" s="31" t="s">
-        <v>669</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>670</v>
-      </c>
-      <c r="C6" s="38"/>
-    </row>
-    <row r="7" spans="1:3" ht="17">
-      <c r="A7" s="31" t="s">
-        <v>237</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>671</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="17">
-      <c r="A8" s="31" t="s">
-        <v>673</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>674</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="17">
-      <c r="A9" s="31" t="s">
-        <v>676</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>677</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="17">
-      <c r="A10" s="31" t="s">
-        <v>679</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>680</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="17">
-      <c r="A11" s="31" t="s">
-        <v>682</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>683</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="17">
-      <c r="A12" s="31" t="s">
-        <v>685</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>686</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="17">
-      <c r="A13" s="31" t="s">
-        <v>688</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>689</v>
-      </c>
-      <c r="C13" s="38"/>
-    </row>
-    <row r="14" spans="1:3" ht="17">
-      <c r="A14" s="31" t="s">
-        <v>690</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>691</v>
-      </c>
-      <c r="C14" s="38"/>
-    </row>
-    <row r="15" spans="1:3" ht="17">
-      <c r="A15" s="31" t="s">
-        <v>692</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>693</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>694</v>
       </c>
     </row>
   </sheetData>
@@ -4375,6 +4447,186 @@
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
         <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="36.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="47.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="58.1640625" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17">
+      <c r="A1" s="31" t="s">
+        <v>655</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>656</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17">
+      <c r="A2" s="31" t="s">
+        <v>658</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>659</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="34">
+      <c r="A3" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>661</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17">
+      <c r="A4" s="31" t="s">
+        <v>663</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>664</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17">
+      <c r="A5" s="31" t="s">
+        <v>666</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>667</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17">
+      <c r="A6" s="31" t="s">
+        <v>669</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>670</v>
+      </c>
+      <c r="C6" s="38"/>
+    </row>
+    <row r="7" spans="1:3" ht="17">
+      <c r="A7" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>671</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17">
+      <c r="A8" s="31" t="s">
+        <v>673</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>674</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17">
+      <c r="A9" s="31" t="s">
+        <v>676</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>677</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17">
+      <c r="A10" s="31" t="s">
+        <v>679</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>680</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17">
+      <c r="A11" s="31" t="s">
+        <v>682</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>683</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17">
+      <c r="A12" s="31" t="s">
+        <v>685</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>686</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17">
+      <c r="A13" s="31" t="s">
+        <v>688</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>689</v>
+      </c>
+      <c r="C13" s="38"/>
+    </row>
+    <row r="14" spans="1:3" ht="17">
+      <c r="A14" s="31" t="s">
+        <v>690</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>691</v>
+      </c>
+      <c r="C14" s="38"/>
+    </row>
+    <row r="15" spans="1:3" ht="17">
+      <c r="A15" s="31" t="s">
+        <v>692</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>693</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>694</v>
       </c>
     </row>
   </sheetData>
@@ -5063,7 +5315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A20AF0E-4DF7-5C4A-BDDF-8CDE3D7AB572}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
@@ -5087,7 +5339,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="409.6">
+    <row r="3" spans="1:2" ht="136">
       <c r="A3" s="39" t="s">
         <v>710</v>
       </c>
@@ -5095,7 +5347,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409.6">
+    <row r="4" spans="1:2" ht="136">
       <c r="A4" s="39" t="s">
         <v>712</v>
       </c>
@@ -5109,6 +5361,87 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71AFC18D-CCED-A045-997A-AA513F21A90A}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="40" t="s">
+        <v>606</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="40">
+        <v>767240995</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>715</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66110060-3FB6-814F-8145-36B5D0968E23}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="40" t="s">
+        <v>716</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>717</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="40">
+        <v>1</v>
+      </c>
+      <c r="B2" s="40">
+        <v>5</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>718</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BG2"/>
   <sheetViews>
@@ -5426,7 +5759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -5487,7 +5820,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BG793"/>
   <sheetViews>
@@ -25545,238 +25878,4 @@
   <autoFilter ref="A1:BG126" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="33.6640625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="8" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="34">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="34">
-      <c r="A2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="34">
-      <c r="A3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="34">
-      <c r="A4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/resources/excels/GA.xlsx
+++ b/resources/excels/GA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400017/AirTel Project/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB25ED1-8738-3B40-AEEE-7AAA60D10F56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B9493B-980C-D844-8A3F-12E3BA3A6136}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2890" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2911" uniqueCount="734">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2202,15 +2202,6 @@
     <t>customerMsisdn</t>
   </si>
   <si>
-    <t>First Category Level</t>
-  </si>
-  <si>
-    <t>Last Category Level</t>
-  </si>
-  <si>
-    <t>Service Complaint</t>
-  </si>
-  <si>
     <t>AgentId</t>
   </si>
   <si>
@@ -2221,6 +2212,48 @@
   </si>
   <si>
     <t>Ashwani Rao</t>
+  </si>
+  <si>
+    <t>First level Category</t>
+  </si>
+  <si>
+    <t>Last Level Category</t>
+  </si>
+  <si>
+    <t>Search able</t>
+  </si>
+  <si>
+    <t>isActive</t>
+  </si>
+  <si>
+    <t>Mandatory</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>Deactivate</t>
+  </si>
+  <si>
+    <t>userMsisdn</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>accountId</t>
+  </si>
+  <si>
+    <t>msisdn</t>
+  </si>
+  <si>
+    <t>074693088</t>
+  </si>
+  <si>
+    <t>invalidMsisdn</t>
   </si>
 </sst>
 </file>
@@ -2414,7 +2447,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2472,6 +2505,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -25474,10 +25508,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66110060-3FB6-814F-8145-36B5D0968E23}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -25487,18 +25521,33 @@
     <col min="3" max="3" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="A1" s="40" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="C1" s="40" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="40" t="s">
+        <v>722</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>723</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>724</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>725</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="40">
         <v>1</v>
       </c>
@@ -25506,8 +25555,81 @@
         <v>5</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>718</v>
-      </c>
+        <v>727</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>728</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>728</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>728</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="H2" s="41" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40" t="s">
+        <v>730</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>728</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>728</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>728</v>
+      </c>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="40">
+        <v>1</v>
+      </c>
+      <c r="B4" s="40">
+        <v>5</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>731</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>728</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>728</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>728</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>732</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40" t="s">
+        <v>733</v>
+      </c>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40">
+        <v>123</v>
+      </c>
+      <c r="H5" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25518,7 +25640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BDD73BB-72B1-744E-95D8-5CFC76E18565}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
@@ -25526,13 +25648,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="40" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -25541,7 +25663,7 @@
         <v>13221514</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
   </sheetData>

--- a/resources/excels/GA.xlsx
+++ b/resources/excels/GA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400017/AirTel Project/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B9493B-980C-D844-8A3F-12E3BA3A6136}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237294F8-814E-A542-8138-00392BA4F1F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" firstSheet="11" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2911" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2914" uniqueCount="737">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2254,13 +2254,22 @@
   </si>
   <si>
     <t>invalidMsisdn</t>
+  </si>
+  <si>
+    <t>Last Data Bundle Recharge Amount in 2 months (Mandatory)</t>
+  </si>
+  <si>
+    <t>Last Data Bundle Recharge Amount in 2 months</t>
+  </si>
+  <si>
+    <t>LAST_DATA_BUNDLE_RECHARGE_AMOUNT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2331,6 +2340,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2447,7 +2462,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2506,6 +2521,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -23778,7 +23799,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -23840,7 +23861,7 @@
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
     </row>
-    <row r="2" spans="1:15" ht="42">
+    <row r="2" spans="1:15" ht="119">
       <c r="A2" s="19" t="s">
         <v>642</v>
       </c>
@@ -23867,6 +23888,9 @@
       </c>
       <c r="I2" s="20" t="s">
         <v>239</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>734</v>
       </c>
     </row>
   </sheetData>
@@ -24563,10 +24587,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -24735,6 +24759,15 @@
       <c r="C15" s="31" t="s">
         <v>694</v>
       </c>
+    </row>
+    <row r="16" spans="1:3" ht="34">
+      <c r="A16" s="42" t="s">
+        <v>735</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>736</v>
+      </c>
+      <c r="C16" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25510,7 +25543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66110060-3FB6-814F-8145-36B5D0968E23}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H5"/>
     </sheetView>
   </sheetViews>

--- a/resources/excels/GA.xlsx
+++ b/resources/excels/GA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B3ABA2-9943-9946-87C1-4A83C7968294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29112734-F8D0-6242-80D8-36CC675E0C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="2580" windowWidth="30720" windowHeight="17520" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" firstSheet="14" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2942" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2939" uniqueCount="755">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2443,15 +2443,6 @@
   </si>
   <si>
     <t>invalidMsisdn</t>
-  </si>
-  <si>
-    <t>Last Data Bundle Recharge Amount in 2 months (Mandatory)</t>
-  </si>
-  <si>
-    <t>Last Data Bundle Recharge Amount in 2 months</t>
-  </si>
-  <si>
-    <t>LAST_DATA_BUNDLE_RECHARGE_AMOUNT</t>
   </si>
   <si>
     <t>Loan ID</t>
@@ -2533,7 +2524,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2604,12 +2595,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2773,7 +2758,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2832,18 +2817,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -20202,3406 +20181,431 @@
       <c r="Y368"/>
       <c r="Z368"/>
     </row>
-    <row r="369" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U369"/>
-      <c r="V369"/>
-      <c r="W369"/>
-      <c r="X369"/>
-      <c r="Y369"/>
-      <c r="Z369"/>
-    </row>
-    <row r="370" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U370"/>
-      <c r="V370"/>
-      <c r="W370"/>
-      <c r="X370"/>
-      <c r="Y370"/>
-      <c r="Z370"/>
-    </row>
-    <row r="371" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U371"/>
-      <c r="V371"/>
-      <c r="W371"/>
-      <c r="X371"/>
-      <c r="Y371"/>
-      <c r="Z371"/>
-    </row>
-    <row r="372" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U372"/>
-      <c r="V372"/>
-      <c r="W372"/>
-      <c r="X372"/>
-      <c r="Y372"/>
-      <c r="Z372"/>
-    </row>
-    <row r="373" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U373"/>
-      <c r="V373"/>
-      <c r="W373"/>
-      <c r="X373"/>
-      <c r="Y373"/>
-      <c r="Z373"/>
-    </row>
-    <row r="374" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U374"/>
-      <c r="V374"/>
-      <c r="W374"/>
-      <c r="X374"/>
-      <c r="Y374"/>
-      <c r="Z374"/>
-    </row>
-    <row r="375" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U375"/>
-      <c r="V375"/>
-      <c r="W375"/>
-      <c r="X375"/>
-      <c r="Y375"/>
-      <c r="Z375"/>
-    </row>
-    <row r="376" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U376"/>
-      <c r="V376"/>
-      <c r="W376"/>
-      <c r="X376"/>
-      <c r="Y376"/>
-      <c r="Z376"/>
-    </row>
-    <row r="377" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U377"/>
-      <c r="V377"/>
-      <c r="W377"/>
-      <c r="X377"/>
-      <c r="Y377"/>
-      <c r="Z377"/>
-    </row>
-    <row r="378" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U378"/>
-      <c r="V378"/>
-      <c r="W378"/>
-      <c r="X378"/>
-      <c r="Y378"/>
-      <c r="Z378"/>
-    </row>
-    <row r="379" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U379"/>
-      <c r="V379"/>
-      <c r="W379"/>
-      <c r="X379"/>
-      <c r="Y379"/>
-      <c r="Z379"/>
-    </row>
-    <row r="380" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U380"/>
-      <c r="V380"/>
-      <c r="W380"/>
-      <c r="X380"/>
-      <c r="Y380"/>
-      <c r="Z380"/>
-    </row>
-    <row r="381" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U381"/>
-      <c r="V381"/>
-      <c r="W381"/>
-      <c r="X381"/>
-      <c r="Y381"/>
-      <c r="Z381"/>
-    </row>
-    <row r="382" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U382"/>
-      <c r="V382"/>
-      <c r="W382"/>
-      <c r="X382"/>
-      <c r="Y382"/>
-      <c r="Z382"/>
-    </row>
-    <row r="383" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U383"/>
-      <c r="V383"/>
-      <c r="W383"/>
-      <c r="X383"/>
-      <c r="Y383"/>
-      <c r="Z383"/>
-    </row>
-    <row r="384" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U384"/>
-      <c r="V384"/>
-      <c r="W384"/>
-      <c r="X384"/>
-      <c r="Y384"/>
-      <c r="Z384"/>
-    </row>
-    <row r="385" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U385"/>
-      <c r="V385"/>
-      <c r="W385"/>
-      <c r="X385"/>
-      <c r="Y385"/>
-      <c r="Z385"/>
-    </row>
-    <row r="386" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U386"/>
-      <c r="V386"/>
-      <c r="W386"/>
-      <c r="X386"/>
-      <c r="Y386"/>
-      <c r="Z386"/>
-    </row>
-    <row r="387" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U387"/>
-      <c r="V387"/>
-      <c r="W387"/>
-      <c r="X387"/>
-      <c r="Y387"/>
-      <c r="Z387"/>
-    </row>
-    <row r="388" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U388"/>
-      <c r="V388"/>
-      <c r="W388"/>
-      <c r="X388"/>
-      <c r="Y388"/>
-      <c r="Z388"/>
-    </row>
-    <row r="389" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U389"/>
-      <c r="V389"/>
-      <c r="W389"/>
-      <c r="X389"/>
-      <c r="Y389"/>
-      <c r="Z389"/>
-    </row>
-    <row r="390" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U390"/>
-      <c r="V390"/>
-      <c r="W390"/>
-      <c r="X390"/>
-      <c r="Y390"/>
-      <c r="Z390"/>
-    </row>
-    <row r="391" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U391"/>
-      <c r="V391"/>
-      <c r="W391"/>
-      <c r="X391"/>
-      <c r="Y391"/>
-      <c r="Z391"/>
-    </row>
-    <row r="392" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U392"/>
-      <c r="V392"/>
-      <c r="W392"/>
-      <c r="X392"/>
-      <c r="Y392"/>
-      <c r="Z392"/>
-    </row>
-    <row r="393" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U393"/>
-      <c r="V393"/>
-      <c r="W393"/>
-      <c r="X393"/>
-      <c r="Y393"/>
-      <c r="Z393"/>
-    </row>
-    <row r="394" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U394"/>
-      <c r="V394"/>
-      <c r="W394"/>
-      <c r="X394"/>
-      <c r="Y394"/>
-      <c r="Z394"/>
-    </row>
-    <row r="395" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U395"/>
-      <c r="V395"/>
-      <c r="W395"/>
-      <c r="X395"/>
-      <c r="Y395"/>
-      <c r="Z395"/>
-    </row>
-    <row r="396" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U396"/>
-      <c r="V396"/>
-      <c r="W396"/>
-      <c r="X396"/>
-      <c r="Y396"/>
-      <c r="Z396"/>
-    </row>
-    <row r="397" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U397"/>
-      <c r="V397"/>
-      <c r="W397"/>
-      <c r="X397"/>
-      <c r="Y397"/>
-      <c r="Z397"/>
-    </row>
-    <row r="398" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U398"/>
-      <c r="V398"/>
-      <c r="W398"/>
-      <c r="X398"/>
-      <c r="Y398"/>
-      <c r="Z398"/>
-    </row>
-    <row r="399" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U399"/>
-      <c r="V399"/>
-      <c r="W399"/>
-      <c r="X399"/>
-      <c r="Y399"/>
-      <c r="Z399"/>
-    </row>
-    <row r="400" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U400"/>
-      <c r="V400"/>
-      <c r="W400"/>
-      <c r="X400"/>
-      <c r="Y400"/>
-      <c r="Z400"/>
-    </row>
-    <row r="401" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U401"/>
-      <c r="V401"/>
-      <c r="W401"/>
-      <c r="X401"/>
-      <c r="Y401"/>
-      <c r="Z401"/>
-    </row>
-    <row r="402" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U402"/>
-      <c r="V402"/>
-      <c r="W402"/>
-      <c r="X402"/>
-      <c r="Y402"/>
-      <c r="Z402"/>
-    </row>
-    <row r="403" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U403"/>
-      <c r="V403"/>
-      <c r="W403"/>
-      <c r="X403"/>
-      <c r="Y403"/>
-      <c r="Z403"/>
-    </row>
-    <row r="404" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U404"/>
-      <c r="V404"/>
-      <c r="W404"/>
-      <c r="X404"/>
-      <c r="Y404"/>
-      <c r="Z404"/>
-    </row>
-    <row r="405" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U405"/>
-      <c r="V405"/>
-      <c r="W405"/>
-      <c r="X405"/>
-      <c r="Y405"/>
-      <c r="Z405"/>
-    </row>
-    <row r="406" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U406"/>
-      <c r="V406"/>
-      <c r="W406"/>
-      <c r="X406"/>
-      <c r="Y406"/>
-      <c r="Z406"/>
-    </row>
-    <row r="407" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U407"/>
-      <c r="V407"/>
-      <c r="W407"/>
-      <c r="X407"/>
-      <c r="Y407"/>
-      <c r="Z407"/>
-    </row>
-    <row r="408" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U408"/>
-      <c r="V408"/>
-      <c r="W408"/>
-      <c r="X408"/>
-      <c r="Y408"/>
-      <c r="Z408"/>
-    </row>
-    <row r="409" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U409"/>
-      <c r="V409"/>
-      <c r="W409"/>
-      <c r="X409"/>
-      <c r="Y409"/>
-      <c r="Z409"/>
-    </row>
-    <row r="410" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U410"/>
-      <c r="V410"/>
-      <c r="W410"/>
-      <c r="X410"/>
-      <c r="Y410"/>
-      <c r="Z410"/>
-    </row>
-    <row r="411" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U411"/>
-      <c r="V411"/>
-      <c r="W411"/>
-      <c r="X411"/>
-      <c r="Y411"/>
-      <c r="Z411"/>
-    </row>
-    <row r="412" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U412"/>
-      <c r="V412"/>
-      <c r="W412"/>
-      <c r="X412"/>
-      <c r="Y412"/>
-      <c r="Z412"/>
-    </row>
-    <row r="413" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U413"/>
-      <c r="V413"/>
-      <c r="W413"/>
-      <c r="X413"/>
-      <c r="Y413"/>
-      <c r="Z413"/>
-    </row>
-    <row r="414" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U414"/>
-      <c r="V414"/>
-      <c r="W414"/>
-      <c r="X414"/>
-      <c r="Y414"/>
-      <c r="Z414"/>
-    </row>
-    <row r="415" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U415"/>
-      <c r="V415"/>
-      <c r="W415"/>
-      <c r="X415"/>
-      <c r="Y415"/>
-      <c r="Z415"/>
-    </row>
-    <row r="416" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U416"/>
-      <c r="V416"/>
-      <c r="W416"/>
-      <c r="X416"/>
-      <c r="Y416"/>
-      <c r="Z416"/>
-    </row>
-    <row r="417" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U417"/>
-      <c r="V417"/>
-      <c r="W417"/>
-      <c r="X417"/>
-      <c r="Y417"/>
-      <c r="Z417"/>
-    </row>
-    <row r="418" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U418"/>
-      <c r="V418"/>
-      <c r="W418"/>
-      <c r="X418"/>
-      <c r="Y418"/>
-      <c r="Z418"/>
-    </row>
-    <row r="419" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U419"/>
-      <c r="V419"/>
-      <c r="W419"/>
-      <c r="X419"/>
-      <c r="Y419"/>
-      <c r="Z419"/>
-    </row>
-    <row r="420" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U420"/>
-      <c r="V420"/>
-      <c r="W420"/>
-      <c r="X420"/>
-      <c r="Y420"/>
-      <c r="Z420"/>
-    </row>
-    <row r="421" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U421"/>
-      <c r="V421"/>
-      <c r="W421"/>
-      <c r="X421"/>
-      <c r="Y421"/>
-      <c r="Z421"/>
-    </row>
-    <row r="422" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U422"/>
-      <c r="V422"/>
-      <c r="W422"/>
-      <c r="X422"/>
-      <c r="Y422"/>
-      <c r="Z422"/>
-    </row>
-    <row r="423" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U423"/>
-      <c r="V423"/>
-      <c r="W423"/>
-      <c r="X423"/>
-      <c r="Y423"/>
-      <c r="Z423"/>
-    </row>
-    <row r="424" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U424"/>
-      <c r="V424"/>
-      <c r="W424"/>
-      <c r="X424"/>
-      <c r="Y424"/>
-      <c r="Z424"/>
-    </row>
-    <row r="425" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U425"/>
-      <c r="V425"/>
-      <c r="W425"/>
-      <c r="X425"/>
-      <c r="Y425"/>
-      <c r="Z425"/>
-    </row>
-    <row r="426" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U426"/>
-      <c r="V426"/>
-      <c r="W426"/>
-      <c r="X426"/>
-      <c r="Y426"/>
-      <c r="Z426"/>
-    </row>
-    <row r="427" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U427"/>
-      <c r="V427"/>
-      <c r="W427"/>
-      <c r="X427"/>
-      <c r="Y427"/>
-      <c r="Z427"/>
-    </row>
-    <row r="428" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U428"/>
-      <c r="V428"/>
-      <c r="W428"/>
-      <c r="X428"/>
-      <c r="Y428"/>
-      <c r="Z428"/>
-    </row>
-    <row r="429" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U429"/>
-      <c r="V429"/>
-      <c r="W429"/>
-      <c r="X429"/>
-      <c r="Y429"/>
-      <c r="Z429"/>
-    </row>
-    <row r="430" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U430"/>
-      <c r="V430"/>
-      <c r="W430"/>
-      <c r="X430"/>
-      <c r="Y430"/>
-      <c r="Z430"/>
-    </row>
-    <row r="431" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U431"/>
-      <c r="V431"/>
-      <c r="W431"/>
-      <c r="X431"/>
-      <c r="Y431"/>
-      <c r="Z431"/>
-    </row>
-    <row r="432" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U432"/>
-      <c r="V432"/>
-      <c r="W432"/>
-      <c r="X432"/>
-      <c r="Y432"/>
-      <c r="Z432"/>
-    </row>
-    <row r="433" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U433"/>
-      <c r="V433"/>
-      <c r="W433"/>
-      <c r="X433"/>
-      <c r="Y433"/>
-      <c r="Z433"/>
-    </row>
-    <row r="434" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U434"/>
-      <c r="V434"/>
-      <c r="W434"/>
-      <c r="X434"/>
-      <c r="Y434"/>
-      <c r="Z434"/>
-    </row>
-    <row r="435" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U435"/>
-      <c r="V435"/>
-      <c r="W435"/>
-      <c r="X435"/>
-      <c r="Y435"/>
-      <c r="Z435"/>
-    </row>
-    <row r="436" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U436"/>
-      <c r="V436"/>
-      <c r="W436"/>
-      <c r="X436"/>
-      <c r="Y436"/>
-      <c r="Z436"/>
-    </row>
-    <row r="437" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U437"/>
-      <c r="V437"/>
-      <c r="W437"/>
-      <c r="X437"/>
-      <c r="Y437"/>
-      <c r="Z437"/>
-    </row>
-    <row r="438" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U438"/>
-      <c r="V438"/>
-      <c r="W438"/>
-      <c r="X438"/>
-      <c r="Y438"/>
-      <c r="Z438"/>
-    </row>
-    <row r="439" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U439"/>
-      <c r="V439"/>
-      <c r="W439"/>
-      <c r="X439"/>
-      <c r="Y439"/>
-      <c r="Z439"/>
-    </row>
-    <row r="440" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U440"/>
-      <c r="V440"/>
-      <c r="W440"/>
-      <c r="X440"/>
-      <c r="Y440"/>
-      <c r="Z440"/>
-    </row>
-    <row r="441" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U441"/>
-      <c r="V441"/>
-      <c r="W441"/>
-      <c r="X441"/>
-      <c r="Y441"/>
-      <c r="Z441"/>
-    </row>
-    <row r="442" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U442"/>
-      <c r="V442"/>
-      <c r="W442"/>
-      <c r="X442"/>
-      <c r="Y442"/>
-      <c r="Z442"/>
-    </row>
-    <row r="443" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U443"/>
-      <c r="V443"/>
-      <c r="W443"/>
-      <c r="X443"/>
-      <c r="Y443"/>
-      <c r="Z443"/>
-    </row>
-    <row r="444" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U444"/>
-      <c r="V444"/>
-      <c r="W444"/>
-      <c r="X444"/>
-      <c r="Y444"/>
-      <c r="Z444"/>
-    </row>
-    <row r="445" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U445"/>
-      <c r="V445"/>
-      <c r="W445"/>
-      <c r="X445"/>
-      <c r="Y445"/>
-      <c r="Z445"/>
-    </row>
-    <row r="446" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U446"/>
-      <c r="V446"/>
-      <c r="W446"/>
-      <c r="X446"/>
-      <c r="Y446"/>
-      <c r="Z446"/>
-    </row>
-    <row r="447" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U447"/>
-      <c r="V447"/>
-      <c r="W447"/>
-      <c r="X447"/>
-      <c r="Y447"/>
-      <c r="Z447"/>
-    </row>
-    <row r="448" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U448"/>
-      <c r="V448"/>
-      <c r="W448"/>
-      <c r="X448"/>
-      <c r="Y448"/>
-      <c r="Z448"/>
-    </row>
-    <row r="449" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U449"/>
-      <c r="V449"/>
-      <c r="W449"/>
-      <c r="X449"/>
-      <c r="Y449"/>
-      <c r="Z449"/>
-    </row>
-    <row r="450" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U450"/>
-      <c r="V450"/>
-      <c r="W450"/>
-      <c r="X450"/>
-      <c r="Y450"/>
-      <c r="Z450"/>
-    </row>
-    <row r="451" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U451"/>
-      <c r="V451"/>
-      <c r="W451"/>
-      <c r="X451"/>
-      <c r="Y451"/>
-      <c r="Z451"/>
-    </row>
-    <row r="452" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U452"/>
-      <c r="V452"/>
-      <c r="W452"/>
-      <c r="X452"/>
-      <c r="Y452"/>
-      <c r="Z452"/>
-    </row>
-    <row r="453" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U453"/>
-      <c r="V453"/>
-      <c r="W453"/>
-      <c r="X453"/>
-      <c r="Y453"/>
-      <c r="Z453"/>
-    </row>
-    <row r="454" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U454"/>
-      <c r="V454"/>
-      <c r="W454"/>
-      <c r="X454"/>
-      <c r="Y454"/>
-      <c r="Z454"/>
-    </row>
-    <row r="455" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U455"/>
-      <c r="V455"/>
-      <c r="W455"/>
-      <c r="X455"/>
-      <c r="Y455"/>
-      <c r="Z455"/>
-    </row>
-    <row r="456" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U456"/>
-      <c r="V456"/>
-      <c r="W456"/>
-      <c r="X456"/>
-      <c r="Y456"/>
-      <c r="Z456"/>
-    </row>
-    <row r="457" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U457"/>
-      <c r="V457"/>
-      <c r="W457"/>
-      <c r="X457"/>
-      <c r="Y457"/>
-      <c r="Z457"/>
-    </row>
-    <row r="458" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U458"/>
-      <c r="V458"/>
-      <c r="W458"/>
-      <c r="X458"/>
-      <c r="Y458"/>
-      <c r="Z458"/>
-    </row>
-    <row r="459" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U459"/>
-      <c r="V459"/>
-      <c r="W459"/>
-      <c r="X459"/>
-      <c r="Y459"/>
-      <c r="Z459"/>
-    </row>
-    <row r="460" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U460"/>
-      <c r="V460"/>
-      <c r="W460"/>
-      <c r="X460"/>
-      <c r="Y460"/>
-      <c r="Z460"/>
-    </row>
-    <row r="461" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U461"/>
-      <c r="V461"/>
-      <c r="W461"/>
-      <c r="X461"/>
-      <c r="Y461"/>
-      <c r="Z461"/>
-    </row>
-    <row r="462" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U462"/>
-      <c r="V462"/>
-      <c r="W462"/>
-      <c r="X462"/>
-      <c r="Y462"/>
-      <c r="Z462"/>
-    </row>
-    <row r="463" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U463"/>
-      <c r="V463"/>
-      <c r="W463"/>
-      <c r="X463"/>
-      <c r="Y463"/>
-      <c r="Z463"/>
-    </row>
-    <row r="464" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U464"/>
-      <c r="V464"/>
-      <c r="W464"/>
-      <c r="X464"/>
-      <c r="Y464"/>
-      <c r="Z464"/>
-    </row>
-    <row r="465" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U465"/>
-      <c r="V465"/>
-      <c r="W465"/>
-      <c r="X465"/>
-      <c r="Y465"/>
-      <c r="Z465"/>
-    </row>
-    <row r="466" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U466"/>
-      <c r="V466"/>
-      <c r="W466"/>
-      <c r="X466"/>
-      <c r="Y466"/>
-      <c r="Z466"/>
-    </row>
-    <row r="467" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U467"/>
-      <c r="V467"/>
-      <c r="W467"/>
-      <c r="X467"/>
-      <c r="Y467"/>
-      <c r="Z467"/>
-    </row>
-    <row r="468" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U468"/>
-      <c r="V468"/>
-      <c r="W468"/>
-      <c r="X468"/>
-      <c r="Y468"/>
-      <c r="Z468"/>
-    </row>
-    <row r="469" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U469"/>
-      <c r="V469"/>
-      <c r="W469"/>
-      <c r="X469"/>
-      <c r="Y469"/>
-      <c r="Z469"/>
-    </row>
-    <row r="470" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U470"/>
-      <c r="V470"/>
-      <c r="W470"/>
-      <c r="X470"/>
-      <c r="Y470"/>
-      <c r="Z470"/>
-    </row>
-    <row r="471" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U471"/>
-      <c r="V471"/>
-      <c r="W471"/>
-      <c r="X471"/>
-      <c r="Y471"/>
-      <c r="Z471"/>
-    </row>
-    <row r="472" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U472"/>
-      <c r="V472"/>
-      <c r="W472"/>
-      <c r="X472"/>
-      <c r="Y472"/>
-      <c r="Z472"/>
-    </row>
-    <row r="473" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U473"/>
-      <c r="V473"/>
-      <c r="W473"/>
-      <c r="X473"/>
-      <c r="Y473"/>
-      <c r="Z473"/>
-    </row>
-    <row r="474" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U474"/>
-      <c r="V474"/>
-      <c r="W474"/>
-      <c r="X474"/>
-      <c r="Y474"/>
-      <c r="Z474"/>
-    </row>
-    <row r="475" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U475"/>
-      <c r="V475"/>
-      <c r="W475"/>
-      <c r="X475"/>
-      <c r="Y475"/>
-      <c r="Z475"/>
-    </row>
-    <row r="476" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U476"/>
-      <c r="V476"/>
-      <c r="W476"/>
-      <c r="X476"/>
-      <c r="Y476"/>
-      <c r="Z476"/>
-    </row>
-    <row r="477" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U477"/>
-      <c r="V477"/>
-      <c r="W477"/>
-      <c r="X477"/>
-      <c r="Y477"/>
-      <c r="Z477"/>
-    </row>
-    <row r="478" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U478"/>
-      <c r="V478"/>
-      <c r="W478"/>
-      <c r="X478"/>
-      <c r="Y478"/>
-      <c r="Z478"/>
-    </row>
-    <row r="479" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U479"/>
-      <c r="V479"/>
-      <c r="W479"/>
-      <c r="X479"/>
-      <c r="Y479"/>
-      <c r="Z479"/>
-    </row>
-    <row r="480" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U480"/>
-      <c r="V480"/>
-      <c r="W480"/>
-      <c r="X480"/>
-      <c r="Y480"/>
-      <c r="Z480"/>
-    </row>
-    <row r="481" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U481"/>
-      <c r="V481"/>
-      <c r="W481"/>
-      <c r="X481"/>
-      <c r="Y481"/>
-      <c r="Z481"/>
-    </row>
-    <row r="482" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U482"/>
-      <c r="V482"/>
-      <c r="W482"/>
-      <c r="X482"/>
-      <c r="Y482"/>
-      <c r="Z482"/>
-    </row>
-    <row r="483" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U483"/>
-      <c r="V483"/>
-      <c r="W483"/>
-      <c r="X483"/>
-      <c r="Y483"/>
-      <c r="Z483"/>
-    </row>
-    <row r="484" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U484"/>
-      <c r="V484"/>
-      <c r="W484"/>
-      <c r="X484"/>
-      <c r="Y484"/>
-      <c r="Z484"/>
-    </row>
-    <row r="485" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U485"/>
-      <c r="V485"/>
-      <c r="W485"/>
-      <c r="X485"/>
-      <c r="Y485"/>
-      <c r="Z485"/>
-    </row>
-    <row r="486" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U486"/>
-      <c r="V486"/>
-      <c r="W486"/>
-      <c r="X486"/>
-      <c r="Y486"/>
-      <c r="Z486"/>
-    </row>
-    <row r="487" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U487"/>
-      <c r="V487"/>
-      <c r="W487"/>
-      <c r="X487"/>
-      <c r="Y487"/>
-      <c r="Z487"/>
-    </row>
-    <row r="488" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U488"/>
-      <c r="V488"/>
-      <c r="W488"/>
-      <c r="X488"/>
-      <c r="Y488"/>
-      <c r="Z488"/>
-    </row>
-    <row r="489" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U489"/>
-      <c r="V489"/>
-      <c r="W489"/>
-      <c r="X489"/>
-      <c r="Y489"/>
-      <c r="Z489"/>
-    </row>
-    <row r="490" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U490"/>
-      <c r="V490"/>
-      <c r="W490"/>
-      <c r="X490"/>
-      <c r="Y490"/>
-      <c r="Z490"/>
-    </row>
-    <row r="491" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U491"/>
-      <c r="V491"/>
-      <c r="W491"/>
-      <c r="X491"/>
-      <c r="Y491"/>
-      <c r="Z491"/>
-    </row>
-    <row r="492" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U492"/>
-      <c r="V492"/>
-      <c r="W492"/>
-      <c r="X492"/>
-      <c r="Y492"/>
-      <c r="Z492"/>
-    </row>
-    <row r="493" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U493"/>
-      <c r="V493"/>
-      <c r="W493"/>
-      <c r="X493"/>
-      <c r="Y493"/>
-      <c r="Z493"/>
-    </row>
-    <row r="494" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U494"/>
-      <c r="V494"/>
-      <c r="W494"/>
-      <c r="X494"/>
-      <c r="Y494"/>
-      <c r="Z494"/>
-    </row>
-    <row r="495" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U495"/>
-      <c r="V495"/>
-      <c r="W495"/>
-      <c r="X495"/>
-      <c r="Y495"/>
-      <c r="Z495"/>
-    </row>
-    <row r="496" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U496"/>
-      <c r="V496"/>
-      <c r="W496"/>
-      <c r="X496"/>
-      <c r="Y496"/>
-      <c r="Z496"/>
-    </row>
-    <row r="497" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U497"/>
-      <c r="V497"/>
-      <c r="W497"/>
-      <c r="X497"/>
-      <c r="Y497"/>
-      <c r="Z497"/>
-    </row>
-    <row r="498" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U498"/>
-      <c r="V498"/>
-      <c r="W498"/>
-      <c r="X498"/>
-      <c r="Y498"/>
-      <c r="Z498"/>
-    </row>
-    <row r="499" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U499"/>
-      <c r="V499"/>
-      <c r="W499"/>
-      <c r="X499"/>
-      <c r="Y499"/>
-      <c r="Z499"/>
-    </row>
-    <row r="500" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U500"/>
-      <c r="V500"/>
-      <c r="W500"/>
-      <c r="X500"/>
-      <c r="Y500"/>
-      <c r="Z500"/>
-    </row>
-    <row r="501" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U501"/>
-      <c r="V501"/>
-      <c r="W501"/>
-      <c r="X501"/>
-      <c r="Y501"/>
-      <c r="Z501"/>
-    </row>
-    <row r="502" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U502"/>
-      <c r="V502"/>
-      <c r="W502"/>
-      <c r="X502"/>
-      <c r="Y502"/>
-      <c r="Z502"/>
-    </row>
-    <row r="503" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U503"/>
-      <c r="V503"/>
-      <c r="W503"/>
-      <c r="X503"/>
-      <c r="Y503"/>
-      <c r="Z503"/>
-    </row>
-    <row r="504" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U504"/>
-      <c r="V504"/>
-      <c r="W504"/>
-      <c r="X504"/>
-      <c r="Y504"/>
-      <c r="Z504"/>
-    </row>
-    <row r="505" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U505"/>
-      <c r="V505"/>
-      <c r="W505"/>
-      <c r="X505"/>
-      <c r="Y505"/>
-      <c r="Z505"/>
-    </row>
-    <row r="506" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U506"/>
-      <c r="V506"/>
-      <c r="W506"/>
-      <c r="X506"/>
-      <c r="Y506"/>
-      <c r="Z506"/>
-    </row>
-    <row r="507" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U507"/>
-      <c r="V507"/>
-      <c r="W507"/>
-      <c r="X507"/>
-      <c r="Y507"/>
-      <c r="Z507"/>
-    </row>
-    <row r="508" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U508"/>
-      <c r="V508"/>
-      <c r="W508"/>
-      <c r="X508"/>
-      <c r="Y508"/>
-      <c r="Z508"/>
-    </row>
-    <row r="509" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U509"/>
-      <c r="V509"/>
-      <c r="W509"/>
-      <c r="X509"/>
-      <c r="Y509"/>
-      <c r="Z509"/>
-    </row>
-    <row r="510" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U510"/>
-      <c r="V510"/>
-      <c r="W510"/>
-      <c r="X510"/>
-      <c r="Y510"/>
-      <c r="Z510"/>
-    </row>
-    <row r="511" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U511"/>
-      <c r="V511"/>
-      <c r="W511"/>
-      <c r="X511"/>
-      <c r="Y511"/>
-      <c r="Z511"/>
-    </row>
-    <row r="512" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U512"/>
-      <c r="V512"/>
-      <c r="W512"/>
-      <c r="X512"/>
-      <c r="Y512"/>
-      <c r="Z512"/>
-    </row>
-    <row r="513" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U513"/>
-      <c r="V513"/>
-      <c r="W513"/>
-      <c r="X513"/>
-      <c r="Y513"/>
-      <c r="Z513"/>
-    </row>
-    <row r="514" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U514"/>
-      <c r="V514"/>
-      <c r="W514"/>
-      <c r="X514"/>
-      <c r="Y514"/>
-      <c r="Z514"/>
-    </row>
-    <row r="515" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U515"/>
-      <c r="V515"/>
-      <c r="W515"/>
-      <c r="X515"/>
-      <c r="Y515"/>
-      <c r="Z515"/>
-    </row>
-    <row r="516" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U516"/>
-      <c r="V516"/>
-      <c r="W516"/>
-      <c r="X516"/>
-      <c r="Y516"/>
-      <c r="Z516"/>
-    </row>
-    <row r="517" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U517"/>
-      <c r="V517"/>
-      <c r="W517"/>
-      <c r="X517"/>
-      <c r="Y517"/>
-      <c r="Z517"/>
-    </row>
-    <row r="518" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U518"/>
-      <c r="V518"/>
-      <c r="W518"/>
-      <c r="X518"/>
-      <c r="Y518"/>
-      <c r="Z518"/>
-    </row>
-    <row r="519" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U519"/>
-      <c r="V519"/>
-      <c r="W519"/>
-      <c r="X519"/>
-      <c r="Y519"/>
-      <c r="Z519"/>
-    </row>
-    <row r="520" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U520"/>
-      <c r="V520"/>
-      <c r="W520"/>
-      <c r="X520"/>
-      <c r="Y520"/>
-      <c r="Z520"/>
-    </row>
-    <row r="521" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U521"/>
-      <c r="V521"/>
-      <c r="W521"/>
-      <c r="X521"/>
-      <c r="Y521"/>
-      <c r="Z521"/>
-    </row>
-    <row r="522" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U522"/>
-      <c r="V522"/>
-      <c r="W522"/>
-      <c r="X522"/>
-      <c r="Y522"/>
-      <c r="Z522"/>
-    </row>
-    <row r="523" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U523"/>
-      <c r="V523"/>
-      <c r="W523"/>
-      <c r="X523"/>
-      <c r="Y523"/>
-      <c r="Z523"/>
-    </row>
-    <row r="524" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U524"/>
-      <c r="V524"/>
-      <c r="W524"/>
-      <c r="X524"/>
-      <c r="Y524"/>
-      <c r="Z524"/>
-    </row>
-    <row r="525" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U525"/>
-      <c r="V525"/>
-      <c r="W525"/>
-      <c r="X525"/>
-      <c r="Y525"/>
-      <c r="Z525"/>
-    </row>
-    <row r="526" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U526"/>
-      <c r="V526"/>
-      <c r="W526"/>
-      <c r="X526"/>
-      <c r="Y526"/>
-      <c r="Z526"/>
-    </row>
-    <row r="527" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U527"/>
-      <c r="V527"/>
-      <c r="W527"/>
-      <c r="X527"/>
-      <c r="Y527"/>
-      <c r="Z527"/>
-    </row>
-    <row r="528" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U528"/>
-      <c r="V528"/>
-      <c r="W528"/>
-      <c r="X528"/>
-      <c r="Y528"/>
-      <c r="Z528"/>
-    </row>
-    <row r="529" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U529"/>
-      <c r="V529"/>
-      <c r="W529"/>
-      <c r="X529"/>
-      <c r="Y529"/>
-      <c r="Z529"/>
-    </row>
-    <row r="530" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U530"/>
-      <c r="V530"/>
-      <c r="W530"/>
-      <c r="X530"/>
-      <c r="Y530"/>
-      <c r="Z530"/>
-    </row>
-    <row r="531" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U531"/>
-      <c r="V531"/>
-      <c r="W531"/>
-      <c r="X531"/>
-      <c r="Y531"/>
-      <c r="Z531"/>
-    </row>
-    <row r="532" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U532"/>
-      <c r="V532"/>
-      <c r="W532"/>
-      <c r="X532"/>
-      <c r="Y532"/>
-      <c r="Z532"/>
-    </row>
-    <row r="533" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U533"/>
-      <c r="V533"/>
-      <c r="W533"/>
-      <c r="X533"/>
-      <c r="Y533"/>
-      <c r="Z533"/>
-    </row>
-    <row r="534" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U534"/>
-      <c r="V534"/>
-      <c r="W534"/>
-      <c r="X534"/>
-      <c r="Y534"/>
-      <c r="Z534"/>
-    </row>
-    <row r="535" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U535"/>
-      <c r="V535"/>
-      <c r="W535"/>
-      <c r="X535"/>
-      <c r="Y535"/>
-      <c r="Z535"/>
-    </row>
-    <row r="536" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U536"/>
-      <c r="V536"/>
-      <c r="W536"/>
-      <c r="X536"/>
-      <c r="Y536"/>
-      <c r="Z536"/>
-    </row>
-    <row r="537" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U537"/>
-      <c r="V537"/>
-      <c r="W537"/>
-      <c r="X537"/>
-      <c r="Y537"/>
-      <c r="Z537"/>
-    </row>
-    <row r="538" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U538"/>
-      <c r="V538"/>
-      <c r="W538"/>
-      <c r="X538"/>
-      <c r="Y538"/>
-      <c r="Z538"/>
-    </row>
-    <row r="539" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U539"/>
-      <c r="V539"/>
-      <c r="W539"/>
-      <c r="X539"/>
-      <c r="Y539"/>
-      <c r="Z539"/>
-    </row>
-    <row r="540" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U540"/>
-      <c r="V540"/>
-      <c r="W540"/>
-      <c r="X540"/>
-      <c r="Y540"/>
-      <c r="Z540"/>
-    </row>
-    <row r="541" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U541"/>
-      <c r="V541"/>
-      <c r="W541"/>
-      <c r="X541"/>
-      <c r="Y541"/>
-      <c r="Z541"/>
-    </row>
-    <row r="542" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U542"/>
-      <c r="V542"/>
-      <c r="W542"/>
-      <c r="X542"/>
-      <c r="Y542"/>
-      <c r="Z542"/>
-    </row>
-    <row r="543" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U543"/>
-      <c r="V543"/>
-      <c r="W543"/>
-      <c r="X543"/>
-      <c r="Y543"/>
-      <c r="Z543"/>
-    </row>
-    <row r="544" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U544"/>
-      <c r="V544"/>
-      <c r="W544"/>
-      <c r="X544"/>
-      <c r="Y544"/>
-      <c r="Z544"/>
-    </row>
-    <row r="545" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U545"/>
-      <c r="V545"/>
-      <c r="W545"/>
-      <c r="X545"/>
-      <c r="Y545"/>
-      <c r="Z545"/>
-    </row>
-    <row r="546" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U546"/>
-      <c r="V546"/>
-      <c r="W546"/>
-      <c r="X546"/>
-      <c r="Y546"/>
-      <c r="Z546"/>
-    </row>
-    <row r="547" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U547"/>
-      <c r="V547"/>
-      <c r="W547"/>
-      <c r="X547"/>
-      <c r="Y547"/>
-      <c r="Z547"/>
-    </row>
-    <row r="548" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U548"/>
-      <c r="V548"/>
-      <c r="W548"/>
-      <c r="X548"/>
-      <c r="Y548"/>
-      <c r="Z548"/>
-    </row>
-    <row r="549" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U549"/>
-      <c r="V549"/>
-      <c r="W549"/>
-      <c r="X549"/>
-      <c r="Y549"/>
-      <c r="Z549"/>
-    </row>
-    <row r="550" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U550"/>
-      <c r="V550"/>
-      <c r="W550"/>
-      <c r="X550"/>
-      <c r="Y550"/>
-      <c r="Z550"/>
-    </row>
-    <row r="551" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U551"/>
-      <c r="V551"/>
-      <c r="W551"/>
-      <c r="X551"/>
-      <c r="Y551"/>
-      <c r="Z551"/>
-    </row>
-    <row r="552" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U552"/>
-      <c r="V552"/>
-      <c r="W552"/>
-      <c r="X552"/>
-      <c r="Y552"/>
-      <c r="Z552"/>
-    </row>
-    <row r="553" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U553"/>
-      <c r="V553"/>
-      <c r="W553"/>
-      <c r="X553"/>
-      <c r="Y553"/>
-      <c r="Z553"/>
-    </row>
-    <row r="554" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U554"/>
-      <c r="V554"/>
-      <c r="W554"/>
-      <c r="X554"/>
-      <c r="Y554"/>
-      <c r="Z554"/>
-    </row>
-    <row r="555" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U555"/>
-      <c r="V555"/>
-      <c r="W555"/>
-      <c r="X555"/>
-      <c r="Y555"/>
-      <c r="Z555"/>
-    </row>
-    <row r="556" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U556"/>
-      <c r="V556"/>
-      <c r="W556"/>
-      <c r="X556"/>
-      <c r="Y556"/>
-      <c r="Z556"/>
-    </row>
-    <row r="557" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U557"/>
-      <c r="V557"/>
-      <c r="W557"/>
-      <c r="X557"/>
-      <c r="Y557"/>
-      <c r="Z557"/>
-    </row>
-    <row r="558" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U558"/>
-      <c r="V558"/>
-      <c r="W558"/>
-      <c r="X558"/>
-      <c r="Y558"/>
-      <c r="Z558"/>
-    </row>
-    <row r="559" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U559"/>
-      <c r="V559"/>
-      <c r="W559"/>
-      <c r="X559"/>
-      <c r="Y559"/>
-      <c r="Z559"/>
-    </row>
-    <row r="560" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U560"/>
-      <c r="V560"/>
-      <c r="W560"/>
-      <c r="X560"/>
-      <c r="Y560"/>
-      <c r="Z560"/>
-    </row>
-    <row r="561" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U561"/>
-      <c r="V561"/>
-      <c r="W561"/>
-      <c r="X561"/>
-      <c r="Y561"/>
-      <c r="Z561"/>
-    </row>
-    <row r="562" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U562"/>
-      <c r="V562"/>
-      <c r="W562"/>
-      <c r="X562"/>
-      <c r="Y562"/>
-      <c r="Z562"/>
-    </row>
-    <row r="563" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U563"/>
-      <c r="V563"/>
-      <c r="W563"/>
-      <c r="X563"/>
-      <c r="Y563"/>
-      <c r="Z563"/>
-    </row>
-    <row r="564" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U564"/>
-      <c r="V564"/>
-      <c r="W564"/>
-      <c r="X564"/>
-      <c r="Y564"/>
-      <c r="Z564"/>
-    </row>
-    <row r="565" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U565"/>
-      <c r="V565"/>
-      <c r="W565"/>
-      <c r="X565"/>
-      <c r="Y565"/>
-      <c r="Z565"/>
-    </row>
-    <row r="566" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U566"/>
-      <c r="V566"/>
-      <c r="W566"/>
-      <c r="X566"/>
-      <c r="Y566"/>
-      <c r="Z566"/>
-    </row>
-    <row r="567" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U567"/>
-      <c r="V567"/>
-      <c r="W567"/>
-      <c r="X567"/>
-      <c r="Y567"/>
-      <c r="Z567"/>
-    </row>
-    <row r="568" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U568"/>
-      <c r="V568"/>
-      <c r="W568"/>
-      <c r="X568"/>
-      <c r="Y568"/>
-      <c r="Z568"/>
-    </row>
-    <row r="569" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U569"/>
-      <c r="V569"/>
-      <c r="W569"/>
-      <c r="X569"/>
-      <c r="Y569"/>
-      <c r="Z569"/>
-    </row>
-    <row r="570" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U570"/>
-      <c r="V570"/>
-      <c r="W570"/>
-      <c r="X570"/>
-      <c r="Y570"/>
-      <c r="Z570"/>
-    </row>
-    <row r="571" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U571"/>
-      <c r="V571"/>
-      <c r="W571"/>
-      <c r="X571"/>
-      <c r="Y571"/>
-      <c r="Z571"/>
-    </row>
-    <row r="572" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U572"/>
-      <c r="V572"/>
-      <c r="W572"/>
-      <c r="X572"/>
-      <c r="Y572"/>
-      <c r="Z572"/>
-    </row>
-    <row r="573" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U573"/>
-      <c r="V573"/>
-      <c r="W573"/>
-      <c r="X573"/>
-      <c r="Y573"/>
-      <c r="Z573"/>
-    </row>
-    <row r="574" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U574"/>
-      <c r="V574"/>
-      <c r="W574"/>
-      <c r="X574"/>
-      <c r="Y574"/>
-      <c r="Z574"/>
-    </row>
-    <row r="575" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U575"/>
-      <c r="V575"/>
-      <c r="W575"/>
-      <c r="X575"/>
-      <c r="Y575"/>
-      <c r="Z575"/>
-    </row>
-    <row r="576" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U576"/>
-      <c r="V576"/>
-      <c r="W576"/>
-      <c r="X576"/>
-      <c r="Y576"/>
-      <c r="Z576"/>
-    </row>
-    <row r="577" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U577"/>
-      <c r="V577"/>
-      <c r="W577"/>
-      <c r="X577"/>
-      <c r="Y577"/>
-      <c r="Z577"/>
-    </row>
-    <row r="578" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U578"/>
-      <c r="V578"/>
-      <c r="W578"/>
-      <c r="X578"/>
-      <c r="Y578"/>
-      <c r="Z578"/>
-    </row>
-    <row r="579" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U579"/>
-      <c r="V579"/>
-      <c r="W579"/>
-      <c r="X579"/>
-      <c r="Y579"/>
-      <c r="Z579"/>
-    </row>
-    <row r="580" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U580"/>
-      <c r="V580"/>
-      <c r="W580"/>
-      <c r="X580"/>
-      <c r="Y580"/>
-      <c r="Z580"/>
-    </row>
-    <row r="581" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U581"/>
-      <c r="V581"/>
-      <c r="W581"/>
-      <c r="X581"/>
-      <c r="Y581"/>
-      <c r="Z581"/>
-    </row>
-    <row r="582" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U582"/>
-      <c r="V582"/>
-      <c r="W582"/>
-      <c r="X582"/>
-      <c r="Y582"/>
-      <c r="Z582"/>
-    </row>
-    <row r="583" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U583"/>
-      <c r="V583"/>
-      <c r="W583"/>
-      <c r="X583"/>
-      <c r="Y583"/>
-      <c r="Z583"/>
-    </row>
-    <row r="584" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U584"/>
-      <c r="V584"/>
-      <c r="W584"/>
-      <c r="X584"/>
-      <c r="Y584"/>
-      <c r="Z584"/>
-    </row>
-    <row r="585" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U585"/>
-      <c r="V585"/>
-      <c r="W585"/>
-      <c r="X585"/>
-      <c r="Y585"/>
-      <c r="Z585"/>
-    </row>
-    <row r="586" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U586"/>
-      <c r="V586"/>
-      <c r="W586"/>
-      <c r="X586"/>
-      <c r="Y586"/>
-      <c r="Z586"/>
-    </row>
-    <row r="587" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U587"/>
-      <c r="V587"/>
-      <c r="W587"/>
-      <c r="X587"/>
-      <c r="Y587"/>
-      <c r="Z587"/>
-    </row>
-    <row r="588" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U588"/>
-      <c r="V588"/>
-      <c r="W588"/>
-      <c r="X588"/>
-      <c r="Y588"/>
-      <c r="Z588"/>
-    </row>
-    <row r="589" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U589"/>
-      <c r="V589"/>
-      <c r="W589"/>
-      <c r="X589"/>
-      <c r="Y589"/>
-      <c r="Z589"/>
-    </row>
-    <row r="590" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U590"/>
-      <c r="V590"/>
-      <c r="W590"/>
-      <c r="X590"/>
-      <c r="Y590"/>
-      <c r="Z590"/>
-    </row>
-    <row r="591" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U591"/>
-      <c r="V591"/>
-      <c r="W591"/>
-      <c r="X591"/>
-      <c r="Y591"/>
-      <c r="Z591"/>
-    </row>
-    <row r="592" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U592"/>
-      <c r="V592"/>
-      <c r="W592"/>
-      <c r="X592"/>
-      <c r="Y592"/>
-      <c r="Z592"/>
-    </row>
-    <row r="593" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U593"/>
-      <c r="V593"/>
-      <c r="W593"/>
-      <c r="X593"/>
-      <c r="Y593"/>
-      <c r="Z593"/>
-    </row>
-    <row r="594" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U594"/>
-      <c r="V594"/>
-      <c r="W594"/>
-      <c r="X594"/>
-      <c r="Y594"/>
-      <c r="Z594"/>
-    </row>
-    <row r="595" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U595"/>
-      <c r="V595"/>
-      <c r="W595"/>
-      <c r="X595"/>
-      <c r="Y595"/>
-      <c r="Z595"/>
-    </row>
-    <row r="596" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U596"/>
-      <c r="V596"/>
-      <c r="W596"/>
-      <c r="X596"/>
-      <c r="Y596"/>
-      <c r="Z596"/>
-    </row>
-    <row r="597" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U597"/>
-      <c r="V597"/>
-      <c r="W597"/>
-      <c r="X597"/>
-      <c r="Y597"/>
-      <c r="Z597"/>
-    </row>
-    <row r="598" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U598"/>
-      <c r="V598"/>
-      <c r="W598"/>
-      <c r="X598"/>
-      <c r="Y598"/>
-      <c r="Z598"/>
-    </row>
-    <row r="599" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U599"/>
-      <c r="V599"/>
-      <c r="W599"/>
-      <c r="X599"/>
-      <c r="Y599"/>
-      <c r="Z599"/>
-    </row>
-    <row r="600" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U600"/>
-      <c r="V600"/>
-      <c r="W600"/>
-      <c r="X600"/>
-      <c r="Y600"/>
-      <c r="Z600"/>
-    </row>
-    <row r="601" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U601"/>
-      <c r="V601"/>
-      <c r="W601"/>
-      <c r="X601"/>
-      <c r="Y601"/>
-      <c r="Z601"/>
-    </row>
-    <row r="602" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U602"/>
-      <c r="V602"/>
-      <c r="W602"/>
-      <c r="X602"/>
-      <c r="Y602"/>
-      <c r="Z602"/>
-    </row>
-    <row r="603" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U603"/>
-      <c r="V603"/>
-      <c r="W603"/>
-      <c r="X603"/>
-      <c r="Y603"/>
-      <c r="Z603"/>
-    </row>
-    <row r="604" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U604"/>
-      <c r="V604"/>
-      <c r="W604"/>
-      <c r="X604"/>
-      <c r="Y604"/>
-      <c r="Z604"/>
-    </row>
-    <row r="605" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U605"/>
-      <c r="V605"/>
-      <c r="W605"/>
-      <c r="X605"/>
-      <c r="Y605"/>
-      <c r="Z605"/>
-    </row>
-    <row r="606" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U606"/>
-      <c r="V606"/>
-      <c r="W606"/>
-      <c r="X606"/>
-      <c r="Y606"/>
-      <c r="Z606"/>
-    </row>
-    <row r="607" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U607"/>
-      <c r="V607"/>
-      <c r="W607"/>
-      <c r="X607"/>
-      <c r="Y607"/>
-      <c r="Z607"/>
-    </row>
-    <row r="608" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U608"/>
-      <c r="V608"/>
-      <c r="W608"/>
-      <c r="X608"/>
-      <c r="Y608"/>
-      <c r="Z608"/>
-    </row>
-    <row r="609" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U609"/>
-      <c r="V609"/>
-      <c r="W609"/>
-      <c r="X609"/>
-      <c r="Y609"/>
-      <c r="Z609"/>
-    </row>
-    <row r="610" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U610"/>
-      <c r="V610"/>
-      <c r="W610"/>
-      <c r="X610"/>
-      <c r="Y610"/>
-      <c r="Z610"/>
-    </row>
-    <row r="611" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U611"/>
-      <c r="V611"/>
-      <c r="W611"/>
-      <c r="X611"/>
-      <c r="Y611"/>
-      <c r="Z611"/>
-    </row>
-    <row r="612" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U612"/>
-      <c r="V612"/>
-      <c r="W612"/>
-      <c r="X612"/>
-      <c r="Y612"/>
-      <c r="Z612"/>
-    </row>
-    <row r="613" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U613"/>
-      <c r="V613"/>
-      <c r="W613"/>
-      <c r="X613"/>
-      <c r="Y613"/>
-      <c r="Z613"/>
-    </row>
-    <row r="614" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U614"/>
-      <c r="V614"/>
-      <c r="W614"/>
-      <c r="X614"/>
-      <c r="Y614"/>
-      <c r="Z614"/>
-    </row>
-    <row r="615" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U615"/>
-      <c r="V615"/>
-      <c r="W615"/>
-      <c r="X615"/>
-      <c r="Y615"/>
-      <c r="Z615"/>
-    </row>
-    <row r="616" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U616"/>
-      <c r="V616"/>
-      <c r="W616"/>
-      <c r="X616"/>
-      <c r="Y616"/>
-      <c r="Z616"/>
-    </row>
-    <row r="617" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U617"/>
-      <c r="V617"/>
-      <c r="W617"/>
-      <c r="X617"/>
-      <c r="Y617"/>
-      <c r="Z617"/>
-    </row>
-    <row r="618" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U618"/>
-      <c r="V618"/>
-      <c r="W618"/>
-      <c r="X618"/>
-      <c r="Y618"/>
-      <c r="Z618"/>
-    </row>
-    <row r="619" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U619"/>
-      <c r="V619"/>
-      <c r="W619"/>
-      <c r="X619"/>
-      <c r="Y619"/>
-      <c r="Z619"/>
-    </row>
-    <row r="620" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U620"/>
-      <c r="V620"/>
-      <c r="W620"/>
-      <c r="X620"/>
-      <c r="Y620"/>
-      <c r="Z620"/>
-    </row>
-    <row r="621" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U621"/>
-      <c r="V621"/>
-      <c r="W621"/>
-      <c r="X621"/>
-      <c r="Y621"/>
-      <c r="Z621"/>
-    </row>
-    <row r="622" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U622"/>
-      <c r="V622"/>
-      <c r="W622"/>
-      <c r="X622"/>
-      <c r="Y622"/>
-      <c r="Z622"/>
-    </row>
-    <row r="623" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U623"/>
-      <c r="V623"/>
-      <c r="W623"/>
-      <c r="X623"/>
-      <c r="Y623"/>
-      <c r="Z623"/>
-    </row>
-    <row r="624" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U624"/>
-      <c r="V624"/>
-      <c r="W624"/>
-      <c r="X624"/>
-      <c r="Y624"/>
-      <c r="Z624"/>
-    </row>
-    <row r="625" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U625"/>
-      <c r="V625"/>
-      <c r="W625"/>
-      <c r="X625"/>
-      <c r="Y625"/>
-      <c r="Z625"/>
-    </row>
-    <row r="626" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U626"/>
-      <c r="V626"/>
-      <c r="W626"/>
-      <c r="X626"/>
-      <c r="Y626"/>
-      <c r="Z626"/>
-    </row>
-    <row r="627" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U627"/>
-      <c r="V627"/>
-      <c r="W627"/>
-      <c r="X627"/>
-      <c r="Y627"/>
-      <c r="Z627"/>
-    </row>
-    <row r="628" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U628"/>
-      <c r="V628"/>
-      <c r="W628"/>
-      <c r="X628"/>
-      <c r="Y628"/>
-      <c r="Z628"/>
-    </row>
-    <row r="629" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U629"/>
-      <c r="V629"/>
-      <c r="W629"/>
-      <c r="X629"/>
-      <c r="Y629"/>
-      <c r="Z629"/>
-    </row>
-    <row r="630" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U630"/>
-      <c r="V630"/>
-      <c r="W630"/>
-      <c r="X630"/>
-      <c r="Y630"/>
-      <c r="Z630"/>
-    </row>
-    <row r="631" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U631"/>
-      <c r="V631"/>
-      <c r="W631"/>
-      <c r="X631"/>
-      <c r="Y631"/>
-      <c r="Z631"/>
-    </row>
-    <row r="632" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U632"/>
-      <c r="V632"/>
-      <c r="W632"/>
-      <c r="X632"/>
-      <c r="Y632"/>
-      <c r="Z632"/>
-    </row>
-    <row r="633" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U633"/>
-      <c r="V633"/>
-      <c r="W633"/>
-      <c r="X633"/>
-      <c r="Y633"/>
-      <c r="Z633"/>
-    </row>
-    <row r="634" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U634"/>
-      <c r="V634"/>
-      <c r="W634"/>
-      <c r="X634"/>
-      <c r="Y634"/>
-      <c r="Z634"/>
-    </row>
-    <row r="635" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U635"/>
-      <c r="V635"/>
-      <c r="W635"/>
-      <c r="X635"/>
-      <c r="Y635"/>
-      <c r="Z635"/>
-    </row>
-    <row r="636" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U636"/>
-      <c r="V636"/>
-      <c r="W636"/>
-      <c r="X636"/>
-      <c r="Y636"/>
-      <c r="Z636"/>
-    </row>
-    <row r="637" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U637"/>
-      <c r="V637"/>
-      <c r="W637"/>
-      <c r="X637"/>
-      <c r="Y637"/>
-      <c r="Z637"/>
-    </row>
-    <row r="638" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U638"/>
-      <c r="V638"/>
-      <c r="W638"/>
-      <c r="X638"/>
-      <c r="Y638"/>
-      <c r="Z638"/>
-    </row>
-    <row r="639" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U639"/>
-      <c r="V639"/>
-      <c r="W639"/>
-      <c r="X639"/>
-      <c r="Y639"/>
-      <c r="Z639"/>
-    </row>
-    <row r="640" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U640"/>
-      <c r="V640"/>
-      <c r="W640"/>
-      <c r="X640"/>
-      <c r="Y640"/>
-      <c r="Z640"/>
-    </row>
-    <row r="641" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U641"/>
-      <c r="V641"/>
-      <c r="W641"/>
-      <c r="X641"/>
-      <c r="Y641"/>
-      <c r="Z641"/>
-    </row>
-    <row r="642" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U642"/>
-      <c r="V642"/>
-      <c r="W642"/>
-      <c r="X642"/>
-      <c r="Y642"/>
-      <c r="Z642"/>
-    </row>
-    <row r="643" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U643"/>
-      <c r="V643"/>
-      <c r="W643"/>
-      <c r="X643"/>
-      <c r="Y643"/>
-      <c r="Z643"/>
-    </row>
-    <row r="644" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U644"/>
-      <c r="V644"/>
-      <c r="W644"/>
-      <c r="X644"/>
-      <c r="Y644"/>
-      <c r="Z644"/>
-    </row>
-    <row r="645" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U645"/>
-      <c r="V645"/>
-      <c r="W645"/>
-      <c r="X645"/>
-      <c r="Y645"/>
-      <c r="Z645"/>
-    </row>
-    <row r="646" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U646"/>
-      <c r="V646"/>
-      <c r="W646"/>
-      <c r="X646"/>
-      <c r="Y646"/>
-      <c r="Z646"/>
-    </row>
-    <row r="647" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U647"/>
-      <c r="V647"/>
-      <c r="W647"/>
-      <c r="X647"/>
-      <c r="Y647"/>
-      <c r="Z647"/>
-    </row>
-    <row r="648" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U648"/>
-      <c r="V648"/>
-      <c r="W648"/>
-      <c r="X648"/>
-      <c r="Y648"/>
-      <c r="Z648"/>
-    </row>
-    <row r="649" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U649"/>
-      <c r="V649"/>
-      <c r="W649"/>
-      <c r="X649"/>
-      <c r="Y649"/>
-      <c r="Z649"/>
-    </row>
-    <row r="650" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U650"/>
-      <c r="V650"/>
-      <c r="W650"/>
-      <c r="X650"/>
-      <c r="Y650"/>
-      <c r="Z650"/>
-    </row>
-    <row r="651" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U651"/>
-      <c r="V651"/>
-      <c r="W651"/>
-      <c r="X651"/>
-      <c r="Y651"/>
-      <c r="Z651"/>
-    </row>
-    <row r="652" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U652"/>
-      <c r="V652"/>
-      <c r="W652"/>
-      <c r="X652"/>
-      <c r="Y652"/>
-      <c r="Z652"/>
-    </row>
-    <row r="653" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U653"/>
-      <c r="V653"/>
-      <c r="W653"/>
-      <c r="X653"/>
-      <c r="Y653"/>
-      <c r="Z653"/>
-    </row>
-    <row r="654" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U654"/>
-      <c r="V654"/>
-      <c r="W654"/>
-      <c r="X654"/>
-      <c r="Y654"/>
-      <c r="Z654"/>
-    </row>
-    <row r="655" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U655"/>
-      <c r="V655"/>
-      <c r="W655"/>
-      <c r="X655"/>
-      <c r="Y655"/>
-      <c r="Z655"/>
-    </row>
-    <row r="656" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U656"/>
-      <c r="V656"/>
-      <c r="W656"/>
-      <c r="X656"/>
-      <c r="Y656"/>
-      <c r="Z656"/>
-    </row>
-    <row r="657" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U657"/>
-      <c r="V657"/>
-      <c r="W657"/>
-      <c r="X657"/>
-      <c r="Y657"/>
-      <c r="Z657"/>
-    </row>
-    <row r="658" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U658"/>
-      <c r="V658"/>
-      <c r="W658"/>
-      <c r="X658"/>
-      <c r="Y658"/>
-      <c r="Z658"/>
-    </row>
-    <row r="659" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U659"/>
-      <c r="V659"/>
-      <c r="W659"/>
-      <c r="X659"/>
-      <c r="Y659"/>
-      <c r="Z659"/>
-    </row>
-    <row r="660" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U660"/>
-      <c r="V660"/>
-      <c r="W660"/>
-      <c r="X660"/>
-      <c r="Y660"/>
-      <c r="Z660"/>
-    </row>
-    <row r="661" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U661"/>
-      <c r="V661"/>
-      <c r="W661"/>
-      <c r="X661"/>
-      <c r="Y661"/>
-      <c r="Z661"/>
-    </row>
-    <row r="662" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U662"/>
-      <c r="V662"/>
-      <c r="W662"/>
-      <c r="X662"/>
-      <c r="Y662"/>
-      <c r="Z662"/>
-    </row>
-    <row r="663" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U663"/>
-      <c r="V663"/>
-      <c r="W663"/>
-      <c r="X663"/>
-      <c r="Y663"/>
-      <c r="Z663"/>
-    </row>
-    <row r="664" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U664"/>
-      <c r="V664"/>
-      <c r="W664"/>
-      <c r="X664"/>
-      <c r="Y664"/>
-      <c r="Z664"/>
-    </row>
-    <row r="665" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U665"/>
-      <c r="V665"/>
-      <c r="W665"/>
-      <c r="X665"/>
-      <c r="Y665"/>
-      <c r="Z665"/>
-    </row>
-    <row r="666" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U666"/>
-      <c r="V666"/>
-      <c r="W666"/>
-      <c r="X666"/>
-      <c r="Y666"/>
-      <c r="Z666"/>
-    </row>
-    <row r="667" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U667"/>
-      <c r="V667"/>
-      <c r="W667"/>
-      <c r="X667"/>
-      <c r="Y667"/>
-      <c r="Z667"/>
-    </row>
-    <row r="668" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U668"/>
-      <c r="V668"/>
-      <c r="W668"/>
-      <c r="X668"/>
-      <c r="Y668"/>
-      <c r="Z668"/>
-    </row>
-    <row r="669" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U669"/>
-      <c r="V669"/>
-      <c r="W669"/>
-      <c r="X669"/>
-      <c r="Y669"/>
-      <c r="Z669"/>
-    </row>
-    <row r="670" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U670"/>
-      <c r="V670"/>
-      <c r="W670"/>
-      <c r="X670"/>
-      <c r="Y670"/>
-      <c r="Z670"/>
-    </row>
-    <row r="671" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U671"/>
-      <c r="V671"/>
-      <c r="W671"/>
-      <c r="X671"/>
-      <c r="Y671"/>
-      <c r="Z671"/>
-    </row>
-    <row r="672" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U672"/>
-      <c r="V672"/>
-      <c r="W672"/>
-      <c r="X672"/>
-      <c r="Y672"/>
-      <c r="Z672"/>
-    </row>
-    <row r="673" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U673"/>
-      <c r="V673"/>
-      <c r="W673"/>
-      <c r="X673"/>
-      <c r="Y673"/>
-      <c r="Z673"/>
-    </row>
-    <row r="674" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U674"/>
-      <c r="V674"/>
-      <c r="W674"/>
-      <c r="X674"/>
-      <c r="Y674"/>
-      <c r="Z674"/>
-    </row>
-    <row r="675" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U675"/>
-      <c r="V675"/>
-      <c r="W675"/>
-      <c r="X675"/>
-      <c r="Y675"/>
-      <c r="Z675"/>
-    </row>
-    <row r="676" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U676"/>
-      <c r="V676"/>
-      <c r="W676"/>
-      <c r="X676"/>
-      <c r="Y676"/>
-      <c r="Z676"/>
-    </row>
-    <row r="677" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U677"/>
-      <c r="V677"/>
-      <c r="W677"/>
-      <c r="X677"/>
-      <c r="Y677"/>
-      <c r="Z677"/>
-    </row>
-    <row r="678" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U678"/>
-      <c r="V678"/>
-      <c r="W678"/>
-      <c r="X678"/>
-      <c r="Y678"/>
-      <c r="Z678"/>
-    </row>
-    <row r="679" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U679"/>
-      <c r="V679"/>
-      <c r="W679"/>
-      <c r="X679"/>
-      <c r="Y679"/>
-      <c r="Z679"/>
-    </row>
-    <row r="680" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U680"/>
-      <c r="V680"/>
-      <c r="W680"/>
-      <c r="X680"/>
-      <c r="Y680"/>
-      <c r="Z680"/>
-    </row>
-    <row r="681" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U681"/>
-      <c r="V681"/>
-      <c r="W681"/>
-      <c r="X681"/>
-      <c r="Y681"/>
-      <c r="Z681"/>
-    </row>
-    <row r="682" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U682"/>
-      <c r="V682"/>
-      <c r="W682"/>
-      <c r="X682"/>
-      <c r="Y682"/>
-      <c r="Z682"/>
-    </row>
-    <row r="683" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U683"/>
-      <c r="V683"/>
-      <c r="W683"/>
-      <c r="X683"/>
-      <c r="Y683"/>
-      <c r="Z683"/>
-    </row>
-    <row r="684" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U684"/>
-      <c r="V684"/>
-      <c r="W684"/>
-      <c r="X684"/>
-      <c r="Y684"/>
-      <c r="Z684"/>
-    </row>
-    <row r="685" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U685"/>
-      <c r="V685"/>
-      <c r="W685"/>
-      <c r="X685"/>
-      <c r="Y685"/>
-      <c r="Z685"/>
-    </row>
-    <row r="686" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U686"/>
-      <c r="V686"/>
-      <c r="W686"/>
-      <c r="X686"/>
-      <c r="Y686"/>
-      <c r="Z686"/>
-    </row>
-    <row r="687" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U687"/>
-      <c r="V687"/>
-      <c r="W687"/>
-      <c r="X687"/>
-      <c r="Y687"/>
-      <c r="Z687"/>
-    </row>
-    <row r="688" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U688"/>
-      <c r="V688"/>
-      <c r="W688"/>
-      <c r="X688"/>
-      <c r="Y688"/>
-      <c r="Z688"/>
-    </row>
-    <row r="689" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U689"/>
-      <c r="V689"/>
-      <c r="W689"/>
-      <c r="X689"/>
-      <c r="Y689"/>
-      <c r="Z689"/>
-    </row>
-    <row r="690" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U690"/>
-      <c r="V690"/>
-      <c r="W690"/>
-      <c r="X690"/>
-      <c r="Y690"/>
-      <c r="Z690"/>
-    </row>
-    <row r="691" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U691"/>
-      <c r="V691"/>
-      <c r="W691"/>
-      <c r="X691"/>
-      <c r="Y691"/>
-      <c r="Z691"/>
-    </row>
-    <row r="692" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U692"/>
-      <c r="V692"/>
-      <c r="W692"/>
-      <c r="X692"/>
-      <c r="Y692"/>
-      <c r="Z692"/>
-    </row>
-    <row r="693" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U693"/>
-      <c r="V693"/>
-      <c r="W693"/>
-      <c r="X693"/>
-      <c r="Y693"/>
-      <c r="Z693"/>
-    </row>
-    <row r="694" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U694"/>
-      <c r="V694"/>
-      <c r="W694"/>
-      <c r="X694"/>
-      <c r="Y694"/>
-      <c r="Z694"/>
-    </row>
-    <row r="695" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U695"/>
-      <c r="V695"/>
-      <c r="W695"/>
-      <c r="X695"/>
-      <c r="Y695"/>
-      <c r="Z695"/>
-    </row>
-    <row r="696" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U696"/>
-      <c r="V696"/>
-      <c r="W696"/>
-      <c r="X696"/>
-      <c r="Y696"/>
-      <c r="Z696"/>
-    </row>
-    <row r="697" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U697"/>
-      <c r="V697"/>
-      <c r="W697"/>
-      <c r="X697"/>
-      <c r="Y697"/>
-      <c r="Z697"/>
-    </row>
-    <row r="698" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U698"/>
-      <c r="V698"/>
-      <c r="W698"/>
-      <c r="X698"/>
-      <c r="Y698"/>
-      <c r="Z698"/>
-    </row>
-    <row r="699" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U699"/>
-      <c r="V699"/>
-      <c r="W699"/>
-      <c r="X699"/>
-      <c r="Y699"/>
-      <c r="Z699"/>
-    </row>
-    <row r="700" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U700"/>
-      <c r="V700"/>
-      <c r="W700"/>
-      <c r="X700"/>
-      <c r="Y700"/>
-      <c r="Z700"/>
-    </row>
-    <row r="701" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U701"/>
-      <c r="V701"/>
-      <c r="W701"/>
-      <c r="X701"/>
-      <c r="Y701"/>
-      <c r="Z701"/>
-    </row>
-    <row r="702" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U702"/>
-      <c r="V702"/>
-      <c r="W702"/>
-      <c r="X702"/>
-      <c r="Y702"/>
-      <c r="Z702"/>
-    </row>
-    <row r="703" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U703"/>
-      <c r="V703"/>
-      <c r="W703"/>
-      <c r="X703"/>
-      <c r="Y703"/>
-      <c r="Z703"/>
-    </row>
-    <row r="704" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U704"/>
-      <c r="V704"/>
-      <c r="W704"/>
-      <c r="X704"/>
-      <c r="Y704"/>
-      <c r="Z704"/>
-    </row>
-    <row r="705" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U705"/>
-      <c r="V705"/>
-      <c r="W705"/>
-      <c r="X705"/>
-      <c r="Y705"/>
-      <c r="Z705"/>
-    </row>
-    <row r="706" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U706"/>
-      <c r="V706"/>
-      <c r="W706"/>
-      <c r="X706"/>
-      <c r="Y706"/>
-      <c r="Z706"/>
-    </row>
-    <row r="707" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U707"/>
-      <c r="V707"/>
-      <c r="W707"/>
-      <c r="X707"/>
-      <c r="Y707"/>
-      <c r="Z707"/>
-    </row>
-    <row r="708" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U708"/>
-      <c r="V708"/>
-      <c r="W708"/>
-      <c r="X708"/>
-      <c r="Y708"/>
-      <c r="Z708"/>
-    </row>
-    <row r="709" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U709"/>
-      <c r="V709"/>
-      <c r="W709"/>
-      <c r="X709"/>
-      <c r="Y709"/>
-      <c r="Z709"/>
-    </row>
-    <row r="710" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U710"/>
-      <c r="V710"/>
-      <c r="W710"/>
-      <c r="X710"/>
-      <c r="Y710"/>
-      <c r="Z710"/>
-    </row>
-    <row r="711" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U711"/>
-      <c r="V711"/>
-      <c r="W711"/>
-      <c r="X711"/>
-      <c r="Y711"/>
-      <c r="Z711"/>
-    </row>
-    <row r="712" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U712"/>
-      <c r="V712"/>
-      <c r="W712"/>
-      <c r="X712"/>
-      <c r="Y712"/>
-      <c r="Z712"/>
-    </row>
-    <row r="713" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U713"/>
-      <c r="V713"/>
-      <c r="W713"/>
-      <c r="X713"/>
-      <c r="Y713"/>
-      <c r="Z713"/>
-    </row>
-    <row r="714" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U714"/>
-      <c r="V714"/>
-      <c r="W714"/>
-      <c r="X714"/>
-      <c r="Y714"/>
-      <c r="Z714"/>
-    </row>
-    <row r="715" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U715"/>
-      <c r="V715"/>
-      <c r="W715"/>
-      <c r="X715"/>
-      <c r="Y715"/>
-      <c r="Z715"/>
-    </row>
-    <row r="716" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U716"/>
-      <c r="V716"/>
-      <c r="W716"/>
-      <c r="X716"/>
-      <c r="Y716"/>
-      <c r="Z716"/>
-    </row>
-    <row r="717" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U717"/>
-      <c r="V717"/>
-      <c r="W717"/>
-      <c r="X717"/>
-      <c r="Y717"/>
-      <c r="Z717"/>
-    </row>
-    <row r="718" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U718"/>
-      <c r="V718"/>
-      <c r="W718"/>
-      <c r="X718"/>
-      <c r="Y718"/>
-      <c r="Z718"/>
-    </row>
-    <row r="719" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U719"/>
-      <c r="V719"/>
-      <c r="W719"/>
-      <c r="X719"/>
-      <c r="Y719"/>
-      <c r="Z719"/>
-    </row>
-    <row r="720" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U720"/>
-      <c r="V720"/>
-      <c r="W720"/>
-      <c r="X720"/>
-      <c r="Y720"/>
-      <c r="Z720"/>
-    </row>
-    <row r="721" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U721"/>
-      <c r="V721"/>
-      <c r="W721"/>
-      <c r="X721"/>
-      <c r="Y721"/>
-      <c r="Z721"/>
-    </row>
-    <row r="722" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U722"/>
-      <c r="V722"/>
-      <c r="W722"/>
-      <c r="X722"/>
-      <c r="Y722"/>
-      <c r="Z722"/>
-    </row>
-    <row r="723" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U723"/>
-      <c r="V723"/>
-      <c r="W723"/>
-      <c r="X723"/>
-      <c r="Y723"/>
-      <c r="Z723"/>
-    </row>
-    <row r="724" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U724"/>
-      <c r="V724"/>
-      <c r="W724"/>
-      <c r="X724"/>
-      <c r="Y724"/>
-      <c r="Z724"/>
-    </row>
-    <row r="725" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U725"/>
-      <c r="V725"/>
-      <c r="W725"/>
-      <c r="X725"/>
-      <c r="Y725"/>
-      <c r="Z725"/>
-    </row>
-    <row r="726" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U726"/>
-      <c r="V726"/>
-      <c r="W726"/>
-      <c r="X726"/>
-      <c r="Y726"/>
-      <c r="Z726"/>
-    </row>
-    <row r="727" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U727"/>
-      <c r="V727"/>
-      <c r="W727"/>
-      <c r="X727"/>
-      <c r="Y727"/>
-      <c r="Z727"/>
-    </row>
-    <row r="728" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U728"/>
-      <c r="V728"/>
-      <c r="W728"/>
-      <c r="X728"/>
-      <c r="Y728"/>
-      <c r="Z728"/>
-    </row>
-    <row r="729" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U729"/>
-      <c r="V729"/>
-      <c r="W729"/>
-      <c r="X729"/>
-      <c r="Y729"/>
-      <c r="Z729"/>
-    </row>
-    <row r="730" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U730"/>
-      <c r="V730"/>
-      <c r="W730"/>
-      <c r="X730"/>
-      <c r="Y730"/>
-      <c r="Z730"/>
-    </row>
-    <row r="731" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U731"/>
-      <c r="V731"/>
-      <c r="W731"/>
-      <c r="X731"/>
-      <c r="Y731"/>
-      <c r="Z731"/>
-    </row>
-    <row r="732" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U732"/>
-      <c r="V732"/>
-      <c r="W732"/>
-      <c r="X732"/>
-      <c r="Y732"/>
-      <c r="Z732"/>
-    </row>
-    <row r="733" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U733"/>
-      <c r="V733"/>
-      <c r="W733"/>
-      <c r="X733"/>
-      <c r="Y733"/>
-      <c r="Z733"/>
-    </row>
-    <row r="734" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U734"/>
-      <c r="V734"/>
-      <c r="W734"/>
-      <c r="X734"/>
-      <c r="Y734"/>
-      <c r="Z734"/>
-    </row>
-    <row r="735" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U735"/>
-      <c r="V735"/>
-      <c r="W735"/>
-      <c r="X735"/>
-      <c r="Y735"/>
-      <c r="Z735"/>
-    </row>
-    <row r="736" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U736"/>
-      <c r="V736"/>
-      <c r="W736"/>
-      <c r="X736"/>
-      <c r="Y736"/>
-      <c r="Z736"/>
-    </row>
-    <row r="737" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U737"/>
-      <c r="V737"/>
-      <c r="W737"/>
-      <c r="X737"/>
-      <c r="Y737"/>
-      <c r="Z737"/>
-    </row>
-    <row r="738" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U738"/>
-      <c r="V738"/>
-      <c r="W738"/>
-      <c r="X738"/>
-      <c r="Y738"/>
-      <c r="Z738"/>
-    </row>
-    <row r="739" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U739"/>
-      <c r="V739"/>
-      <c r="W739"/>
-      <c r="X739"/>
-      <c r="Y739"/>
-      <c r="Z739"/>
-    </row>
-    <row r="740" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U740"/>
-      <c r="V740"/>
-      <c r="W740"/>
-      <c r="X740"/>
-      <c r="Y740"/>
-      <c r="Z740"/>
-    </row>
-    <row r="741" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U741"/>
-      <c r="V741"/>
-      <c r="W741"/>
-      <c r="X741"/>
-      <c r="Y741"/>
-      <c r="Z741"/>
-    </row>
-    <row r="742" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U742"/>
-      <c r="V742"/>
-      <c r="W742"/>
-      <c r="X742"/>
-      <c r="Y742"/>
-      <c r="Z742"/>
-    </row>
-    <row r="743" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U743"/>
-      <c r="V743"/>
-      <c r="W743"/>
-      <c r="X743"/>
-      <c r="Y743"/>
-      <c r="Z743"/>
-    </row>
-    <row r="744" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U744"/>
-      <c r="V744"/>
-      <c r="W744"/>
-      <c r="X744"/>
-      <c r="Y744"/>
-      <c r="Z744"/>
-    </row>
-    <row r="745" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U745"/>
-      <c r="V745"/>
-      <c r="W745"/>
-      <c r="X745"/>
-      <c r="Y745"/>
-      <c r="Z745"/>
-    </row>
-    <row r="746" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U746"/>
-      <c r="V746"/>
-      <c r="W746"/>
-      <c r="X746"/>
-      <c r="Y746"/>
-      <c r="Z746"/>
-    </row>
-    <row r="747" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U747"/>
-      <c r="V747"/>
-      <c r="W747"/>
-      <c r="X747"/>
-      <c r="Y747"/>
-      <c r="Z747"/>
-    </row>
-    <row r="748" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U748"/>
-      <c r="V748"/>
-      <c r="W748"/>
-      <c r="X748"/>
-      <c r="Y748"/>
-      <c r="Z748"/>
-    </row>
-    <row r="749" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U749"/>
-      <c r="V749"/>
-      <c r="W749"/>
-      <c r="X749"/>
-      <c r="Y749"/>
-      <c r="Z749"/>
-    </row>
-    <row r="750" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U750"/>
-      <c r="V750"/>
-      <c r="W750"/>
-      <c r="X750"/>
-      <c r="Y750"/>
-      <c r="Z750"/>
-    </row>
-    <row r="751" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U751"/>
-      <c r="V751"/>
-      <c r="W751"/>
-      <c r="X751"/>
-      <c r="Y751"/>
-      <c r="Z751"/>
-    </row>
-    <row r="752" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U752"/>
-      <c r="V752"/>
-      <c r="W752"/>
-      <c r="X752"/>
-      <c r="Y752"/>
-      <c r="Z752"/>
-    </row>
-    <row r="753" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U753"/>
-      <c r="V753"/>
-      <c r="W753"/>
-      <c r="X753"/>
-      <c r="Y753"/>
-      <c r="Z753"/>
-    </row>
-    <row r="754" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U754"/>
-      <c r="V754"/>
-      <c r="W754"/>
-      <c r="X754"/>
-      <c r="Y754"/>
-      <c r="Z754"/>
-    </row>
-    <row r="755" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U755"/>
-      <c r="V755"/>
-      <c r="W755"/>
-      <c r="X755"/>
-      <c r="Y755"/>
-      <c r="Z755"/>
-    </row>
-    <row r="756" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U756"/>
-      <c r="V756"/>
-      <c r="W756"/>
-      <c r="X756"/>
-      <c r="Y756"/>
-      <c r="Z756"/>
-    </row>
-    <row r="757" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U757"/>
-      <c r="V757"/>
-      <c r="W757"/>
-      <c r="X757"/>
-      <c r="Y757"/>
-      <c r="Z757"/>
-    </row>
-    <row r="758" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U758"/>
-      <c r="V758"/>
-      <c r="W758"/>
-      <c r="X758"/>
-      <c r="Y758"/>
-      <c r="Z758"/>
-    </row>
-    <row r="759" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U759"/>
-      <c r="V759"/>
-      <c r="W759"/>
-      <c r="X759"/>
-      <c r="Y759"/>
-      <c r="Z759"/>
-    </row>
-    <row r="760" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U760"/>
-      <c r="V760"/>
-      <c r="W760"/>
-      <c r="X760"/>
-      <c r="Y760"/>
-      <c r="Z760"/>
-    </row>
-    <row r="761" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U761"/>
-      <c r="V761"/>
-      <c r="W761"/>
-      <c r="X761"/>
-      <c r="Y761"/>
-      <c r="Z761"/>
-    </row>
-    <row r="762" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U762"/>
-      <c r="V762"/>
-      <c r="W762"/>
-      <c r="X762"/>
-      <c r="Y762"/>
-      <c r="Z762"/>
-    </row>
-    <row r="763" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U763"/>
-      <c r="V763"/>
-      <c r="W763"/>
-      <c r="X763"/>
-      <c r="Y763"/>
-      <c r="Z763"/>
-    </row>
-    <row r="764" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U764"/>
-      <c r="V764"/>
-      <c r="W764"/>
-      <c r="X764"/>
-      <c r="Y764"/>
-      <c r="Z764"/>
-    </row>
-    <row r="765" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U765"/>
-      <c r="V765"/>
-      <c r="W765"/>
-      <c r="X765"/>
-      <c r="Y765"/>
-      <c r="Z765"/>
-    </row>
-    <row r="766" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U766"/>
-      <c r="V766"/>
-      <c r="W766"/>
-      <c r="X766"/>
-      <c r="Y766"/>
-      <c r="Z766"/>
-    </row>
-    <row r="767" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U767"/>
-      <c r="V767"/>
-      <c r="W767"/>
-      <c r="X767"/>
-      <c r="Y767"/>
-      <c r="Z767"/>
-    </row>
-    <row r="768" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U768"/>
-      <c r="V768"/>
-      <c r="W768"/>
-      <c r="X768"/>
-      <c r="Y768"/>
-      <c r="Z768"/>
-    </row>
-    <row r="769" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U769"/>
-      <c r="V769"/>
-      <c r="W769"/>
-      <c r="X769"/>
-      <c r="Y769"/>
-      <c r="Z769"/>
-    </row>
-    <row r="770" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U770"/>
-      <c r="V770"/>
-      <c r="W770"/>
-      <c r="X770"/>
-      <c r="Y770"/>
-      <c r="Z770"/>
-    </row>
-    <row r="771" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U771"/>
-      <c r="V771"/>
-      <c r="W771"/>
-      <c r="X771"/>
-      <c r="Y771"/>
-      <c r="Z771"/>
-    </row>
-    <row r="772" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U772"/>
-      <c r="V772"/>
-      <c r="W772"/>
-      <c r="X772"/>
-      <c r="Y772"/>
-      <c r="Z772"/>
-    </row>
-    <row r="773" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U773"/>
-      <c r="V773"/>
-      <c r="W773"/>
-      <c r="X773"/>
-      <c r="Y773"/>
-      <c r="Z773"/>
-    </row>
-    <row r="774" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U774"/>
-      <c r="V774"/>
-      <c r="W774"/>
-      <c r="X774"/>
-      <c r="Y774"/>
-      <c r="Z774"/>
-    </row>
-    <row r="775" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U775"/>
-      <c r="V775"/>
-      <c r="W775"/>
-      <c r="X775"/>
-      <c r="Y775"/>
-      <c r="Z775"/>
-    </row>
-    <row r="776" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U776"/>
-      <c r="V776"/>
-      <c r="W776"/>
-      <c r="X776"/>
-      <c r="Y776"/>
-      <c r="Z776"/>
-    </row>
-    <row r="777" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U777"/>
-      <c r="V777"/>
-      <c r="W777"/>
-      <c r="X777"/>
-      <c r="Y777"/>
-      <c r="Z777"/>
-    </row>
-    <row r="778" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U778"/>
-      <c r="V778"/>
-      <c r="W778"/>
-      <c r="X778"/>
-      <c r="Y778"/>
-      <c r="Z778"/>
-    </row>
-    <row r="779" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U779"/>
-      <c r="V779"/>
-      <c r="W779"/>
-      <c r="X779"/>
-      <c r="Y779"/>
-      <c r="Z779"/>
-    </row>
-    <row r="780" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U780"/>
-      <c r="V780"/>
-      <c r="W780"/>
-      <c r="X780"/>
-      <c r="Y780"/>
-      <c r="Z780"/>
-    </row>
-    <row r="781" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U781"/>
-      <c r="V781"/>
-      <c r="W781"/>
-      <c r="X781"/>
-      <c r="Y781"/>
-      <c r="Z781"/>
-    </row>
-    <row r="782" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U782"/>
-      <c r="V782"/>
-      <c r="W782"/>
-      <c r="X782"/>
-      <c r="Y782"/>
-      <c r="Z782"/>
-    </row>
-    <row r="783" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U783"/>
-      <c r="V783"/>
-      <c r="W783"/>
-      <c r="X783"/>
-      <c r="Y783"/>
-      <c r="Z783"/>
-    </row>
-    <row r="784" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U784"/>
-      <c r="V784"/>
-      <c r="W784"/>
-      <c r="X784"/>
-      <c r="Y784"/>
-      <c r="Z784"/>
-    </row>
-    <row r="785" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U785"/>
-      <c r="V785"/>
-      <c r="W785"/>
-      <c r="X785"/>
-      <c r="Y785"/>
-      <c r="Z785"/>
-    </row>
-    <row r="786" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U786"/>
-      <c r="V786"/>
-      <c r="W786"/>
-      <c r="X786"/>
-      <c r="Y786"/>
-      <c r="Z786"/>
-    </row>
-    <row r="787" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U787"/>
-      <c r="V787"/>
-      <c r="W787"/>
-      <c r="X787"/>
-      <c r="Y787"/>
-      <c r="Z787"/>
-    </row>
-    <row r="788" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U788"/>
-      <c r="V788"/>
-      <c r="W788"/>
-      <c r="X788"/>
-      <c r="Y788"/>
-      <c r="Z788"/>
-    </row>
-    <row r="789" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U789"/>
-      <c r="V789"/>
-      <c r="W789"/>
-      <c r="X789"/>
-      <c r="Y789"/>
-      <c r="Z789"/>
-    </row>
-    <row r="790" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U790"/>
-      <c r="V790"/>
-      <c r="W790"/>
-      <c r="X790"/>
-      <c r="Y790"/>
-      <c r="Z790"/>
-    </row>
-    <row r="791" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U791"/>
-      <c r="V791"/>
-      <c r="W791"/>
-      <c r="X791"/>
-      <c r="Y791"/>
-      <c r="Z791"/>
-    </row>
-    <row r="792" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U792"/>
-      <c r="V792"/>
-      <c r="W792"/>
-      <c r="X792"/>
-      <c r="Y792"/>
-      <c r="Z792"/>
-    </row>
-    <row r="793" spans="21:26" x14ac:dyDescent="0.2">
-      <c r="U793"/>
-      <c r="V793"/>
-      <c r="W793"/>
-      <c r="X793"/>
-      <c r="Y793"/>
-      <c r="Z793"/>
-    </row>
+    <row r="369" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="370" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="371" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="372" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="373" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="374" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="375" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="376" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="377" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="378" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="379" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="380" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="381" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="382" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="383" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="384" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="385" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="386" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="387" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="388" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="389" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="390" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="391" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="392" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="393" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="394" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="395" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="396" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="397" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="398" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="399" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="400" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="401" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="402" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="403" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="404" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="405" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="406" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="407" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="408" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="409" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="410" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="411" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="412" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="413" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="414" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="415" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="416" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="417" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="418" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="419" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="420" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="421" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="422" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="423" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="424" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="425" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="426" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="427" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="428" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="429" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="430" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="431" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="432" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="433" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="434" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="435" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="436" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="437" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="438" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="439" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="440" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="441" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="442" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="443" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="444" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="445" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="446" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="447" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="448" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="449" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="450" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="451" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="452" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="453" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="454" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="455" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="456" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="457" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="458" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="459" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="460" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="461" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="462" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="463" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="464" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="465" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="466" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="467" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="468" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="469" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="470" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="471" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="472" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="473" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="474" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="475" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="476" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="477" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="478" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="479" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="480" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="481" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="482" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="483" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="484" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="485" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="486" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="487" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="488" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="489" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="490" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="491" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="492" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="493" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="494" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="495" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="496" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="497" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="498" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="499" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="500" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="501" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="502" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="503" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="504" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="505" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="506" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="507" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="508" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="509" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="510" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="511" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="512" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="513" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="514" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="515" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="516" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="517" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="518" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="519" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="520" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="521" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="522" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="523" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="524" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="525" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="526" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="527" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="528" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="529" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="530" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="531" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="532" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="533" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="534" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="535" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="536" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="537" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="538" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="539" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="540" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="541" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="542" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="543" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="544" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="545" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="546" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="547" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="548" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="549" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="550" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="551" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="552" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="553" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="554" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="555" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="556" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="557" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="558" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="559" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="560" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="561" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="562" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="563" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="564" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="565" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="566" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="567" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="568" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="569" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="570" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="571" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="572" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="573" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="574" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="575" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="576" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="577" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="578" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="579" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="580" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="581" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="582" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="583" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="584" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="585" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="586" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="587" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="588" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="589" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="590" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="591" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="592" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="593" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="594" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="595" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="596" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="597" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="598" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="599" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="600" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="601" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="602" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="603" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="604" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="605" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="606" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="607" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="608" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="609" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="610" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="611" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="612" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="613" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="614" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="615" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="616" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="617" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="618" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="619" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="620" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="621" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="622" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="623" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="624" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="625" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="626" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="627" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="628" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="629" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="630" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="631" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="632" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="633" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="634" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="635" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="636" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="637" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="638" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="639" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="640" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="641" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="642" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="643" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="644" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="645" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="646" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="647" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="648" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="649" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="650" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="651" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="652" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="653" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="654" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="655" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="656" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="657" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="658" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="659" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="660" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="661" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="662" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="663" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="664" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="665" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="666" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="667" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="668" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="669" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="670" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="671" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="672" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="673" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="674" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="675" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="676" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="677" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="678" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="679" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="680" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="681" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="682" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="683" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="684" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="685" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="686" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="687" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="688" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="689" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="690" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="691" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="692" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="693" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="694" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="695" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="696" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="697" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="698" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="699" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="700" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="701" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="702" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="703" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="704" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="705" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="706" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="707" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="708" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="709" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="710" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="711" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="712" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="713" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="714" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="715" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="716" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="717" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="718" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="719" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="720" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="721" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="722" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="723" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="724" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="725" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="726" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="727" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="728" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="729" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="730" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="731" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="732" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="733" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="734" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="735" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="736" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="737" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="738" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="739" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="740" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="741" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="742" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="743" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="744" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="745" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="746" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="747" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="748" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="749" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="750" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="751" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="752" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="753" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="754" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="755" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="756" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="757" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="758" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="759" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="760" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="761" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="762" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="763" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="764" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="765" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="766" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="767" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="768" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="769" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="770" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="771" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="772" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="773" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="774" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="775" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="776" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="777" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="778" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="779" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="780" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="781" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="782" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="783" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="784" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="785" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="786" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="787" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="788" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="789" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="790" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="791" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="792" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="793" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A1:BG126" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24086,16 +21090,16 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
+        <v>740</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>741</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>742</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>743</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>744</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>745</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>746</v>
       </c>
       <c r="E1" s="37" t="s">
         <v>43</v>
@@ -24104,23 +21108,23 @@
         <v>44</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>115</v>
@@ -24142,7 +21146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46DDB8E-6E5D-F74C-AE3D-3A1D519A3D65}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -24150,28 +21154,28 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B1" s="37" t="s">
+        <v>747</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>748</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="F1" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>753</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>756</v>
       </c>
       <c r="I1" s="37" t="s">
         <v>39</v>
@@ -24197,16 +21201,16 @@
       <c r="P1" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="47" t="s">
         <v>191</v>
       </c>
       <c r="R1" s="37" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -24216,7 +21220,7 @@
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="J2" s="10">
         <v>0.6</v>
@@ -24345,7 +21349,7 @@
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
     </row>
-    <row r="2" spans="1:15" ht="119" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="42" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>638</v>
       </c>
@@ -24372,9 +21376,6 @@
       </c>
       <c r="I2" s="20" t="s">
         <v>235</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>730</v>
       </c>
     </row>
   </sheetData>
@@ -24440,7 +21441,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K13"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25071,10 +22072,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25243,15 +22244,6 @@
       <c r="C15" s="31" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="42" t="s">
-        <v>731</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>732</v>
-      </c>
-      <c r="C16" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25515,23 +22507,23 @@
       <c r="A9" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="42" t="s">
+        <v>730</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>731</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>732</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>569</v>
+      </c>
+      <c r="F9" s="43" t="s">
         <v>733</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="G9" s="1" t="s">
         <v>734</v>
-      </c>
-      <c r="D9" s="46" t="s">
-        <v>735</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>569</v>
-      </c>
-      <c r="F9" s="45" t="s">
-        <v>736</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>737</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -26406,20 +23398,20 @@
       </c>
     </row>
     <row r="2" spans="1:59" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="45" t="s">
+        <v>735</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>736</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>737</v>
+      </c>
+      <c r="D2" s="45" t="s">
         <v>738</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="E2" s="46" t="s">
         <v>739</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>740</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>741</v>
-      </c>
-      <c r="E2" s="48" t="s">
-        <v>742</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
